--- a/data/excel/SBT_Hotel.xlsx
+++ b/data/excel/SBT_Hotel.xlsx
@@ -1,25 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation\projectQuadlabs\data\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7702F7F-AA14-4940-A07F-A397CB6576AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54A9F06C-5272-4028-9E52-589DC53B25B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15150" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="3825" yWindow="5460" windowWidth="15375" windowHeight="6975" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Business" sheetId="13" r:id="rId1"/>
-    <sheet name="Dependent" sheetId="5" r:id="rId2"/>
-    <sheet name="Personal" sheetId="6" r:id="rId3"/>
-    <sheet name="Guest" sheetId="11" r:id="rId4"/>
-    <sheet name="SearchWithHotelName" sheetId="2" r:id="rId5"/>
-    <sheet name="BookHotelWithPolicyType" sheetId="3" r:id="rId6"/>
-    <sheet name="AddToCart" sheetId="9" r:id="rId7"/>
+    <sheet name="BusinessSheet1" sheetId="14" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="18" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="17" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="19" r:id="rId5"/>
+    <sheet name="Dependent" sheetId="5" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="16" r:id="rId7"/>
+    <sheet name="Personal" sheetId="6" r:id="rId8"/>
+    <sheet name="Guest" sheetId="11" r:id="rId9"/>
+    <sheet name="GuestSheet1" sheetId="15" r:id="rId10"/>
+    <sheet name="SearchWithHotelName" sheetId="2" r:id="rId11"/>
+    <sheet name="BookHotelWithPolicyType" sheetId="3" r:id="rId12"/>
+    <sheet name="AddToCart" sheetId="9" r:id="rId13"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="154">
   <si>
     <t>Fop</t>
   </si>
@@ -72,9 +78,6 @@
     <t>Fullfillment</t>
   </si>
   <si>
-    <t>Trip Request</t>
-  </si>
-  <si>
     <t>Hotel Book</t>
   </si>
   <si>
@@ -147,9 +150,6 @@
     <t>Hotel Quotation Remarks</t>
   </si>
   <si>
-    <t>Nothing</t>
-  </si>
-  <si>
     <t>URL</t>
   </si>
   <si>
@@ -177,9 +177,6 @@
     <t>Policy Type(Out Of Policy/In Policy)</t>
   </si>
   <si>
-    <t>Out Of Policy</t>
-  </si>
-  <si>
     <t>Room</t>
   </si>
   <si>
@@ -348,18 +345,6 @@
     <t>null</t>
   </si>
   <si>
-    <t>Admin@123</t>
-  </si>
-  <si>
-    <t>July 28, 2022</t>
-  </si>
-  <si>
-    <t>July 29, 2022</t>
-  </si>
-  <si>
-    <t>August 21, 2022</t>
-  </si>
-  <si>
     <t>LevelApprover</t>
   </si>
   <si>
@@ -372,34 +357,148 @@
     <t>laxmi.khanal@quadlabs.com</t>
   </si>
   <si>
-    <t>August 13, 2022</t>
-  </si>
-  <si>
-    <t>August 12, 2022</t>
-  </si>
-  <si>
-    <t>August 15, 2022</t>
-  </si>
-  <si>
-    <t>August 16, 2022</t>
-  </si>
-  <si>
     <t>Dubai,United Arab Emirates - Dubai  (DXB)</t>
   </si>
   <si>
-    <t>August 20, 2022</t>
-  </si>
-  <si>
     <t>PaymentCard</t>
   </si>
   <si>
-    <t>August 23, 2022</t>
-  </si>
-  <si>
-    <t>August 24, 2022</t>
-  </si>
-  <si>
     <t>Xchange@720</t>
+  </si>
+  <si>
+    <t>September 20, 2022</t>
+  </si>
+  <si>
+    <t>September 23, 2022</t>
+  </si>
+  <si>
+    <t>September 28, 2022</t>
+  </si>
+  <si>
+    <t>September 21, 2022</t>
+  </si>
+  <si>
+    <t>September 22, 2022</t>
+  </si>
+  <si>
+    <t>September 29, 2022</t>
+  </si>
+  <si>
+    <t>September 26, 2022</t>
+  </si>
+  <si>
+    <t>In Policy</t>
+  </si>
+  <si>
+    <t>maa</t>
+  </si>
+  <si>
+    <t>Chennai,India - (MAA)</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>TestCaseId</t>
+  </si>
+  <si>
+    <t>Employee</t>
+  </si>
+  <si>
+    <t>TravelArranger</t>
+  </si>
+  <si>
+    <t>Test on Flight 1</t>
+  </si>
+  <si>
+    <t>CreatedBy</t>
+  </si>
+  <si>
+    <t>October 20, 2022</t>
+  </si>
+  <si>
+    <t>October 18, 2022</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>Laxmi Khanal</t>
+  </si>
+  <si>
+    <t>shubham.natkar@quadlabs.com</t>
+  </si>
+  <si>
+    <t>Chirag Rohilla</t>
+  </si>
+  <si>
+    <t>TravelerType</t>
+  </si>
+  <si>
+    <t>CreatorName</t>
+  </si>
+  <si>
+    <t>Corporate Traveller email ID</t>
+  </si>
+  <si>
+    <t>Gunjan Swain</t>
+  </si>
+  <si>
+    <t>Shubham Natkar</t>
+  </si>
+  <si>
+    <t>Shubham</t>
+  </si>
+  <si>
+    <t>GXPC6NWQVFKVOZG</t>
+  </si>
+  <si>
+    <t>Gunjan.swain@quadlabs.com</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>Sudesh Kumar</t>
+  </si>
+  <si>
+    <t>rsudesh15</t>
+  </si>
+  <si>
+    <t>//preprod.quadlabs.net/sbt/#</t>
+  </si>
+  <si>
+    <t>preprod117</t>
+  </si>
+  <si>
+    <t>Laxmi@123</t>
+  </si>
+  <si>
+    <t>October 19, 2022</t>
+  </si>
+  <si>
+    <t>Test on Hotel 1</t>
+  </si>
+  <si>
+    <t>Test on Hotel 2</t>
+  </si>
+  <si>
+    <t>Test on Hotel 3</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>7,8</t>
+  </si>
+  <si>
+    <t>`</t>
+  </si>
+  <si>
+    <t>del</t>
   </si>
 </sst>
 </file>
@@ -452,19 +551,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="6"/>
-      <color rgb="FF202124"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -492,6 +590,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF5F5F5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -568,7 +672,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -600,15 +704,19 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -926,90 +1034,109 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E38B042D-2ADC-45F2-B3D9-136A64E9728A}">
   <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="P24" sqref="P24"/>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="Z2" sqref="Z2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="42.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="21.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="U1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1017,34 +1144,34 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>105</v>
+        <v>14</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>108</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="L2" s="2">
         <v>1</v>
@@ -1083,7 +1210,7 @@
         <v>13</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="Y2" s="3" t="s">
         <v>9</v>
@@ -1101,806 +1228,400 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AC2"/>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FB90D65-3D34-49A0-82D8-FE53C4796B56}">
+  <dimension ref="A1:AY2"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="AA2" sqref="AA2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="38.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="42.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="20" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="20" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="12" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="27" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="14" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="O1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="S1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="P1" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AY1" s="25" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="J2" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="K2" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="N2" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="O2" s="24">
+        <v>2</v>
+      </c>
+      <c r="P2" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q2" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="R2" s="24">
         <v>0</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="20" t="s">
+      <c r="S2" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="T2" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="U2" s="24">
+        <v>2</v>
+      </c>
+      <c r="V2" s="24">
+        <v>2</v>
+      </c>
+      <c r="W2" s="24">
+        <v>2</v>
+      </c>
+      <c r="X2" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y2" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z2" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA2" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB2" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC2" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD2" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="AE2" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="AF2" s="24">
+        <v>9867567876</v>
+      </c>
+      <c r="AG2" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH2" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI2" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ2" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK2" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="AL2" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM2" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN2" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO2" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="F2" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="J2" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="L2" s="3">
-        <v>2</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="O2" s="2">
-        <v>0</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="R2" s="2">
-        <v>2</v>
-      </c>
-      <c r="S2" s="2">
-        <v>2</v>
-      </c>
-      <c r="T2" s="2">
-        <v>2</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V2" s="2">
+      <c r="AP2" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="AQ2" s="24">
         <v>345678</v>
       </c>
-      <c r="W2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="X2" s="2" t="s">
+      <c r="AR2" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="AS2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="Y2" s="2">
-        <v>123</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AT2" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="AU2" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="AV2" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="AB2" s="3" t="s">
+      <c r="AW2" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AX2" s="26" t="s">
         <v>11</v>
+      </c>
+      <c r="AY2" s="24" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="F2" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{7D2F82F6-D6C8-4FF5-ACAF-6F4A4CC34825}"/>
+    <hyperlink ref="I2" r:id="rId2" xr:uid="{1B777705-ADDF-4ECC-9B02-CB18F87D0C3C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AN2"/>
-  <sheetViews>
-    <sheetView topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="AK15" sqref="AK15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="18" max="18" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="15.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="P1" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:40" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="L2" s="3">
-        <v>2</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="O2" s="2">
-        <v>0</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="R2" s="2">
-        <v>1</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="X2" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB2" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AD2" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="AE2" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>77</v>
-      </c>
-      <c r="AG2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AH2" s="2">
-        <v>345678</v>
-      </c>
-      <c r="AI2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AJ2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AK2" s="2">
-        <v>123</v>
-      </c>
-      <c r="AL2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AM2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AN2" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="F2" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D31FB10-F068-4BB1-9FBF-96FF62FA172E}">
-  <dimension ref="A1:AU2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="37" max="37" width="12" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="30.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:47" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="P1" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:47" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="L2" s="3">
-        <v>2</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="O2" s="2">
-        <v>0</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="R2" s="2">
-        <v>2</v>
-      </c>
-      <c r="S2" s="2">
-        <v>2</v>
-      </c>
-      <c r="T2" s="2">
-        <v>2</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z2" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AB2" s="2">
-        <v>91</v>
-      </c>
-      <c r="AC2" s="2">
-        <v>9867567876</v>
-      </c>
-      <c r="AD2" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="AE2" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF2" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AH2" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="AI2" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>77</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>111</v>
-      </c>
-      <c r="AL2" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="AM2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AN2" s="2">
-        <v>345678</v>
-      </c>
-      <c r="AO2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AP2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AQ2" s="2">
-        <v>123</v>
-      </c>
-      <c r="AR2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AS2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AT2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AU2" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{8EE212DD-DA08-4E19-A9E1-55B35646DC10}"/>
-    <hyperlink ref="F2" r:id="rId2" xr:uid="{31423249-4324-40A5-B6F1-3D41A707C094}"/>
-    <hyperlink ref="AL2" r:id="rId3" xr:uid="{7FA23B2D-BD95-44CD-9DB2-3077F3B96A0F}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="22.5703125" customWidth="1"/>
     <col min="3" max="3" width="13.5703125" customWidth="1"/>
-    <col min="5" max="5" width="55.5703125" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27.85546875" customWidth="1"/>
     <col min="7" max="7" width="16.140625" customWidth="1"/>
     <col min="8" max="8" width="11.140625" customWidth="1"/>
@@ -1913,73 +1634,73 @@
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="7" t="s">
+      <c r="H1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="I1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="T1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>10</v>
@@ -1990,34 +1711,34 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="21" t="s">
         <v>40</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="F2" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="G2" s="22" t="s">
-        <v>42</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="I2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="L2" s="2">
         <v>1</v>
@@ -2029,10 +1750,10 @@
         <v>3</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P2" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q2" s="2">
         <v>1</v>
@@ -2071,12 +1792,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2084,6 +1805,7 @@
     <col min="6" max="6" width="36.5703125" customWidth="1"/>
     <col min="7" max="7" width="18.7109375" customWidth="1"/>
     <col min="8" max="8" width="10.7109375" customWidth="1"/>
+    <col min="9" max="9" width="32.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.28515625" customWidth="1"/>
     <col min="11" max="11" width="18.140625" customWidth="1"/>
     <col min="15" max="15" width="27" bestFit="1" customWidth="1"/>
@@ -2091,64 +1813,64 @@
   <sheetData>
     <row r="1" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="O1" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>10</v>
@@ -2159,34 +1881,34 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>105</v>
+        <v>14</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>108</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="I2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="L2" s="2">
         <v>1</v>
@@ -2198,7 +1920,7 @@
         <v>3</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>48</v>
+        <v>116</v>
       </c>
       <c r="P2" s="3" t="s">
         <v>8</v>
@@ -2229,12 +1951,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2247,58 +1969,58 @@
   <sheetData>
     <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="Q1" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="R1" s="18" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2306,22 +2028,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>105</v>
+        <v>14</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>108</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>2</v>
@@ -2330,10 +2052,10 @@
         <v>4</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L2" s="2">
         <v>1</v>
@@ -2364,4 +2086,3030 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23D05900-88FC-42F8-A35E-353FB4A85D6A}">
+  <dimension ref="A1:AE4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AD9" sqref="AD9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="48.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="39" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="15.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="K1" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="R1" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="S1" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="T1" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="U1" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="V1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="W1" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="X1" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y1" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z1" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA1" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB1" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC1" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD1" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE1" s="25" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="K2" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="L2" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="N2" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="O2" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="P2" s="24">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="24">
+        <v>0</v>
+      </c>
+      <c r="R2" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="S2" s="24">
+        <v>3</v>
+      </c>
+      <c r="T2" s="24">
+        <v>3</v>
+      </c>
+      <c r="U2" s="24">
+        <v>3</v>
+      </c>
+      <c r="V2" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="W2" s="24">
+        <v>345678</v>
+      </c>
+      <c r="X2" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y2" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z2" s="24">
+        <v>123</v>
+      </c>
+      <c r="AA2" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB2" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC2" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD2" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE2" s="24" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="J3" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="K3" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="N3" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="O3" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="P3" s="24">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="24">
+        <v>0</v>
+      </c>
+      <c r="R3" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="S3" s="24">
+        <v>3</v>
+      </c>
+      <c r="T3" s="24">
+        <v>3</v>
+      </c>
+      <c r="U3" s="24">
+        <v>3</v>
+      </c>
+      <c r="V3" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="W3" s="24">
+        <v>345678</v>
+      </c>
+      <c r="X3" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y3" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z3" s="24">
+        <v>123</v>
+      </c>
+      <c r="AA3" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB3" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC3" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD3" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE3" s="27" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A4" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="J4" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="K4" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="L4" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="M4" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="N4" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="O4" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="P4" s="24">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="24">
+        <v>0</v>
+      </c>
+      <c r="R4" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="S4" s="24">
+        <v>3</v>
+      </c>
+      <c r="T4" s="24">
+        <v>3</v>
+      </c>
+      <c r="U4" s="24">
+        <v>3</v>
+      </c>
+      <c r="V4" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="W4" s="24">
+        <v>345678</v>
+      </c>
+      <c r="X4" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y4" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z4" s="24">
+        <v>123</v>
+      </c>
+      <c r="AA4" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB4" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC4" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD4" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE4" s="27" t="s">
+        <v>141</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <dataValidations count="8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C4" xr:uid="{69B9EC96-01C3-4B36-95F5-4C2ECB003922}">
+      <formula1>"TravelArranger,Admin"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E4" xr:uid="{D337A990-5AAA-465C-9E53-0B4EA37E22FF}">
+      <formula1>"sbt,preprod117"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B4" xr:uid="{19FA5D53-BF10-419C-9EDB-F72EBBB6C38B}">
+      <formula1>"Prince Chaurasia,Gunjan Swain,Shubham Natkar,Laxmi Khanal,Sudesh Kumar"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D4" xr:uid="{8FF63EEC-0A18-4F81-84AA-489A34353FE6}">
+      <formula1>"Shubham Natkar,Laxmi Khanal,Sudesh Kumar"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F4" xr:uid="{66967F65-BB23-4FB4-8264-308D635EC436}">
+      <formula1>"//staging117/sbt,//preprod.quadlabs.net/sbt/#"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H4" xr:uid="{AF3950A0-904A-4BC7-9C1D-44E3CCE9EFF4}">
+      <formula1>"Shubham1,Shubham,rsudesh15"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I4" xr:uid="{67E6552E-4C3C-475B-9AAA-C251AD0071C5}">
+      <formula1>"Password@12345,GXPC6NWQVFKVOZG,Laxmi@123"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J4" xr:uid="{880F0CA5-69A5-481D-8242-EDB3721C8661}">
+      <formula1>"prince.chaurasia@quadlabs.com,Gunjan.swain@quadlabs.com,laxmi.khanal@quadlabs.com"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="I2" r:id="rId1" display="Password@12345" xr:uid="{8F2BEB28-C7C0-43F0-A97D-CE2C0E6494A0}"/>
+    <hyperlink ref="J2" r:id="rId2" display="prince.chaurasia@quadlabs.com" xr:uid="{3461C90C-6062-4014-8D78-E1459F5EC085}"/>
+    <hyperlink ref="J3:J4" r:id="rId3" display="prince.chaurasia@quadlabs.com" xr:uid="{163FA499-1FBE-45D4-B729-5879FF3BD13D}"/>
+    <hyperlink ref="I3:I4" r:id="rId4" display="Password@12345" xr:uid="{53EB4931-4F3C-4B1A-82F7-A5AA7F7F08F5}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ACE9120-00F4-443F-8B66-F2E8DF67C8C3}">
+  <dimension ref="A1:AE4"/>
+  <sheetViews>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="42.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="15.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="K1" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="R1" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="S1" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="T1" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="U1" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="V1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="W1" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="X1" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y1" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z1" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA1" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB1" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC1" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD1" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE1" s="25" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="K2" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="L2" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="N2" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="O2" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="P2" s="24">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="24">
+        <v>0</v>
+      </c>
+      <c r="R2" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="S2" s="24">
+        <v>3</v>
+      </c>
+      <c r="T2" s="24">
+        <v>3</v>
+      </c>
+      <c r="U2" s="24">
+        <v>3</v>
+      </c>
+      <c r="V2" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="W2" s="24">
+        <v>345678</v>
+      </c>
+      <c r="X2" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y2" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z2" s="24">
+        <v>123</v>
+      </c>
+      <c r="AA2" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB2" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC2" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD2" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE2" s="24" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="J3" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="K3" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="N3" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="O3" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="P3" s="24">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="24">
+        <v>0</v>
+      </c>
+      <c r="R3" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="S3" s="24">
+        <v>3</v>
+      </c>
+      <c r="T3" s="24">
+        <v>3</v>
+      </c>
+      <c r="U3" s="24">
+        <v>3</v>
+      </c>
+      <c r="V3" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="W3" s="24">
+        <v>345678</v>
+      </c>
+      <c r="X3" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y3" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z3" s="24">
+        <v>123</v>
+      </c>
+      <c r="AA3" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB3" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC3" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD3" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE3" s="27" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A4" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="J4" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="K4" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="L4" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="M4" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="N4" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="O4" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="P4" s="24">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="24">
+        <v>0</v>
+      </c>
+      <c r="R4" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="S4" s="24">
+        <v>3</v>
+      </c>
+      <c r="T4" s="24">
+        <v>3</v>
+      </c>
+      <c r="U4" s="24">
+        <v>3</v>
+      </c>
+      <c r="V4" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="W4" s="24">
+        <v>345678</v>
+      </c>
+      <c r="X4" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y4" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z4" s="24">
+        <v>123</v>
+      </c>
+      <c r="AA4" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB4" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC4" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD4" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE4" s="27" t="s">
+        <v>141</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J4" xr:uid="{056E45F0-62CB-4477-88F9-578FB00DA1FD}">
+      <formula1>"prince.chaurasia@quadlabs.com,Gunjan.swain@quadlabs.com,laxmi.khanal@quadlabs.com"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I4" xr:uid="{33F71942-291C-4F9C-B239-B4E44D5F913F}">
+      <formula1>"Password@12345,GXPC6NWQVFKVOZG,Laxmi@123"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H4" xr:uid="{AA382C3E-D0F9-4341-8855-2B01E8C7C65B}">
+      <formula1>"Shubham1,Shubham,rsudesh15"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F4" xr:uid="{DA7B3365-02D7-4007-90BA-2DB590DF6ACC}">
+      <formula1>"//staging117/sbt,//preprod.quadlabs.net/sbt/#"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D4" xr:uid="{FCFF12B2-7D10-472F-B374-269A2E1F3BE8}">
+      <formula1>"Shubham Natkar,Laxmi Khanal,Sudesh Kumar"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B4" xr:uid="{0F08F2B7-3923-44D9-BE44-56A517A87710}">
+      <formula1>"Prince Chaurasia,Gunjan Swain,Shubham Natkar,Laxmi Khanal,Sudesh Kumar"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E4" xr:uid="{2CC58FAF-3963-45B2-ABE9-2F860C8A7F3F}">
+      <formula1>"sbt,preprod117"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C4" xr:uid="{0B11E76C-4FD3-42A1-9030-B2E81DD4B829}">
+      <formula1>"TravelArranger,Admin"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="I2" r:id="rId1" display="Password@12345" xr:uid="{2312D70D-B9C2-4E71-86D2-0E744CC42948}"/>
+    <hyperlink ref="J2" r:id="rId2" display="prince.chaurasia@quadlabs.com" xr:uid="{EC345290-2BB1-435A-B3E8-7DA9E4163ABD}"/>
+    <hyperlink ref="J3:J4" r:id="rId3" display="prince.chaurasia@quadlabs.com" xr:uid="{7ECEC8CC-4E0A-4E2C-8C5D-B118C01DD34D}"/>
+    <hyperlink ref="I3:I4" r:id="rId4" display="Password@12345" xr:uid="{33D2F2F6-BEB7-4383-9AB0-4B339F2F9BAF}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37BD4090-2FF6-4791-B9A9-1843595DD23E}">
+  <dimension ref="A1:AE2"/>
+  <sheetViews>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="42.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="15.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="K1" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="R1" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="S1" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="T1" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="U1" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="V1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="W1" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="X1" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y1" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z1" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA1" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB1" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC1" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD1" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE1" s="25" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="K2" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="L2" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="N2" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="O2" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="P2" s="24">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="24">
+        <v>0</v>
+      </c>
+      <c r="R2" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="S2" s="24">
+        <v>2</v>
+      </c>
+      <c r="T2" s="24">
+        <v>2</v>
+      </c>
+      <c r="U2" s="24">
+        <v>2</v>
+      </c>
+      <c r="V2" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="W2" s="24">
+        <v>345678</v>
+      </c>
+      <c r="X2" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y2" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z2" s="24">
+        <v>123</v>
+      </c>
+      <c r="AA2" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB2" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC2" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD2" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE2" s="24" t="s">
+        <v>136</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2" xr:uid="{BD85AB95-799C-48EC-9378-0EFD499505AA}">
+      <formula1>"prince.chaurasia@quadlabs.com,Gunjan.swain@quadlabs.com,laxmi.khanal@quadlabs.com"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2" xr:uid="{CD02D070-A283-4A1A-8299-0F6286012606}">
+      <formula1>"Password@12345,GXPC6NWQVFKVOZG,Laxmi@123"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2" xr:uid="{1B501AE0-2580-4114-870F-B0C4D89E13D6}">
+      <formula1>"Shubham1,Shubham,rsudesh15"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{9D2513F2-A1B8-44D2-A6CB-6CBA60350D78}">
+      <formula1>"//staging117/sbt,//preprod.quadlabs.net/sbt/#"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{5A6E0032-EB41-455D-B97F-31FB693B0B5B}">
+      <formula1>"Shubham Natkar,Laxmi Khanal,Sudesh Kumar"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2" xr:uid="{1D61770D-BA44-40C7-B45A-0CB1ECF740A1}">
+      <formula1>"Prince Chaurasia,Gunjan Swain,Shubham Natkar,Laxmi Khanal,Sudesh Kumar"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2" xr:uid="{2394D39B-04B4-4691-97CA-F6B3DF55A71C}">
+      <formula1>"sbt,preprod117"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2" xr:uid="{A5BBCE4A-65F6-4110-80E0-57AA49777AC3}">
+      <formula1>"TravelArranger,Admin"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="I2" r:id="rId1" display="Password@12345" xr:uid="{4164E253-0DB4-44AF-9255-E335E48A140E}"/>
+    <hyperlink ref="J2" r:id="rId2" display="prince.chaurasia@quadlabs.com" xr:uid="{B6B86F06-E252-4734-8FFD-7E9A92E68482}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB8EA0FC-389D-4116-A0A3-C65E16CA1E0D}">
+  <dimension ref="A1:AE2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="42.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="15.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="K1" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="R1" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="S1" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="T1" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="U1" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="V1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="W1" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="X1" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y1" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z1" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA1" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB1" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC1" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD1" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE1" s="25" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="K2" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="L2" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="M2" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="N2" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="O2" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="P2" s="24">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="24">
+        <v>0</v>
+      </c>
+      <c r="R2" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="S2" s="24">
+        <v>2</v>
+      </c>
+      <c r="T2" s="24">
+        <v>2</v>
+      </c>
+      <c r="U2" s="24">
+        <v>2</v>
+      </c>
+      <c r="V2" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="W2" s="24">
+        <v>345678</v>
+      </c>
+      <c r="X2" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y2" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z2" s="24">
+        <v>123</v>
+      </c>
+      <c r="AA2" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB2" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC2" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD2" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE2" s="24" t="s">
+        <v>136</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2" xr:uid="{2096E2EC-7051-4AF9-B268-367E67703B36}">
+      <formula1>"TravelArranger,Admin"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2" xr:uid="{E26B0895-D52D-4BEE-908A-FDF9884997AB}">
+      <formula1>"sbt,preprod117"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2" xr:uid="{11808B5A-5816-4346-8573-F7BCF612AD3E}">
+      <formula1>"Prince Chaurasia,Gunjan Swain,Shubham Natkar,Laxmi Khanal,Sudesh Kumar"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{E90D1D84-5465-4E28-8C53-DAE6AF85AA8B}">
+      <formula1>"Shubham Natkar,Laxmi Khanal,Sudesh Kumar"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{0C695DA6-48F7-4786-9257-2004BE2D00C2}">
+      <formula1>"//staging117/sbt,//preprod.quadlabs.net/sbt/#"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2" xr:uid="{DE5E7CF5-BC3F-49A8-ABA6-25E51F9A5AEF}">
+      <formula1>"Shubham1,Shubham,rsudesh15"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2" xr:uid="{E9798874-9DEE-4694-8F3C-50E713718C87}">
+      <formula1>"Password@12345,GXPC6NWQVFKVOZG,Laxmi@123"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2" xr:uid="{2CD98E69-1B97-40F4-A86C-08316ADB3AC0}">
+      <formula1>"prince.chaurasia@quadlabs.com,Gunjan.swain@quadlabs.com,laxmi.khanal@quadlabs.com"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="I2" r:id="rId1" display="Password@12345" xr:uid="{B844FDF8-C354-4D8A-AACE-27CDB14F2D39}"/>
+    <hyperlink ref="J2" r:id="rId2" display="prince.chaurasia@quadlabs.com" xr:uid="{D3F139DE-996A-428C-AA18-E23E176FD426}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AH9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="42.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="30" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="15.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T1" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH1" s="25" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="K2" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="N2" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="O2" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="P2" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="S2" s="2">
+        <v>0</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="V2" s="2">
+        <v>3</v>
+      </c>
+      <c r="W2" s="2">
+        <v>3</v>
+      </c>
+      <c r="X2" s="2">
+        <v>3</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>345678</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>123</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH2" s="24" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="J3" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="K3" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="N3" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="O3" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="P3" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="S3" s="2">
+        <v>0</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="V3" s="2">
+        <v>3</v>
+      </c>
+      <c r="W3" s="2">
+        <v>3</v>
+      </c>
+      <c r="X3" s="2">
+        <v>3</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>345678</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC3" s="2">
+        <v>123</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH3" s="27" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A4" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="J4" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="K4" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="N4" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="O4" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="P4" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="S4" s="2">
+        <v>0</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="V4" s="2">
+        <v>3</v>
+      </c>
+      <c r="W4" s="2">
+        <v>3</v>
+      </c>
+      <c r="X4" s="2">
+        <v>3</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>345678</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>123</v>
+      </c>
+      <c r="AD4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH4" s="27" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="T9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <dataValidations disablePrompts="1" count="8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E4" xr:uid="{98931266-157C-43FA-9098-963B43CD8718}">
+      <formula1>"sbt,preprod117"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C4" xr:uid="{AD3725E4-3EA3-4744-BF77-F0112E5270F2}">
+      <formula1>"TravelArranger,Admin"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B4" xr:uid="{A0E31D84-D07D-4651-B786-B8D7E4139E82}">
+      <formula1>"Prince Chaurasia,Gunjan Swain,Shubham Natkar,Laxmi Khanal,Sudesh Kumar"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D4" xr:uid="{544724DF-93B8-4FFB-9375-FA7887241E5A}">
+      <formula1>"Shubham Natkar,Laxmi Khanal,Sudesh Kumar"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F4" xr:uid="{8473EFC7-A8D2-42EB-94EB-DB82F1BCBE83}">
+      <formula1>"//staging117/sbt,//preprod.quadlabs.net/sbt/#"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H4" xr:uid="{B1CFE63F-2658-4957-A9F4-AD4C79A058B1}">
+      <formula1>"Shubham1,Shubham,rsudesh15"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I4" xr:uid="{89A994C1-FB88-4452-B7C6-39E809266A06}">
+      <formula1>"Password@12345,GXPC6NWQVFKVOZG,Laxmi@123"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J4" xr:uid="{740DC853-ECD6-4796-8DEB-CEAAA849D591}">
+      <formula1>"prince.chaurasia@quadlabs.com,Gunjan.swain@quadlabs.com,laxmi.khanal@quadlabs.com"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="I2" r:id="rId1" display="Password@12345" xr:uid="{ED537648-4003-4D85-9B21-3002EF25AEFE}"/>
+    <hyperlink ref="J2" r:id="rId2" display="prince.chaurasia@quadlabs.com" xr:uid="{D572900F-1B58-46AE-96C7-C2BA58754A38}"/>
+    <hyperlink ref="J3:J4" r:id="rId3" display="prince.chaurasia@quadlabs.com" xr:uid="{EFCA37EF-1518-4D89-B32B-BC9302604211}"/>
+    <hyperlink ref="I3:I4" r:id="rId4" display="Password@12345" xr:uid="{36269745-F1D3-4043-87EE-D1C23A6E6E5F}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2DE7C2C-58F9-4809-B4E5-FC6426317B63}">
+  <dimension ref="A1:AH4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T1" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH1" s="25" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="K2" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="N2" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="O2" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="P2" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="S2" s="2">
+        <v>0</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="V2" s="2">
+        <v>3</v>
+      </c>
+      <c r="W2" s="2">
+        <v>3</v>
+      </c>
+      <c r="X2" s="2">
+        <v>3</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>345678</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>123</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH2" s="24" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="J3" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="K3" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="N3" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="O3" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="P3" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="S3" s="2">
+        <v>0</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="V3" s="2">
+        <v>3</v>
+      </c>
+      <c r="W3" s="2">
+        <v>3</v>
+      </c>
+      <c r="X3" s="2">
+        <v>3</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>345678</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC3" s="2">
+        <v>123</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH3" s="27" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A4" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="J4" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="K4" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="N4" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="O4" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="P4" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="S4" s="2">
+        <v>0</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="V4" s="2">
+        <v>3</v>
+      </c>
+      <c r="W4" s="2">
+        <v>3</v>
+      </c>
+      <c r="X4" s="2">
+        <v>3</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>345678</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>123</v>
+      </c>
+      <c r="AD4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH4" s="27" t="s">
+        <v>141</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J4" xr:uid="{040E7B89-9C3E-46C1-882B-7BF0FBE496E7}">
+      <formula1>"prince.chaurasia@quadlabs.com,Gunjan.swain@quadlabs.com,laxmi.khanal@quadlabs.com"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I4" xr:uid="{E4602EEA-88FD-4E2D-BE21-4A2EC5D5F490}">
+      <formula1>"Password@12345,GXPC6NWQVFKVOZG,Laxmi@123"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H4" xr:uid="{8158DE06-2117-48EB-9A43-2215D7D7BCDA}">
+      <formula1>"Shubham1,Shubham,rsudesh15"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F4" xr:uid="{14BABF26-27BD-4314-B8F9-8A06BEE310A2}">
+      <formula1>"//staging117/sbt,//preprod.quadlabs.net/sbt/#"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D4" xr:uid="{90E64679-557F-4EDA-BF0D-121A24A4F687}">
+      <formula1>"Shubham Natkar,Laxmi Khanal,Sudesh Kumar"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B4" xr:uid="{36662D4B-1D9A-4991-8E08-2758D7C16416}">
+      <formula1>"Prince Chaurasia,Gunjan Swain,Shubham Natkar,Laxmi Khanal,Sudesh Kumar"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C4" xr:uid="{A0A40859-AD3E-4CE3-AFC5-F4A8B778F984}">
+      <formula1>"TravelArranger,Admin"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E4" xr:uid="{6AB5DA6D-57EC-4590-8938-534E9DA31C36}">
+      <formula1>"sbt,preprod117"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="I2" r:id="rId1" display="Password@12345" xr:uid="{94BAE613-8D23-4CDA-A88D-071B0CBB51A9}"/>
+    <hyperlink ref="J2" r:id="rId2" display="prince.chaurasia@quadlabs.com" xr:uid="{532DD22A-0ED9-4DF7-B6EB-22D2D48F8AF2}"/>
+    <hyperlink ref="J3:J4" r:id="rId3" display="prince.chaurasia@quadlabs.com" xr:uid="{1EC892D5-192E-4278-945C-74E5AAADC535}"/>
+    <hyperlink ref="I3:I4" r:id="rId4" display="Password@12345" xr:uid="{5EDC703F-BCC2-4007-ABFC-2A3D3C91FA37}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:AQ2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="15.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S1" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:43" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="O2" s="3">
+        <v>2</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="R2" s="2">
+        <v>0</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="U2" s="2">
+        <v>1</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA2" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE2" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AG2" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH2" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK2" s="2">
+        <v>345678</v>
+      </c>
+      <c r="AL2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AM2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN2" s="2">
+        <v>123</v>
+      </c>
+      <c r="AO2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="I2" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D31FB10-F068-4BB1-9FBF-96FF62FA172E}">
+  <dimension ref="A1:AU2"/>
+  <sheetViews>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="AA2" sqref="AA2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="12" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="21.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:47" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="P1" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:47" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="L2" s="3">
+        <v>2</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" s="2">
+        <v>0</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="R2" s="2">
+        <v>2</v>
+      </c>
+      <c r="S2" s="2">
+        <v>2</v>
+      </c>
+      <c r="T2" s="2">
+        <v>2</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z2" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB2" s="2">
+        <v>91</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>9867567876</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF2" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH2" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="AI2" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL2" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="AM2" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="AN2" s="2">
+        <v>345678</v>
+      </c>
+      <c r="AO2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AP2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ2" s="2">
+        <v>123</v>
+      </c>
+      <c r="AR2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AS2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AT2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AU2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{8EE212DD-DA08-4E19-A9E1-55B35646DC10}"/>
+    <hyperlink ref="F2" r:id="rId2" xr:uid="{31423249-4324-40A5-B6F1-3D41A707C094}"/>
+    <hyperlink ref="AL2" r:id="rId3" xr:uid="{7FA23B2D-BD95-44CD-9DB2-3077F3B96A0F}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/excel/SBT_Hotel.xlsx
+++ b/data/excel/SBT_Hotel.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation\projectQuadlabs\data\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54A9F06C-5272-4028-9E52-589DC53B25B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3825" yWindow="5460" windowWidth="15375" windowHeight="6975" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="3825" yWindow="5460" windowWidth="15375" windowHeight="6975" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Business" sheetId="13" r:id="rId1"/>
@@ -504,7 +503,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1031,7 +1030,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E38B042D-2ADC-45F2-B3D9-136A64E9728A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView topLeftCell="R1" workbookViewId="0">
@@ -1221,15 +1220,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{D7567F00-6147-4653-8AA6-40D3F3D424FB}"/>
-    <hyperlink ref="F2" r:id="rId2" xr:uid="{EF6D1FB2-D3DE-4069-9C06-4765ABDA5002}"/>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="F2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FB90D65-3D34-49A0-82D8-FE53C4796B56}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AY2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1601,8 +1600,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" xr:uid="{7D2F82F6-D6C8-4FF5-ACAF-6F4A4CC34825}"/>
-    <hyperlink ref="I2" r:id="rId2" xr:uid="{1B777705-ADDF-4ECC-9B02-CB18F87D0C3C}"/>
+    <hyperlink ref="H2" r:id="rId1"/>
+    <hyperlink ref="I2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -1610,7 +1609,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1783,9 +1782,9 @@
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
-    <hyperlink ref="O2" r:id="rId2" location="hl_pop" display="http://staging117/OnlineMetaBookSBT/Online/HotelResults?Uid=a112f1a5-3fa2-44dc-9fa2-c1b5ce9cf23325216 - hl_pop" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
-    <hyperlink ref="F2" r:id="rId3" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="O2" r:id="rId2" location="hl_pop" display="http://staging117/OnlineMetaBookSBT/Online/HotelResults?Uid=a112f1a5-3fa2-44dc-9fa2-c1b5ce9cf23325216 - hl_pop"/>
+    <hyperlink ref="F2" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
@@ -1793,7 +1792,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
@@ -1944,15 +1943,15 @@
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
-    <hyperlink ref="F2" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="F2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -2081,19 +2080,19 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
-    <hyperlink ref="F2" r:id="rId2" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="F2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23D05900-88FC-42F8-A35E-353FB4A85D6A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AD9" sqref="AD9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2512,36 +2511,36 @@
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C4" xr:uid="{69B9EC96-01C3-4B36-95F5-4C2ECB003922}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C4">
       <formula1>"TravelArranger,Admin"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E4" xr:uid="{D337A990-5AAA-465C-9E53-0B4EA37E22FF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E4">
       <formula1>"sbt,preprod117"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B4" xr:uid="{19FA5D53-BF10-419C-9EDB-F72EBBB6C38B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B4">
       <formula1>"Prince Chaurasia,Gunjan Swain,Shubham Natkar,Laxmi Khanal,Sudesh Kumar"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D4" xr:uid="{8FF63EEC-0A18-4F81-84AA-489A34353FE6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D4">
       <formula1>"Shubham Natkar,Laxmi Khanal,Sudesh Kumar"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F4" xr:uid="{66967F65-BB23-4FB4-8264-308D635EC436}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F4">
       <formula1>"//staging117/sbt,//preprod.quadlabs.net/sbt/#"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H4" xr:uid="{AF3950A0-904A-4BC7-9C1D-44E3CCE9EFF4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H4">
       <formula1>"Shubham1,Shubham,rsudesh15"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I4" xr:uid="{67E6552E-4C3C-475B-9AAA-C251AD0071C5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I4">
       <formula1>"Password@12345,GXPC6NWQVFKVOZG,Laxmi@123"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J4" xr:uid="{880F0CA5-69A5-481D-8242-EDB3721C8661}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J4">
       <formula1>"prince.chaurasia@quadlabs.com,Gunjan.swain@quadlabs.com,laxmi.khanal@quadlabs.com"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1" display="Password@12345" xr:uid="{8F2BEB28-C7C0-43F0-A97D-CE2C0E6494A0}"/>
-    <hyperlink ref="J2" r:id="rId2" display="prince.chaurasia@quadlabs.com" xr:uid="{3461C90C-6062-4014-8D78-E1459F5EC085}"/>
-    <hyperlink ref="J3:J4" r:id="rId3" display="prince.chaurasia@quadlabs.com" xr:uid="{163FA499-1FBE-45D4-B729-5879FF3BD13D}"/>
-    <hyperlink ref="I3:I4" r:id="rId4" display="Password@12345" xr:uid="{53EB4931-4F3C-4B1A-82F7-A5AA7F7F08F5}"/>
+    <hyperlink ref="I2" r:id="rId1" display="Password@12345"/>
+    <hyperlink ref="J2" r:id="rId2" display="prince.chaurasia@quadlabs.com"/>
+    <hyperlink ref="J3:J4" r:id="rId3" display="prince.chaurasia@quadlabs.com"/>
+    <hyperlink ref="I3:I4" r:id="rId4" display="Password@12345"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
@@ -2549,7 +2548,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ACE9120-00F4-443F-8B66-F2E8DF67C8C3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE4"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
@@ -2971,43 +2970,43 @@
     </row>
   </sheetData>
   <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J4" xr:uid="{056E45F0-62CB-4477-88F9-578FB00DA1FD}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J4">
       <formula1>"prince.chaurasia@quadlabs.com,Gunjan.swain@quadlabs.com,laxmi.khanal@quadlabs.com"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I4" xr:uid="{33F71942-291C-4F9C-B239-B4E44D5F913F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I4">
       <formula1>"Password@12345,GXPC6NWQVFKVOZG,Laxmi@123"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H4" xr:uid="{AA382C3E-D0F9-4341-8855-2B01E8C7C65B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H4">
       <formula1>"Shubham1,Shubham,rsudesh15"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F4" xr:uid="{DA7B3365-02D7-4007-90BA-2DB590DF6ACC}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F4">
       <formula1>"//staging117/sbt,//preprod.quadlabs.net/sbt/#"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D4" xr:uid="{FCFF12B2-7D10-472F-B374-269A2E1F3BE8}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D4">
       <formula1>"Shubham Natkar,Laxmi Khanal,Sudesh Kumar"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B4" xr:uid="{0F08F2B7-3923-44D9-BE44-56A517A87710}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B4">
       <formula1>"Prince Chaurasia,Gunjan Swain,Shubham Natkar,Laxmi Khanal,Sudesh Kumar"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E4" xr:uid="{2CC58FAF-3963-45B2-ABE9-2F860C8A7F3F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E4">
       <formula1>"sbt,preprod117"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C4" xr:uid="{0B11E76C-4FD3-42A1-9030-B2E81DD4B829}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C4">
       <formula1>"TravelArranger,Admin"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1" display="Password@12345" xr:uid="{2312D70D-B9C2-4E71-86D2-0E744CC42948}"/>
-    <hyperlink ref="J2" r:id="rId2" display="prince.chaurasia@quadlabs.com" xr:uid="{EC345290-2BB1-435A-B3E8-7DA9E4163ABD}"/>
-    <hyperlink ref="J3:J4" r:id="rId3" display="prince.chaurasia@quadlabs.com" xr:uid="{7ECEC8CC-4E0A-4E2C-8C5D-B118C01DD34D}"/>
-    <hyperlink ref="I3:I4" r:id="rId4" display="Password@12345" xr:uid="{33D2F2F6-BEB7-4383-9AB0-4B339F2F9BAF}"/>
+    <hyperlink ref="I2" r:id="rId1" display="Password@12345"/>
+    <hyperlink ref="J2" r:id="rId2" display="prince.chaurasia@quadlabs.com"/>
+    <hyperlink ref="J3:J4" r:id="rId3" display="prince.chaurasia@quadlabs.com"/>
+    <hyperlink ref="I3:I4" r:id="rId4" display="Password@12345"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37BD4090-2FF6-4791-B9A9-1843595DD23E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE2"/>
   <sheetViews>
     <sheetView topLeftCell="J1" workbookViewId="0">
@@ -3239,45 +3238,45 @@
     </row>
   </sheetData>
   <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2" xr:uid="{BD85AB95-799C-48EC-9378-0EFD499505AA}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2">
       <formula1>"prince.chaurasia@quadlabs.com,Gunjan.swain@quadlabs.com,laxmi.khanal@quadlabs.com"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2" xr:uid="{CD02D070-A283-4A1A-8299-0F6286012606}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2">
       <formula1>"Password@12345,GXPC6NWQVFKVOZG,Laxmi@123"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2" xr:uid="{1B501AE0-2580-4114-870F-B0C4D89E13D6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2">
       <formula1>"Shubham1,Shubham,rsudesh15"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{9D2513F2-A1B8-44D2-A6CB-6CBA60350D78}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2">
       <formula1>"//staging117/sbt,//preprod.quadlabs.net/sbt/#"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{5A6E0032-EB41-455D-B97F-31FB693B0B5B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
       <formula1>"Shubham Natkar,Laxmi Khanal,Sudesh Kumar"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2" xr:uid="{1D61770D-BA44-40C7-B45A-0CB1ECF740A1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
       <formula1>"Prince Chaurasia,Gunjan Swain,Shubham Natkar,Laxmi Khanal,Sudesh Kumar"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2" xr:uid="{2394D39B-04B4-4691-97CA-F6B3DF55A71C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2">
       <formula1>"sbt,preprod117"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2" xr:uid="{A5BBCE4A-65F6-4110-80E0-57AA49777AC3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
       <formula1>"TravelArranger,Admin"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1" display="Password@12345" xr:uid="{4164E253-0DB4-44AF-9255-E335E48A140E}"/>
-    <hyperlink ref="J2" r:id="rId2" display="prince.chaurasia@quadlabs.com" xr:uid="{B6B86F06-E252-4734-8FFD-7E9A92E68482}"/>
+    <hyperlink ref="I2" r:id="rId1" display="Password@12345"/>
+    <hyperlink ref="J2" r:id="rId2" display="prince.chaurasia@quadlabs.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB8EA0FC-389D-4116-A0A3-C65E16CA1E0D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3505,41 +3504,41 @@
     </row>
   </sheetData>
   <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2" xr:uid="{2096E2EC-7051-4AF9-B268-367E67703B36}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
       <formula1>"TravelArranger,Admin"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2" xr:uid="{E26B0895-D52D-4BEE-908A-FDF9884997AB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2">
       <formula1>"sbt,preprod117"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2" xr:uid="{11808B5A-5816-4346-8573-F7BCF612AD3E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
       <formula1>"Prince Chaurasia,Gunjan Swain,Shubham Natkar,Laxmi Khanal,Sudesh Kumar"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{E90D1D84-5465-4E28-8C53-DAE6AF85AA8B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
       <formula1>"Shubham Natkar,Laxmi Khanal,Sudesh Kumar"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{0C695DA6-48F7-4786-9257-2004BE2D00C2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2">
       <formula1>"//staging117/sbt,//preprod.quadlabs.net/sbt/#"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2" xr:uid="{DE5E7CF5-BC3F-49A8-ABA6-25E51F9A5AEF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2">
       <formula1>"Shubham1,Shubham,rsudesh15"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2" xr:uid="{E9798874-9DEE-4694-8F3C-50E713718C87}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2">
       <formula1>"Password@12345,GXPC6NWQVFKVOZG,Laxmi@123"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2" xr:uid="{2CD98E69-1B97-40F4-A86C-08316ADB3AC0}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2">
       <formula1>"prince.chaurasia@quadlabs.com,Gunjan.swain@quadlabs.com,laxmi.khanal@quadlabs.com"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1" display="Password@12345" xr:uid="{B844FDF8-C354-4D8A-AACE-27CDB14F2D39}"/>
-    <hyperlink ref="J2" r:id="rId2" display="prince.chaurasia@quadlabs.com" xr:uid="{D3F139DE-996A-428C-AA18-E23E176FD426}"/>
+    <hyperlink ref="I2" r:id="rId1" display="Password@12345"/>
+    <hyperlink ref="J2" r:id="rId2" display="prince.chaurasia@quadlabs.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4007,36 +4006,36 @@
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations disablePrompts="1" count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E4" xr:uid="{98931266-157C-43FA-9098-963B43CD8718}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E4">
       <formula1>"sbt,preprod117"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C4" xr:uid="{AD3725E4-3EA3-4744-BF77-F0112E5270F2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C4">
       <formula1>"TravelArranger,Admin"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B4" xr:uid="{A0E31D84-D07D-4651-B786-B8D7E4139E82}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B4">
       <formula1>"Prince Chaurasia,Gunjan Swain,Shubham Natkar,Laxmi Khanal,Sudesh Kumar"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D4" xr:uid="{544724DF-93B8-4FFB-9375-FA7887241E5A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D4">
       <formula1>"Shubham Natkar,Laxmi Khanal,Sudesh Kumar"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F4" xr:uid="{8473EFC7-A8D2-42EB-94EB-DB82F1BCBE83}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F4">
       <formula1>"//staging117/sbt,//preprod.quadlabs.net/sbt/#"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H4" xr:uid="{B1CFE63F-2658-4957-A9F4-AD4C79A058B1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H4">
       <formula1>"Shubham1,Shubham,rsudesh15"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I4" xr:uid="{89A994C1-FB88-4452-B7C6-39E809266A06}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I4">
       <formula1>"Password@12345,GXPC6NWQVFKVOZG,Laxmi@123"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J4" xr:uid="{740DC853-ECD6-4796-8DEB-CEAAA849D591}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J4">
       <formula1>"prince.chaurasia@quadlabs.com,Gunjan.swain@quadlabs.com,laxmi.khanal@quadlabs.com"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1" display="Password@12345" xr:uid="{ED537648-4003-4D85-9B21-3002EF25AEFE}"/>
-    <hyperlink ref="J2" r:id="rId2" display="prince.chaurasia@quadlabs.com" xr:uid="{D572900F-1B58-46AE-96C7-C2BA58754A38}"/>
-    <hyperlink ref="J3:J4" r:id="rId3" display="prince.chaurasia@quadlabs.com" xr:uid="{EFCA37EF-1518-4D89-B32B-BC9302604211}"/>
-    <hyperlink ref="I3:I4" r:id="rId4" display="Password@12345" xr:uid="{36269745-F1D3-4043-87EE-D1C23A6E6E5F}"/>
+    <hyperlink ref="I2" r:id="rId1" display="Password@12345"/>
+    <hyperlink ref="J2" r:id="rId2" display="prince.chaurasia@quadlabs.com"/>
+    <hyperlink ref="J3:J4" r:id="rId3" display="prince.chaurasia@quadlabs.com"/>
+    <hyperlink ref="I3:I4" r:id="rId4" display="Password@12345"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
@@ -4044,7 +4043,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2DE7C2C-58F9-4809-B4E5-FC6426317B63}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4471,43 +4470,43 @@
     </row>
   </sheetData>
   <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J4" xr:uid="{040E7B89-9C3E-46C1-882B-7BF0FBE496E7}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J4">
       <formula1>"prince.chaurasia@quadlabs.com,Gunjan.swain@quadlabs.com,laxmi.khanal@quadlabs.com"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I4" xr:uid="{E4602EEA-88FD-4E2D-BE21-4A2EC5D5F490}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I4">
       <formula1>"Password@12345,GXPC6NWQVFKVOZG,Laxmi@123"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H4" xr:uid="{8158DE06-2117-48EB-9A43-2215D7D7BCDA}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H4">
       <formula1>"Shubham1,Shubham,rsudesh15"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F4" xr:uid="{14BABF26-27BD-4314-B8F9-8A06BEE310A2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F4">
       <formula1>"//staging117/sbt,//preprod.quadlabs.net/sbt/#"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D4" xr:uid="{90E64679-557F-4EDA-BF0D-121A24A4F687}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D4">
       <formula1>"Shubham Natkar,Laxmi Khanal,Sudesh Kumar"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B4" xr:uid="{36662D4B-1D9A-4991-8E08-2758D7C16416}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B4">
       <formula1>"Prince Chaurasia,Gunjan Swain,Shubham Natkar,Laxmi Khanal,Sudesh Kumar"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C4" xr:uid="{A0A40859-AD3E-4CE3-AFC5-F4A8B778F984}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C4">
       <formula1>"TravelArranger,Admin"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E4" xr:uid="{6AB5DA6D-57EC-4590-8938-534E9DA31C36}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E4">
       <formula1>"sbt,preprod117"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1" display="Password@12345" xr:uid="{94BAE613-8D23-4CDA-A88D-071B0CBB51A9}"/>
-    <hyperlink ref="J2" r:id="rId2" display="prince.chaurasia@quadlabs.com" xr:uid="{532DD22A-0ED9-4DF7-B6EB-22D2D48F8AF2}"/>
-    <hyperlink ref="J3:J4" r:id="rId3" display="prince.chaurasia@quadlabs.com" xr:uid="{1EC892D5-192E-4278-945C-74E5AAADC535}"/>
-    <hyperlink ref="I3:I4" r:id="rId4" display="Password@12345" xr:uid="{5EDC703F-BCC2-4007-ABFC-2A3D3C91FA37}"/>
+    <hyperlink ref="I2" r:id="rId1" display="Password@12345"/>
+    <hyperlink ref="J2" r:id="rId2" display="prince.chaurasia@quadlabs.com"/>
+    <hyperlink ref="J3:J4" r:id="rId3" display="prince.chaurasia@quadlabs.com"/>
+    <hyperlink ref="I3:I4" r:id="rId4" display="Password@12345"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4792,8 +4791,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="I2" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="H2" r:id="rId1"/>
+    <hyperlink ref="I2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -4801,7 +4800,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D31FB10-F068-4BB1-9FBF-96FF62FA172E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU2"/>
   <sheetViews>
     <sheetView topLeftCell="N1" workbookViewId="0">
@@ -5106,9 +5105,9 @@
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{8EE212DD-DA08-4E19-A9E1-55B35646DC10}"/>
-    <hyperlink ref="F2" r:id="rId2" xr:uid="{31423249-4324-40A5-B6F1-3D41A707C094}"/>
-    <hyperlink ref="AL2" r:id="rId3" xr:uid="{7FA23B2D-BD95-44CD-9DB2-3077F3B96A0F}"/>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="F2" r:id="rId2"/>
+    <hyperlink ref="AL2" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/excel/SBT_Hotel.xlsx
+++ b/data/excel/SBT_Hotel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation\projectQuadlabs\data\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E12A744-81ED-4EFA-8E9B-8632E37A2210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74B8DD06-5232-4789-8EA4-1765E7B1452B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Business" sheetId="13" r:id="rId1"/>
@@ -22,18 +22,19 @@
     <sheet name="Sheet9" sheetId="25" r:id="rId7"/>
     <sheet name="Sheet10" sheetId="26" r:id="rId8"/>
     <sheet name="Sheet11" sheetId="27" r:id="rId9"/>
-    <sheet name="Sheet12" sheetId="28" r:id="rId10"/>
-    <sheet name="Sheet3" sheetId="18" r:id="rId11"/>
-    <sheet name="Sheet2" sheetId="17" r:id="rId12"/>
-    <sheet name="Sheet4" sheetId="19" r:id="rId13"/>
-    <sheet name="Dependent" sheetId="5" r:id="rId14"/>
-    <sheet name="Sheet1" sheetId="16" r:id="rId15"/>
-    <sheet name="Personal" sheetId="6" r:id="rId16"/>
-    <sheet name="Guest" sheetId="11" r:id="rId17"/>
-    <sheet name="GuestSheet1" sheetId="15" r:id="rId18"/>
-    <sheet name="SearchWithHotelName" sheetId="2" r:id="rId19"/>
-    <sheet name="BookHotelWithPolicyType" sheetId="3" r:id="rId20"/>
-    <sheet name="AddToCart" sheetId="9" r:id="rId21"/>
+    <sheet name="Sheet13" sheetId="29" r:id="rId10"/>
+    <sheet name="Sheet12" sheetId="28" r:id="rId11"/>
+    <sheet name="Sheet3" sheetId="18" r:id="rId12"/>
+    <sheet name="Sheet2" sheetId="17" r:id="rId13"/>
+    <sheet name="Sheet4" sheetId="19" r:id="rId14"/>
+    <sheet name="Dependent" sheetId="5" r:id="rId15"/>
+    <sheet name="Sheet1" sheetId="16" r:id="rId16"/>
+    <sheet name="Personal" sheetId="6" r:id="rId17"/>
+    <sheet name="Guest" sheetId="11" r:id="rId18"/>
+    <sheet name="GuestSheet1" sheetId="15" r:id="rId19"/>
+    <sheet name="SearchWithHotelName" sheetId="2" r:id="rId20"/>
+    <sheet name="BookHotelWithPolicyType" sheetId="3" r:id="rId21"/>
+    <sheet name="AddToCart" sheetId="9" r:id="rId22"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2556" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2705" uniqueCount="320">
   <si>
     <t>Fop</t>
   </si>
@@ -996,6 +997,15 @@
   </si>
   <si>
     <t>27-Dec-2023</t>
+  </si>
+  <si>
+    <t>5-Dec-2023</t>
+  </si>
+  <si>
+    <t>7-Dec-2023</t>
+  </si>
+  <si>
+    <t>Hotel+Flight</t>
   </si>
 </sst>
 </file>
@@ -1781,11 +1791,675 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2663B78-477A-4A80-9FFF-53D3FC78CF07}">
+  <dimension ref="A1:CA2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="65.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="34" max="35" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="14" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="43.140625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="42.140625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="9" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="49.5703125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="50.42578125" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="19" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="18" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:79" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>170</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="J1" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="K1" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="L1" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="M1" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="N1" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="O1" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="P1" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q1" s="33" t="s">
+        <v>305</v>
+      </c>
+      <c r="R1" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="S1" s="33" t="s">
+        <v>178</v>
+      </c>
+      <c r="T1" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="U1" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="V1" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="W1" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="X1" s="33" t="s">
+        <v>257</v>
+      </c>
+      <c r="Y1" s="25" t="s">
+        <v>262</v>
+      </c>
+      <c r="Z1" s="25" t="s">
+        <v>261</v>
+      </c>
+      <c r="AA1" s="25" t="s">
+        <v>260</v>
+      </c>
+      <c r="AB1" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="AC1" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="AD1" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="AE1" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="AF1" s="33" t="s">
+        <v>183</v>
+      </c>
+      <c r="AG1" s="33" t="s">
+        <v>314</v>
+      </c>
+      <c r="AH1" s="33" t="s">
+        <v>313</v>
+      </c>
+      <c r="AI1" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="AJ1" s="33" t="s">
+        <v>185</v>
+      </c>
+      <c r="AK1" s="33" t="s">
+        <v>186</v>
+      </c>
+      <c r="AL1" s="33" t="s">
+        <v>187</v>
+      </c>
+      <c r="AM1" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="AN1" s="33" t="s">
+        <v>189</v>
+      </c>
+      <c r="AO1" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="AP1" s="33" t="s">
+        <v>191</v>
+      </c>
+      <c r="AQ1" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="AR1" s="33" t="s">
+        <v>193</v>
+      </c>
+      <c r="AS1" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="AT1" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="AU1" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="AV1" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="AW1" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="AX1" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="AY1" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="AZ1" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="BA1" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="BB1" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="BC1" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="BD1" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="BE1" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="BF1" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="BG1" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="BH1" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="BI1" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="BJ1" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="BK1" s="23" t="s">
+        <v>211</v>
+      </c>
+      <c r="BL1" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="BM1" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="BN1" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="BO1" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="BP1" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="BQ1" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="BR1" s="23" t="s">
+        <v>218</v>
+      </c>
+      <c r="BS1" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="BT1" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="BU1" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="BV1" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="BW1" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="BX1" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="BY1" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="BZ1" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="CA1" s="23" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:79" x14ac:dyDescent="0.25">
+      <c r="A2" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>280</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="F2" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="H2" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="I2" s="38" t="s">
+        <v>158</v>
+      </c>
+      <c r="J2" s="38" t="s">
+        <v>159</v>
+      </c>
+      <c r="K2" s="38" t="s">
+        <v>160</v>
+      </c>
+      <c r="L2" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="M2" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="O2" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="P2" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q2" s="24" t="s">
+        <v>311</v>
+      </c>
+      <c r="R2" s="32" t="s">
+        <v>317</v>
+      </c>
+      <c r="S2" s="32" t="s">
+        <v>318</v>
+      </c>
+      <c r="T2" s="24">
+        <v>2</v>
+      </c>
+      <c r="U2" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="V2" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="W2" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="X2" s="36" t="s">
+        <v>258</v>
+      </c>
+      <c r="Y2" s="24">
+        <v>3</v>
+      </c>
+      <c r="Z2" s="24">
+        <v>3</v>
+      </c>
+      <c r="AA2" s="24">
+        <v>3</v>
+      </c>
+      <c r="AB2" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="AC2" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD2" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="AE2" s="24" t="s">
+        <v>231</v>
+      </c>
+      <c r="AF2" s="24" t="s">
+        <v>232</v>
+      </c>
+      <c r="AG2" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="AH2" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="AI2" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="AJ2" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="AK2" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="AL2" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="AM2" s="24">
+        <v>2</v>
+      </c>
+      <c r="AN2" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="AO2" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP2" s="37" t="s">
+        <v>235</v>
+      </c>
+      <c r="AQ2" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="AR2" s="37" t="s">
+        <v>229</v>
+      </c>
+      <c r="AS2" s="37" t="s">
+        <v>236</v>
+      </c>
+      <c r="AT2" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="AU2" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>238</v>
+      </c>
+      <c r="AW2" s="24" t="s">
+        <v>319</v>
+      </c>
+      <c r="AX2" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="AY2" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="AZ2" s="41" t="s">
+        <v>241</v>
+      </c>
+      <c r="BA2" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="BB2" s="41" t="s">
+        <v>242</v>
+      </c>
+      <c r="BC2" s="42" t="s">
+        <v>243</v>
+      </c>
+      <c r="BD2" s="42" t="s">
+        <v>244</v>
+      </c>
+      <c r="BE2" s="24">
+        <v>2</v>
+      </c>
+      <c r="BF2" s="24">
+        <v>1</v>
+      </c>
+      <c r="BG2" s="24">
+        <v>1</v>
+      </c>
+      <c r="BH2" s="24" t="s">
+        <v>245</v>
+      </c>
+      <c r="BI2" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="BJ2" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="BK2" s="26" t="s">
+        <v>246</v>
+      </c>
+      <c r="BL2" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="BM2" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="BN2" s="24">
+        <v>25</v>
+      </c>
+      <c r="BO2" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="BP2" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="BQ2" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="BR2" s="26" t="s">
+        <v>250</v>
+      </c>
+      <c r="BS2" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="BT2" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="BU2" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="BV2" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="BW2" s="43" t="s">
+        <v>253</v>
+      </c>
+      <c r="BX2" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="BY2" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="BZ2" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="CA2" s="39" t="s">
+        <v>129</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <dataValidations count="28">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2 AH2" xr:uid="{1A3610A5-ECFA-492A-A489-37C96F899B80}">
+      <formula1>"5 KM,10 KM,20 KM,30 KM,40 KM,50 KM"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2" xr:uid="{9C19A42A-D89D-4DDE-A4C8-1F1B2743585E}">
+      <formula1>"Applied,NotApplied"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CA2" xr:uid="{A8B41F32-A2C0-478A-86BA-8E141CEEE5B5}">
+      <formula1>"Shubham Natkar,Laxmi Khanal,Sudesh Kumar"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2" xr:uid="{AAF114E8-A236-4AE5-806A-C78913C137C3}">
+      <formula1>"prince.chaurasia@quadlabs.com,Gunjan.swain@quadlabs.com,laxmi.khanal@quadlabs.com,shubham.natkar@quadlabs.com,piyush.chauhan@quadlabs.com,ankur.yadav@quadlabs.com,sachin.kumar@quadlabs.com"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2" xr:uid="{7779DB6C-5818-4915-9A07-02B7C4F6B2AF}">
+      <formula1>"Old,New"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2" xr:uid="{37CB28C1-8D14-42C1-9757-952A8A4818B3}">
+      <formula1>"Poonam_Corp,Amazon,Demo Corporate,Lux_Test_corp,Null"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2" xr:uid="{80C00CFD-CD64-4121-A897-C010A502ED4A}">
+      <formula1>"On,Off"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{091C247D-06C5-4FD7-8F70-2C1E838A460E}">
+      <formula1>"Shubham1,Shubham,rsudesh15,Saurabh,Laxmi,sachinkumar,Piyush,Ankur"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{8720B9F1-353B-4087-B0CF-D6DD3898ED4E}">
+      <formula1>"Administrator,Travel Arranger,Employee"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BE2:BG2" xr:uid="{1FAAD004-7F32-49EA-B311-C8D1210FD73B}">
+      <formula1>"0,1,2,3,4,5"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BH2" xr:uid="{2F394A1B-1399-42F6-8A1F-A6107D2AD137}">
+      <formula1>"Economy,Premium Economy,Business Class,First Class"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AU2" xr:uid="{54EF34A0-0AB1-491D-9588-1CE451363497}">
+      <formula1>"Hotel,Apartment"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS2" xr:uid="{1C77E60E-3F8A-44D2-A112-FCE8C42518AD}">
+      <formula1>"1 Star,2 Star,3 Star,4 Star,5 Star"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2" xr:uid="{3A159A86-6693-4F7B-A136-06CFEA738A20}">
+      <formula1>"1,2,3,4,5"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AW2" xr:uid="{FEF861A3-51ED-43C0-B28A-BE3EB50513E4}">
+      <formula1>"Hotel,Hotel+Flight,Hotel+Car,Hotel+Flight+Car,Hotel+Car+Flight"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BW2" xr:uid="{2128310B-E046-4186-898C-B1B47CA85B1F}">
+      <formula1>"MasterCard,Visa"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BX2" xr:uid="{524E775D-F779-431E-B57A-0D09D5C33E50}">
+      <formula1>"5123456789012346,4111111111111111"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BU2" xr:uid="{C3D9C8E7-F169-45B4-9589-7816A1C423AC}">
+      <formula1>"Quote,BookAndQuote,Fulfilment"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BI2 AT2 AQ2:AR2 AD2 AI2 AB2 AG2 BO2 AL2" xr:uid="{626BF180-88BC-473D-86A0-BED78CBB0A22}">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2 AC2" xr:uid="{B6A172F9-1570-47CE-8EBD-679A7B8A20BC}">
+      <formula1>"Individual,Dependent,Personal,Guest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2" xr:uid="{AF1F245C-F5C8-4D1D-B5C8-900E635A7B65}">
+      <formula1>"sbt,preprod117,Live"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AX2" xr:uid="{9AE0CBBB-F3CD-4653-BF77-58ED53B5C627}">
+      <formula1>"OneWay,RoundTrip,MultiCity"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BV2" xr:uid="{5A701C4E-D11A-4206-843D-A5EE38C499FD}">
+      <formula1>"Credit Card,Bill To Company"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2" xr:uid="{4CE3F444-FD09-47FC-B12F-AFEB6FD7C7F6}">
+      <formula1>"Domestic,International"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BR2" xr:uid="{49EE4478-AAE1-4831-B450-9BB5A6CF33F3}">
+      <formula1>"SendForApproval,ProceedToCheckout"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{E7F00521-023F-4D90-9127-367B050517F5}">
+      <formula1>"//staging117/sbt,//preprod.quadlabs.net/sbt/#,test.quadlabs.net/sbt,tripsource.co.in/sbt/#"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2" xr:uid="{7AF69C06-712F-47A3-8CF4-3AA749857B70}">
+      <formula1>"Saurabh,Prince Chaurasia,Gunjan Swain,Shubham,Laxmi Khanal,Sudesh Kumar,Piyush,Ankur"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2" xr:uid="{4EA60C40-CBED-4436-81AD-7AEDED4DD7CE}">
+      <formula1>"Laxmi@123,Admin@123,S21FUMK6JAPLBYO,Shubham@123,BAVYBXVY09FKGTY,Piyush@123,Ankur@123,DWUFR8WRAR6SL1M"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1" display="Admin@123" xr:uid="{F8B10C09-66E6-42AC-8295-AEF5443AE37C}"/>
+    <hyperlink ref="L2" r:id="rId2" display="prince.chaurasia@quadlabs.com" xr:uid="{82DEF3E1-6F1D-457E-BE1F-5A6E173461AB}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17C3C0B8-E706-4C31-B9AD-3EE948CD9917}">
   <dimension ref="A1:CA2"/>
   <sheetViews>
     <sheetView topLeftCell="AB1" workbookViewId="0">
-      <selection activeCell="AK10" sqref="AK10"/>
+      <selection activeCell="AJ24" sqref="AJ24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2443,7 +3117,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AE4"/>
   <sheetViews>
@@ -2901,7 +3575,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AE2"/>
   <sheetViews>
@@ -3167,7 +3841,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AE2"/>
   <sheetViews>
@@ -3433,7 +4107,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AH9"/>
   <sheetViews>
@@ -3938,7 +4612,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AH4"/>
   <sheetViews>
@@ -4401,7 +5075,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AQ2"/>
   <sheetViews>
@@ -4695,7 +5369,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:AU2"/>
   <sheetViews>
@@ -5009,7 +5683,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:AY2"/>
   <sheetViews>
@@ -5390,189 +6064,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:X2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="22.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" customWidth="1"/>
-    <col min="9" max="9" width="28" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.28515625" customWidth="1"/>
-    <col min="11" max="11" width="19.140625" customWidth="1"/>
-    <col min="15" max="16" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="F2" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="G2" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="L2" s="2">
-        <v>1</v>
-      </c>
-      <c r="M2" s="2">
-        <v>0</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="P2" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>1</v>
-      </c>
-      <c r="R2" s="2">
-        <v>1</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T2" s="2">
-        <v>345678</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="W2" s="2">
-        <v>123</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
-    <hyperlink ref="O2" r:id="rId2" location="hl_pop" display="http://staging117/OnlineMetaBookSBT/Online/HotelResults?Uid=a112f1a5-3fa2-44dc-9fa2-c1b5ce9cf23325216 - hl_pop" xr:uid="{00000000-0004-0000-0A00-000001000000}"/>
-    <hyperlink ref="F2" r:id="rId3" xr:uid="{00000000-0004-0000-0A00-000002000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AE4"/>
@@ -6037,6 +6528,189 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:X2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="22.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" customWidth="1"/>
+    <col min="9" max="9" width="28" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" customWidth="1"/>
+    <col min="11" max="11" width="19.140625" customWidth="1"/>
+    <col min="15" max="16" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="P2" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>1</v>
+      </c>
+      <c r="R2" s="2">
+        <v>1</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T2" s="2">
+        <v>345678</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="W2" s="2">
+        <v>123</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
+    <hyperlink ref="O2" r:id="rId2" location="hl_pop" display="http://staging117/OnlineMetaBookSBT/Online/HotelResults?Uid=a112f1a5-3fa2-44dc-9fa2-c1b5ce9cf23325216 - hl_pop" xr:uid="{00000000-0004-0000-0A00-000001000000}"/>
+    <hyperlink ref="F2" r:id="rId3" xr:uid="{00000000-0004-0000-0A00-000002000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:U2"/>
   <sheetViews>
@@ -6195,7 +6869,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:R2"/>
   <sheetViews>
@@ -10140,8 +10814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C94F68AA-2925-4A8A-AFF9-A79AC2FD9002}">
   <dimension ref="A1:CA8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/excel/SBT_Hotel.xlsx
+++ b/data/excel/SBT_Hotel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation\projectQuadlabs\data\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74B8DD06-5232-4789-8EA4-1765E7B1452B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B33A63D4-D10E-4B11-9E8E-4BE578A69A1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Business" sheetId="13" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2705" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2705" uniqueCount="322">
   <si>
     <t>Fop</t>
   </si>
@@ -1005,7 +1005,13 @@
     <t>7-Dec-2023</t>
   </si>
   <si>
-    <t>Hotel+Flight</t>
+    <t>Hotel domestic booking flow for Individual (Admin)</t>
+  </si>
+  <si>
+    <t>19-Dec-2023</t>
+  </si>
+  <si>
+    <t>21-Dec-2023</t>
   </si>
 </sst>
 </file>
@@ -1794,15 +1800,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2663B78-477A-4A80-9FFF-53D3FC78CF07}">
   <dimension ref="A1:CA2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="BL1" workbookViewId="0">
+      <selection activeCell="BZ6" sqref="BZ6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="49.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
@@ -2124,7 +2130,7 @@
         <v>147</v>
       </c>
       <c r="B2" s="37" t="s">
-        <v>280</v>
+        <v>319</v>
       </c>
       <c r="C2" s="24" t="s">
         <v>144</v>
@@ -2136,7 +2142,7 @@
         <v>137</v>
       </c>
       <c r="F2" s="31" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="G2" s="28" t="s">
         <v>137</v>
@@ -2190,7 +2196,7 @@
         <v>151</v>
       </c>
       <c r="X2" s="36" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="Y2" s="24">
         <v>3</v>
@@ -2265,7 +2271,7 @@
         <v>238</v>
       </c>
       <c r="AW2" s="24" t="s">
-        <v>319</v>
+        <v>256</v>
       </c>
       <c r="AX2" s="24" t="s">
         <v>239</v>
@@ -2355,7 +2361,7 @@
         <v>255</v>
       </c>
       <c r="CA2" s="39" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -2458,8 +2464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17C3C0B8-E706-4C31-B9AD-3EE948CD9917}">
   <dimension ref="A1:CA2"/>
   <sheetViews>
-    <sheetView topLeftCell="AB1" workbookViewId="0">
-      <selection activeCell="AJ24" sqref="AJ24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2836,10 +2842,10 @@
         <v>311</v>
       </c>
       <c r="R2" s="40" t="s">
-        <v>294</v>
+        <v>320</v>
       </c>
       <c r="S2" s="40" t="s">
-        <v>295</v>
+        <v>321</v>
       </c>
       <c r="T2" s="24">
         <v>2</v>
@@ -2854,7 +2860,7 @@
         <v>151</v>
       </c>
       <c r="X2" s="36" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="Y2" s="24">
         <v>3</v>
@@ -3846,7 +3852,7 @@
   <dimension ref="A1:AE2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10815,7 +10821,7 @@
   <dimension ref="A1:CA8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/excel/SBT_Hotel.xlsx
+++ b/data/excel/SBT_Hotel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation\projectQuadlabs\data\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ankur.Yadav\git\ProjectQuadlabs\data\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B33A63D4-D10E-4B11-9E8E-4BE578A69A1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{266AD381-7767-4704-A567-9DC8ACD45FF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2705" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3003" uniqueCount="339">
   <si>
     <t>Fop</t>
   </si>
@@ -999,12 +999,6 @@
     <t>27-Dec-2023</t>
   </si>
   <si>
-    <t>5-Dec-2023</t>
-  </si>
-  <si>
-    <t>7-Dec-2023</t>
-  </si>
-  <si>
     <t>Hotel domestic booking flow for Individual (Admin)</t>
   </si>
   <si>
@@ -1012,6 +1006,63 @@
   </si>
   <si>
     <t>21-Dec-2023</t>
+  </si>
+  <si>
+    <t>LoginType</t>
+  </si>
+  <si>
+    <t>Emailid</t>
+  </si>
+  <si>
+    <t>SDN</t>
+  </si>
+  <si>
+    <t>test.quadlabs.net</t>
+  </si>
+  <si>
+    <t>//test.quadlabs.net/SSO_Login</t>
+  </si>
+  <si>
+    <t>SSO Login</t>
+  </si>
+  <si>
+    <t>Hotel International booking flow for Individual (Admin)</t>
+  </si>
+  <si>
+    <t>26-Feb-2024</t>
+  </si>
+  <si>
+    <t>24-Jan-2024</t>
+  </si>
+  <si>
+    <t>26-Jan-2024</t>
+  </si>
+  <si>
+    <t>29-Jan-2024</t>
+  </si>
+  <si>
+    <t>31-Jan-2024</t>
+  </si>
+  <si>
+    <t>28-Feb-2024</t>
+  </si>
+  <si>
+    <t>19-Feb-2024</t>
+  </si>
+  <si>
+    <t>21-Feb-2024</t>
+  </si>
+  <si>
+    <t>22-Feb-2024</t>
+  </si>
+  <si>
+    <t>23-Feb-2024</t>
+  </si>
+  <si>
+    <t>sachinkumar</t>
+  </si>
+  <si>
+    <t>Ankur@123</t>
   </si>
 </sst>
 </file>
@@ -1798,95 +1849,97 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2663B78-477A-4A80-9FFF-53D3FC78CF07}">
-  <dimension ref="A1:CA2"/>
+  <dimension ref="A1:CD6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BL1" workbookViewId="0">
-      <selection activeCell="BZ6" sqref="BZ6"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="65.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="15" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="34" max="35" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="14" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="43.140625" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="42.140625" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="9" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="49.5703125" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="50.42578125" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="19" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="18" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" customWidth="1"/>
+    <col min="6" max="6" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5703125" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="13.28515625" customWidth="1"/>
+    <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="65.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="15" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="37" max="38" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="14" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="43.140625" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="42.140625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="9" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="49.5703125" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="50.42578125" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="19" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="18" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A1" s="35" t="s">
         <v>120</v>
       </c>
@@ -1900,561 +1953,1579 @@
         <v>37</v>
       </c>
       <c r="E1" s="23" t="s">
+        <v>320</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>321</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>322</v>
+      </c>
+      <c r="H1" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="I1" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="J1" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="K1" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="L1" s="29" t="s">
         <v>155</v>
       </c>
-      <c r="J1" s="29" t="s">
+      <c r="M1" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="K1" s="29" t="s">
+      <c r="N1" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="O1" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="M1" s="23" t="s">
+      <c r="P1" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="N1" s="23" t="s">
+      <c r="Q1" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="O1" s="33" t="s">
+      <c r="R1" s="33" t="s">
         <v>175</v>
       </c>
-      <c r="P1" s="33" t="s">
+      <c r="S1" s="33" t="s">
         <v>176</v>
       </c>
-      <c r="Q1" s="33" t="s">
+      <c r="T1" s="33" t="s">
         <v>305</v>
       </c>
-      <c r="R1" s="33" t="s">
+      <c r="U1" s="33" t="s">
         <v>177</v>
       </c>
-      <c r="S1" s="33" t="s">
+      <c r="V1" s="33" t="s">
         <v>178</v>
       </c>
-      <c r="T1" s="33" t="s">
+      <c r="W1" s="33" t="s">
         <v>168</v>
       </c>
-      <c r="U1" s="33" t="s">
+      <c r="X1" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="V1" s="33" t="s">
+      <c r="Y1" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="W1" s="33" t="s">
+      <c r="Z1" s="33" t="s">
         <v>169</v>
       </c>
-      <c r="X1" s="33" t="s">
+      <c r="AA1" s="33" t="s">
         <v>257</v>
       </c>
-      <c r="Y1" s="25" t="s">
+      <c r="AB1" s="25" t="s">
         <v>262</v>
       </c>
-      <c r="Z1" s="25" t="s">
+      <c r="AC1" s="25" t="s">
         <v>261</v>
       </c>
-      <c r="AA1" s="25" t="s">
+      <c r="AD1" s="25" t="s">
         <v>260</v>
       </c>
-      <c r="AB1" s="23" t="s">
+      <c r="AE1" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="AC1" s="23" t="s">
+      <c r="AF1" s="23" t="s">
         <v>180</v>
       </c>
-      <c r="AD1" s="23" t="s">
+      <c r="AG1" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="AE1" s="33" t="s">
+      <c r="AH1" s="33" t="s">
         <v>182</v>
       </c>
-      <c r="AF1" s="33" t="s">
+      <c r="AI1" s="33" t="s">
         <v>183</v>
       </c>
-      <c r="AG1" s="33" t="s">
+      <c r="AJ1" s="33" t="s">
         <v>314</v>
       </c>
-      <c r="AH1" s="33" t="s">
+      <c r="AK1" s="33" t="s">
         <v>313</v>
       </c>
-      <c r="AI1" s="33" t="s">
+      <c r="AL1" s="33" t="s">
         <v>184</v>
       </c>
-      <c r="AJ1" s="33" t="s">
+      <c r="AM1" s="33" t="s">
         <v>185</v>
       </c>
-      <c r="AK1" s="33" t="s">
+      <c r="AN1" s="33" t="s">
         <v>186</v>
       </c>
-      <c r="AL1" s="33" t="s">
+      <c r="AO1" s="33" t="s">
         <v>187</v>
       </c>
-      <c r="AM1" s="33" t="s">
+      <c r="AP1" s="33" t="s">
         <v>188</v>
       </c>
-      <c r="AN1" s="33" t="s">
+      <c r="AQ1" s="33" t="s">
         <v>189</v>
       </c>
-      <c r="AO1" s="33" t="s">
+      <c r="AR1" s="33" t="s">
         <v>190</v>
       </c>
-      <c r="AP1" s="33" t="s">
+      <c r="AS1" s="33" t="s">
         <v>191</v>
       </c>
-      <c r="AQ1" s="23" t="s">
+      <c r="AT1" s="23" t="s">
         <v>192</v>
       </c>
-      <c r="AR1" s="33" t="s">
+      <c r="AU1" s="33" t="s">
         <v>193</v>
       </c>
-      <c r="AS1" s="33" t="s">
+      <c r="AV1" s="33" t="s">
         <v>194</v>
       </c>
-      <c r="AT1" s="23" t="s">
+      <c r="AW1" s="23" t="s">
         <v>195</v>
       </c>
-      <c r="AU1" s="23" t="s">
+      <c r="AX1" s="23" t="s">
         <v>196</v>
       </c>
-      <c r="AV1" s="23" t="s">
+      <c r="AY1" s="23" t="s">
         <v>197</v>
       </c>
-      <c r="AW1" s="23" t="s">
+      <c r="AZ1" s="23" t="s">
         <v>198</v>
       </c>
-      <c r="AX1" s="23" t="s">
+      <c r="BA1" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="AY1" s="23" t="s">
+      <c r="BB1" s="23" t="s">
         <v>200</v>
       </c>
-      <c r="AZ1" s="23" t="s">
+      <c r="BC1" s="23" t="s">
         <v>201</v>
       </c>
-      <c r="BA1" s="23" t="s">
+      <c r="BD1" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="BB1" s="23" t="s">
+      <c r="BE1" s="23" t="s">
         <v>203</v>
       </c>
-      <c r="BC1" s="23" t="s">
+      <c r="BF1" s="23" t="s">
         <v>204</v>
       </c>
-      <c r="BD1" s="23" t="s">
+      <c r="BG1" s="23" t="s">
         <v>205</v>
       </c>
-      <c r="BE1" s="23" t="s">
+      <c r="BH1" s="23" t="s">
         <v>206</v>
       </c>
-      <c r="BF1" s="23" t="s">
+      <c r="BI1" s="23" t="s">
         <v>207</v>
       </c>
-      <c r="BG1" s="23" t="s">
+      <c r="BJ1" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="BH1" s="23" t="s">
+      <c r="BK1" s="23" t="s">
         <v>208</v>
       </c>
-      <c r="BI1" s="23" t="s">
+      <c r="BL1" s="23" t="s">
         <v>209</v>
       </c>
-      <c r="BJ1" s="23" t="s">
+      <c r="BM1" s="23" t="s">
         <v>210</v>
       </c>
-      <c r="BK1" s="23" t="s">
+      <c r="BN1" s="23" t="s">
         <v>211</v>
       </c>
-      <c r="BL1" s="23" t="s">
+      <c r="BO1" s="23" t="s">
         <v>212</v>
       </c>
-      <c r="BM1" s="23" t="s">
+      <c r="BP1" s="23" t="s">
         <v>213</v>
       </c>
-      <c r="BN1" s="23" t="s">
+      <c r="BQ1" s="23" t="s">
         <v>214</v>
       </c>
-      <c r="BO1" s="23" t="s">
+      <c r="BR1" s="23" t="s">
         <v>215</v>
       </c>
-      <c r="BP1" s="23" t="s">
+      <c r="BS1" s="23" t="s">
         <v>216</v>
       </c>
-      <c r="BQ1" s="23" t="s">
+      <c r="BT1" s="23" t="s">
         <v>217</v>
       </c>
-      <c r="BR1" s="23" t="s">
+      <c r="BU1" s="23" t="s">
         <v>218</v>
       </c>
-      <c r="BS1" s="23" t="s">
+      <c r="BV1" s="23" t="s">
         <v>219</v>
       </c>
-      <c r="BT1" s="23" t="s">
+      <c r="BW1" s="23" t="s">
         <v>220</v>
       </c>
-      <c r="BU1" s="23" t="s">
+      <c r="BX1" s="23" t="s">
         <v>221</v>
       </c>
-      <c r="BV1" s="23" t="s">
+      <c r="BY1" s="23" t="s">
         <v>222</v>
       </c>
-      <c r="BW1" s="23" t="s">
+      <c r="BZ1" s="23" t="s">
         <v>223</v>
       </c>
-      <c r="BX1" s="23" t="s">
+      <c r="CA1" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="BY1" s="23" t="s">
+      <c r="CB1" s="23" t="s">
         <v>225</v>
       </c>
-      <c r="BZ1" s="23" t="s">
+      <c r="CC1" s="23" t="s">
         <v>226</v>
       </c>
-      <c r="CA1" s="23" t="s">
+      <c r="CD1" s="23" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="2" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
         <v>147</v>
       </c>
       <c r="B2" s="37" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C2" s="24" t="s">
         <v>144</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>164</v>
+        <v>324</v>
       </c>
       <c r="E2" s="28" t="s">
+        <v>325</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>323</v>
+      </c>
+      <c r="H2" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="F2" s="31" t="s">
+      <c r="I2" s="31" t="s">
         <v>161</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="J2" s="28" t="s">
+        <v>337</v>
+      </c>
+      <c r="K2" s="30" t="s">
+        <v>338</v>
+      </c>
+      <c r="L2" s="38" t="s">
+        <v>158</v>
+      </c>
+      <c r="M2" s="38" t="s">
+        <v>159</v>
+      </c>
+      <c r="N2" s="38" t="s">
+        <v>160</v>
+      </c>
+      <c r="O2" s="30" t="s">
+        <v>163</v>
+      </c>
+      <c r="P2" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q2" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="R2" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="S2" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="T2" s="24" t="s">
+        <v>311</v>
+      </c>
+      <c r="U2" s="32" t="s">
+        <v>335</v>
+      </c>
+      <c r="V2" s="32" t="s">
+        <v>336</v>
+      </c>
+      <c r="W2" s="24">
+        <v>2</v>
+      </c>
+      <c r="X2" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="Y2" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z2" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA2" s="36" t="s">
+        <v>258</v>
+      </c>
+      <c r="AB2" s="24">
+        <v>3</v>
+      </c>
+      <c r="AC2" s="24">
+        <v>3</v>
+      </c>
+      <c r="AD2" s="24">
+        <v>3</v>
+      </c>
+      <c r="AE2" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="AF2" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG2" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="AH2" s="24" t="s">
+        <v>231</v>
+      </c>
+      <c r="AI2" s="24" t="s">
+        <v>232</v>
+      </c>
+      <c r="AJ2" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="AK2" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="AL2" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="AM2" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="AN2" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="AO2" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="AP2" s="24">
+        <v>2</v>
+      </c>
+      <c r="AQ2" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="AR2" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="AS2" s="37" t="s">
+        <v>235</v>
+      </c>
+      <c r="AT2" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="AU2" s="37" t="s">
+        <v>229</v>
+      </c>
+      <c r="AV2" s="37" t="s">
+        <v>236</v>
+      </c>
+      <c r="AW2" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="AX2" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>238</v>
+      </c>
+      <c r="AZ2" s="24" t="s">
+        <v>256</v>
+      </c>
+      <c r="BA2" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="BB2" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="BC2" s="41" t="s">
+        <v>241</v>
+      </c>
+      <c r="BD2" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="BE2" s="41" t="s">
+        <v>242</v>
+      </c>
+      <c r="BF2" s="42" t="s">
+        <v>243</v>
+      </c>
+      <c r="BG2" s="42" t="s">
+        <v>244</v>
+      </c>
+      <c r="BH2" s="24">
+        <v>2</v>
+      </c>
+      <c r="BI2" s="24">
+        <v>1</v>
+      </c>
+      <c r="BJ2" s="24">
+        <v>1</v>
+      </c>
+      <c r="BK2" s="24" t="s">
+        <v>245</v>
+      </c>
+      <c r="BL2" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="BM2" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="BN2" s="26" t="s">
+        <v>246</v>
+      </c>
+      <c r="BO2" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="BP2" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="BQ2" s="24">
+        <v>25</v>
+      </c>
+      <c r="BR2" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="BS2" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="BT2" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="BU2" s="26" t="s">
+        <v>250</v>
+      </c>
+      <c r="BV2" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="BW2" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="BX2" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="BY2" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="BZ2" s="43" t="s">
+        <v>253</v>
+      </c>
+      <c r="CA2" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="CB2" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="CC2" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="CD2" s="39" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:82" x14ac:dyDescent="0.25">
+      <c r="A3" s="37" t="s">
+        <v>148</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>326</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>324</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>325</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="G3" s="28" t="s">
+        <v>323</v>
+      </c>
+      <c r="H3" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="H2" s="30" t="s">
-        <v>162</v>
-      </c>
-      <c r="I2" s="38" t="s">
+      <c r="I3" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="J3" s="28" t="s">
+        <v>337</v>
+      </c>
+      <c r="K3" s="30" t="s">
+        <v>338</v>
+      </c>
+      <c r="L3" s="38" t="s">
         <v>158</v>
       </c>
-      <c r="J2" s="38" t="s">
+      <c r="M3" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="K2" s="38" t="s">
+      <c r="N3" s="38" t="s">
         <v>160</v>
       </c>
-      <c r="L2" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="M2" s="24" t="s">
+      <c r="O3" s="30" t="s">
+        <v>163</v>
+      </c>
+      <c r="P3" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="24" t="s">
+      <c r="Q3" s="24" t="s">
         <v>227</v>
       </c>
-      <c r="O2" s="24" t="s">
+      <c r="R3" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="P2" s="24" t="s">
+      <c r="S3" s="24" t="s">
         <v>165</v>
       </c>
-      <c r="Q2" s="24" t="s">
+      <c r="T3" s="24" t="s">
         <v>311</v>
       </c>
-      <c r="R2" s="32" t="s">
+      <c r="U3" s="32" t="s">
+        <v>328</v>
+      </c>
+      <c r="V3" s="32" t="s">
+        <v>329</v>
+      </c>
+      <c r="W3" s="24">
+        <v>2</v>
+      </c>
+      <c r="X3" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="Y3" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z3" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA3" s="36" t="s">
+        <v>258</v>
+      </c>
+      <c r="AB3" s="24">
+        <v>3</v>
+      </c>
+      <c r="AC3" s="24">
+        <v>3</v>
+      </c>
+      <c r="AD3" s="24">
+        <v>3</v>
+      </c>
+      <c r="AE3" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="AF3" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG3" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="AH3" s="24" t="s">
+        <v>231</v>
+      </c>
+      <c r="AI3" s="24" t="s">
+        <v>232</v>
+      </c>
+      <c r="AJ3" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="AK3" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="AL3" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="AM3" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="AN3" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="AO3" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="AP3" s="24">
+        <v>2</v>
+      </c>
+      <c r="AQ3" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="AR3" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="AS3" s="37" t="s">
+        <v>235</v>
+      </c>
+      <c r="AT3" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="AU3" s="37" t="s">
+        <v>229</v>
+      </c>
+      <c r="AV3" s="37" t="s">
+        <v>236</v>
+      </c>
+      <c r="AW3" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="AX3" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>238</v>
+      </c>
+      <c r="AZ3" s="24" t="s">
+        <v>256</v>
+      </c>
+      <c r="BA3" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="BB3" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="BC3" s="41" t="s">
+        <v>241</v>
+      </c>
+      <c r="BD3" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="BE3" s="41" t="s">
+        <v>242</v>
+      </c>
+      <c r="BF3" s="42" t="s">
+        <v>243</v>
+      </c>
+      <c r="BG3" s="42" t="s">
+        <v>244</v>
+      </c>
+      <c r="BH3" s="24">
+        <v>2</v>
+      </c>
+      <c r="BI3" s="24">
+        <v>1</v>
+      </c>
+      <c r="BJ3" s="24">
+        <v>1</v>
+      </c>
+      <c r="BK3" s="24" t="s">
+        <v>245</v>
+      </c>
+      <c r="BL3" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="BM3" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="BN3" s="26" t="s">
+        <v>246</v>
+      </c>
+      <c r="BO3" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="BP3" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="BQ3" s="24">
+        <v>25</v>
+      </c>
+      <c r="BR3" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="BS3" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="BT3" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="BU3" s="26" t="s">
+        <v>250</v>
+      </c>
+      <c r="BV3" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="BW3" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="BX3" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="BY3" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="BZ3" s="43" t="s">
+        <v>253</v>
+      </c>
+      <c r="CA3" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="CB3" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="CC3" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="CD3" s="39" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:82" x14ac:dyDescent="0.25">
+      <c r="A4" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="B4" s="37" t="s">
         <v>317</v>
       </c>
-      <c r="S2" s="32" t="s">
-        <v>318</v>
-      </c>
-      <c r="T2" s="24">
+      <c r="C4" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>324</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>325</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>323</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="I4" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>337</v>
+      </c>
+      <c r="K4" s="30" t="s">
+        <v>338</v>
+      </c>
+      <c r="L4" s="38" t="s">
+        <v>158</v>
+      </c>
+      <c r="M4" s="38" t="s">
+        <v>159</v>
+      </c>
+      <c r="N4" s="38" t="s">
+        <v>160</v>
+      </c>
+      <c r="O4" s="30" t="s">
+        <v>163</v>
+      </c>
+      <c r="P4" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q4" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="R4" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="S4" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="T4" s="24" t="s">
+        <v>311</v>
+      </c>
+      <c r="U4" s="32" t="s">
+        <v>330</v>
+      </c>
+      <c r="V4" s="32" t="s">
+        <v>331</v>
+      </c>
+      <c r="W4" s="24">
         <v>2</v>
       </c>
-      <c r="U2" s="24" t="s">
+      <c r="X4" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="V2" s="37" t="s">
+      <c r="Y4" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="W2" s="37" t="s">
+      <c r="Z4" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="X2" s="36" t="s">
-        <v>270</v>
-      </c>
-      <c r="Y2" s="24">
+      <c r="AA4" s="36" t="s">
+        <v>258</v>
+      </c>
+      <c r="AB4" s="24">
         <v>3</v>
       </c>
-      <c r="Z2" s="24">
+      <c r="AC4" s="24">
         <v>3</v>
       </c>
-      <c r="AA2" s="24">
+      <c r="AD4" s="24">
         <v>3</v>
       </c>
-      <c r="AB2" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="AC2" s="24" t="s">
+      <c r="AE4" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="AF4" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="AD2" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="AE2" s="24" t="s">
+      <c r="AG4" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="AH4" s="24" t="s">
         <v>231</v>
       </c>
-      <c r="AF2" s="24" t="s">
+      <c r="AI4" s="24" t="s">
         <v>232</v>
       </c>
-      <c r="AG2" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="AH2" s="24" t="s">
+      <c r="AJ4" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="AK4" s="24" t="s">
         <v>309</v>
       </c>
-      <c r="AI2" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="AJ2" s="26" t="s">
+      <c r="AL4" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="AM4" s="26" t="s">
         <v>233</v>
       </c>
-      <c r="AK2" s="26" t="s">
+      <c r="AN4" s="26" t="s">
         <v>234</v>
       </c>
-      <c r="AL2" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="AM2" s="24">
+      <c r="AO4" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="AP4" s="24">
         <v>2</v>
       </c>
-      <c r="AN2" s="24" t="s">
+      <c r="AQ4" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="AO2" s="37" t="s">
+      <c r="AR4" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="AP2" s="37" t="s">
+      <c r="AS4" s="37" t="s">
         <v>235</v>
       </c>
-      <c r="AQ2" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="AR2" s="37" t="s">
-        <v>229</v>
-      </c>
-      <c r="AS2" s="37" t="s">
+      <c r="AT4" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="AU4" s="37" t="s">
+        <v>229</v>
+      </c>
+      <c r="AV4" s="37" t="s">
         <v>236</v>
       </c>
-      <c r="AT2" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="AU2" s="24" t="s">
+      <c r="AW4" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="AX4" s="24" t="s">
         <v>237</v>
       </c>
-      <c r="AV2" t="s">
+      <c r="AY4" t="s">
         <v>238</v>
       </c>
-      <c r="AW2" s="24" t="s">
+      <c r="AZ4" s="24" t="s">
         <v>256</v>
       </c>
-      <c r="AX2" s="24" t="s">
+      <c r="BA4" s="24" t="s">
         <v>239</v>
       </c>
-      <c r="AY2" s="2" t="s">
+      <c r="BB4" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="AZ2" s="41" t="s">
+      <c r="BC4" s="41" t="s">
         <v>241</v>
       </c>
-      <c r="BA2" s="2" t="s">
+      <c r="BD4" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="BB2" s="41" t="s">
+      <c r="BE4" s="41" t="s">
         <v>242</v>
       </c>
-      <c r="BC2" s="42" t="s">
+      <c r="BF4" s="42" t="s">
         <v>243</v>
       </c>
-      <c r="BD2" s="42" t="s">
+      <c r="BG4" s="42" t="s">
         <v>244</v>
       </c>
-      <c r="BE2" s="24">
+      <c r="BH4" s="24">
         <v>2</v>
       </c>
-      <c r="BF2" s="24">
+      <c r="BI4" s="24">
         <v>1</v>
       </c>
-      <c r="BG2" s="24">
+      <c r="BJ4" s="24">
         <v>1</v>
       </c>
-      <c r="BH2" s="24" t="s">
+      <c r="BK4" s="24" t="s">
         <v>245</v>
       </c>
-      <c r="BI2" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="BJ2" s="24" t="s">
+      <c r="BL4" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="BM4" s="24" t="s">
         <v>228</v>
       </c>
-      <c r="BK2" s="26" t="s">
+      <c r="BN4" s="26" t="s">
         <v>246</v>
       </c>
-      <c r="BL2" s="24" t="s">
+      <c r="BO4" s="24" t="s">
         <v>247</v>
       </c>
-      <c r="BM2" s="24" t="s">
+      <c r="BP4" s="24" t="s">
         <v>248</v>
       </c>
-      <c r="BN2" s="24">
+      <c r="BQ4" s="24">
         <v>25</v>
       </c>
-      <c r="BO2" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="BP2" s="24" t="s">
+      <c r="BR4" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="BS4" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="BQ2" s="24" t="s">
+      <c r="BT4" s="24" t="s">
         <v>249</v>
       </c>
-      <c r="BR2" s="26" t="s">
+      <c r="BU4" s="26" t="s">
         <v>250</v>
       </c>
-      <c r="BS2" s="24" t="s">
+      <c r="BV4" s="24" t="s">
         <v>251</v>
       </c>
-      <c r="BT2" s="24" t="s">
+      <c r="BW4" s="24" t="s">
         <v>251</v>
       </c>
-      <c r="BU2" s="24" t="s">
+      <c r="BX4" s="24" t="s">
         <v>252</v>
       </c>
-      <c r="BV2" s="24" t="s">
+      <c r="BY4" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="BW2" s="43" t="s">
+      <c r="BZ4" s="43" t="s">
         <v>253</v>
       </c>
-      <c r="BX2" s="26" t="s">
+      <c r="CA4" s="26" t="s">
         <v>254</v>
       </c>
-      <c r="BY2" s="43" t="s">
+      <c r="CB4" s="43" t="s">
         <v>136</v>
       </c>
-      <c r="BZ2" s="26" t="s">
+      <c r="CC4" s="26" t="s">
         <v>255</v>
       </c>
-      <c r="CA2" s="39" t="s">
+      <c r="CD4" s="39" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:82" x14ac:dyDescent="0.25">
+      <c r="A5" s="37" t="s">
+        <v>279</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>317</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>324</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>325</v>
+      </c>
+      <c r="F5" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="G5" s="28" t="s">
+        <v>323</v>
+      </c>
+      <c r="H5" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="I5" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="J5" s="28" t="s">
+        <v>337</v>
+      </c>
+      <c r="K5" s="30" t="s">
+        <v>338</v>
+      </c>
+      <c r="L5" s="38" t="s">
+        <v>158</v>
+      </c>
+      <c r="M5" s="38" t="s">
+        <v>159</v>
+      </c>
+      <c r="N5" s="38" t="s">
+        <v>160</v>
+      </c>
+      <c r="O5" s="30" t="s">
+        <v>163</v>
+      </c>
+      <c r="P5" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q5" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="R5" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="S5" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="T5" s="24" t="s">
+        <v>311</v>
+      </c>
+      <c r="U5" s="32" t="s">
+        <v>327</v>
+      </c>
+      <c r="V5" s="32" t="s">
+        <v>332</v>
+      </c>
+      <c r="W5" s="24">
+        <v>2</v>
+      </c>
+      <c r="X5" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="Y5" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z5" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA5" s="36" t="s">
+        <v>258</v>
+      </c>
+      <c r="AB5" s="24">
+        <v>3</v>
+      </c>
+      <c r="AC5" s="24">
+        <v>3</v>
+      </c>
+      <c r="AD5" s="24">
+        <v>3</v>
+      </c>
+      <c r="AE5" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="AF5" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG5" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="AH5" s="24" t="s">
+        <v>231</v>
+      </c>
+      <c r="AI5" s="24" t="s">
+        <v>232</v>
+      </c>
+      <c r="AJ5" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="AK5" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="AL5" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="AM5" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="AN5" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="AO5" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="AP5" s="24">
+        <v>2</v>
+      </c>
+      <c r="AQ5" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="AR5" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="AS5" s="37" t="s">
+        <v>235</v>
+      </c>
+      <c r="AT5" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="AU5" s="37" t="s">
+        <v>229</v>
+      </c>
+      <c r="AV5" s="37" t="s">
+        <v>236</v>
+      </c>
+      <c r="AW5" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="AX5" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>238</v>
+      </c>
+      <c r="AZ5" s="24" t="s">
+        <v>256</v>
+      </c>
+      <c r="BA5" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="BB5" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="BC5" s="41" t="s">
+        <v>241</v>
+      </c>
+      <c r="BD5" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="BE5" s="41" t="s">
+        <v>242</v>
+      </c>
+      <c r="BF5" s="42" t="s">
+        <v>243</v>
+      </c>
+      <c r="BG5" s="42" t="s">
+        <v>244</v>
+      </c>
+      <c r="BH5" s="24">
+        <v>2</v>
+      </c>
+      <c r="BI5" s="24">
+        <v>1</v>
+      </c>
+      <c r="BJ5" s="24">
+        <v>1</v>
+      </c>
+      <c r="BK5" s="24" t="s">
+        <v>245</v>
+      </c>
+      <c r="BL5" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="BM5" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="BN5" s="26" t="s">
+        <v>246</v>
+      </c>
+      <c r="BO5" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="BP5" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="BQ5" s="24">
+        <v>25</v>
+      </c>
+      <c r="BR5" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="BS5" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="BT5" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="BU5" s="26" t="s">
+        <v>250</v>
+      </c>
+      <c r="BV5" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="BW5" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="BX5" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="BY5" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="BZ5" s="43" t="s">
+        <v>253</v>
+      </c>
+      <c r="CA5" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="CB5" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="CC5" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="CD5" s="39" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:82" x14ac:dyDescent="0.25">
+      <c r="A6" s="37" t="s">
+        <v>286</v>
+      </c>
+      <c r="B6" s="37" t="s">
+        <v>326</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>324</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>325</v>
+      </c>
+      <c r="F6" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="G6" s="28" t="s">
+        <v>323</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="I6" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="J6" s="28" t="s">
+        <v>337</v>
+      </c>
+      <c r="K6" s="30" t="s">
+        <v>338</v>
+      </c>
+      <c r="L6" s="38" t="s">
+        <v>158</v>
+      </c>
+      <c r="M6" s="38" t="s">
+        <v>159</v>
+      </c>
+      <c r="N6" s="38" t="s">
+        <v>160</v>
+      </c>
+      <c r="O6" s="30" t="s">
+        <v>163</v>
+      </c>
+      <c r="P6" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q6" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="R6" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="S6" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="T6" s="24" t="s">
+        <v>311</v>
+      </c>
+      <c r="U6" s="32" t="s">
+        <v>333</v>
+      </c>
+      <c r="V6" s="32" t="s">
+        <v>334</v>
+      </c>
+      <c r="W6" s="24">
+        <v>2</v>
+      </c>
+      <c r="X6" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="Y6" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z6" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA6" s="36" t="s">
+        <v>258</v>
+      </c>
+      <c r="AB6" s="24">
+        <v>3</v>
+      </c>
+      <c r="AC6" s="24">
+        <v>3</v>
+      </c>
+      <c r="AD6" s="24">
+        <v>3</v>
+      </c>
+      <c r="AE6" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="AF6" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG6" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="AH6" s="24" t="s">
+        <v>231</v>
+      </c>
+      <c r="AI6" s="24" t="s">
+        <v>232</v>
+      </c>
+      <c r="AJ6" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="AK6" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="AL6" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="AM6" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="AN6" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="AO6" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="AP6" s="24">
+        <v>2</v>
+      </c>
+      <c r="AQ6" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="AR6" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="AS6" s="37" t="s">
+        <v>235</v>
+      </c>
+      <c r="AT6" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="AU6" s="37" t="s">
+        <v>229</v>
+      </c>
+      <c r="AV6" s="37" t="s">
+        <v>236</v>
+      </c>
+      <c r="AW6" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="AX6" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>238</v>
+      </c>
+      <c r="AZ6" s="24" t="s">
+        <v>256</v>
+      </c>
+      <c r="BA6" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="BB6" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="BC6" s="41" t="s">
+        <v>241</v>
+      </c>
+      <c r="BD6" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="BE6" s="41" t="s">
+        <v>242</v>
+      </c>
+      <c r="BF6" s="42" t="s">
+        <v>243</v>
+      </c>
+      <c r="BG6" s="42" t="s">
+        <v>244</v>
+      </c>
+      <c r="BH6" s="24">
+        <v>2</v>
+      </c>
+      <c r="BI6" s="24">
+        <v>1</v>
+      </c>
+      <c r="BJ6" s="24">
+        <v>1</v>
+      </c>
+      <c r="BK6" s="24" t="s">
+        <v>245</v>
+      </c>
+      <c r="BL6" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="BM6" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="BN6" s="26" t="s">
+        <v>246</v>
+      </c>
+      <c r="BO6" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="BP6" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="BQ6" s="24">
+        <v>25</v>
+      </c>
+      <c r="BR6" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="BS6" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="BT6" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="BU6" s="26" t="s">
+        <v>250</v>
+      </c>
+      <c r="BV6" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="BW6" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="BX6" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="BY6" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="BZ6" s="43" t="s">
+        <v>253</v>
+      </c>
+      <c r="CA6" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="CB6" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="CC6" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="CD6" s="39" t="s">
         <v>136</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
-  <dataValidations count="28">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2 AH2" xr:uid="{1A3610A5-ECFA-492A-A489-37C96F899B80}">
+  <dataValidations count="30">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2:T6 AK2:AK6" xr:uid="{1A3610A5-ECFA-492A-A489-37C96F899B80}">
       <formula1>"5 KM,10 KM,20 KM,30 KM,40 KM,50 KM"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2" xr:uid="{9C19A42A-D89D-4DDE-A4C8-1F1B2743585E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2:AA6" xr:uid="{9C19A42A-D89D-4DDE-A4C8-1F1B2743585E}">
       <formula1>"Applied,NotApplied"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CA2" xr:uid="{A8B41F32-A2C0-478A-86BA-8E141CEEE5B5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CD2:CD6" xr:uid="{A8B41F32-A2C0-478A-86BA-8E141CEEE5B5}">
       <formula1>"Shubham Natkar,Laxmi Khanal,Sudesh Kumar"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2" xr:uid="{AAF114E8-A236-4AE5-806A-C78913C137C3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O6" xr:uid="{AAF114E8-A236-4AE5-806A-C78913C137C3}">
       <formula1>"prince.chaurasia@quadlabs.com,Gunjan.swain@quadlabs.com,laxmi.khanal@quadlabs.com,shubham.natkar@quadlabs.com,piyush.chauhan@quadlabs.com,ankur.yadav@quadlabs.com,sachin.kumar@quadlabs.com"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2" xr:uid="{7779DB6C-5818-4915-9A07-02B7C4F6B2AF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N6" xr:uid="{7779DB6C-5818-4915-9A07-02B7C4F6B2AF}">
       <formula1>"Old,New"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2" xr:uid="{37CB28C1-8D14-42C1-9757-952A8A4818B3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L6" xr:uid="{37CB28C1-8D14-42C1-9757-952A8A4818B3}">
       <formula1>"Poonam_Corp,Amazon,Demo Corporate,Lux_Test_corp,Null"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2" xr:uid="{80C00CFD-CD64-4121-A897-C010A502ED4A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M6" xr:uid="{80C00CFD-CD64-4121-A897-C010A502ED4A}">
       <formula1>"On,Off"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{091C247D-06C5-4FD7-8F70-2C1E838A460E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J6" xr:uid="{091C247D-06C5-4FD7-8F70-2C1E838A460E}">
       <formula1>"Shubham1,Shubham,rsudesh15,Saurabh,Laxmi,sachinkumar,Piyush,Ankur"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{8720B9F1-353B-4087-B0CF-D6DD3898ED4E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I6" xr:uid="{8720B9F1-353B-4087-B0CF-D6DD3898ED4E}">
       <formula1>"Administrator,Travel Arranger,Employee"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BE2:BG2" xr:uid="{1FAAD004-7F32-49EA-B311-C8D1210FD73B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BH2:BJ6" xr:uid="{1FAAD004-7F32-49EA-B311-C8D1210FD73B}">
       <formula1>"0,1,2,3,4,5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BH2" xr:uid="{2F394A1B-1399-42F6-8A1F-A6107D2AD137}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BK2:BK6" xr:uid="{2F394A1B-1399-42F6-8A1F-A6107D2AD137}">
       <formula1>"Economy,Premium Economy,Business Class,First Class"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AU2" xr:uid="{54EF34A0-0AB1-491D-9588-1CE451363497}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AX2:AX6" xr:uid="{54EF34A0-0AB1-491D-9588-1CE451363497}">
       <formula1>"Hotel,Apartment"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS2" xr:uid="{1C77E60E-3F8A-44D2-A112-FCE8C42518AD}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AV2:AV6" xr:uid="{1C77E60E-3F8A-44D2-A112-FCE8C42518AD}">
       <formula1>"1 Star,2 Star,3 Star,4 Star,5 Star"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2" xr:uid="{3A159A86-6693-4F7B-A136-06CFEA738A20}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2:W6" xr:uid="{3A159A86-6693-4F7B-A136-06CFEA738A20}">
       <formula1>"1,2,3,4,5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AW2" xr:uid="{FEF861A3-51ED-43C0-B28A-BE3EB50513E4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AZ2:AZ6" xr:uid="{FEF861A3-51ED-43C0-B28A-BE3EB50513E4}">
       <formula1>"Hotel,Hotel+Flight,Hotel+Car,Hotel+Flight+Car,Hotel+Car+Flight"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BW2" xr:uid="{2128310B-E046-4186-898C-B1B47CA85B1F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BZ2:BZ6" xr:uid="{2128310B-E046-4186-898C-B1B47CA85B1F}">
       <formula1>"MasterCard,Visa"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BX2" xr:uid="{524E775D-F779-431E-B57A-0D09D5C33E50}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CA2:CA6" xr:uid="{524E775D-F779-431E-B57A-0D09D5C33E50}">
       <formula1>"5123456789012346,4111111111111111"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BU2" xr:uid="{C3D9C8E7-F169-45B4-9589-7816A1C423AC}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BX2:BX6" xr:uid="{C3D9C8E7-F169-45B4-9589-7816A1C423AC}">
       <formula1>"Quote,BookAndQuote,Fulfilment"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BI2 AT2 AQ2:AR2 AD2 AI2 AB2 AG2 BO2 AL2" xr:uid="{626BF180-88BC-473D-86A0-BED78CBB0A22}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BL2:BL6 AW2:AW6 AT2:AU6 AG2:AG6 AL2:AL6 AE2:AE6 AJ2:AJ6 BR2:BR6 AO2:AO6" xr:uid="{626BF180-88BC-473D-86A0-BED78CBB0A22}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2 AC2" xr:uid="{B6A172F9-1570-47CE-8EBD-679A7B8A20BC}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P6 AF2:AF6" xr:uid="{B6A172F9-1570-47CE-8EBD-679A7B8A20BC}">
       <formula1>"Individual,Dependent,Personal,Guest"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2" xr:uid="{AF1F245C-F5C8-4D1D-B5C8-900E635A7B65}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C6" xr:uid="{AF1F245C-F5C8-4D1D-B5C8-900E635A7B65}">
       <formula1>"sbt,preprod117,Live"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AX2" xr:uid="{9AE0CBBB-F3CD-4653-BF77-58ED53B5C627}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BA2:BA6" xr:uid="{9AE0CBBB-F3CD-4653-BF77-58ED53B5C627}">
       <formula1>"OneWay,RoundTrip,MultiCity"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BV2" xr:uid="{5A701C4E-D11A-4206-843D-A5EE38C499FD}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BY2:BY6" xr:uid="{5A701C4E-D11A-4206-843D-A5EE38C499FD}">
       <formula1>"Credit Card,Bill To Company"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2" xr:uid="{4CE3F444-FD09-47FC-B12F-AFEB6FD7C7F6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q6" xr:uid="{4CE3F444-FD09-47FC-B12F-AFEB6FD7C7F6}">
       <formula1>"Domestic,International"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BR2" xr:uid="{49EE4478-AAE1-4831-B450-9BB5A6CF33F3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BU2:BU6" xr:uid="{49EE4478-AAE1-4831-B450-9BB5A6CF33F3}">
       <formula1>"SendForApproval,ProceedToCheckout"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{E7F00521-023F-4D90-9127-367B050517F5}">
-      <formula1>"//staging117/sbt,//preprod.quadlabs.net/sbt/#,test.quadlabs.net/sbt,tripsource.co.in/sbt/#"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2" xr:uid="{7AF69C06-712F-47A3-8CF4-3AA749857B70}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D6" xr:uid="{E7F00521-023F-4D90-9127-367B050517F5}">
+      <formula1>"//staging117/sbt,//preprod.quadlabs.net/sbt/#,test.quadlabs.net/sbt,tripsource.co.in/sbt/#,//test.quadlabs.net/SSO_Login"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H6" xr:uid="{7AF69C06-712F-47A3-8CF4-3AA749857B70}">
       <formula1>"Saurabh,Prince Chaurasia,Gunjan Swain,Shubham,Laxmi Khanal,Sudesh Kumar,Piyush,Ankur"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2" xr:uid="{4EA60C40-CBED-4436-81AD-7AEDED4DD7CE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K6" xr:uid="{4EA60C40-CBED-4436-81AD-7AEDED4DD7CE}">
       <formula1>"Laxmi@123,Admin@123,S21FUMK6JAPLBYO,Shubham@123,BAVYBXVY09FKGTY,Piyush@123,Ankur@123,DWUFR8WRAR6SL1M"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E6" xr:uid="{9372CA00-8494-4BAF-AC8C-7005141A02A6}">
+      <formula1>"SSO Login,Old Url"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F6" xr:uid="{753E5D36-8B60-4236-B1A3-A9E56D5C3733}">
+      <formula1>"sachin.kumar@quadlabs.com,piyush.chauhan@quadlabs.com,prince.chaurasia@quadlabs.com"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" display="Admin@123" xr:uid="{F8B10C09-66E6-42AC-8295-AEF5443AE37C}"/>
-    <hyperlink ref="L2" r:id="rId2" display="prince.chaurasia@quadlabs.com" xr:uid="{82DEF3E1-6F1D-457E-BE1F-5A6E173461AB}"/>
+    <hyperlink ref="K2" r:id="rId1" display="Admin@123" xr:uid="{F8B10C09-66E6-42AC-8295-AEF5443AE37C}"/>
+    <hyperlink ref="O2" r:id="rId2" display="prince.chaurasia@quadlabs.com" xr:uid="{82DEF3E1-6F1D-457E-BE1F-5A6E173461AB}"/>
+    <hyperlink ref="K3:K6" r:id="rId3" display="Admin@123" xr:uid="{0FAEED69-7325-445C-8CF6-237BFEC9E20E}"/>
+    <hyperlink ref="O3:O6" r:id="rId4" display="prince.chaurasia@quadlabs.com" xr:uid="{78131ECD-AF67-4FC7-B71A-3199153B56B0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2842,10 +3913,10 @@
         <v>311</v>
       </c>
       <c r="R2" s="40" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="S2" s="40" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="T2" s="24">
         <v>2</v>

--- a/data/excel/SBT_Hotel.xlsx
+++ b/data/excel/SBT_Hotel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ankur.Yadav\git\ProjectQuadlabs\data\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{266AD381-7767-4704-A567-9DC8ACD45FF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3CAFC46-BDFD-4052-85E7-130DD9242C60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3003" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3003" uniqueCount="345">
   <si>
     <t>Fop</t>
   </si>
@@ -1063,6 +1063,24 @@
   </si>
   <si>
     <t>Ankur@123</t>
+  </si>
+  <si>
+    <t>hyd</t>
+  </si>
+  <si>
+    <t>lhr</t>
+  </si>
+  <si>
+    <t>sachin kumar</t>
+  </si>
+  <si>
+    <t>Hyderabad, Telangana, India (HYD-Rajiv Gandhi Intl.)</t>
+  </si>
+  <si>
+    <t>Chennai, Tamil Nadu, India (MAA-Chennai Intl.)</t>
+  </si>
+  <si>
+    <t>London, England, United Kingdom (LHR-Heathrow)</t>
   </si>
 </sst>
 </file>
@@ -1851,8 +1869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2663B78-477A-4A80-9FFF-53D3FC78CF07}">
   <dimension ref="A1:CD6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="S16" sqref="S16"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1872,9 +1890,9 @@
     <col min="14" max="14" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="29.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="9" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="65.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="78.28515625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="13.85546875" bestFit="1" customWidth="1"/>
@@ -1936,7 +1954,7 @@
     <col min="79" max="79" width="18" bestFit="1" customWidth="1"/>
     <col min="80" max="80" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="81" max="81" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:82" x14ac:dyDescent="0.25">
@@ -2210,7 +2228,7 @@
         <v>323</v>
       </c>
       <c r="H2" s="28" t="s">
-        <v>137</v>
+        <v>292</v>
       </c>
       <c r="I2" s="31" t="s">
         <v>161</v>
@@ -2432,7 +2450,7 @@
         <v>255</v>
       </c>
       <c r="CD2" s="39" t="s">
-        <v>136</v>
+        <v>341</v>
       </c>
     </row>
     <row r="3" spans="1:82" x14ac:dyDescent="0.25">
@@ -2440,7 +2458,7 @@
         <v>148</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="C3" s="24" t="s">
         <v>144</v>
@@ -2458,7 +2476,7 @@
         <v>323</v>
       </c>
       <c r="H3" s="28" t="s">
-        <v>137</v>
+        <v>292</v>
       </c>
       <c r="I3" s="31" t="s">
         <v>161</v>
@@ -2488,10 +2506,10 @@
         <v>227</v>
       </c>
       <c r="R3" s="24" t="s">
-        <v>153</v>
+        <v>339</v>
       </c>
       <c r="S3" s="24" t="s">
-        <v>165</v>
+        <v>342</v>
       </c>
       <c r="T3" s="24" t="s">
         <v>311</v>
@@ -2680,7 +2698,7 @@
         <v>255</v>
       </c>
       <c r="CD3" s="39" t="s">
-        <v>136</v>
+        <v>341</v>
       </c>
     </row>
     <row r="4" spans="1:82" x14ac:dyDescent="0.25">
@@ -2688,7 +2706,7 @@
         <v>149</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="C4" s="24" t="s">
         <v>144</v>
@@ -2706,7 +2724,7 @@
         <v>323</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>137</v>
+        <v>292</v>
       </c>
       <c r="I4" s="31" t="s">
         <v>161</v>
@@ -2733,13 +2751,13 @@
         <v>40</v>
       </c>
       <c r="Q4" s="24" t="s">
-        <v>227</v>
+        <v>310</v>
       </c>
       <c r="R4" s="24" t="s">
-        <v>153</v>
+        <v>2</v>
       </c>
       <c r="S4" s="24" t="s">
-        <v>165</v>
+        <v>4</v>
       </c>
       <c r="T4" s="24" t="s">
         <v>311</v>
@@ -2928,7 +2946,7 @@
         <v>255</v>
       </c>
       <c r="CD4" s="39" t="s">
-        <v>136</v>
+        <v>341</v>
       </c>
     </row>
     <row r="5" spans="1:82" x14ac:dyDescent="0.25">
@@ -2954,7 +2972,7 @@
         <v>323</v>
       </c>
       <c r="H5" s="28" t="s">
-        <v>137</v>
+        <v>292</v>
       </c>
       <c r="I5" s="31" t="s">
         <v>161</v>
@@ -2984,10 +3002,10 @@
         <v>227</v>
       </c>
       <c r="R5" s="24" t="s">
-        <v>153</v>
+        <v>117</v>
       </c>
       <c r="S5" s="24" t="s">
-        <v>165</v>
+        <v>343</v>
       </c>
       <c r="T5" s="24" t="s">
         <v>311</v>
@@ -3176,7 +3194,7 @@
         <v>255</v>
       </c>
       <c r="CD5" s="39" t="s">
-        <v>136</v>
+        <v>341</v>
       </c>
     </row>
     <row r="6" spans="1:82" x14ac:dyDescent="0.25">
@@ -3202,7 +3220,7 @@
         <v>323</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>137</v>
+        <v>292</v>
       </c>
       <c r="I6" s="31" t="s">
         <v>161</v>
@@ -3229,13 +3247,13 @@
         <v>40</v>
       </c>
       <c r="Q6" s="24" t="s">
-        <v>227</v>
+        <v>310</v>
       </c>
       <c r="R6" s="24" t="s">
-        <v>153</v>
+        <v>340</v>
       </c>
       <c r="S6" s="24" t="s">
-        <v>165</v>
+        <v>344</v>
       </c>
       <c r="T6" s="24" t="s">
         <v>311</v>
@@ -3424,7 +3442,7 @@
         <v>255</v>
       </c>
       <c r="CD6" s="39" t="s">
-        <v>136</v>
+        <v>341</v>
       </c>
     </row>
   </sheetData>
@@ -3436,9 +3454,6 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2:AA6" xr:uid="{9C19A42A-D89D-4DDE-A4C8-1F1B2743585E}">
       <formula1>"Applied,NotApplied"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CD2:CD6" xr:uid="{A8B41F32-A2C0-478A-86BA-8E141CEEE5B5}">
-      <formula1>"Shubham Natkar,Laxmi Khanal,Sudesh Kumar"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O6" xr:uid="{AAF114E8-A236-4AE5-806A-C78913C137C3}">
       <formula1>"prince.chaurasia@quadlabs.com,Gunjan.swain@quadlabs.com,laxmi.khanal@quadlabs.com,shubham.natkar@quadlabs.com,piyush.chauhan@quadlabs.com,ankur.yadav@quadlabs.com,sachin.kumar@quadlabs.com"</formula1>
     </dataValidation>
@@ -3519,6 +3534,9 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F6" xr:uid="{753E5D36-8B60-4236-B1A3-A9E56D5C3733}">
       <formula1>"sachin.kumar@quadlabs.com,piyush.chauhan@quadlabs.com,prince.chaurasia@quadlabs.com"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CD2:CD6" xr:uid="{235BB117-AA4B-4AE3-9DE9-F4837675212D}">
+      <formula1>"Shubham Natkar,Laxmi Khanal,Sudesh Kumar,sachin kumar"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>

--- a/data/excel/SBT_Hotel.xlsx
+++ b/data/excel/SBT_Hotel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ankur.Yadav\git\ProjectQuadlabs\data\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation\projectQuadlabs\data\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3CAFC46-BDFD-4052-85E7-130DD9242C60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B33A63D4-D10E-4B11-9E8E-4BE578A69A1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3003" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2705" uniqueCount="322">
   <si>
     <t>Fop</t>
   </si>
@@ -999,6 +999,12 @@
     <t>27-Dec-2023</t>
   </si>
   <si>
+    <t>5-Dec-2023</t>
+  </si>
+  <si>
+    <t>7-Dec-2023</t>
+  </si>
+  <si>
     <t>Hotel domestic booking flow for Individual (Admin)</t>
   </si>
   <si>
@@ -1006,81 +1012,6 @@
   </si>
   <si>
     <t>21-Dec-2023</t>
-  </si>
-  <si>
-    <t>LoginType</t>
-  </si>
-  <si>
-    <t>Emailid</t>
-  </si>
-  <si>
-    <t>SDN</t>
-  </si>
-  <si>
-    <t>test.quadlabs.net</t>
-  </si>
-  <si>
-    <t>//test.quadlabs.net/SSO_Login</t>
-  </si>
-  <si>
-    <t>SSO Login</t>
-  </si>
-  <si>
-    <t>Hotel International booking flow for Individual (Admin)</t>
-  </si>
-  <si>
-    <t>26-Feb-2024</t>
-  </si>
-  <si>
-    <t>24-Jan-2024</t>
-  </si>
-  <si>
-    <t>26-Jan-2024</t>
-  </si>
-  <si>
-    <t>29-Jan-2024</t>
-  </si>
-  <si>
-    <t>31-Jan-2024</t>
-  </si>
-  <si>
-    <t>28-Feb-2024</t>
-  </si>
-  <si>
-    <t>19-Feb-2024</t>
-  </si>
-  <si>
-    <t>21-Feb-2024</t>
-  </si>
-  <si>
-    <t>22-Feb-2024</t>
-  </si>
-  <si>
-    <t>23-Feb-2024</t>
-  </si>
-  <si>
-    <t>sachinkumar</t>
-  </si>
-  <si>
-    <t>Ankur@123</t>
-  </si>
-  <si>
-    <t>hyd</t>
-  </si>
-  <si>
-    <t>lhr</t>
-  </si>
-  <si>
-    <t>sachin kumar</t>
-  </si>
-  <si>
-    <t>Hyderabad, Telangana, India (HYD-Rajiv Gandhi Intl.)</t>
-  </si>
-  <si>
-    <t>Chennai, Tamil Nadu, India (MAA-Chennai Intl.)</t>
-  </si>
-  <si>
-    <t>London, England, United Kingdom (LHR-Heathrow)</t>
   </si>
 </sst>
 </file>
@@ -1867,97 +1798,95 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2663B78-477A-4A80-9FFF-53D3FC78CF07}">
-  <dimension ref="A1:CD6"/>
+  <dimension ref="A1:CA2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+    <sheetView tabSelected="1" topLeftCell="BL1" workbookViewId="0">
+      <selection activeCell="BZ6" sqref="BZ6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" customWidth="1"/>
-    <col min="6" max="6" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.5703125" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="13.28515625" customWidth="1"/>
-    <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="78.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="15" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="15" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="37" max="38" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="14" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="43.140625" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="42.140625" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="9" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="49.5703125" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="50.42578125" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="19" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="18" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="65.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="34" max="35" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="14" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="43.140625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="42.140625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="9" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="49.5703125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="50.42578125" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="19" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="18" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A1" s="35" t="s">
         <v>120</v>
       </c>
@@ -1971,1579 +1900,561 @@
         <v>37</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>320</v>
+        <v>171</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>321</v>
-      </c>
-      <c r="G1" s="23" t="s">
-        <v>322</v>
-      </c>
-      <c r="H1" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="I1" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="G1" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="25" t="s">
+      <c r="H1" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="29" t="s">
+      <c r="I1" s="29" t="s">
         <v>155</v>
       </c>
-      <c r="M1" s="29" t="s">
+      <c r="J1" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="N1" s="29" t="s">
+      <c r="K1" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="O1" s="23" t="s">
+      <c r="L1" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="P1" s="23" t="s">
+      <c r="M1" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="Q1" s="23" t="s">
+      <c r="N1" s="23" t="s">
         <v>174</v>
       </c>
+      <c r="O1" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="P1" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q1" s="33" t="s">
+        <v>305</v>
+      </c>
       <c r="R1" s="33" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="S1" s="33" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="T1" s="33" t="s">
-        <v>305</v>
+        <v>168</v>
       </c>
       <c r="U1" s="33" t="s">
-        <v>177</v>
+        <v>24</v>
       </c>
       <c r="V1" s="33" t="s">
-        <v>178</v>
+        <v>25</v>
       </c>
       <c r="W1" s="33" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="X1" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y1" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z1" s="33" t="s">
-        <v>169</v>
-      </c>
-      <c r="AA1" s="33" t="s">
         <v>257</v>
       </c>
-      <c r="AB1" s="25" t="s">
+      <c r="Y1" s="25" t="s">
         <v>262</v>
       </c>
-      <c r="AC1" s="25" t="s">
+      <c r="Z1" s="25" t="s">
         <v>261</v>
       </c>
-      <c r="AD1" s="25" t="s">
+      <c r="AA1" s="25" t="s">
         <v>260</v>
       </c>
-      <c r="AE1" s="23" t="s">
+      <c r="AB1" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="AF1" s="23" t="s">
+      <c r="AC1" s="23" t="s">
         <v>180</v>
       </c>
-      <c r="AG1" s="23" t="s">
+      <c r="AD1" s="23" t="s">
         <v>181</v>
       </c>
+      <c r="AE1" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="AF1" s="33" t="s">
+        <v>183</v>
+      </c>
+      <c r="AG1" s="33" t="s">
+        <v>314</v>
+      </c>
       <c r="AH1" s="33" t="s">
-        <v>182</v>
+        <v>313</v>
       </c>
       <c r="AI1" s="33" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AJ1" s="33" t="s">
-        <v>314</v>
+        <v>185</v>
       </c>
       <c r="AK1" s="33" t="s">
-        <v>313</v>
+        <v>186</v>
       </c>
       <c r="AL1" s="33" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="AM1" s="33" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="AN1" s="33" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="AO1" s="33" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="AP1" s="33" t="s">
-        <v>188</v>
-      </c>
-      <c r="AQ1" s="33" t="s">
-        <v>189</v>
+        <v>191</v>
+      </c>
+      <c r="AQ1" s="23" t="s">
+        <v>192</v>
       </c>
       <c r="AR1" s="33" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="AS1" s="33" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="AT1" s="23" t="s">
-        <v>192</v>
-      </c>
-      <c r="AU1" s="33" t="s">
-        <v>193</v>
-      </c>
-      <c r="AV1" s="33" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AU1" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="AV1" s="23" t="s">
+        <v>197</v>
       </c>
       <c r="AW1" s="23" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="AX1" s="23" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="AY1" s="23" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="AZ1" s="23" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="BA1" s="23" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="BB1" s="23" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="BC1" s="23" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="BD1" s="23" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="BE1" s="23" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="BF1" s="23" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="BG1" s="23" t="s">
-        <v>205</v>
+        <v>49</v>
       </c>
       <c r="BH1" s="23" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="BI1" s="23" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="BJ1" s="23" t="s">
-        <v>49</v>
+        <v>210</v>
       </c>
       <c r="BK1" s="23" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="BL1" s="23" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="BM1" s="23" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="BN1" s="23" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="BO1" s="23" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="BP1" s="23" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="BQ1" s="23" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="BR1" s="23" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="BS1" s="23" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="BT1" s="23" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="BU1" s="23" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="BV1" s="23" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="BW1" s="23" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="BX1" s="23" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="BY1" s="23" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="BZ1" s="23" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="CA1" s="23" t="s">
-        <v>224</v>
-      </c>
-      <c r="CB1" s="23" t="s">
-        <v>225</v>
-      </c>
-      <c r="CC1" s="23" t="s">
-        <v>226</v>
-      </c>
-      <c r="CD1" s="23" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="2" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
         <v>147</v>
       </c>
       <c r="B2" s="37" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C2" s="24" t="s">
         <v>144</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>324</v>
+        <v>164</v>
       </c>
       <c r="E2" s="28" t="s">
-        <v>325</v>
-      </c>
-      <c r="F2" s="28" t="s">
-        <v>163</v>
+        <v>137</v>
+      </c>
+      <c r="F2" s="31" t="s">
+        <v>161</v>
       </c>
       <c r="G2" s="28" t="s">
-        <v>323</v>
-      </c>
-      <c r="H2" s="28" t="s">
-        <v>292</v>
-      </c>
-      <c r="I2" s="31" t="s">
-        <v>161</v>
-      </c>
-      <c r="J2" s="28" t="s">
-        <v>337</v>
-      </c>
-      <c r="K2" s="30" t="s">
-        <v>338</v>
-      </c>
-      <c r="L2" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="H2" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="I2" s="38" t="s">
         <v>158</v>
       </c>
-      <c r="M2" s="38" t="s">
+      <c r="J2" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="N2" s="38" t="s">
+      <c r="K2" s="38" t="s">
         <v>160</v>
       </c>
-      <c r="O2" s="30" t="s">
-        <v>163</v>
+      <c r="L2" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="M2" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="O2" s="24" t="s">
+        <v>153</v>
       </c>
       <c r="P2" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q2" s="24" t="s">
+        <v>311</v>
+      </c>
+      <c r="R2" s="32" t="s">
+        <v>317</v>
+      </c>
+      <c r="S2" s="32" t="s">
+        <v>318</v>
+      </c>
+      <c r="T2" s="24">
+        <v>2</v>
+      </c>
+      <c r="U2" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="V2" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="W2" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="X2" s="36" t="s">
+        <v>270</v>
+      </c>
+      <c r="Y2" s="24">
+        <v>3</v>
+      </c>
+      <c r="Z2" s="24">
+        <v>3</v>
+      </c>
+      <c r="AA2" s="24">
+        <v>3</v>
+      </c>
+      <c r="AB2" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="AC2" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="24" t="s">
-        <v>227</v>
-      </c>
-      <c r="R2" s="24" t="s">
-        <v>153</v>
-      </c>
-      <c r="S2" s="24" t="s">
-        <v>165</v>
-      </c>
-      <c r="T2" s="24" t="s">
-        <v>311</v>
-      </c>
-      <c r="U2" s="32" t="s">
-        <v>335</v>
-      </c>
-      <c r="V2" s="32" t="s">
-        <v>336</v>
-      </c>
-      <c r="W2" s="24">
-        <v>2</v>
-      </c>
-      <c r="X2" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="Y2" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z2" s="37" t="s">
-        <v>151</v>
-      </c>
-      <c r="AA2" s="36" t="s">
-        <v>258</v>
-      </c>
-      <c r="AB2" s="24">
-        <v>3</v>
-      </c>
-      <c r="AC2" s="24">
-        <v>3</v>
-      </c>
-      <c r="AD2" s="24">
-        <v>3</v>
+      <c r="AD2" s="24" t="s">
+        <v>229</v>
       </c>
       <c r="AE2" s="24" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="AF2" s="24" t="s">
-        <v>40</v>
+        <v>232</v>
       </c>
       <c r="AG2" s="24" t="s">
         <v>229</v>
       </c>
       <c r="AH2" s="24" t="s">
-        <v>231</v>
+        <v>309</v>
       </c>
       <c r="AI2" s="24" t="s">
-        <v>232</v>
-      </c>
-      <c r="AJ2" s="24" t="s">
         <v>229</v>
       </c>
-      <c r="AK2" s="24" t="s">
-        <v>309</v>
+      <c r="AJ2" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="AK2" s="26" t="s">
+        <v>234</v>
       </c>
       <c r="AL2" s="24" t="s">
         <v>229</v>
       </c>
-      <c r="AM2" s="26" t="s">
-        <v>233</v>
-      </c>
-      <c r="AN2" s="26" t="s">
-        <v>234</v>
-      </c>
-      <c r="AO2" s="24" t="s">
+      <c r="AM2" s="24">
+        <v>2</v>
+      </c>
+      <c r="AN2" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="AO2" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP2" s="37" t="s">
+        <v>235</v>
+      </c>
+      <c r="AQ2" s="24" t="s">
         <v>229</v>
       </c>
-      <c r="AP2" s="24">
-        <v>2</v>
-      </c>
-      <c r="AQ2" s="24" t="s">
-        <v>50</v>
-      </c>
       <c r="AR2" s="37" t="s">
-        <v>51</v>
+        <v>229</v>
       </c>
       <c r="AS2" s="37" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AT2" s="24" t="s">
         <v>229</v>
       </c>
-      <c r="AU2" s="37" t="s">
+      <c r="AU2" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>238</v>
+      </c>
+      <c r="AW2" s="24" t="s">
+        <v>256</v>
+      </c>
+      <c r="AX2" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="AY2" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="AZ2" s="41" t="s">
+        <v>241</v>
+      </c>
+      <c r="BA2" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="BB2" s="41" t="s">
+        <v>242</v>
+      </c>
+      <c r="BC2" s="42" t="s">
+        <v>243</v>
+      </c>
+      <c r="BD2" s="42" t="s">
+        <v>244</v>
+      </c>
+      <c r="BE2" s="24">
+        <v>2</v>
+      </c>
+      <c r="BF2" s="24">
+        <v>1</v>
+      </c>
+      <c r="BG2" s="24">
+        <v>1</v>
+      </c>
+      <c r="BH2" s="24" t="s">
+        <v>245</v>
+      </c>
+      <c r="BI2" s="24" t="s">
         <v>229</v>
       </c>
-      <c r="AV2" s="37" t="s">
-        <v>236</v>
-      </c>
-      <c r="AW2" s="24" t="s">
+      <c r="BJ2" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="BK2" s="26" t="s">
+        <v>246</v>
+      </c>
+      <c r="BL2" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="BM2" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="BN2" s="24">
+        <v>25</v>
+      </c>
+      <c r="BO2" s="24" t="s">
         <v>229</v>
       </c>
-      <c r="AX2" s="24" t="s">
-        <v>237</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>238</v>
-      </c>
-      <c r="AZ2" s="24" t="s">
-        <v>256</v>
-      </c>
-      <c r="BA2" s="24" t="s">
-        <v>239</v>
-      </c>
-      <c r="BB2" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="BC2" s="41" t="s">
-        <v>241</v>
-      </c>
-      <c r="BD2" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="BE2" s="41" t="s">
-        <v>242</v>
-      </c>
-      <c r="BF2" s="42" t="s">
-        <v>243</v>
-      </c>
-      <c r="BG2" s="42" t="s">
-        <v>244</v>
-      </c>
-      <c r="BH2" s="24">
+      <c r="BP2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="BI2" s="24">
-        <v>1</v>
-      </c>
-      <c r="BJ2" s="24">
-        <v>1</v>
-      </c>
-      <c r="BK2" s="24" t="s">
-        <v>245</v>
-      </c>
-      <c r="BL2" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="BM2" s="24" t="s">
-        <v>228</v>
-      </c>
-      <c r="BN2" s="26" t="s">
-        <v>246</v>
-      </c>
-      <c r="BO2" s="24" t="s">
-        <v>247</v>
-      </c>
-      <c r="BP2" s="24" t="s">
-        <v>248</v>
-      </c>
-      <c r="BQ2" s="24">
-        <v>25</v>
-      </c>
-      <c r="BR2" s="24" t="s">
-        <v>229</v>
+      <c r="BQ2" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="BR2" s="26" t="s">
+        <v>250</v>
       </c>
       <c r="BS2" s="24" t="s">
-        <v>2</v>
+        <v>251</v>
       </c>
       <c r="BT2" s="24" t="s">
-        <v>249</v>
-      </c>
-      <c r="BU2" s="26" t="s">
-        <v>250</v>
+        <v>251</v>
+      </c>
+      <c r="BU2" s="24" t="s">
+        <v>252</v>
       </c>
       <c r="BV2" s="24" t="s">
-        <v>251</v>
-      </c>
-      <c r="BW2" s="24" t="s">
-        <v>251</v>
-      </c>
-      <c r="BX2" s="24" t="s">
-        <v>252</v>
-      </c>
-      <c r="BY2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="BZ2" s="43" t="s">
+      <c r="BW2" s="43" t="s">
         <v>253</v>
       </c>
-      <c r="CA2" s="26" t="s">
+      <c r="BX2" s="26" t="s">
         <v>254</v>
       </c>
-      <c r="CB2" s="43" t="s">
+      <c r="BY2" s="43" t="s">
         <v>136</v>
       </c>
-      <c r="CC2" s="26" t="s">
+      <c r="BZ2" s="26" t="s">
         <v>255</v>
       </c>
-      <c r="CD2" s="39" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="3" spans="1:82" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
-        <v>148</v>
-      </c>
-      <c r="B3" s="37" t="s">
-        <v>317</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="D3" s="28" t="s">
-        <v>324</v>
-      </c>
-      <c r="E3" s="28" t="s">
-        <v>325</v>
-      </c>
-      <c r="F3" s="28" t="s">
-        <v>163</v>
-      </c>
-      <c r="G3" s="28" t="s">
-        <v>323</v>
-      </c>
-      <c r="H3" s="28" t="s">
-        <v>292</v>
-      </c>
-      <c r="I3" s="31" t="s">
-        <v>161</v>
-      </c>
-      <c r="J3" s="28" t="s">
-        <v>337</v>
-      </c>
-      <c r="K3" s="30" t="s">
-        <v>338</v>
-      </c>
-      <c r="L3" s="38" t="s">
-        <v>158</v>
-      </c>
-      <c r="M3" s="38" t="s">
-        <v>159</v>
-      </c>
-      <c r="N3" s="38" t="s">
-        <v>160</v>
-      </c>
-      <c r="O3" s="30" t="s">
-        <v>163</v>
-      </c>
-      <c r="P3" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q3" s="24" t="s">
-        <v>227</v>
-      </c>
-      <c r="R3" s="24" t="s">
-        <v>339</v>
-      </c>
-      <c r="S3" s="24" t="s">
-        <v>342</v>
-      </c>
-      <c r="T3" s="24" t="s">
-        <v>311</v>
-      </c>
-      <c r="U3" s="32" t="s">
-        <v>328</v>
-      </c>
-      <c r="V3" s="32" t="s">
-        <v>329</v>
-      </c>
-      <c r="W3" s="24">
-        <v>2</v>
-      </c>
-      <c r="X3" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="Y3" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z3" s="37" t="s">
-        <v>151</v>
-      </c>
-      <c r="AA3" s="36" t="s">
-        <v>258</v>
-      </c>
-      <c r="AB3" s="24">
-        <v>3</v>
-      </c>
-      <c r="AC3" s="24">
-        <v>3</v>
-      </c>
-      <c r="AD3" s="24">
-        <v>3</v>
-      </c>
-      <c r="AE3" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="AF3" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="AG3" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="AH3" s="24" t="s">
-        <v>231</v>
-      </c>
-      <c r="AI3" s="24" t="s">
-        <v>232</v>
-      </c>
-      <c r="AJ3" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="AK3" s="24" t="s">
-        <v>309</v>
-      </c>
-      <c r="AL3" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="AM3" s="26" t="s">
-        <v>233</v>
-      </c>
-      <c r="AN3" s="26" t="s">
-        <v>234</v>
-      </c>
-      <c r="AO3" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="AP3" s="24">
-        <v>2</v>
-      </c>
-      <c r="AQ3" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="AR3" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="AS3" s="37" t="s">
-        <v>235</v>
-      </c>
-      <c r="AT3" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="AU3" s="37" t="s">
-        <v>229</v>
-      </c>
-      <c r="AV3" s="37" t="s">
-        <v>236</v>
-      </c>
-      <c r="AW3" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="AX3" s="24" t="s">
-        <v>237</v>
-      </c>
-      <c r="AY3" t="s">
-        <v>238</v>
-      </c>
-      <c r="AZ3" s="24" t="s">
-        <v>256</v>
-      </c>
-      <c r="BA3" s="24" t="s">
-        <v>239</v>
-      </c>
-      <c r="BB3" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="BC3" s="41" t="s">
-        <v>241</v>
-      </c>
-      <c r="BD3" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="BE3" s="41" t="s">
-        <v>242</v>
-      </c>
-      <c r="BF3" s="42" t="s">
-        <v>243</v>
-      </c>
-      <c r="BG3" s="42" t="s">
-        <v>244</v>
-      </c>
-      <c r="BH3" s="24">
-        <v>2</v>
-      </c>
-      <c r="BI3" s="24">
-        <v>1</v>
-      </c>
-      <c r="BJ3" s="24">
-        <v>1</v>
-      </c>
-      <c r="BK3" s="24" t="s">
-        <v>245</v>
-      </c>
-      <c r="BL3" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="BM3" s="24" t="s">
-        <v>228</v>
-      </c>
-      <c r="BN3" s="26" t="s">
-        <v>246</v>
-      </c>
-      <c r="BO3" s="24" t="s">
-        <v>247</v>
-      </c>
-      <c r="BP3" s="24" t="s">
-        <v>248</v>
-      </c>
-      <c r="BQ3" s="24">
-        <v>25</v>
-      </c>
-      <c r="BR3" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="BS3" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="BT3" s="24" t="s">
-        <v>249</v>
-      </c>
-      <c r="BU3" s="26" t="s">
-        <v>250</v>
-      </c>
-      <c r="BV3" s="24" t="s">
-        <v>251</v>
-      </c>
-      <c r="BW3" s="24" t="s">
-        <v>251</v>
-      </c>
-      <c r="BX3" s="24" t="s">
-        <v>252</v>
-      </c>
-      <c r="BY3" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="BZ3" s="43" t="s">
-        <v>253</v>
-      </c>
-      <c r="CA3" s="26" t="s">
-        <v>254</v>
-      </c>
-      <c r="CB3" s="43" t="s">
+      <c r="CA2" s="39" t="s">
         <v>136</v>
-      </c>
-      <c r="CC3" s="26" t="s">
-        <v>255</v>
-      </c>
-      <c r="CD3" s="39" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="4" spans="1:82" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
-        <v>149</v>
-      </c>
-      <c r="B4" s="37" t="s">
-        <v>326</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>324</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>325</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>163</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>323</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>292</v>
-      </c>
-      <c r="I4" s="31" t="s">
-        <v>161</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>337</v>
-      </c>
-      <c r="K4" s="30" t="s">
-        <v>338</v>
-      </c>
-      <c r="L4" s="38" t="s">
-        <v>158</v>
-      </c>
-      <c r="M4" s="38" t="s">
-        <v>159</v>
-      </c>
-      <c r="N4" s="38" t="s">
-        <v>160</v>
-      </c>
-      <c r="O4" s="30" t="s">
-        <v>163</v>
-      </c>
-      <c r="P4" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q4" s="24" t="s">
-        <v>310</v>
-      </c>
-      <c r="R4" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="S4" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="T4" s="24" t="s">
-        <v>311</v>
-      </c>
-      <c r="U4" s="32" t="s">
-        <v>330</v>
-      </c>
-      <c r="V4" s="32" t="s">
-        <v>331</v>
-      </c>
-      <c r="W4" s="24">
-        <v>2</v>
-      </c>
-      <c r="X4" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="Y4" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z4" s="37" t="s">
-        <v>151</v>
-      </c>
-      <c r="AA4" s="36" t="s">
-        <v>258</v>
-      </c>
-      <c r="AB4" s="24">
-        <v>3</v>
-      </c>
-      <c r="AC4" s="24">
-        <v>3</v>
-      </c>
-      <c r="AD4" s="24">
-        <v>3</v>
-      </c>
-      <c r="AE4" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="AF4" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="AG4" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="AH4" s="24" t="s">
-        <v>231</v>
-      </c>
-      <c r="AI4" s="24" t="s">
-        <v>232</v>
-      </c>
-      <c r="AJ4" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="AK4" s="24" t="s">
-        <v>309</v>
-      </c>
-      <c r="AL4" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="AM4" s="26" t="s">
-        <v>233</v>
-      </c>
-      <c r="AN4" s="26" t="s">
-        <v>234</v>
-      </c>
-      <c r="AO4" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="AP4" s="24">
-        <v>2</v>
-      </c>
-      <c r="AQ4" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="AR4" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="AS4" s="37" t="s">
-        <v>235</v>
-      </c>
-      <c r="AT4" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="AU4" s="37" t="s">
-        <v>229</v>
-      </c>
-      <c r="AV4" s="37" t="s">
-        <v>236</v>
-      </c>
-      <c r="AW4" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="AX4" s="24" t="s">
-        <v>237</v>
-      </c>
-      <c r="AY4" t="s">
-        <v>238</v>
-      </c>
-      <c r="AZ4" s="24" t="s">
-        <v>256</v>
-      </c>
-      <c r="BA4" s="24" t="s">
-        <v>239</v>
-      </c>
-      <c r="BB4" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="BC4" s="41" t="s">
-        <v>241</v>
-      </c>
-      <c r="BD4" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="BE4" s="41" t="s">
-        <v>242</v>
-      </c>
-      <c r="BF4" s="42" t="s">
-        <v>243</v>
-      </c>
-      <c r="BG4" s="42" t="s">
-        <v>244</v>
-      </c>
-      <c r="BH4" s="24">
-        <v>2</v>
-      </c>
-      <c r="BI4" s="24">
-        <v>1</v>
-      </c>
-      <c r="BJ4" s="24">
-        <v>1</v>
-      </c>
-      <c r="BK4" s="24" t="s">
-        <v>245</v>
-      </c>
-      <c r="BL4" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="BM4" s="24" t="s">
-        <v>228</v>
-      </c>
-      <c r="BN4" s="26" t="s">
-        <v>246</v>
-      </c>
-      <c r="BO4" s="24" t="s">
-        <v>247</v>
-      </c>
-      <c r="BP4" s="24" t="s">
-        <v>248</v>
-      </c>
-      <c r="BQ4" s="24">
-        <v>25</v>
-      </c>
-      <c r="BR4" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="BS4" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="BT4" s="24" t="s">
-        <v>249</v>
-      </c>
-      <c r="BU4" s="26" t="s">
-        <v>250</v>
-      </c>
-      <c r="BV4" s="24" t="s">
-        <v>251</v>
-      </c>
-      <c r="BW4" s="24" t="s">
-        <v>251</v>
-      </c>
-      <c r="BX4" s="24" t="s">
-        <v>252</v>
-      </c>
-      <c r="BY4" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="BZ4" s="43" t="s">
-        <v>253</v>
-      </c>
-      <c r="CA4" s="26" t="s">
-        <v>254</v>
-      </c>
-      <c r="CB4" s="43" t="s">
-        <v>136</v>
-      </c>
-      <c r="CC4" s="26" t="s">
-        <v>255</v>
-      </c>
-      <c r="CD4" s="39" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="5" spans="1:82" x14ac:dyDescent="0.25">
-      <c r="A5" s="37" t="s">
-        <v>279</v>
-      </c>
-      <c r="B5" s="37" t="s">
-        <v>317</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="D5" s="28" t="s">
-        <v>324</v>
-      </c>
-      <c r="E5" s="28" t="s">
-        <v>325</v>
-      </c>
-      <c r="F5" s="28" t="s">
-        <v>163</v>
-      </c>
-      <c r="G5" s="28" t="s">
-        <v>323</v>
-      </c>
-      <c r="H5" s="28" t="s">
-        <v>292</v>
-      </c>
-      <c r="I5" s="31" t="s">
-        <v>161</v>
-      </c>
-      <c r="J5" s="28" t="s">
-        <v>337</v>
-      </c>
-      <c r="K5" s="30" t="s">
-        <v>338</v>
-      </c>
-      <c r="L5" s="38" t="s">
-        <v>158</v>
-      </c>
-      <c r="M5" s="38" t="s">
-        <v>159</v>
-      </c>
-      <c r="N5" s="38" t="s">
-        <v>160</v>
-      </c>
-      <c r="O5" s="30" t="s">
-        <v>163</v>
-      </c>
-      <c r="P5" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q5" s="24" t="s">
-        <v>227</v>
-      </c>
-      <c r="R5" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="S5" s="24" t="s">
-        <v>343</v>
-      </c>
-      <c r="T5" s="24" t="s">
-        <v>311</v>
-      </c>
-      <c r="U5" s="32" t="s">
-        <v>327</v>
-      </c>
-      <c r="V5" s="32" t="s">
-        <v>332</v>
-      </c>
-      <c r="W5" s="24">
-        <v>2</v>
-      </c>
-      <c r="X5" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="Y5" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z5" s="37" t="s">
-        <v>151</v>
-      </c>
-      <c r="AA5" s="36" t="s">
-        <v>258</v>
-      </c>
-      <c r="AB5" s="24">
-        <v>3</v>
-      </c>
-      <c r="AC5" s="24">
-        <v>3</v>
-      </c>
-      <c r="AD5" s="24">
-        <v>3</v>
-      </c>
-      <c r="AE5" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="AF5" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="AG5" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="AH5" s="24" t="s">
-        <v>231</v>
-      </c>
-      <c r="AI5" s="24" t="s">
-        <v>232</v>
-      </c>
-      <c r="AJ5" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="AK5" s="24" t="s">
-        <v>309</v>
-      </c>
-      <c r="AL5" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="AM5" s="26" t="s">
-        <v>233</v>
-      </c>
-      <c r="AN5" s="26" t="s">
-        <v>234</v>
-      </c>
-      <c r="AO5" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="AP5" s="24">
-        <v>2</v>
-      </c>
-      <c r="AQ5" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="AR5" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="AS5" s="37" t="s">
-        <v>235</v>
-      </c>
-      <c r="AT5" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="AU5" s="37" t="s">
-        <v>229</v>
-      </c>
-      <c r="AV5" s="37" t="s">
-        <v>236</v>
-      </c>
-      <c r="AW5" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="AX5" s="24" t="s">
-        <v>237</v>
-      </c>
-      <c r="AY5" t="s">
-        <v>238</v>
-      </c>
-      <c r="AZ5" s="24" t="s">
-        <v>256</v>
-      </c>
-      <c r="BA5" s="24" t="s">
-        <v>239</v>
-      </c>
-      <c r="BB5" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="BC5" s="41" t="s">
-        <v>241</v>
-      </c>
-      <c r="BD5" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="BE5" s="41" t="s">
-        <v>242</v>
-      </c>
-      <c r="BF5" s="42" t="s">
-        <v>243</v>
-      </c>
-      <c r="BG5" s="42" t="s">
-        <v>244</v>
-      </c>
-      <c r="BH5" s="24">
-        <v>2</v>
-      </c>
-      <c r="BI5" s="24">
-        <v>1</v>
-      </c>
-      <c r="BJ5" s="24">
-        <v>1</v>
-      </c>
-      <c r="BK5" s="24" t="s">
-        <v>245</v>
-      </c>
-      <c r="BL5" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="BM5" s="24" t="s">
-        <v>228</v>
-      </c>
-      <c r="BN5" s="26" t="s">
-        <v>246</v>
-      </c>
-      <c r="BO5" s="24" t="s">
-        <v>247</v>
-      </c>
-      <c r="BP5" s="24" t="s">
-        <v>248</v>
-      </c>
-      <c r="BQ5" s="24">
-        <v>25</v>
-      </c>
-      <c r="BR5" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="BS5" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="BT5" s="24" t="s">
-        <v>249</v>
-      </c>
-      <c r="BU5" s="26" t="s">
-        <v>250</v>
-      </c>
-      <c r="BV5" s="24" t="s">
-        <v>251</v>
-      </c>
-      <c r="BW5" s="24" t="s">
-        <v>251</v>
-      </c>
-      <c r="BX5" s="24" t="s">
-        <v>252</v>
-      </c>
-      <c r="BY5" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="BZ5" s="43" t="s">
-        <v>253</v>
-      </c>
-      <c r="CA5" s="26" t="s">
-        <v>254</v>
-      </c>
-      <c r="CB5" s="43" t="s">
-        <v>136</v>
-      </c>
-      <c r="CC5" s="26" t="s">
-        <v>255</v>
-      </c>
-      <c r="CD5" s="39" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="6" spans="1:82" x14ac:dyDescent="0.25">
-      <c r="A6" s="37" t="s">
-        <v>286</v>
-      </c>
-      <c r="B6" s="37" t="s">
-        <v>326</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="D6" s="28" t="s">
-        <v>324</v>
-      </c>
-      <c r="E6" s="28" t="s">
-        <v>325</v>
-      </c>
-      <c r="F6" s="28" t="s">
-        <v>163</v>
-      </c>
-      <c r="G6" s="28" t="s">
-        <v>323</v>
-      </c>
-      <c r="H6" s="28" t="s">
-        <v>292</v>
-      </c>
-      <c r="I6" s="31" t="s">
-        <v>161</v>
-      </c>
-      <c r="J6" s="28" t="s">
-        <v>337</v>
-      </c>
-      <c r="K6" s="30" t="s">
-        <v>338</v>
-      </c>
-      <c r="L6" s="38" t="s">
-        <v>158</v>
-      </c>
-      <c r="M6" s="38" t="s">
-        <v>159</v>
-      </c>
-      <c r="N6" s="38" t="s">
-        <v>160</v>
-      </c>
-      <c r="O6" s="30" t="s">
-        <v>163</v>
-      </c>
-      <c r="P6" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q6" s="24" t="s">
-        <v>310</v>
-      </c>
-      <c r="R6" s="24" t="s">
-        <v>340</v>
-      </c>
-      <c r="S6" s="24" t="s">
-        <v>344</v>
-      </c>
-      <c r="T6" s="24" t="s">
-        <v>311</v>
-      </c>
-      <c r="U6" s="32" t="s">
-        <v>333</v>
-      </c>
-      <c r="V6" s="32" t="s">
-        <v>334</v>
-      </c>
-      <c r="W6" s="24">
-        <v>2</v>
-      </c>
-      <c r="X6" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="Y6" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z6" s="37" t="s">
-        <v>151</v>
-      </c>
-      <c r="AA6" s="36" t="s">
-        <v>258</v>
-      </c>
-      <c r="AB6" s="24">
-        <v>3</v>
-      </c>
-      <c r="AC6" s="24">
-        <v>3</v>
-      </c>
-      <c r="AD6" s="24">
-        <v>3</v>
-      </c>
-      <c r="AE6" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="AF6" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="AG6" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="AH6" s="24" t="s">
-        <v>231</v>
-      </c>
-      <c r="AI6" s="24" t="s">
-        <v>232</v>
-      </c>
-      <c r="AJ6" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="AK6" s="24" t="s">
-        <v>309</v>
-      </c>
-      <c r="AL6" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="AM6" s="26" t="s">
-        <v>233</v>
-      </c>
-      <c r="AN6" s="26" t="s">
-        <v>234</v>
-      </c>
-      <c r="AO6" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="AP6" s="24">
-        <v>2</v>
-      </c>
-      <c r="AQ6" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="AR6" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="AS6" s="37" t="s">
-        <v>235</v>
-      </c>
-      <c r="AT6" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="AU6" s="37" t="s">
-        <v>229</v>
-      </c>
-      <c r="AV6" s="37" t="s">
-        <v>236</v>
-      </c>
-      <c r="AW6" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="AX6" s="24" t="s">
-        <v>237</v>
-      </c>
-      <c r="AY6" t="s">
-        <v>238</v>
-      </c>
-      <c r="AZ6" s="24" t="s">
-        <v>256</v>
-      </c>
-      <c r="BA6" s="24" t="s">
-        <v>239</v>
-      </c>
-      <c r="BB6" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="BC6" s="41" t="s">
-        <v>241</v>
-      </c>
-      <c r="BD6" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="BE6" s="41" t="s">
-        <v>242</v>
-      </c>
-      <c r="BF6" s="42" t="s">
-        <v>243</v>
-      </c>
-      <c r="BG6" s="42" t="s">
-        <v>244</v>
-      </c>
-      <c r="BH6" s="24">
-        <v>2</v>
-      </c>
-      <c r="BI6" s="24">
-        <v>1</v>
-      </c>
-      <c r="BJ6" s="24">
-        <v>1</v>
-      </c>
-      <c r="BK6" s="24" t="s">
-        <v>245</v>
-      </c>
-      <c r="BL6" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="BM6" s="24" t="s">
-        <v>228</v>
-      </c>
-      <c r="BN6" s="26" t="s">
-        <v>246</v>
-      </c>
-      <c r="BO6" s="24" t="s">
-        <v>247</v>
-      </c>
-      <c r="BP6" s="24" t="s">
-        <v>248</v>
-      </c>
-      <c r="BQ6" s="24">
-        <v>25</v>
-      </c>
-      <c r="BR6" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="BS6" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="BT6" s="24" t="s">
-        <v>249</v>
-      </c>
-      <c r="BU6" s="26" t="s">
-        <v>250</v>
-      </c>
-      <c r="BV6" s="24" t="s">
-        <v>251</v>
-      </c>
-      <c r="BW6" s="24" t="s">
-        <v>251</v>
-      </c>
-      <c r="BX6" s="24" t="s">
-        <v>252</v>
-      </c>
-      <c r="BY6" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="BZ6" s="43" t="s">
-        <v>253</v>
-      </c>
-      <c r="CA6" s="26" t="s">
-        <v>254</v>
-      </c>
-      <c r="CB6" s="43" t="s">
-        <v>136</v>
-      </c>
-      <c r="CC6" s="26" t="s">
-        <v>255</v>
-      </c>
-      <c r="CD6" s="39" t="s">
-        <v>341</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
-  <dataValidations count="30">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2:T6 AK2:AK6" xr:uid="{1A3610A5-ECFA-492A-A489-37C96F899B80}">
+  <dataValidations count="28">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2 AH2" xr:uid="{1A3610A5-ECFA-492A-A489-37C96F899B80}">
       <formula1>"5 KM,10 KM,20 KM,30 KM,40 KM,50 KM"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2:AA6" xr:uid="{9C19A42A-D89D-4DDE-A4C8-1F1B2743585E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2" xr:uid="{9C19A42A-D89D-4DDE-A4C8-1F1B2743585E}">
       <formula1>"Applied,NotApplied"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O6" xr:uid="{AAF114E8-A236-4AE5-806A-C78913C137C3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CA2" xr:uid="{A8B41F32-A2C0-478A-86BA-8E141CEEE5B5}">
+      <formula1>"Shubham Natkar,Laxmi Khanal,Sudesh Kumar"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2" xr:uid="{AAF114E8-A236-4AE5-806A-C78913C137C3}">
       <formula1>"prince.chaurasia@quadlabs.com,Gunjan.swain@quadlabs.com,laxmi.khanal@quadlabs.com,shubham.natkar@quadlabs.com,piyush.chauhan@quadlabs.com,ankur.yadav@quadlabs.com,sachin.kumar@quadlabs.com"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N6" xr:uid="{7779DB6C-5818-4915-9A07-02B7C4F6B2AF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2" xr:uid="{7779DB6C-5818-4915-9A07-02B7C4F6B2AF}">
       <formula1>"Old,New"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L6" xr:uid="{37CB28C1-8D14-42C1-9757-952A8A4818B3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2" xr:uid="{37CB28C1-8D14-42C1-9757-952A8A4818B3}">
       <formula1>"Poonam_Corp,Amazon,Demo Corporate,Lux_Test_corp,Null"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M6" xr:uid="{80C00CFD-CD64-4121-A897-C010A502ED4A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2" xr:uid="{80C00CFD-CD64-4121-A897-C010A502ED4A}">
       <formula1>"On,Off"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J6" xr:uid="{091C247D-06C5-4FD7-8F70-2C1E838A460E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{091C247D-06C5-4FD7-8F70-2C1E838A460E}">
       <formula1>"Shubham1,Shubham,rsudesh15,Saurabh,Laxmi,sachinkumar,Piyush,Ankur"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I6" xr:uid="{8720B9F1-353B-4087-B0CF-D6DD3898ED4E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{8720B9F1-353B-4087-B0CF-D6DD3898ED4E}">
       <formula1>"Administrator,Travel Arranger,Employee"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BH2:BJ6" xr:uid="{1FAAD004-7F32-49EA-B311-C8D1210FD73B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BE2:BG2" xr:uid="{1FAAD004-7F32-49EA-B311-C8D1210FD73B}">
       <formula1>"0,1,2,3,4,5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BK2:BK6" xr:uid="{2F394A1B-1399-42F6-8A1F-A6107D2AD137}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BH2" xr:uid="{2F394A1B-1399-42F6-8A1F-A6107D2AD137}">
       <formula1>"Economy,Premium Economy,Business Class,First Class"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AX2:AX6" xr:uid="{54EF34A0-0AB1-491D-9588-1CE451363497}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AU2" xr:uid="{54EF34A0-0AB1-491D-9588-1CE451363497}">
       <formula1>"Hotel,Apartment"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AV2:AV6" xr:uid="{1C77E60E-3F8A-44D2-A112-FCE8C42518AD}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS2" xr:uid="{1C77E60E-3F8A-44D2-A112-FCE8C42518AD}">
       <formula1>"1 Star,2 Star,3 Star,4 Star,5 Star"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2:W6" xr:uid="{3A159A86-6693-4F7B-A136-06CFEA738A20}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2" xr:uid="{3A159A86-6693-4F7B-A136-06CFEA738A20}">
       <formula1>"1,2,3,4,5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AZ2:AZ6" xr:uid="{FEF861A3-51ED-43C0-B28A-BE3EB50513E4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AW2" xr:uid="{FEF861A3-51ED-43C0-B28A-BE3EB50513E4}">
       <formula1>"Hotel,Hotel+Flight,Hotel+Car,Hotel+Flight+Car,Hotel+Car+Flight"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BZ2:BZ6" xr:uid="{2128310B-E046-4186-898C-B1B47CA85B1F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BW2" xr:uid="{2128310B-E046-4186-898C-B1B47CA85B1F}">
       <formula1>"MasterCard,Visa"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CA2:CA6" xr:uid="{524E775D-F779-431E-B57A-0D09D5C33E50}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BX2" xr:uid="{524E775D-F779-431E-B57A-0D09D5C33E50}">
       <formula1>"5123456789012346,4111111111111111"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BX2:BX6" xr:uid="{C3D9C8E7-F169-45B4-9589-7816A1C423AC}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BU2" xr:uid="{C3D9C8E7-F169-45B4-9589-7816A1C423AC}">
       <formula1>"Quote,BookAndQuote,Fulfilment"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BL2:BL6 AW2:AW6 AT2:AU6 AG2:AG6 AL2:AL6 AE2:AE6 AJ2:AJ6 BR2:BR6 AO2:AO6" xr:uid="{626BF180-88BC-473D-86A0-BED78CBB0A22}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BI2 AT2 AQ2:AR2 AD2 AI2 AB2 AG2 BO2 AL2" xr:uid="{626BF180-88BC-473D-86A0-BED78CBB0A22}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P6 AF2:AF6" xr:uid="{B6A172F9-1570-47CE-8EBD-679A7B8A20BC}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2 AC2" xr:uid="{B6A172F9-1570-47CE-8EBD-679A7B8A20BC}">
       <formula1>"Individual,Dependent,Personal,Guest"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C6" xr:uid="{AF1F245C-F5C8-4D1D-B5C8-900E635A7B65}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2" xr:uid="{AF1F245C-F5C8-4D1D-B5C8-900E635A7B65}">
       <formula1>"sbt,preprod117,Live"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BA2:BA6" xr:uid="{9AE0CBBB-F3CD-4653-BF77-58ED53B5C627}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AX2" xr:uid="{9AE0CBBB-F3CD-4653-BF77-58ED53B5C627}">
       <formula1>"OneWay,RoundTrip,MultiCity"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BY2:BY6" xr:uid="{5A701C4E-D11A-4206-843D-A5EE38C499FD}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BV2" xr:uid="{5A701C4E-D11A-4206-843D-A5EE38C499FD}">
       <formula1>"Credit Card,Bill To Company"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q6" xr:uid="{4CE3F444-FD09-47FC-B12F-AFEB6FD7C7F6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2" xr:uid="{4CE3F444-FD09-47FC-B12F-AFEB6FD7C7F6}">
       <formula1>"Domestic,International"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BU2:BU6" xr:uid="{49EE4478-AAE1-4831-B450-9BB5A6CF33F3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BR2" xr:uid="{49EE4478-AAE1-4831-B450-9BB5A6CF33F3}">
       <formula1>"SendForApproval,ProceedToCheckout"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D6" xr:uid="{E7F00521-023F-4D90-9127-367B050517F5}">
-      <formula1>"//staging117/sbt,//preprod.quadlabs.net/sbt/#,test.quadlabs.net/sbt,tripsource.co.in/sbt/#,//test.quadlabs.net/SSO_Login"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H6" xr:uid="{7AF69C06-712F-47A3-8CF4-3AA749857B70}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{E7F00521-023F-4D90-9127-367B050517F5}">
+      <formula1>"//staging117/sbt,//preprod.quadlabs.net/sbt/#,test.quadlabs.net/sbt,tripsource.co.in/sbt/#"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2" xr:uid="{7AF69C06-712F-47A3-8CF4-3AA749857B70}">
       <formula1>"Saurabh,Prince Chaurasia,Gunjan Swain,Shubham,Laxmi Khanal,Sudesh Kumar,Piyush,Ankur"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K6" xr:uid="{4EA60C40-CBED-4436-81AD-7AEDED4DD7CE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2" xr:uid="{4EA60C40-CBED-4436-81AD-7AEDED4DD7CE}">
       <formula1>"Laxmi@123,Admin@123,S21FUMK6JAPLBYO,Shubham@123,BAVYBXVY09FKGTY,Piyush@123,Ankur@123,DWUFR8WRAR6SL1M"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E6" xr:uid="{9372CA00-8494-4BAF-AC8C-7005141A02A6}">
-      <formula1>"SSO Login,Old Url"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F6" xr:uid="{753E5D36-8B60-4236-B1A3-A9E56D5C3733}">
-      <formula1>"sachin.kumar@quadlabs.com,piyush.chauhan@quadlabs.com,prince.chaurasia@quadlabs.com"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CD2:CD6" xr:uid="{235BB117-AA4B-4AE3-9DE9-F4837675212D}">
-      <formula1>"Shubham Natkar,Laxmi Khanal,Sudesh Kumar,sachin kumar"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1" display="Admin@123" xr:uid="{F8B10C09-66E6-42AC-8295-AEF5443AE37C}"/>
-    <hyperlink ref="O2" r:id="rId2" display="prince.chaurasia@quadlabs.com" xr:uid="{82DEF3E1-6F1D-457E-BE1F-5A6E173461AB}"/>
-    <hyperlink ref="K3:K6" r:id="rId3" display="Admin@123" xr:uid="{0FAEED69-7325-445C-8CF6-237BFEC9E20E}"/>
-    <hyperlink ref="O3:O6" r:id="rId4" display="prince.chaurasia@quadlabs.com" xr:uid="{78131ECD-AF67-4FC7-B71A-3199153B56B0}"/>
+    <hyperlink ref="H2" r:id="rId1" display="Admin@123" xr:uid="{F8B10C09-66E6-42AC-8295-AEF5443AE37C}"/>
+    <hyperlink ref="L2" r:id="rId2" display="prince.chaurasia@quadlabs.com" xr:uid="{82DEF3E1-6F1D-457E-BE1F-5A6E173461AB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3931,10 +2842,10 @@
         <v>311</v>
       </c>
       <c r="R2" s="40" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="S2" s="40" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="T2" s="24">
         <v>2</v>

--- a/data/excel/SBT_Hotel.xlsx
+++ b/data/excel/SBT_Hotel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation\projectQuadlabs\data\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ankur.Yadav\git\ProjectQuadlabs\data\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B33A63D4-D10E-4B11-9E8E-4BE578A69A1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E9670D-AC47-4755-94BD-CCF2399410CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2705" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2711" uniqueCount="327">
   <si>
     <t>Fop</t>
   </si>
@@ -1012,6 +1012,21 @@
   </si>
   <si>
     <t>21-Dec-2023</t>
+  </si>
+  <si>
+    <t>LoginType</t>
+  </si>
+  <si>
+    <t>Emailid</t>
+  </si>
+  <si>
+    <t>SDN</t>
+  </si>
+  <si>
+    <t>test.quadlabs.net</t>
+  </si>
+  <si>
+    <t>Old Url</t>
   </si>
 </sst>
 </file>
@@ -1798,10 +1813,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2663B78-477A-4A80-9FFF-53D3FC78CF07}">
-  <dimension ref="A1:CA2"/>
+  <dimension ref="A1:CD2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BL1" workbookViewId="0">
-      <selection activeCell="BZ6" sqref="BZ6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1810,83 +1825,86 @@
     <col min="2" max="2" width="49.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="65.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="15" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="34" max="35" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="14" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="43.140625" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="42.140625" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="9" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="49.5703125" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="50.42578125" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="19" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="18" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" customWidth="1"/>
+    <col min="6" max="6" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5703125" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="65.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="15" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="37" max="38" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="14" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="43.140625" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="42.140625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="9" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="49.5703125" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="50.42578125" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="19" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="18" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A1" s="35" t="s">
         <v>120</v>
       </c>
@@ -1900,232 +1918,241 @@
         <v>37</v>
       </c>
       <c r="E1" s="23" t="s">
+        <v>322</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>323</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>324</v>
+      </c>
+      <c r="H1" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="I1" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="J1" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="K1" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="L1" s="29" t="s">
         <v>155</v>
       </c>
-      <c r="J1" s="29" t="s">
+      <c r="M1" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="K1" s="29" t="s">
+      <c r="N1" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="O1" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="M1" s="23" t="s">
+      <c r="P1" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="N1" s="23" t="s">
+      <c r="Q1" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="O1" s="33" t="s">
+      <c r="R1" s="33" t="s">
         <v>175</v>
       </c>
-      <c r="P1" s="33" t="s">
+      <c r="S1" s="33" t="s">
         <v>176</v>
       </c>
-      <c r="Q1" s="33" t="s">
+      <c r="T1" s="33" t="s">
         <v>305</v>
       </c>
-      <c r="R1" s="33" t="s">
+      <c r="U1" s="33" t="s">
         <v>177</v>
       </c>
-      <c r="S1" s="33" t="s">
+      <c r="V1" s="33" t="s">
         <v>178</v>
       </c>
-      <c r="T1" s="33" t="s">
+      <c r="W1" s="33" t="s">
         <v>168</v>
       </c>
-      <c r="U1" s="33" t="s">
+      <c r="X1" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="V1" s="33" t="s">
+      <c r="Y1" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="W1" s="33" t="s">
+      <c r="Z1" s="33" t="s">
         <v>169</v>
       </c>
-      <c r="X1" s="33" t="s">
+      <c r="AA1" s="33" t="s">
         <v>257</v>
       </c>
-      <c r="Y1" s="25" t="s">
+      <c r="AB1" s="25" t="s">
         <v>262</v>
       </c>
-      <c r="Z1" s="25" t="s">
+      <c r="AC1" s="25" t="s">
         <v>261</v>
       </c>
-      <c r="AA1" s="25" t="s">
+      <c r="AD1" s="25" t="s">
         <v>260</v>
       </c>
-      <c r="AB1" s="23" t="s">
+      <c r="AE1" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="AC1" s="23" t="s">
+      <c r="AF1" s="23" t="s">
         <v>180</v>
       </c>
-      <c r="AD1" s="23" t="s">
+      <c r="AG1" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="AE1" s="33" t="s">
+      <c r="AH1" s="33" t="s">
         <v>182</v>
       </c>
-      <c r="AF1" s="33" t="s">
+      <c r="AI1" s="33" t="s">
         <v>183</v>
       </c>
-      <c r="AG1" s="33" t="s">
+      <c r="AJ1" s="33" t="s">
         <v>314</v>
       </c>
-      <c r="AH1" s="33" t="s">
+      <c r="AK1" s="33" t="s">
         <v>313</v>
       </c>
-      <c r="AI1" s="33" t="s">
+      <c r="AL1" s="33" t="s">
         <v>184</v>
       </c>
-      <c r="AJ1" s="33" t="s">
+      <c r="AM1" s="33" t="s">
         <v>185</v>
       </c>
-      <c r="AK1" s="33" t="s">
+      <c r="AN1" s="33" t="s">
         <v>186</v>
       </c>
-      <c r="AL1" s="33" t="s">
+      <c r="AO1" s="33" t="s">
         <v>187</v>
       </c>
-      <c r="AM1" s="33" t="s">
+      <c r="AP1" s="33" t="s">
         <v>188</v>
       </c>
-      <c r="AN1" s="33" t="s">
+      <c r="AQ1" s="33" t="s">
         <v>189</v>
       </c>
-      <c r="AO1" s="33" t="s">
+      <c r="AR1" s="33" t="s">
         <v>190</v>
       </c>
-      <c r="AP1" s="33" t="s">
+      <c r="AS1" s="33" t="s">
         <v>191</v>
       </c>
-      <c r="AQ1" s="23" t="s">
+      <c r="AT1" s="23" t="s">
         <v>192</v>
       </c>
-      <c r="AR1" s="33" t="s">
+      <c r="AU1" s="33" t="s">
         <v>193</v>
       </c>
-      <c r="AS1" s="33" t="s">
+      <c r="AV1" s="33" t="s">
         <v>194</v>
       </c>
-      <c r="AT1" s="23" t="s">
+      <c r="AW1" s="23" t="s">
         <v>195</v>
       </c>
-      <c r="AU1" s="23" t="s">
+      <c r="AX1" s="23" t="s">
         <v>196</v>
       </c>
-      <c r="AV1" s="23" t="s">
+      <c r="AY1" s="23" t="s">
         <v>197</v>
       </c>
-      <c r="AW1" s="23" t="s">
+      <c r="AZ1" s="23" t="s">
         <v>198</v>
       </c>
-      <c r="AX1" s="23" t="s">
+      <c r="BA1" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="AY1" s="23" t="s">
+      <c r="BB1" s="23" t="s">
         <v>200</v>
       </c>
-      <c r="AZ1" s="23" t="s">
+      <c r="BC1" s="23" t="s">
         <v>201</v>
       </c>
-      <c r="BA1" s="23" t="s">
+      <c r="BD1" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="BB1" s="23" t="s">
+      <c r="BE1" s="23" t="s">
         <v>203</v>
       </c>
-      <c r="BC1" s="23" t="s">
+      <c r="BF1" s="23" t="s">
         <v>204</v>
       </c>
-      <c r="BD1" s="23" t="s">
+      <c r="BG1" s="23" t="s">
         <v>205</v>
       </c>
-      <c r="BE1" s="23" t="s">
+      <c r="BH1" s="23" t="s">
         <v>206</v>
       </c>
-      <c r="BF1" s="23" t="s">
+      <c r="BI1" s="23" t="s">
         <v>207</v>
       </c>
-      <c r="BG1" s="23" t="s">
+      <c r="BJ1" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="BH1" s="23" t="s">
+      <c r="BK1" s="23" t="s">
         <v>208</v>
       </c>
-      <c r="BI1" s="23" t="s">
+      <c r="BL1" s="23" t="s">
         <v>209</v>
       </c>
-      <c r="BJ1" s="23" t="s">
+      <c r="BM1" s="23" t="s">
         <v>210</v>
       </c>
-      <c r="BK1" s="23" t="s">
+      <c r="BN1" s="23" t="s">
         <v>211</v>
       </c>
-      <c r="BL1" s="23" t="s">
+      <c r="BO1" s="23" t="s">
         <v>212</v>
       </c>
-      <c r="BM1" s="23" t="s">
+      <c r="BP1" s="23" t="s">
         <v>213</v>
       </c>
-      <c r="BN1" s="23" t="s">
+      <c r="BQ1" s="23" t="s">
         <v>214</v>
       </c>
-      <c r="BO1" s="23" t="s">
+      <c r="BR1" s="23" t="s">
         <v>215</v>
       </c>
-      <c r="BP1" s="23" t="s">
+      <c r="BS1" s="23" t="s">
         <v>216</v>
       </c>
-      <c r="BQ1" s="23" t="s">
+      <c r="BT1" s="23" t="s">
         <v>217</v>
       </c>
-      <c r="BR1" s="23" t="s">
+      <c r="BU1" s="23" t="s">
         <v>218</v>
       </c>
-      <c r="BS1" s="23" t="s">
+      <c r="BV1" s="23" t="s">
         <v>219</v>
       </c>
-      <c r="BT1" s="23" t="s">
+      <c r="BW1" s="23" t="s">
         <v>220</v>
       </c>
-      <c r="BU1" s="23" t="s">
+      <c r="BX1" s="23" t="s">
         <v>221</v>
       </c>
-      <c r="BV1" s="23" t="s">
+      <c r="BY1" s="23" t="s">
         <v>222</v>
       </c>
-      <c r="BW1" s="23" t="s">
+      <c r="BZ1" s="23" t="s">
         <v>223</v>
       </c>
-      <c r="BX1" s="23" t="s">
+      <c r="CA1" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="BY1" s="23" t="s">
+      <c r="CB1" s="23" t="s">
         <v>225</v>
       </c>
-      <c r="BZ1" s="23" t="s">
+      <c r="CC1" s="23" t="s">
         <v>226</v>
       </c>
-      <c r="CA1" s="23" t="s">
+      <c r="CD1" s="23" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="2" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
         <v>147</v>
       </c>
@@ -2139,322 +2166,337 @@
         <v>164</v>
       </c>
       <c r="E2" s="28" t="s">
+        <v>326</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>325</v>
+      </c>
+      <c r="H2" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="F2" s="31" t="s">
+      <c r="I2" s="31" t="s">
         <v>161</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="J2" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="H2" s="30" t="s">
+      <c r="K2" s="30" t="s">
         <v>162</v>
       </c>
-      <c r="I2" s="38" t="s">
+      <c r="L2" s="38" t="s">
         <v>158</v>
       </c>
-      <c r="J2" s="38" t="s">
+      <c r="M2" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="K2" s="38" t="s">
+      <c r="N2" s="38" t="s">
         <v>160</v>
       </c>
-      <c r="L2" s="30" t="s">
+      <c r="O2" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="M2" s="24" t="s">
+      <c r="P2" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="24" t="s">
+      <c r="Q2" s="24" t="s">
         <v>227</v>
       </c>
-      <c r="O2" s="24" t="s">
+      <c r="R2" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="P2" s="24" t="s">
+      <c r="S2" s="24" t="s">
         <v>165</v>
       </c>
-      <c r="Q2" s="24" t="s">
+      <c r="T2" s="24" t="s">
         <v>311</v>
       </c>
-      <c r="R2" s="32" t="s">
+      <c r="U2" s="32" t="s">
         <v>317</v>
       </c>
-      <c r="S2" s="32" t="s">
+      <c r="V2" s="32" t="s">
         <v>318</v>
       </c>
-      <c r="T2" s="24">
+      <c r="W2" s="24">
         <v>2</v>
       </c>
-      <c r="U2" s="24" t="s">
+      <c r="X2" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="V2" s="37" t="s">
+      <c r="Y2" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="W2" s="37" t="s">
+      <c r="Z2" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="X2" s="36" t="s">
+      <c r="AA2" s="36" t="s">
         <v>270</v>
       </c>
-      <c r="Y2" s="24">
+      <c r="AB2" s="24">
         <v>3</v>
       </c>
-      <c r="Z2" s="24">
+      <c r="AC2" s="24">
         <v>3</v>
       </c>
-      <c r="AA2" s="24">
+      <c r="AD2" s="24">
         <v>3</v>
       </c>
-      <c r="AB2" s="24" t="s">
+      <c r="AE2" s="24" t="s">
         <v>229</v>
       </c>
-      <c r="AC2" s="24" t="s">
+      <c r="AF2" s="24" t="s">
         <v>40</v>
-      </c>
-      <c r="AD2" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="AE2" s="24" t="s">
-        <v>231</v>
-      </c>
-      <c r="AF2" s="24" t="s">
-        <v>232</v>
       </c>
       <c r="AG2" s="24" t="s">
         <v>229</v>
       </c>
       <c r="AH2" s="24" t="s">
+        <v>231</v>
+      </c>
+      <c r="AI2" s="24" t="s">
+        <v>232</v>
+      </c>
+      <c r="AJ2" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="AK2" s="24" t="s">
         <v>309</v>
-      </c>
-      <c r="AI2" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="AJ2" s="26" t="s">
-        <v>233</v>
-      </c>
-      <c r="AK2" s="26" t="s">
-        <v>234</v>
       </c>
       <c r="AL2" s="24" t="s">
         <v>229</v>
       </c>
-      <c r="AM2" s="24">
+      <c r="AM2" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="AN2" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="AO2" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="AP2" s="24">
         <v>2</v>
       </c>
-      <c r="AN2" s="24" t="s">
+      <c r="AQ2" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="AO2" s="37" t="s">
+      <c r="AR2" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="AP2" s="37" t="s">
+      <c r="AS2" s="37" t="s">
         <v>235</v>
-      </c>
-      <c r="AQ2" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="AR2" s="37" t="s">
-        <v>229</v>
-      </c>
-      <c r="AS2" s="37" t="s">
-        <v>236</v>
       </c>
       <c r="AT2" s="24" t="s">
         <v>229</v>
       </c>
-      <c r="AU2" s="24" t="s">
+      <c r="AU2" s="37" t="s">
+        <v>229</v>
+      </c>
+      <c r="AV2" s="37" t="s">
+        <v>236</v>
+      </c>
+      <c r="AW2" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="AX2" s="24" t="s">
         <v>237</v>
       </c>
-      <c r="AV2" t="s">
+      <c r="AY2" t="s">
         <v>238</v>
       </c>
-      <c r="AW2" s="24" t="s">
+      <c r="AZ2" s="24" t="s">
         <v>256</v>
       </c>
-      <c r="AX2" s="24" t="s">
+      <c r="BA2" s="24" t="s">
         <v>239</v>
       </c>
-      <c r="AY2" s="2" t="s">
+      <c r="BB2" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="AZ2" s="41" t="s">
+      <c r="BC2" s="41" t="s">
         <v>241</v>
       </c>
-      <c r="BA2" s="2" t="s">
+      <c r="BD2" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="BB2" s="41" t="s">
+      <c r="BE2" s="41" t="s">
         <v>242</v>
       </c>
-      <c r="BC2" s="42" t="s">
+      <c r="BF2" s="42" t="s">
         <v>243</v>
       </c>
-      <c r="BD2" s="42" t="s">
+      <c r="BG2" s="42" t="s">
         <v>244</v>
       </c>
-      <c r="BE2" s="24">
+      <c r="BH2" s="24">
         <v>2</v>
       </c>
-      <c r="BF2" s="24">
+      <c r="BI2" s="24">
         <v>1</v>
       </c>
-      <c r="BG2" s="24">
+      <c r="BJ2" s="24">
         <v>1</v>
       </c>
-      <c r="BH2" s="24" t="s">
+      <c r="BK2" s="24" t="s">
         <v>245</v>
       </c>
-      <c r="BI2" s="24" t="s">
+      <c r="BL2" s="24" t="s">
         <v>229</v>
       </c>
-      <c r="BJ2" s="24" t="s">
+      <c r="BM2" s="24" t="s">
         <v>228</v>
       </c>
-      <c r="BK2" s="26" t="s">
+      <c r="BN2" s="26" t="s">
         <v>246</v>
       </c>
-      <c r="BL2" s="24" t="s">
+      <c r="BO2" s="24" t="s">
         <v>247</v>
       </c>
-      <c r="BM2" s="24" t="s">
+      <c r="BP2" s="24" t="s">
         <v>248</v>
       </c>
-      <c r="BN2" s="24">
+      <c r="BQ2" s="24">
         <v>25</v>
       </c>
-      <c r="BO2" s="24" t="s">
+      <c r="BR2" s="24" t="s">
         <v>229</v>
       </c>
-      <c r="BP2" s="24" t="s">
+      <c r="BS2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="BQ2" s="24" t="s">
+      <c r="BT2" s="24" t="s">
         <v>249</v>
       </c>
-      <c r="BR2" s="26" t="s">
+      <c r="BU2" s="26" t="s">
         <v>250</v>
       </c>
-      <c r="BS2" s="24" t="s">
+      <c r="BV2" s="24" t="s">
         <v>251</v>
       </c>
-      <c r="BT2" s="24" t="s">
+      <c r="BW2" s="24" t="s">
         <v>251</v>
       </c>
-      <c r="BU2" s="24" t="s">
+      <c r="BX2" s="24" t="s">
         <v>252</v>
       </c>
-      <c r="BV2" s="24" t="s">
+      <c r="BY2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="BW2" s="43" t="s">
+      <c r="BZ2" s="43" t="s">
         <v>253</v>
       </c>
-      <c r="BX2" s="26" t="s">
+      <c r="CA2" s="26" t="s">
         <v>254</v>
       </c>
-      <c r="BY2" s="43" t="s">
+      <c r="CB2" s="43" t="s">
         <v>136</v>
       </c>
-      <c r="BZ2" s="26" t="s">
+      <c r="CC2" s="26" t="s">
         <v>255</v>
       </c>
-      <c r="CA2" s="39" t="s">
+      <c r="CD2" s="39" t="s">
         <v>136</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
-  <dataValidations count="28">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2 AH2" xr:uid="{1A3610A5-ECFA-492A-A489-37C96F899B80}">
+  <dataValidations count="30">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2 AK2" xr:uid="{1A3610A5-ECFA-492A-A489-37C96F899B80}">
       <formula1>"5 KM,10 KM,20 KM,30 KM,40 KM,50 KM"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2" xr:uid="{9C19A42A-D89D-4DDE-A4C8-1F1B2743585E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2" xr:uid="{9C19A42A-D89D-4DDE-A4C8-1F1B2743585E}">
       <formula1>"Applied,NotApplied"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CA2" xr:uid="{A8B41F32-A2C0-478A-86BA-8E141CEEE5B5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CD2" xr:uid="{A8B41F32-A2C0-478A-86BA-8E141CEEE5B5}">
       <formula1>"Shubham Natkar,Laxmi Khanal,Sudesh Kumar"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2" xr:uid="{AAF114E8-A236-4AE5-806A-C78913C137C3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2" xr:uid="{AAF114E8-A236-4AE5-806A-C78913C137C3}">
       <formula1>"prince.chaurasia@quadlabs.com,Gunjan.swain@quadlabs.com,laxmi.khanal@quadlabs.com,shubham.natkar@quadlabs.com,piyush.chauhan@quadlabs.com,ankur.yadav@quadlabs.com,sachin.kumar@quadlabs.com"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2" xr:uid="{7779DB6C-5818-4915-9A07-02B7C4F6B2AF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2" xr:uid="{7779DB6C-5818-4915-9A07-02B7C4F6B2AF}">
       <formula1>"Old,New"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2" xr:uid="{37CB28C1-8D14-42C1-9757-952A8A4818B3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2" xr:uid="{37CB28C1-8D14-42C1-9757-952A8A4818B3}">
       <formula1>"Poonam_Corp,Amazon,Demo Corporate,Lux_Test_corp,Null"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2" xr:uid="{80C00CFD-CD64-4121-A897-C010A502ED4A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2" xr:uid="{80C00CFD-CD64-4121-A897-C010A502ED4A}">
       <formula1>"On,Off"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{091C247D-06C5-4FD7-8F70-2C1E838A460E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2" xr:uid="{091C247D-06C5-4FD7-8F70-2C1E838A460E}">
       <formula1>"Shubham1,Shubham,rsudesh15,Saurabh,Laxmi,sachinkumar,Piyush,Ankur"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{8720B9F1-353B-4087-B0CF-D6DD3898ED4E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2" xr:uid="{8720B9F1-353B-4087-B0CF-D6DD3898ED4E}">
       <formula1>"Administrator,Travel Arranger,Employee"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BE2:BG2" xr:uid="{1FAAD004-7F32-49EA-B311-C8D1210FD73B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BH2:BJ2" xr:uid="{1FAAD004-7F32-49EA-B311-C8D1210FD73B}">
       <formula1>"0,1,2,3,4,5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BH2" xr:uid="{2F394A1B-1399-42F6-8A1F-A6107D2AD137}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BK2" xr:uid="{2F394A1B-1399-42F6-8A1F-A6107D2AD137}">
       <formula1>"Economy,Premium Economy,Business Class,First Class"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AU2" xr:uid="{54EF34A0-0AB1-491D-9588-1CE451363497}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AX2" xr:uid="{54EF34A0-0AB1-491D-9588-1CE451363497}">
       <formula1>"Hotel,Apartment"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS2" xr:uid="{1C77E60E-3F8A-44D2-A112-FCE8C42518AD}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AV2" xr:uid="{1C77E60E-3F8A-44D2-A112-FCE8C42518AD}">
       <formula1>"1 Star,2 Star,3 Star,4 Star,5 Star"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2" xr:uid="{3A159A86-6693-4F7B-A136-06CFEA738A20}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2" xr:uid="{3A159A86-6693-4F7B-A136-06CFEA738A20}">
       <formula1>"1,2,3,4,5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AW2" xr:uid="{FEF861A3-51ED-43C0-B28A-BE3EB50513E4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AZ2" xr:uid="{FEF861A3-51ED-43C0-B28A-BE3EB50513E4}">
       <formula1>"Hotel,Hotel+Flight,Hotel+Car,Hotel+Flight+Car,Hotel+Car+Flight"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BW2" xr:uid="{2128310B-E046-4186-898C-B1B47CA85B1F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BZ2" xr:uid="{2128310B-E046-4186-898C-B1B47CA85B1F}">
       <formula1>"MasterCard,Visa"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BX2" xr:uid="{524E775D-F779-431E-B57A-0D09D5C33E50}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CA2" xr:uid="{524E775D-F779-431E-B57A-0D09D5C33E50}">
       <formula1>"5123456789012346,4111111111111111"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BU2" xr:uid="{C3D9C8E7-F169-45B4-9589-7816A1C423AC}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BX2" xr:uid="{C3D9C8E7-F169-45B4-9589-7816A1C423AC}">
       <formula1>"Quote,BookAndQuote,Fulfilment"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BI2 AT2 AQ2:AR2 AD2 AI2 AB2 AG2 BO2 AL2" xr:uid="{626BF180-88BC-473D-86A0-BED78CBB0A22}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BL2 AW2 AT2:AU2 AG2 AL2 AE2 AJ2 BR2 AO2" xr:uid="{626BF180-88BC-473D-86A0-BED78CBB0A22}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2 AC2" xr:uid="{B6A172F9-1570-47CE-8EBD-679A7B8A20BC}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2 AF2" xr:uid="{B6A172F9-1570-47CE-8EBD-679A7B8A20BC}">
       <formula1>"Individual,Dependent,Personal,Guest"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2" xr:uid="{AF1F245C-F5C8-4D1D-B5C8-900E635A7B65}">
       <formula1>"sbt,preprod117,Live"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AX2" xr:uid="{9AE0CBBB-F3CD-4653-BF77-58ED53B5C627}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BA2" xr:uid="{9AE0CBBB-F3CD-4653-BF77-58ED53B5C627}">
       <formula1>"OneWay,RoundTrip,MultiCity"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BV2" xr:uid="{5A701C4E-D11A-4206-843D-A5EE38C499FD}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BY2" xr:uid="{5A701C4E-D11A-4206-843D-A5EE38C499FD}">
       <formula1>"Credit Card,Bill To Company"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2" xr:uid="{4CE3F444-FD09-47FC-B12F-AFEB6FD7C7F6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2" xr:uid="{4CE3F444-FD09-47FC-B12F-AFEB6FD7C7F6}">
       <formula1>"Domestic,International"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BR2" xr:uid="{49EE4478-AAE1-4831-B450-9BB5A6CF33F3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BU2" xr:uid="{49EE4478-AAE1-4831-B450-9BB5A6CF33F3}">
       <formula1>"SendForApproval,ProceedToCheckout"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{E7F00521-023F-4D90-9127-367B050517F5}">
       <formula1>"//staging117/sbt,//preprod.quadlabs.net/sbt/#,test.quadlabs.net/sbt,tripsource.co.in/sbt/#"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2" xr:uid="{7AF69C06-712F-47A3-8CF4-3AA749857B70}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2" xr:uid="{7AF69C06-712F-47A3-8CF4-3AA749857B70}">
       <formula1>"Saurabh,Prince Chaurasia,Gunjan Swain,Shubham,Laxmi Khanal,Sudesh Kumar,Piyush,Ankur"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2" xr:uid="{4EA60C40-CBED-4436-81AD-7AEDED4DD7CE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2" xr:uid="{4EA60C40-CBED-4436-81AD-7AEDED4DD7CE}">
       <formula1>"Laxmi@123,Admin@123,S21FUMK6JAPLBYO,Shubham@123,BAVYBXVY09FKGTY,Piyush@123,Ankur@123,DWUFR8WRAR6SL1M"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2" xr:uid="{212CEDE3-32A2-490D-B074-8F6814274A7B}">
+      <formula1>"Old Url,SSO Login"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{24EFDCBF-B153-41D7-BACD-CEB6FF3B832C}">
+      <formula1>"sachin.kumar@quadlabs.com"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" display="Admin@123" xr:uid="{F8B10C09-66E6-42AC-8295-AEF5443AE37C}"/>
-    <hyperlink ref="L2" r:id="rId2" display="prince.chaurasia@quadlabs.com" xr:uid="{82DEF3E1-6F1D-457E-BE1F-5A6E173461AB}"/>
+    <hyperlink ref="K2" r:id="rId1" display="Admin@123" xr:uid="{F8B10C09-66E6-42AC-8295-AEF5443AE37C}"/>
+    <hyperlink ref="O2" r:id="rId2" display="prince.chaurasia@quadlabs.com" xr:uid="{82DEF3E1-6F1D-457E-BE1F-5A6E173461AB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/excel/SBT_Hotel.xlsx
+++ b/data/excel/SBT_Hotel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ankur.Yadav\git\ProjectQuadlabs\data\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E9670D-AC47-4755-94BD-CCF2399410CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A552CB05-8013-41D6-9289-1956A35104D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1026,7 +1026,7 @@
     <t>test.quadlabs.net</t>
   </si>
   <si>
-    <t>Old Url</t>
+    <t>SSO Login</t>
   </si>
 </sst>
 </file>
@@ -1815,8 +1815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2663B78-477A-4A80-9FFF-53D3FC78CF07}">
   <dimension ref="A1:CD2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2163,7 +2163,7 @@
         <v>144</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>164</v>
+        <v>38</v>
       </c>
       <c r="E2" s="28" t="s">
         <v>326</v>

--- a/data/excel/SBT_Hotel.xlsx
+++ b/data/excel/SBT_Hotel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ankur.Yadav\git\ProjectQuadlabs\data\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation\QuadlabsCoreProject\data\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A552CB05-8013-41D6-9289-1956A35104D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4FCC8E7-B82C-413E-B3F4-A5F2908309CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="3" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Business" sheetId="13" r:id="rId1"/>
@@ -23,18 +23,20 @@
     <sheet name="Sheet10" sheetId="26" r:id="rId8"/>
     <sheet name="Sheet11" sheetId="27" r:id="rId9"/>
     <sheet name="Sheet13" sheetId="29" r:id="rId10"/>
-    <sheet name="Sheet12" sheetId="28" r:id="rId11"/>
-    <sheet name="Sheet3" sheetId="18" r:id="rId12"/>
-    <sheet name="Sheet2" sheetId="17" r:id="rId13"/>
-    <sheet name="Sheet4" sheetId="19" r:id="rId14"/>
-    <sheet name="Dependent" sheetId="5" r:id="rId15"/>
-    <sheet name="Sheet1" sheetId="16" r:id="rId16"/>
-    <sheet name="Personal" sheetId="6" r:id="rId17"/>
-    <sheet name="Guest" sheetId="11" r:id="rId18"/>
-    <sheet name="GuestSheet1" sheetId="15" r:id="rId19"/>
-    <sheet name="SearchWithHotelName" sheetId="2" r:id="rId20"/>
-    <sheet name="BookHotelWithPolicyType" sheetId="3" r:id="rId21"/>
-    <sheet name="AddToCart" sheetId="9" r:id="rId22"/>
+    <sheet name="Sheet14" sheetId="30" r:id="rId11"/>
+    <sheet name="Sheet15" sheetId="31" r:id="rId12"/>
+    <sheet name="Sheet12" sheetId="28" r:id="rId13"/>
+    <sheet name="Sheet3" sheetId="18" r:id="rId14"/>
+    <sheet name="Sheet2" sheetId="17" r:id="rId15"/>
+    <sheet name="Sheet4" sheetId="19" r:id="rId16"/>
+    <sheet name="Dependent" sheetId="5" r:id="rId17"/>
+    <sheet name="Sheet1" sheetId="16" r:id="rId18"/>
+    <sheet name="Personal" sheetId="6" r:id="rId19"/>
+    <sheet name="Guest" sheetId="11" r:id="rId20"/>
+    <sheet name="GuestSheet1" sheetId="15" r:id="rId21"/>
+    <sheet name="SearchWithHotelName" sheetId="2" r:id="rId22"/>
+    <sheet name="BookHotelWithPolicyType" sheetId="3" r:id="rId23"/>
+    <sheet name="AddToCart" sheetId="9" r:id="rId24"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -46,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2711" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3159" uniqueCount="361">
   <si>
     <t>Fop</t>
   </si>
@@ -1027,6 +1029,108 @@
   </si>
   <si>
     <t>SSO Login</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>MoURL</t>
+  </si>
+  <si>
+    <t>CompanyCode</t>
+  </si>
+  <si>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>CorporateName</t>
+  </si>
+  <si>
+    <t>TravellerName</t>
+  </si>
+  <si>
+    <t>//test.quadlabs.net/backoffice/</t>
+  </si>
+  <si>
+    <t>at</t>
+  </si>
+  <si>
+    <t>Saurav_at</t>
+  </si>
+  <si>
+    <t>Admin@123</t>
+  </si>
+  <si>
+    <t>Shekhar Singh</t>
+  </si>
+  <si>
+    <t>HMNHotelName</t>
+  </si>
+  <si>
+    <t>HMNumber</t>
+  </si>
+  <si>
+    <t>FFAirline</t>
+  </si>
+  <si>
+    <t>FFExpiryDate</t>
+  </si>
+  <si>
+    <t>FFLoyaltyNumber</t>
+  </si>
+  <si>
+    <t>Akasa Air</t>
+  </si>
+  <si>
+    <t>22-Dec-2030</t>
+  </si>
+  <si>
+    <t>12346</t>
+  </si>
+  <si>
+    <t>//test.quadlabs.net/SSO_Login</t>
+  </si>
+  <si>
+    <t>shekhar.singh@quadlabs.com</t>
+  </si>
+  <si>
+    <t>21-May-2024</t>
+  </si>
+  <si>
+    <t>HotelName</t>
+  </si>
+  <si>
+    <t>COURTYARD BY MARRIOTT</t>
+  </si>
+  <si>
+    <t>CY123</t>
+  </si>
+  <si>
+    <t>RENAISSANCE HOTELS</t>
+  </si>
+  <si>
+    <t>BR123</t>
+  </si>
+  <si>
+    <t>London, England, United Kingdom (LHR-Heathrow)</t>
+  </si>
+  <si>
+    <t>17-May-2024</t>
+  </si>
+  <si>
+    <t>Hotel international booking flow for Individual (Admin)</t>
+  </si>
+  <si>
+    <t>lhr</t>
+  </si>
+  <si>
+    <t>25-May-2024</t>
+  </si>
+  <si>
+    <t>St. Pancras Renaissance Hotel London</t>
+  </si>
+  <si>
+    <t>20-May-2024</t>
   </si>
 </sst>
 </file>
@@ -1103,7 +1207,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1137,6 +1241,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1213,7 +1323,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1300,6 +1410,20 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1319,9 +1443,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1359,7 +1483,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1465,7 +1589,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1607,7 +1731,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1815,8 +1939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2663B78-477A-4A80-9FFF-53D3FC78CF07}">
   <dimension ref="A1:CD2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2503,6 +2627,1803 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{974A3E0D-052E-4767-B170-38FEFE199448}">
+  <dimension ref="A1:CQ3"/>
+  <sheetViews>
+    <sheetView topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="AA1" sqref="A1:XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="28" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="65.28515625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="7" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="9" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="15" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="15" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="49" max="50" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="14" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="43.140625" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="42.140625" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="9" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="49.5703125" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="50.42578125" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="19" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="18" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="15.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:95" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>170</v>
+      </c>
+      <c r="C1" s="44" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1" s="45" t="s">
+        <v>328</v>
+      </c>
+      <c r="E1" s="45" t="s">
+        <v>329</v>
+      </c>
+      <c r="F1" s="45" t="s">
+        <v>330</v>
+      </c>
+      <c r="G1" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="45" t="s">
+        <v>331</v>
+      </c>
+      <c r="I1" s="46" t="s">
+        <v>332</v>
+      </c>
+      <c r="J1" s="46" t="s">
+        <v>338</v>
+      </c>
+      <c r="K1" s="46" t="s">
+        <v>339</v>
+      </c>
+      <c r="L1" s="46" t="s">
+        <v>340</v>
+      </c>
+      <c r="M1" s="46" t="s">
+        <v>341</v>
+      </c>
+      <c r="N1" s="46" t="s">
+        <v>342</v>
+      </c>
+      <c r="O1" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q1" s="23" t="s">
+        <v>322</v>
+      </c>
+      <c r="R1" s="23" t="s">
+        <v>323</v>
+      </c>
+      <c r="S1" s="23" t="s">
+        <v>324</v>
+      </c>
+      <c r="T1" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="U1" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="V1" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="X1" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y1" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="Z1" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="AA1" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="AB1" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="AC1" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="AD1" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="AE1" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="AF1" s="33" t="s">
+        <v>305</v>
+      </c>
+      <c r="AG1" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="AH1" s="33" t="s">
+        <v>178</v>
+      </c>
+      <c r="AI1" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="AJ1" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="AK1" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL1" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="AM1" s="33" t="s">
+        <v>257</v>
+      </c>
+      <c r="AN1" s="25" t="s">
+        <v>262</v>
+      </c>
+      <c r="AO1" s="25" t="s">
+        <v>261</v>
+      </c>
+      <c r="AP1" s="25" t="s">
+        <v>260</v>
+      </c>
+      <c r="AQ1" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="AR1" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="AS1" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="AT1" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="AU1" s="33" t="s">
+        <v>183</v>
+      </c>
+      <c r="AV1" s="33" t="s">
+        <v>314</v>
+      </c>
+      <c r="AW1" s="33" t="s">
+        <v>313</v>
+      </c>
+      <c r="AX1" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="AY1" s="33" t="s">
+        <v>185</v>
+      </c>
+      <c r="AZ1" s="33" t="s">
+        <v>186</v>
+      </c>
+      <c r="BA1" s="33" t="s">
+        <v>187</v>
+      </c>
+      <c r="BB1" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="BC1" s="33" t="s">
+        <v>189</v>
+      </c>
+      <c r="BD1" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="BE1" s="33" t="s">
+        <v>191</v>
+      </c>
+      <c r="BF1" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="BG1" s="33" t="s">
+        <v>193</v>
+      </c>
+      <c r="BH1" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="BI1" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="BJ1" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="BK1" s="23" t="s">
+        <v>349</v>
+      </c>
+      <c r="BL1" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="BM1" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="BN1" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="BO1" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="BP1" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="BQ1" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="BR1" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="BS1" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="BT1" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="BU1" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="BV1" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="BW1" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="BX1" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="BY1" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="BZ1" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="CA1" s="23" t="s">
+        <v>211</v>
+      </c>
+      <c r="CB1" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="CC1" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="CD1" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="CE1" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="CF1" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="CG1" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="CH1" s="23" t="s">
+        <v>218</v>
+      </c>
+      <c r="CI1" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="CJ1" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="CK1" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="CL1" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="CM1" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="CN1" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="CO1" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="CP1" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="CQ1" s="23" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:95" x14ac:dyDescent="0.25">
+      <c r="A2" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>319</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>333</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>334</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>335</v>
+      </c>
+      <c r="G2" s="36" t="s">
+        <v>336</v>
+      </c>
+      <c r="H2" s="47" t="s">
+        <v>158</v>
+      </c>
+      <c r="I2" s="24" t="s">
+        <v>337</v>
+      </c>
+      <c r="J2" s="32" t="s">
+        <v>350</v>
+      </c>
+      <c r="K2" s="32" t="s">
+        <v>351</v>
+      </c>
+      <c r="L2" s="28" t="s">
+        <v>343</v>
+      </c>
+      <c r="M2" s="32" t="s">
+        <v>344</v>
+      </c>
+      <c r="N2" s="32" t="s">
+        <v>345</v>
+      </c>
+      <c r="O2" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="P2" s="28" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q2" s="28" t="s">
+        <v>326</v>
+      </c>
+      <c r="R2" s="48" t="s">
+        <v>347</v>
+      </c>
+      <c r="S2" s="28" t="s">
+        <v>325</v>
+      </c>
+      <c r="T2" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="U2" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="V2" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="W2" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="X2" s="38" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y2" s="38" t="s">
+        <v>159</v>
+      </c>
+      <c r="Z2" s="38" t="s">
+        <v>160</v>
+      </c>
+      <c r="AA2" s="30" t="s">
+        <v>347</v>
+      </c>
+      <c r="AB2" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC2" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="AD2" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="AE2" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="AF2" s="24" t="s">
+        <v>311</v>
+      </c>
+      <c r="AG2" s="32" t="s">
+        <v>360</v>
+      </c>
+      <c r="AH2" s="32" t="s">
+        <v>358</v>
+      </c>
+      <c r="AI2" s="24">
+        <v>2</v>
+      </c>
+      <c r="AJ2" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="AK2" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="AL2" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AM2" s="36" t="s">
+        <v>258</v>
+      </c>
+      <c r="AN2" s="24">
+        <v>3</v>
+      </c>
+      <c r="AO2" s="24">
+        <v>3</v>
+      </c>
+      <c r="AP2" s="24">
+        <v>3</v>
+      </c>
+      <c r="AQ2" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="AR2" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="AS2" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="AT2" s="24" t="s">
+        <v>231</v>
+      </c>
+      <c r="AU2" s="24" t="s">
+        <v>232</v>
+      </c>
+      <c r="AV2" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="AW2" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="AX2" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="AY2" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="AZ2" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="BA2" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="BB2" s="24">
+        <v>2</v>
+      </c>
+      <c r="BC2" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="BD2" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="BE2" s="37" t="s">
+        <v>235</v>
+      </c>
+      <c r="BF2" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="BG2" s="37" t="s">
+        <v>229</v>
+      </c>
+      <c r="BH2" s="37" t="s">
+        <v>236</v>
+      </c>
+      <c r="BI2" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="BJ2" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="BK2" s="49" t="s">
+        <v>350</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>238</v>
+      </c>
+      <c r="BM2" s="24" t="s">
+        <v>256</v>
+      </c>
+      <c r="BN2" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="BO2" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="BP2" s="41" t="s">
+        <v>241</v>
+      </c>
+      <c r="BQ2" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="BR2" s="41" t="s">
+        <v>242</v>
+      </c>
+      <c r="BS2" s="42" t="s">
+        <v>243</v>
+      </c>
+      <c r="BT2" s="42" t="s">
+        <v>244</v>
+      </c>
+      <c r="BU2" s="24">
+        <v>2</v>
+      </c>
+      <c r="BV2" s="24">
+        <v>1</v>
+      </c>
+      <c r="BW2" s="24">
+        <v>1</v>
+      </c>
+      <c r="BX2" s="24" t="s">
+        <v>245</v>
+      </c>
+      <c r="BY2" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="BZ2" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="CA2" s="26" t="s">
+        <v>246</v>
+      </c>
+      <c r="CB2" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="CC2" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="CD2" s="24">
+        <v>25</v>
+      </c>
+      <c r="CE2" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="CF2" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="CG2" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="CH2" s="26" t="s">
+        <v>250</v>
+      </c>
+      <c r="CI2" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="CJ2" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="CK2" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="CL2" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="CM2" s="43" t="s">
+        <v>253</v>
+      </c>
+      <c r="CN2" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="CO2" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="CP2" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="CQ2" s="39" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="3" spans="1:95" x14ac:dyDescent="0.25">
+      <c r="A3" s="37" t="s">
+        <v>148</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>356</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>333</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>334</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>335</v>
+      </c>
+      <c r="G3" s="36" t="s">
+        <v>336</v>
+      </c>
+      <c r="H3" s="47" t="s">
+        <v>158</v>
+      </c>
+      <c r="I3" s="24" t="s">
+        <v>337</v>
+      </c>
+      <c r="J3" s="32" t="s">
+        <v>352</v>
+      </c>
+      <c r="K3" s="32" t="s">
+        <v>353</v>
+      </c>
+      <c r="L3" s="28" t="s">
+        <v>343</v>
+      </c>
+      <c r="M3" s="32" t="s">
+        <v>344</v>
+      </c>
+      <c r="N3" s="32" t="s">
+        <v>345</v>
+      </c>
+      <c r="O3" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="P3" s="28" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q3" s="28" t="s">
+        <v>326</v>
+      </c>
+      <c r="R3" s="48" t="s">
+        <v>347</v>
+      </c>
+      <c r="S3" s="28" t="s">
+        <v>325</v>
+      </c>
+      <c r="T3" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="U3" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="V3" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="W3" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="X3" s="38" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y3" s="38" t="s">
+        <v>159</v>
+      </c>
+      <c r="Z3" s="38" t="s">
+        <v>160</v>
+      </c>
+      <c r="AA3" s="30" t="s">
+        <v>347</v>
+      </c>
+      <c r="AB3" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC3" s="24" t="s">
+        <v>310</v>
+      </c>
+      <c r="AD3" s="24" t="s">
+        <v>357</v>
+      </c>
+      <c r="AE3" s="24" t="s">
+        <v>354</v>
+      </c>
+      <c r="AF3" s="24" t="s">
+        <v>311</v>
+      </c>
+      <c r="AG3" s="32" t="s">
+        <v>355</v>
+      </c>
+      <c r="AH3" s="32" t="s">
+        <v>348</v>
+      </c>
+      <c r="AI3" s="24">
+        <v>2</v>
+      </c>
+      <c r="AJ3" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="AK3" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="AL3" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AM3" s="36" t="s">
+        <v>258</v>
+      </c>
+      <c r="AN3" s="24">
+        <v>3</v>
+      </c>
+      <c r="AO3" s="24">
+        <v>3</v>
+      </c>
+      <c r="AP3" s="24">
+        <v>3</v>
+      </c>
+      <c r="AQ3" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="AR3" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="AS3" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="AT3" s="24" t="s">
+        <v>231</v>
+      </c>
+      <c r="AU3" s="24" t="s">
+        <v>232</v>
+      </c>
+      <c r="AV3" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="AW3" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="AX3" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="AY3" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="AZ3" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="BA3" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="BB3" s="24">
+        <v>2</v>
+      </c>
+      <c r="BC3" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="BD3" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="BE3" s="37" t="s">
+        <v>235</v>
+      </c>
+      <c r="BF3" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="BG3" s="37" t="s">
+        <v>229</v>
+      </c>
+      <c r="BH3" s="37" t="s">
+        <v>236</v>
+      </c>
+      <c r="BI3" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="BJ3" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="BK3" s="49" t="s">
+        <v>359</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>238</v>
+      </c>
+      <c r="BM3" s="24" t="s">
+        <v>256</v>
+      </c>
+      <c r="BN3" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="BO3" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="BP3" s="41" t="s">
+        <v>241</v>
+      </c>
+      <c r="BQ3" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="BR3" s="41" t="s">
+        <v>242</v>
+      </c>
+      <c r="BS3" s="42" t="s">
+        <v>243</v>
+      </c>
+      <c r="BT3" s="42" t="s">
+        <v>244</v>
+      </c>
+      <c r="BU3" s="24">
+        <v>2</v>
+      </c>
+      <c r="BV3" s="24">
+        <v>1</v>
+      </c>
+      <c r="BW3" s="24">
+        <v>1</v>
+      </c>
+      <c r="BX3" s="24" t="s">
+        <v>245</v>
+      </c>
+      <c r="BY3" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="BZ3" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="CA3" s="26" t="s">
+        <v>246</v>
+      </c>
+      <c r="CB3" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="CC3" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="CD3" s="24">
+        <v>25</v>
+      </c>
+      <c r="CE3" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="CF3" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="CG3" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="CH3" s="26" t="s">
+        <v>250</v>
+      </c>
+      <c r="CI3" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="CJ3" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="CK3" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="CL3" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="CM3" s="43" t="s">
+        <v>253</v>
+      </c>
+      <c r="CN3" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="CO3" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="CP3" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="CQ3" s="39" t="s">
+        <v>337</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <dataValidations disablePrompts="1" count="36">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q3" xr:uid="{DC8363E9-D1E6-4FF2-A700-C71A870D1A47}">
+      <formula1>"Old Url,SSO Login"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2:W3" xr:uid="{C2B2F3CD-DED9-4DA7-B7FD-862EEA75DB0E}">
+      <formula1>"Laxmi@123,Admin@123,S21FUMK6JAPLBYO,Shubham@123,BAVYBXVY09FKGTY,Piyush@123,Ankur@123,DWUFR8WRAR6SL1M"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2:T3" xr:uid="{B21DE1FE-3A50-481C-8E57-C0C6F4CDFE87}">
+      <formula1>"Saurabh,Prince Chaurasia,Gunjan Swain,Shubham,Laxmi Khanal,Sudesh Kumar,Piyush,Ankur"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CH2:CH3" xr:uid="{5A54F5E1-82EF-4FB9-9322-D75BC092AC88}">
+      <formula1>"SendForApproval,ProceedToCheckout"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2:AC3" xr:uid="{26114D9A-97BC-43D9-BB28-E6CB2A9EB9D5}">
+      <formula1>"Domestic,International"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CL2:CL3" xr:uid="{7836FDB9-0957-4C99-A46B-2FD87F3C4F09}">
+      <formula1>"Credit Card,Bill To Company"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BN2:BN3" xr:uid="{1C5CFFCE-BC9A-4943-AA34-87E5A5F864CD}">
+      <formula1>"OneWay,RoundTrip,MultiCity"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O3 C2:C3" xr:uid="{9560F6C6-54F9-4409-8C25-6B2D438E2584}">
+      <formula1>"sbt,preprod117,Live"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB2:AB3 AR2:AR3" xr:uid="{D2248759-CAF9-4D34-ADD9-8E51E5D9D9A3}">
+      <formula1>"Individual,Dependent,Personal,Guest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BY2:BY3 BI2:BI3 BF2:BG3 AS2:AS3 AX2:AX3 AQ2:AQ3 AV2:AV3 CE2:CE3 BA2:BA3" xr:uid="{3E768CE0-977D-4AF0-8A41-8976D9930215}">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CK2:CK3" xr:uid="{EBF50FB4-E2E8-4356-888F-9EF940F657AA}">
+      <formula1>"Quote,BookAndQuote,Fulfilment"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CN2:CN3" xr:uid="{BAB340DD-BDEA-43F9-B19D-C47F4CC3D819}">
+      <formula1>"5123456789012346,4111111111111111"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CM2:CM3" xr:uid="{6DA79A6E-E93A-4E4A-9E8A-911427B6B6A2}">
+      <formula1>"MasterCard,Visa"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BM2:BM3" xr:uid="{62BFBB95-2D72-4AB8-B35E-EE9A6C7DD3D6}">
+      <formula1>"Hotel,Hotel+Flight,Hotel+Car,Hotel+Flight+Car,Hotel+Car+Flight"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI2:AI3" xr:uid="{9F60D806-7DB5-4084-B5AC-17EAFA307077}">
+      <formula1>"1,2,3,4,5"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BH2:BH3" xr:uid="{59B36BDC-1E85-4B86-849B-1D798E26ED97}">
+      <formula1>"1 Star,2 Star,3 Star,4 Star,5 Star"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BJ2:BJ3" xr:uid="{F6321B5F-4FEC-4544-A83C-CFC740B79F32}">
+      <formula1>"Hotel,Apartment"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BX2:BX3" xr:uid="{7B07C4E9-0D31-4155-BA6B-2AF4F41EE276}">
+      <formula1>"Economy,Premium Economy,Business Class,First Class"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BU2:BW3" xr:uid="{A0B27CCF-D3F2-4478-8BCA-D0457093C55C}">
+      <formula1>"0,1,2,3,4,5"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:U3" xr:uid="{215CCB68-08D7-46FD-B0B4-EB76F88C20D0}">
+      <formula1>"Administrator,Travel Arranger,Employee"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2:V3" xr:uid="{4E3806E4-A7CB-4C85-B4A3-9354E1A82B51}">
+      <formula1>"Shubham1,Shubham,rsudesh15,Saurabh,Laxmi,sachinkumar,Piyush,Ankur"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y2:Y3" xr:uid="{D6801898-2DD9-415F-8396-BD0AA581AD5F}">
+      <formula1>"On,Off"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2:X3" xr:uid="{B106753F-7D3B-45CB-8D30-DA7928A6E2A6}">
+      <formula1>"Poonam_Corp,Amazon,Demo Corporate,Lux_Test_corp,Null"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z2:Z3" xr:uid="{C822E8F5-9516-4E71-833B-48484111B53A}">
+      <formula1>"Old,New"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2:AA3" xr:uid="{E01959EF-B499-49F6-95DA-741F65240CE4}">
+      <formula1>"prince.chaurasia@quadlabs.com,Gunjan.swain@quadlabs.com,laxmi.khanal@quadlabs.com,shubham.natkar@quadlabs.com,piyush.chauhan@quadlabs.com,ankur.yadav@quadlabs.com,sachin.kumar@quadlabs.com,shekhar.singh@quadlabs.com"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CQ2:CQ3" xr:uid="{E55A4D65-B402-49FB-97E5-196020774B65}">
+      <formula1>"Shubham Natkar,Laxmi Khanal,Sudesh Kumar,Shekhar Singh"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM2:AM3" xr:uid="{E3E47F4D-DC9F-4ECA-ADE7-543DCBC50B6D}">
+      <formula1>"Applied,NotApplied"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF2:AF3 AW2:AW3" xr:uid="{A5D2FD67-10A5-4A43-9D0E-A8FE3D65097C}">
+      <formula1>"5 KM,10 KM,20 KM,30 KM,40 KM,50 KM"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G3" xr:uid="{413940EB-0E2D-4BBE-866E-96555E49899B}">
+      <formula1>"Laxmi@123,Password@123,Quad@720,Quad@721,Password@1234,Admin@123"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F3" xr:uid="{152280E0-C1EB-4C33-BE51-BC9896174803}">
+      <formula1>"Saurav_at,tarun"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E3" xr:uid="{7F12DF53-F305-467D-B955-BD6B8F2E1783}">
+      <formula1>"at,QL"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D3" xr:uid="{7AFDE41B-BEDB-4741-B864-AAE65B4D79F1}">
+      <formula1>"//staging117/backoffice/,//preprod.quadlabs.net/backoffice/,//test.quadlabs.net/backoffice/"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L3" xr:uid="{491B4C84-C7A6-48F3-8E5F-10F7E19FB7DD}">
+      <formula1>"Air India,Vistara,SriLankan,Saudi Arabian,Emirates,Gulf Air,Etihad Airways,Singapore Airl,Qatar Airways,Indigo,Air Asia,Akasa Air,SpiceJet"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P3" xr:uid="{0A954645-C265-48AD-BA29-6EA0E840D1F5}">
+      <formula1>"//staging117/sbt,//preprod.quadlabs.net/sbt/#,test.quadlabs.net/sbt,tripsource.co.in/sbt/#,//test.quadlabs.net/SSO_Login"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2" xr:uid="{542C2120-4205-407F-B4BD-077C1120E781}">
+      <formula1>"LUXURY COLLECTION,COURTYARD BY MARRIOTT"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3" xr:uid="{DA8F00D4-EFF4-458C-93D5-467D9D98F9E0}">
+      <formula1>"LUXURY COLLECTION,COURTYARD BY MARRIOTT,RENAISSANCE HOTELS"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="W2" r:id="rId1" display="Admin@123" xr:uid="{DE9A8115-44D2-427D-BA79-ADD97A08E0B5}"/>
+    <hyperlink ref="AA2" r:id="rId2" display="prince.chaurasia@quadlabs.com" xr:uid="{27DC00AB-64BF-43E3-8AA8-A03A751C7BBB}"/>
+    <hyperlink ref="F2" r:id="rId3" display="shubham.natkar@quadlabs.com" xr:uid="{D2B7B7B6-AD0A-4BA1-9F94-8F6270F55F2A}"/>
+    <hyperlink ref="G2" r:id="rId4" display="Password@123" xr:uid="{026076CE-5ABB-418B-BD41-C79786D4DCF4}"/>
+    <hyperlink ref="R2" r:id="rId5" xr:uid="{E50E8F0A-7B00-4295-A562-8C2CC0A6E08B}"/>
+    <hyperlink ref="W3" r:id="rId6" display="Admin@123" xr:uid="{D55F7C3D-14DD-42E3-9A4C-6FA2972662FD}"/>
+    <hyperlink ref="AA3" r:id="rId7" display="prince.chaurasia@quadlabs.com" xr:uid="{EBA9FB2A-34D2-4882-914F-9268D29F1080}"/>
+    <hyperlink ref="F3" r:id="rId8" display="shubham.natkar@quadlabs.com" xr:uid="{9EA8F508-BDAD-4250-A968-2960A3F0BFAD}"/>
+    <hyperlink ref="G3" r:id="rId9" display="Password@123" xr:uid="{2F978382-A137-41CE-A07F-B0FC7588E480}"/>
+    <hyperlink ref="R3" r:id="rId10" xr:uid="{022F1584-24DF-4FFA-9C74-1C5A1AA02DF5}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D04B49D8-9A43-44BD-8F63-39EEB9BA1789}">
+  <dimension ref="A1:CQ2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:95" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>170</v>
+      </c>
+      <c r="C1" s="44" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1" s="45" t="s">
+        <v>328</v>
+      </c>
+      <c r="E1" s="45" t="s">
+        <v>329</v>
+      </c>
+      <c r="F1" s="45" t="s">
+        <v>330</v>
+      </c>
+      <c r="G1" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="45" t="s">
+        <v>331</v>
+      </c>
+      <c r="I1" s="46" t="s">
+        <v>332</v>
+      </c>
+      <c r="J1" s="46" t="s">
+        <v>338</v>
+      </c>
+      <c r="K1" s="46" t="s">
+        <v>339</v>
+      </c>
+      <c r="L1" s="46" t="s">
+        <v>340</v>
+      </c>
+      <c r="M1" s="46" t="s">
+        <v>341</v>
+      </c>
+      <c r="N1" s="46" t="s">
+        <v>342</v>
+      </c>
+      <c r="O1" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q1" s="23" t="s">
+        <v>322</v>
+      </c>
+      <c r="R1" s="23" t="s">
+        <v>323</v>
+      </c>
+      <c r="S1" s="23" t="s">
+        <v>324</v>
+      </c>
+      <c r="T1" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="U1" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="V1" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="X1" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y1" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="Z1" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="AA1" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="AB1" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="AC1" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="AD1" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="AE1" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="AF1" s="33" t="s">
+        <v>305</v>
+      </c>
+      <c r="AG1" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="AH1" s="33" t="s">
+        <v>178</v>
+      </c>
+      <c r="AI1" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="AJ1" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="AK1" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL1" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="AM1" s="33" t="s">
+        <v>257</v>
+      </c>
+      <c r="AN1" s="25" t="s">
+        <v>262</v>
+      </c>
+      <c r="AO1" s="25" t="s">
+        <v>261</v>
+      </c>
+      <c r="AP1" s="25" t="s">
+        <v>260</v>
+      </c>
+      <c r="AQ1" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="AR1" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="AS1" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="AT1" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="AU1" s="33" t="s">
+        <v>183</v>
+      </c>
+      <c r="AV1" s="33" t="s">
+        <v>314</v>
+      </c>
+      <c r="AW1" s="33" t="s">
+        <v>313</v>
+      </c>
+      <c r="AX1" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="AY1" s="33" t="s">
+        <v>185</v>
+      </c>
+      <c r="AZ1" s="33" t="s">
+        <v>186</v>
+      </c>
+      <c r="BA1" s="33" t="s">
+        <v>187</v>
+      </c>
+      <c r="BB1" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="BC1" s="33" t="s">
+        <v>189</v>
+      </c>
+      <c r="BD1" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="BE1" s="33" t="s">
+        <v>191</v>
+      </c>
+      <c r="BF1" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="BG1" s="33" t="s">
+        <v>193</v>
+      </c>
+      <c r="BH1" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="BI1" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="BJ1" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="BK1" s="23" t="s">
+        <v>349</v>
+      </c>
+      <c r="BL1" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="BM1" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="BN1" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="BO1" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="BP1" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="BQ1" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="BR1" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="BS1" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="BT1" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="BU1" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="BV1" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="BW1" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="BX1" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="BY1" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="BZ1" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="CA1" s="23" t="s">
+        <v>211</v>
+      </c>
+      <c r="CB1" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="CC1" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="CD1" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="CE1" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="CF1" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="CG1" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="CH1" s="23" t="s">
+        <v>218</v>
+      </c>
+      <c r="CI1" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="CJ1" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="CK1" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="CL1" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="CM1" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="CN1" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="CO1" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="CP1" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="CQ1" s="23" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:95" x14ac:dyDescent="0.25">
+      <c r="A2" s="37" t="s">
+        <v>148</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>356</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>333</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>334</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>335</v>
+      </c>
+      <c r="G2" s="36" t="s">
+        <v>336</v>
+      </c>
+      <c r="H2" s="47" t="s">
+        <v>158</v>
+      </c>
+      <c r="I2" s="24" t="s">
+        <v>337</v>
+      </c>
+      <c r="J2" s="32" t="s">
+        <v>352</v>
+      </c>
+      <c r="K2" s="32" t="s">
+        <v>353</v>
+      </c>
+      <c r="L2" s="28" t="s">
+        <v>343</v>
+      </c>
+      <c r="M2" s="32" t="s">
+        <v>344</v>
+      </c>
+      <c r="N2" s="32" t="s">
+        <v>345</v>
+      </c>
+      <c r="O2" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="P2" s="28" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q2" s="28" t="s">
+        <v>326</v>
+      </c>
+      <c r="R2" s="48" t="s">
+        <v>347</v>
+      </c>
+      <c r="S2" s="28" t="s">
+        <v>325</v>
+      </c>
+      <c r="T2" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="U2" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="V2" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="W2" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="X2" s="38" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y2" s="38" t="s">
+        <v>159</v>
+      </c>
+      <c r="Z2" s="38" t="s">
+        <v>160</v>
+      </c>
+      <c r="AA2" s="30" t="s">
+        <v>347</v>
+      </c>
+      <c r="AB2" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC2" s="24" t="s">
+        <v>310</v>
+      </c>
+      <c r="AD2" s="24" t="s">
+        <v>357</v>
+      </c>
+      <c r="AE2" s="24" t="s">
+        <v>354</v>
+      </c>
+      <c r="AF2" s="24" t="s">
+        <v>311</v>
+      </c>
+      <c r="AG2" s="32" t="s">
+        <v>355</v>
+      </c>
+      <c r="AH2" s="32" t="s">
+        <v>348</v>
+      </c>
+      <c r="AI2" s="24">
+        <v>2</v>
+      </c>
+      <c r="AJ2" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="AK2" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="AL2" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AM2" s="36" t="s">
+        <v>258</v>
+      </c>
+      <c r="AN2" s="24">
+        <v>3</v>
+      </c>
+      <c r="AO2" s="24">
+        <v>3</v>
+      </c>
+      <c r="AP2" s="24">
+        <v>3</v>
+      </c>
+      <c r="AQ2" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="AR2" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="AS2" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="AT2" s="24" t="s">
+        <v>231</v>
+      </c>
+      <c r="AU2" s="24" t="s">
+        <v>232</v>
+      </c>
+      <c r="AV2" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="AW2" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="AX2" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="AY2" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="AZ2" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="BA2" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="BB2" s="24">
+        <v>2</v>
+      </c>
+      <c r="BC2" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="BD2" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="BE2" s="37" t="s">
+        <v>235</v>
+      </c>
+      <c r="BF2" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="BG2" s="37" t="s">
+        <v>229</v>
+      </c>
+      <c r="BH2" s="37" t="s">
+        <v>236</v>
+      </c>
+      <c r="BI2" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="BJ2" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="BK2" s="49" t="s">
+        <v>359</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>238</v>
+      </c>
+      <c r="BM2" s="24" t="s">
+        <v>256</v>
+      </c>
+      <c r="BN2" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="BO2" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="BP2" s="41" t="s">
+        <v>241</v>
+      </c>
+      <c r="BQ2" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="BR2" s="41" t="s">
+        <v>242</v>
+      </c>
+      <c r="BS2" s="42" t="s">
+        <v>243</v>
+      </c>
+      <c r="BT2" s="42" t="s">
+        <v>244</v>
+      </c>
+      <c r="BU2" s="24">
+        <v>2</v>
+      </c>
+      <c r="BV2" s="24">
+        <v>1</v>
+      </c>
+      <c r="BW2" s="24">
+        <v>1</v>
+      </c>
+      <c r="BX2" s="24" t="s">
+        <v>245</v>
+      </c>
+      <c r="BY2" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="BZ2" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="CA2" s="26" t="s">
+        <v>246</v>
+      </c>
+      <c r="CB2" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="CC2" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="CD2" s="24">
+        <v>25</v>
+      </c>
+      <c r="CE2" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="CF2" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="CG2" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="CH2" s="26" t="s">
+        <v>250</v>
+      </c>
+      <c r="CI2" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="CJ2" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="CK2" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="CL2" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="CM2" s="43" t="s">
+        <v>253</v>
+      </c>
+      <c r="CN2" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="CO2" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="CP2" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="CQ2" s="39" t="s">
+        <v>337</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="35">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2" xr:uid="{FDB44846-A0A8-43F3-B1DE-939FB56D9A94}">
+      <formula1>"LUXURY COLLECTION,COURTYARD BY MARRIOTT,RENAISSANCE HOTELS"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2" xr:uid="{AAB76571-A5AC-4109-A183-D431E97042FC}">
+      <formula1>"//staging117/sbt,//preprod.quadlabs.net/sbt/#,test.quadlabs.net/sbt,tripsource.co.in/sbt/#,//test.quadlabs.net/SSO_Login"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2" xr:uid="{581F3E96-F90B-4914-BC08-6183E38F24FF}">
+      <formula1>"Air India,Vistara,SriLankan,Saudi Arabian,Emirates,Gulf Air,Etihad Airways,Singapore Airl,Qatar Airways,Indigo,Air Asia,Akasa Air,SpiceJet"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{0A686E58-7C8F-4443-B3F5-1F0A13370FD2}">
+      <formula1>"//staging117/backoffice/,//preprod.quadlabs.net/backoffice/,//test.quadlabs.net/backoffice/"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2" xr:uid="{8A2D83EF-4168-467C-80E7-86280CE442FE}">
+      <formula1>"at,QL"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{7A2D5666-F002-4366-B2F3-A891E949A128}">
+      <formula1>"Saurav_at,tarun"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{2AC2CD9C-947F-4834-8240-4932A40B3232}">
+      <formula1>"Laxmi@123,Password@123,Quad@720,Quad@721,Password@1234,Admin@123"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF2 AW2" xr:uid="{9E30B26F-BE59-4937-A2A6-540267CAD955}">
+      <formula1>"5 KM,10 KM,20 KM,30 KM,40 KM,50 KM"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM2" xr:uid="{6ABDE5B7-4793-48EF-9962-B7A7F581E9D9}">
+      <formula1>"Applied,NotApplied"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CQ2" xr:uid="{01345B2F-3660-463A-8BE5-0E32F23A6E72}">
+      <formula1>"Shubham Natkar,Laxmi Khanal,Sudesh Kumar,Shekhar Singh"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2" xr:uid="{F1FBF6C6-87DE-4780-9AA8-71EDEBAE782D}">
+      <formula1>"prince.chaurasia@quadlabs.com,Gunjan.swain@quadlabs.com,laxmi.khanal@quadlabs.com,shubham.natkar@quadlabs.com,piyush.chauhan@quadlabs.com,ankur.yadav@quadlabs.com,sachin.kumar@quadlabs.com,shekhar.singh@quadlabs.com"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z2" xr:uid="{037EA8A9-667E-4659-8C24-B482F4C642EC}">
+      <formula1>"Old,New"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2" xr:uid="{5C6D622A-46CA-4D1A-804F-45599016DBFA}">
+      <formula1>"Poonam_Corp,Amazon,Demo Corporate,Lux_Test_corp,Null"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y2" xr:uid="{69CD0704-79E7-40CD-89CD-17B5B8A2DC4A}">
+      <formula1>"On,Off"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2" xr:uid="{231D6BF7-A8DF-4E57-8EC0-80916E388221}">
+      <formula1>"Shubham1,Shubham,rsudesh15,Saurabh,Laxmi,sachinkumar,Piyush,Ankur"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2" xr:uid="{BFD4B591-2376-4BF6-8CBE-063CD6E99F9D}">
+      <formula1>"Administrator,Travel Arranger,Employee"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BU2:BW2" xr:uid="{9ECDFCD9-B0DD-4049-A88F-3823C40F1F28}">
+      <formula1>"0,1,2,3,4,5"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BX2" xr:uid="{E9D05B4D-BF65-46B3-AC14-4C6DD6CE11A3}">
+      <formula1>"Economy,Premium Economy,Business Class,First Class"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BJ2" xr:uid="{D59792D0-5158-4FC1-B129-CD2F863BF8DA}">
+      <formula1>"Hotel,Apartment"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BH2" xr:uid="{A3DDD0E9-9A9B-4B9E-8FF0-4F444816DBA6}">
+      <formula1>"1 Star,2 Star,3 Star,4 Star,5 Star"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI2" xr:uid="{668425C2-C29F-4D9F-B8FE-2F770FC35288}">
+      <formula1>"1,2,3,4,5"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BM2" xr:uid="{FFA2D1AC-108B-4190-A779-2E73F8570F31}">
+      <formula1>"Hotel,Hotel+Flight,Hotel+Car,Hotel+Flight+Car,Hotel+Car+Flight"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CM2" xr:uid="{A17155D3-4E20-4A29-B2F3-8793CC9B1482}">
+      <formula1>"MasterCard,Visa"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CN2" xr:uid="{B854B5C6-A2B4-4D85-8A30-D91A4AB5A1F0}">
+      <formula1>"5123456789012346,4111111111111111"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CK2" xr:uid="{9C627C2C-8510-41D6-8885-7D8BB1EEF083}">
+      <formula1>"Quote,BookAndQuote,Fulfilment"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BY2 BA2 CE2 AV2 AQ2 AX2 AS2 BF2:BG2 BI2" xr:uid="{CDC0672E-BC11-4AA6-83E6-C41C6C9D8D00}">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB2 AR2" xr:uid="{5284B7C7-D2CF-4915-9AD4-24E4DF1BE770}">
+      <formula1>"Individual,Dependent,Personal,Guest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2 C2" xr:uid="{D0FC0ED3-5C3C-4F42-B358-4368FBF7CC92}">
+      <formula1>"sbt,preprod117,Live"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BN2" xr:uid="{56D44E39-8C39-4C7A-A1F3-0766F1A82CB8}">
+      <formula1>"OneWay,RoundTrip,MultiCity"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CL2" xr:uid="{BCF28C92-79AB-4E6C-8AA9-66034BB0D451}">
+      <formula1>"Credit Card,Bill To Company"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2" xr:uid="{620BB3D0-01E9-4BA0-A0CB-44DFCDB746F5}">
+      <formula1>"Domestic,International"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CH2" xr:uid="{EDE545AC-05F2-4E4E-9E62-76CB317DDB4F}">
+      <formula1>"SendForApproval,ProceedToCheckout"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2" xr:uid="{4BC6A1FB-DD00-4558-BB52-55CD8842F88B}">
+      <formula1>"Saurabh,Prince Chaurasia,Gunjan Swain,Shubham,Laxmi Khanal,Sudesh Kumar,Piyush,Ankur"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2" xr:uid="{162B22F0-0742-48F4-A5EA-36C8ACF2E077}">
+      <formula1>"Laxmi@123,Admin@123,S21FUMK6JAPLBYO,Shubham@123,BAVYBXVY09FKGTY,Piyush@123,Ankur@123,DWUFR8WRAR6SL1M"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2" xr:uid="{CFFC084E-0801-4445-8A8E-4580CC892A1F}">
+      <formula1>"Old Url,SSO Login"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="W2" r:id="rId1" display="Admin@123" xr:uid="{0C094BF2-AD6D-4E21-AD98-19B5CB66271B}"/>
+    <hyperlink ref="AA2" r:id="rId2" display="prince.chaurasia@quadlabs.com" xr:uid="{873AD8F2-DE7D-4181-8A2D-9DE86BDACCB6}"/>
+    <hyperlink ref="F2" r:id="rId3" display="shubham.natkar@quadlabs.com" xr:uid="{42E69F49-2497-4275-8B4C-3A27EA61EF60}"/>
+    <hyperlink ref="G2" r:id="rId4" display="Password@123" xr:uid="{E9E9FECA-F4C5-42D5-BE87-76D19AD3831F}"/>
+    <hyperlink ref="R2" r:id="rId5" xr:uid="{AC45A528-870E-4DD6-AE56-A2FE58A276F1}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17C3C0B8-E706-4C31-B9AD-3EE948CD9917}">
   <dimension ref="A1:CA2"/>
   <sheetViews>
@@ -3165,7 +5086,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AE4"/>
   <sheetViews>
@@ -3623,7 +5544,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AE2"/>
   <sheetViews>
@@ -3889,7 +5810,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AE2"/>
   <sheetViews>
@@ -4155,7 +6076,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AH9"/>
   <sheetViews>
@@ -4660,7 +6581,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AH4"/>
   <sheetViews>
@@ -5123,7 +7044,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AQ2"/>
   <sheetViews>
@@ -5417,7 +7338,470 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AE4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="39" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="15.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="K1" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="L1" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="R1" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="S1" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="T1" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="U1" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="V1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="W1" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="X1" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y1" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z1" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA1" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB1" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC1" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD1" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE1" s="25" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="K2" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="L2" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="N2" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="O2" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="P2" s="24">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="24">
+        <v>0</v>
+      </c>
+      <c r="R2" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="S2" s="24">
+        <v>3</v>
+      </c>
+      <c r="T2" s="24">
+        <v>3</v>
+      </c>
+      <c r="U2" s="24">
+        <v>3</v>
+      </c>
+      <c r="V2" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="W2" s="24">
+        <v>345678</v>
+      </c>
+      <c r="X2" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y2" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z2" s="24">
+        <v>123</v>
+      </c>
+      <c r="AA2" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB2" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC2" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD2" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE2" s="24" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="J3" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="K3" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="N3" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="O3" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="P3" s="24">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="24">
+        <v>0</v>
+      </c>
+      <c r="R3" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="S3" s="24">
+        <v>3</v>
+      </c>
+      <c r="T3" s="24">
+        <v>3</v>
+      </c>
+      <c r="U3" s="24">
+        <v>3</v>
+      </c>
+      <c r="V3" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="W3" s="24">
+        <v>345678</v>
+      </c>
+      <c r="X3" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y3" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z3" s="24">
+        <v>123</v>
+      </c>
+      <c r="AA3" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB3" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC3" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD3" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE3" s="27" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A4" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="J4" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="L4" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="M4" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="N4" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="O4" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="P4" s="24">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="24">
+        <v>0</v>
+      </c>
+      <c r="R4" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="S4" s="24">
+        <v>3</v>
+      </c>
+      <c r="T4" s="24">
+        <v>3</v>
+      </c>
+      <c r="U4" s="24">
+        <v>3</v>
+      </c>
+      <c r="V4" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="W4" s="24">
+        <v>345678</v>
+      </c>
+      <c r="X4" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y4" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z4" s="24">
+        <v>123</v>
+      </c>
+      <c r="AA4" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB4" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC4" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD4" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE4" s="27" t="s">
+        <v>141</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <dataValidations count="9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
+      <formula1>"TravelArranger,Admin"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+      <formula1>"sbt,preprod117"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B4" xr:uid="{00000000-0002-0000-0100-000002000000}">
+      <formula1>"Prince Chaurasia,Gunjan Swain,Shubham Natkar,Laxmi Khanal,Sudesh Kumar"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D4" xr:uid="{00000000-0002-0000-0100-000003000000}">
+      <formula1>"Shubham Natkar,Laxmi Khanal,Sudesh Kumar"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F4" xr:uid="{00000000-0002-0000-0100-000004000000}">
+      <formula1>"//staging117/sbt,//preprod.quadlabs.net/sbt/#"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H4" xr:uid="{00000000-0002-0000-0100-000005000000}">
+      <formula1>"Shubham1,Shubham,rsudesh15"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I4" xr:uid="{00000000-0002-0000-0100-000006000000}">
+      <formula1>"Password@12345,GXPC6NWQVFKVOZG,Laxmi@123"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J4" xr:uid="{00000000-0002-0000-0100-000007000000}">
+      <formula1>"prince.chaurasia@quadlabs.com,Gunjan.swain@quadlabs.com,laxmi.khanal@quadlabs.com"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K4" xr:uid="{1E643F81-0644-442F-A0F2-9FFB187BCCDA}">
+      <formula1>"Individual,Guest,Personal,Dependent"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="I2" r:id="rId1" display="Password@12345" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="J2" r:id="rId2" display="prince.chaurasia@quadlabs.com" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="J3:J4" r:id="rId3" display="prince.chaurasia@quadlabs.com" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="I3:I4" r:id="rId4" display="Password@12345" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:AU2"/>
   <sheetViews>
@@ -5731,7 +8115,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:AY2"/>
   <sheetViews>
@@ -6112,470 +8496,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AE4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="39" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="15.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="E1" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="25" t="s">
-        <v>134</v>
-      </c>
-      <c r="K1" s="25" t="s">
-        <v>154</v>
-      </c>
-      <c r="L1" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="M1" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="N1" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="O1" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="P1" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q1" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="R1" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="S1" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="T1" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="U1" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="V1" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="W1" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="X1" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="Y1" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z1" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA1" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB1" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC1" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="AD1" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE1" s="25" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
-        <v>147</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="C2" s="27" t="s">
-        <v>122</v>
-      </c>
-      <c r="D2" s="27" t="s">
-        <v>136</v>
-      </c>
-      <c r="E2" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="F2" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="G2" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="I2" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="J2" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="K2" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="L2" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="M2" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="N2" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="O2" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="P2" s="24">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="24">
-        <v>0</v>
-      </c>
-      <c r="R2" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="S2" s="24">
-        <v>3</v>
-      </c>
-      <c r="T2" s="24">
-        <v>3</v>
-      </c>
-      <c r="U2" s="24">
-        <v>3</v>
-      </c>
-      <c r="V2" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="W2" s="24">
-        <v>345678</v>
-      </c>
-      <c r="X2" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y2" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z2" s="24">
-        <v>123</v>
-      </c>
-      <c r="AA2" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB2" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC2" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD2" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="AE2" s="24" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="C3" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="D3" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="E3" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="F3" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="G3" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="I3" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="J3" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="K3" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="L3" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="N3" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="O3" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="P3" s="24">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="24">
-        <v>0</v>
-      </c>
-      <c r="R3" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="S3" s="24">
-        <v>3</v>
-      </c>
-      <c r="T3" s="24">
-        <v>3</v>
-      </c>
-      <c r="U3" s="24">
-        <v>3</v>
-      </c>
-      <c r="V3" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="W3" s="24">
-        <v>345678</v>
-      </c>
-      <c r="X3" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y3" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z3" s="24">
-        <v>123</v>
-      </c>
-      <c r="AA3" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB3" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC3" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD3" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="AE3" s="27" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
-        <v>149</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>141</v>
-      </c>
-      <c r="C4" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="D4" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="E4" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="F4" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="G4" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="I4" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="J4" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="L4" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="M4" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="N4" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="O4" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="P4" s="24">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="24">
-        <v>0</v>
-      </c>
-      <c r="R4" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="S4" s="24">
-        <v>3</v>
-      </c>
-      <c r="T4" s="24">
-        <v>3</v>
-      </c>
-      <c r="U4" s="24">
-        <v>3</v>
-      </c>
-      <c r="V4" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="W4" s="24">
-        <v>345678</v>
-      </c>
-      <c r="X4" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y4" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z4" s="24">
-        <v>123</v>
-      </c>
-      <c r="AA4" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB4" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC4" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD4" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="AE4" s="27" t="s">
-        <v>141</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <dataValidations count="9">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
-      <formula1>"TravelArranger,Admin"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E4" xr:uid="{00000000-0002-0000-0100-000001000000}">
-      <formula1>"sbt,preprod117"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B4" xr:uid="{00000000-0002-0000-0100-000002000000}">
-      <formula1>"Prince Chaurasia,Gunjan Swain,Shubham Natkar,Laxmi Khanal,Sudesh Kumar"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D4" xr:uid="{00000000-0002-0000-0100-000003000000}">
-      <formula1>"Shubham Natkar,Laxmi Khanal,Sudesh Kumar"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F4" xr:uid="{00000000-0002-0000-0100-000004000000}">
-      <formula1>"//staging117/sbt,//preprod.quadlabs.net/sbt/#"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H4" xr:uid="{00000000-0002-0000-0100-000005000000}">
-      <formula1>"Shubham1,Shubham,rsudesh15"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I4" xr:uid="{00000000-0002-0000-0100-000006000000}">
-      <formula1>"Password@12345,GXPC6NWQVFKVOZG,Laxmi@123"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J4" xr:uid="{00000000-0002-0000-0100-000007000000}">
-      <formula1>"prince.chaurasia@quadlabs.com,Gunjan.swain@quadlabs.com,laxmi.khanal@quadlabs.com"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K4" xr:uid="{1E643F81-0644-442F-A0F2-9FFB187BCCDA}">
-      <formula1>"Individual,Guest,Personal,Dependent"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1" display="Password@12345" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="J2" r:id="rId2" display="prince.chaurasia@quadlabs.com" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="J3:J4" r:id="rId3" display="prince.chaurasia@quadlabs.com" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="I3:I4" r:id="rId4" display="Password@12345" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:X2"/>
   <sheetViews>
@@ -6758,7 +8679,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:U2"/>
   <sheetViews>
@@ -6917,7 +8838,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:R2"/>
   <sheetViews>

--- a/data/excel/SBT_Hotel.xlsx
+++ b/data/excel/SBT_Hotel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation\QuadlabsCoreProject\data\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ankur.Yadav\git\ProjectQuadlabs\data\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4FCC8E7-B82C-413E-B3F4-A5F2908309CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB6B4E14-6643-4485-B454-3E377F10108E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="3" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Business" sheetId="13" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3159" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3159" uniqueCount="360">
   <si>
     <t>Fop</t>
   </si>
@@ -1001,12 +1001,6 @@
     <t>27-Dec-2023</t>
   </si>
   <si>
-    <t>5-Dec-2023</t>
-  </si>
-  <si>
-    <t>7-Dec-2023</t>
-  </si>
-  <si>
     <t>Hotel domestic booking flow for Individual (Admin)</t>
   </si>
   <si>
@@ -1131,6 +1125,9 @@
   </si>
   <si>
     <t>20-May-2024</t>
+  </si>
+  <si>
+    <t>ankur.yadav@quadlabs.com</t>
   </si>
 </sst>
 </file>
@@ -1939,8 +1936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2663B78-477A-4A80-9FFF-53D3FC78CF07}">
   <dimension ref="A1:CD2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2042,13 +2039,13 @@
         <v>37</v>
       </c>
       <c r="E1" s="23" t="s">
+        <v>320</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>321</v>
+      </c>
+      <c r="G1" s="23" t="s">
         <v>322</v>
-      </c>
-      <c r="F1" s="23" t="s">
-        <v>323</v>
-      </c>
-      <c r="G1" s="23" t="s">
-        <v>324</v>
       </c>
       <c r="H1" s="23" t="s">
         <v>171</v>
@@ -2281,22 +2278,22 @@
         <v>147</v>
       </c>
       <c r="B2" s="37" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>144</v>
+        <v>1</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>38</v>
+        <v>344</v>
       </c>
       <c r="E2" s="28" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F2" s="28" t="s">
-        <v>163</v>
+        <v>105</v>
       </c>
       <c r="G2" s="28" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="H2" s="28" t="s">
         <v>137</v>
@@ -2314,13 +2311,13 @@
         <v>158</v>
       </c>
       <c r="M2" s="38" t="s">
-        <v>159</v>
+        <v>268</v>
       </c>
       <c r="N2" s="38" t="s">
-        <v>160</v>
+        <v>269</v>
       </c>
       <c r="O2" s="30" t="s">
-        <v>130</v>
+        <v>359</v>
       </c>
       <c r="P2" s="24" t="s">
         <v>40</v>
@@ -2338,10 +2335,10 @@
         <v>311</v>
       </c>
       <c r="U2" s="32" t="s">
-        <v>317</v>
+        <v>353</v>
       </c>
       <c r="V2" s="32" t="s">
-        <v>318</v>
+        <v>358</v>
       </c>
       <c r="W2" s="24">
         <v>2</v>
@@ -2356,7 +2353,7 @@
         <v>151</v>
       </c>
       <c r="AA2" s="36" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="AB2" s="24">
         <v>3</v>
@@ -2521,7 +2518,7 @@
         <v>255</v>
       </c>
       <c r="CD2" s="39" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -2603,7 +2600,7 @@
       <formula1>"SendForApproval,ProceedToCheckout"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{E7F00521-023F-4D90-9127-367B050517F5}">
-      <formula1>"//staging117/sbt,//preprod.quadlabs.net/sbt/#,test.quadlabs.net/sbt,tripsource.co.in/sbt/#"</formula1>
+      <formula1>"//staging117/sbt,//preprod.quadlabs.net/sbt/#,test.quadlabs.net/sbt,tripsource.co.in/sbt/#,//test.quadlabs.net/SSO_Login"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2" xr:uid="{7AF69C06-712F-47A3-8CF4-3AA749857B70}">
       <formula1>"Saurabh,Prince Chaurasia,Gunjan Swain,Shubham,Laxmi Khanal,Sudesh Kumar,Piyush,Ankur"</formula1>
@@ -2615,7 +2612,7 @@
       <formula1>"Old Url,SSO Login"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{24EFDCBF-B153-41D7-BACD-CEB6FF3B832C}">
-      <formula1>"sachin.kumar@quadlabs.com"</formula1>
+      <formula1>"sachin.kumar@quadlabs.com,laxmi.khanal@quadlabs.com"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -2739,40 +2736,40 @@
         <v>170</v>
       </c>
       <c r="C1" s="44" t="s">
+        <v>325</v>
+      </c>
+      <c r="D1" s="45" t="s">
+        <v>326</v>
+      </c>
+      <c r="E1" s="45" t="s">
         <v>327</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="F1" s="45" t="s">
         <v>328</v>
-      </c>
-      <c r="E1" s="45" t="s">
-        <v>329</v>
-      </c>
-      <c r="F1" s="45" t="s">
-        <v>330</v>
       </c>
       <c r="G1" s="45" t="s">
         <v>18</v>
       </c>
       <c r="H1" s="45" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="I1" s="46" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="J1" s="46" t="s">
+        <v>336</v>
+      </c>
+      <c r="K1" s="46" t="s">
+        <v>337</v>
+      </c>
+      <c r="L1" s="46" t="s">
         <v>338</v>
       </c>
-      <c r="K1" s="46" t="s">
+      <c r="M1" s="46" t="s">
         <v>339</v>
       </c>
-      <c r="L1" s="46" t="s">
+      <c r="N1" s="46" t="s">
         <v>340</v>
-      </c>
-      <c r="M1" s="46" t="s">
-        <v>341</v>
-      </c>
-      <c r="N1" s="46" t="s">
-        <v>342</v>
       </c>
       <c r="O1" s="23" t="s">
         <v>15</v>
@@ -2781,13 +2778,13 @@
         <v>37</v>
       </c>
       <c r="Q1" s="23" t="s">
+        <v>320</v>
+      </c>
+      <c r="R1" s="23" t="s">
+        <v>321</v>
+      </c>
+      <c r="S1" s="23" t="s">
         <v>322</v>
-      </c>
-      <c r="R1" s="23" t="s">
-        <v>323</v>
-      </c>
-      <c r="S1" s="23" t="s">
-        <v>324</v>
       </c>
       <c r="T1" s="23" t="s">
         <v>171</v>
@@ -2919,7 +2916,7 @@
         <v>196</v>
       </c>
       <c r="BK1" s="23" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="BL1" s="23" t="s">
         <v>197</v>
@@ -3023,58 +3020,58 @@
         <v>147</v>
       </c>
       <c r="B2" s="37" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C2" s="28" t="s">
         <v>144</v>
       </c>
       <c r="D2" s="28" t="s">
+        <v>331</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>332</v>
+      </c>
+      <c r="F2" s="30" t="s">
         <v>333</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="G2" s="36" t="s">
         <v>334</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>335</v>
-      </c>
-      <c r="G2" s="36" t="s">
-        <v>336</v>
       </c>
       <c r="H2" s="47" t="s">
         <v>158</v>
       </c>
       <c r="I2" s="24" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="J2" s="32" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="K2" s="32" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="L2" s="28" t="s">
+        <v>341</v>
+      </c>
+      <c r="M2" s="32" t="s">
+        <v>342</v>
+      </c>
+      <c r="N2" s="32" t="s">
         <v>343</v>
-      </c>
-      <c r="M2" s="32" t="s">
-        <v>344</v>
-      </c>
-      <c r="N2" s="32" t="s">
-        <v>345</v>
       </c>
       <c r="O2" s="24" t="s">
         <v>144</v>
       </c>
       <c r="P2" s="28" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="Q2" s="28" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="R2" s="48" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="S2" s="28" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="T2" s="28" t="s">
         <v>137</v>
@@ -3098,7 +3095,7 @@
         <v>160</v>
       </c>
       <c r="AA2" s="30" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="AB2" s="24" t="s">
         <v>40</v>
@@ -3116,10 +3113,10 @@
         <v>311</v>
       </c>
       <c r="AG2" s="32" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="AH2" s="32" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="AI2" s="24">
         <v>2</v>
@@ -3206,7 +3203,7 @@
         <v>237</v>
       </c>
       <c r="BK2" s="49" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="BL2" t="s">
         <v>238</v>
@@ -3302,7 +3299,7 @@
         <v>255</v>
       </c>
       <c r="CQ2" s="39" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="3" spans="1:95" x14ac:dyDescent="0.25">
@@ -3310,58 +3307,58 @@
         <v>148</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C3" s="28" t="s">
         <v>144</v>
       </c>
       <c r="D3" s="28" t="s">
+        <v>331</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>332</v>
+      </c>
+      <c r="F3" s="30" t="s">
         <v>333</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="G3" s="36" t="s">
         <v>334</v>
-      </c>
-      <c r="F3" s="30" t="s">
-        <v>335</v>
-      </c>
-      <c r="G3" s="36" t="s">
-        <v>336</v>
       </c>
       <c r="H3" s="47" t="s">
         <v>158</v>
       </c>
       <c r="I3" s="24" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="J3" s="32" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="K3" s="32" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="L3" s="28" t="s">
+        <v>341</v>
+      </c>
+      <c r="M3" s="32" t="s">
+        <v>342</v>
+      </c>
+      <c r="N3" s="32" t="s">
         <v>343</v>
-      </c>
-      <c r="M3" s="32" t="s">
-        <v>344</v>
-      </c>
-      <c r="N3" s="32" t="s">
-        <v>345</v>
       </c>
       <c r="O3" s="24" t="s">
         <v>144</v>
       </c>
       <c r="P3" s="28" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="Q3" s="28" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="R3" s="48" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="S3" s="28" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="T3" s="28" t="s">
         <v>137</v>
@@ -3385,7 +3382,7 @@
         <v>160</v>
       </c>
       <c r="AA3" s="30" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="AB3" s="24" t="s">
         <v>40</v>
@@ -3394,19 +3391,19 @@
         <v>310</v>
       </c>
       <c r="AD3" s="24" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="AE3" s="24" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AF3" s="24" t="s">
         <v>311</v>
       </c>
       <c r="AG3" s="32" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="AH3" s="32" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="AI3" s="24">
         <v>2</v>
@@ -3493,7 +3490,7 @@
         <v>237</v>
       </c>
       <c r="BK3" s="49" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="BL3" t="s">
         <v>238</v>
@@ -3589,7 +3586,7 @@
         <v>255</v>
       </c>
       <c r="CQ3" s="39" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
   </sheetData>
@@ -3724,11 +3721,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D04B49D8-9A43-44BD-8F63-39EEB9BA1789}">
   <dimension ref="A1:CQ2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="29.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A1" s="35" t="s">
@@ -3738,40 +3738,40 @@
         <v>170</v>
       </c>
       <c r="C1" s="44" t="s">
+        <v>325</v>
+      </c>
+      <c r="D1" s="45" t="s">
+        <v>326</v>
+      </c>
+      <c r="E1" s="45" t="s">
         <v>327</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="F1" s="45" t="s">
         <v>328</v>
-      </c>
-      <c r="E1" s="45" t="s">
-        <v>329</v>
-      </c>
-      <c r="F1" s="45" t="s">
-        <v>330</v>
       </c>
       <c r="G1" s="45" t="s">
         <v>18</v>
       </c>
       <c r="H1" s="45" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="I1" s="46" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="J1" s="46" t="s">
+        <v>336</v>
+      </c>
+      <c r="K1" s="46" t="s">
+        <v>337</v>
+      </c>
+      <c r="L1" s="46" t="s">
         <v>338</v>
       </c>
-      <c r="K1" s="46" t="s">
+      <c r="M1" s="46" t="s">
         <v>339</v>
       </c>
-      <c r="L1" s="46" t="s">
+      <c r="N1" s="46" t="s">
         <v>340</v>
-      </c>
-      <c r="M1" s="46" t="s">
-        <v>341</v>
-      </c>
-      <c r="N1" s="46" t="s">
-        <v>342</v>
       </c>
       <c r="O1" s="23" t="s">
         <v>15</v>
@@ -3780,13 +3780,13 @@
         <v>37</v>
       </c>
       <c r="Q1" s="23" t="s">
+        <v>320</v>
+      </c>
+      <c r="R1" s="23" t="s">
+        <v>321</v>
+      </c>
+      <c r="S1" s="23" t="s">
         <v>322</v>
-      </c>
-      <c r="R1" s="23" t="s">
-        <v>323</v>
-      </c>
-      <c r="S1" s="23" t="s">
-        <v>324</v>
       </c>
       <c r="T1" s="23" t="s">
         <v>171</v>
@@ -3918,7 +3918,7 @@
         <v>196</v>
       </c>
       <c r="BK1" s="23" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="BL1" s="23" t="s">
         <v>197</v>
@@ -4022,58 +4022,58 @@
         <v>148</v>
       </c>
       <c r="B2" s="37" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C2" s="28" t="s">
         <v>144</v>
       </c>
       <c r="D2" s="28" t="s">
+        <v>331</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>332</v>
+      </c>
+      <c r="F2" s="30" t="s">
         <v>333</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="G2" s="36" t="s">
         <v>334</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>335</v>
-      </c>
-      <c r="G2" s="36" t="s">
-        <v>336</v>
       </c>
       <c r="H2" s="47" t="s">
         <v>158</v>
       </c>
       <c r="I2" s="24" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="J2" s="32" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="K2" s="32" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="L2" s="28" t="s">
+        <v>341</v>
+      </c>
+      <c r="M2" s="32" t="s">
+        <v>342</v>
+      </c>
+      <c r="N2" s="32" t="s">
         <v>343</v>
-      </c>
-      <c r="M2" s="32" t="s">
-        <v>344</v>
-      </c>
-      <c r="N2" s="32" t="s">
-        <v>345</v>
       </c>
       <c r="O2" s="24" t="s">
         <v>144</v>
       </c>
       <c r="P2" s="28" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="Q2" s="28" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="R2" s="48" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="S2" s="28" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="T2" s="28" t="s">
         <v>137</v>
@@ -4097,7 +4097,7 @@
         <v>160</v>
       </c>
       <c r="AA2" s="30" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="AB2" s="24" t="s">
         <v>40</v>
@@ -4106,19 +4106,19 @@
         <v>310</v>
       </c>
       <c r="AD2" s="24" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="AE2" s="24" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AF2" s="24" t="s">
         <v>311</v>
       </c>
       <c r="AG2" s="32" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="AH2" s="32" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="AI2" s="24">
         <v>2</v>
@@ -4205,7 +4205,7 @@
         <v>237</v>
       </c>
       <c r="BK2" s="49" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="BL2" t="s">
         <v>238</v>
@@ -4301,7 +4301,7 @@
         <v>255</v>
       </c>
       <c r="CQ2" s="39" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
   </sheetData>
@@ -4805,10 +4805,10 @@
         <v>311</v>
       </c>
       <c r="R2" s="40" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="S2" s="40" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="T2" s="24">
         <v>2</v>

--- a/data/excel/SBT_Hotel.xlsx
+++ b/data/excel/SBT_Hotel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ankur.Yadav\git\ProjectQuadlabs\data\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB6B4E14-6643-4485-B454-3E377F10108E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CB5B499-AE1F-476E-93C7-8F2777EF8F49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Business" sheetId="13" r:id="rId1"/>
@@ -24,19 +24,21 @@
     <sheet name="Sheet11" sheetId="27" r:id="rId9"/>
     <sheet name="Sheet13" sheetId="29" r:id="rId10"/>
     <sheet name="Sheet14" sheetId="30" r:id="rId11"/>
-    <sheet name="Sheet15" sheetId="31" r:id="rId12"/>
-    <sheet name="Sheet12" sheetId="28" r:id="rId13"/>
-    <sheet name="Sheet3" sheetId="18" r:id="rId14"/>
-    <sheet name="Sheet2" sheetId="17" r:id="rId15"/>
-    <sheet name="Sheet4" sheetId="19" r:id="rId16"/>
-    <sheet name="Dependent" sheetId="5" r:id="rId17"/>
-    <sheet name="Sheet1" sheetId="16" r:id="rId18"/>
-    <sheet name="Personal" sheetId="6" r:id="rId19"/>
-    <sheet name="Guest" sheetId="11" r:id="rId20"/>
-    <sheet name="GuestSheet1" sheetId="15" r:id="rId21"/>
-    <sheet name="SearchWithHotelName" sheetId="2" r:id="rId22"/>
-    <sheet name="BookHotelWithPolicyType" sheetId="3" r:id="rId23"/>
-    <sheet name="AddToCart" sheetId="9" r:id="rId24"/>
+    <sheet name="Sheet16" sheetId="32" r:id="rId12"/>
+    <sheet name="Liveset" sheetId="33" r:id="rId13"/>
+    <sheet name="Sheet15" sheetId="31" r:id="rId14"/>
+    <sheet name="Sheet12" sheetId="28" r:id="rId15"/>
+    <sheet name="Sheet3" sheetId="18" r:id="rId16"/>
+    <sheet name="Sheet2" sheetId="17" r:id="rId17"/>
+    <sheet name="Sheet4" sheetId="19" r:id="rId18"/>
+    <sheet name="Dependent" sheetId="5" r:id="rId19"/>
+    <sheet name="Sheet1" sheetId="16" r:id="rId20"/>
+    <sheet name="Personal" sheetId="6" r:id="rId21"/>
+    <sheet name="Guest" sheetId="11" r:id="rId22"/>
+    <sheet name="GuestSheet1" sheetId="15" r:id="rId23"/>
+    <sheet name="SearchWithHotelName" sheetId="2" r:id="rId24"/>
+    <sheet name="BookHotelWithPolicyType" sheetId="3" r:id="rId25"/>
+    <sheet name="AddToCart" sheetId="9" r:id="rId26"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -48,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3159" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3779" uniqueCount="369">
   <si>
     <t>Fop</t>
   </si>
@@ -1127,7 +1129,34 @@
     <t>20-May-2024</t>
   </si>
   <si>
-    <t>ankur.yadav@quadlabs.com</t>
+    <t>Old Url</t>
+  </si>
+  <si>
+    <t>23-May-2024</t>
+  </si>
+  <si>
+    <t>Hotel International booking flow for Individual (Admin)</t>
+  </si>
+  <si>
+    <t>Bom</t>
+  </si>
+  <si>
+    <t>Mumbai, Maharashtra, India (BOM-Chhatrapati Shivaji Intl.)</t>
+  </si>
+  <si>
+    <t>Lhr</t>
+  </si>
+  <si>
+    <t>22-May-2024</t>
+  </si>
+  <si>
+    <t>27-May-2024</t>
+  </si>
+  <si>
+    <t>24-May-2024</t>
+  </si>
+  <si>
+    <t>28-May-2024</t>
   </si>
 </sst>
 </file>
@@ -1936,8 +1965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2663B78-477A-4A80-9FFF-53D3FC78CF07}">
   <dimension ref="A1:CD2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2284,10 +2313,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>344</v>
+        <v>265</v>
       </c>
       <c r="E2" s="28" t="s">
-        <v>324</v>
+        <v>359</v>
       </c>
       <c r="F2" s="28" t="s">
         <v>105</v>
@@ -2296,16 +2325,16 @@
         <v>323</v>
       </c>
       <c r="H2" s="28" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="I2" s="31" t="s">
         <v>161</v>
       </c>
       <c r="J2" s="28" t="s">
-        <v>137</v>
+        <v>14</v>
       </c>
       <c r="K2" s="30" t="s">
-        <v>162</v>
+        <v>266</v>
       </c>
       <c r="L2" s="38" t="s">
         <v>158</v>
@@ -2317,7 +2346,7 @@
         <v>269</v>
       </c>
       <c r="O2" s="30" t="s">
-        <v>359</v>
+        <v>105</v>
       </c>
       <c r="P2" s="24" t="s">
         <v>40</v>
@@ -2627,8 +2656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{974A3E0D-052E-4767-B170-38FEFE199448}">
   <dimension ref="A1:CQ3"/>
   <sheetViews>
-    <sheetView topLeftCell="AA1" workbookViewId="0">
-      <selection activeCell="AA1" sqref="A1:XFD3"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3718,6 +3747,2457 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35E0DCA9-09F3-4C26-B3E5-E5C88853FAF5}">
+  <dimension ref="A1:CQ2"/>
+  <sheetViews>
+    <sheetView topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="X1" sqref="A1:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="28" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="28" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="65.28515625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="7" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="9" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="15" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="15" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="49" max="50" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="14" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="43.140625" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="42.140625" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="9" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="49.5703125" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="50.42578125" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="19" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="18" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="13.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:95" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>170</v>
+      </c>
+      <c r="C1" s="44" t="s">
+        <v>325</v>
+      </c>
+      <c r="D1" s="45" t="s">
+        <v>326</v>
+      </c>
+      <c r="E1" s="45" t="s">
+        <v>327</v>
+      </c>
+      <c r="F1" s="45" t="s">
+        <v>328</v>
+      </c>
+      <c r="G1" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="45" t="s">
+        <v>329</v>
+      </c>
+      <c r="I1" s="46" t="s">
+        <v>330</v>
+      </c>
+      <c r="J1" s="46" t="s">
+        <v>336</v>
+      </c>
+      <c r="K1" s="46" t="s">
+        <v>337</v>
+      </c>
+      <c r="L1" s="46" t="s">
+        <v>338</v>
+      </c>
+      <c r="M1" s="46" t="s">
+        <v>339</v>
+      </c>
+      <c r="N1" s="46" t="s">
+        <v>340</v>
+      </c>
+      <c r="O1" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q1" s="23" t="s">
+        <v>320</v>
+      </c>
+      <c r="R1" s="23" t="s">
+        <v>321</v>
+      </c>
+      <c r="S1" s="23" t="s">
+        <v>322</v>
+      </c>
+      <c r="T1" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="U1" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="V1" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="X1" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y1" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="Z1" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="AA1" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="AB1" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="AC1" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="AD1" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="AE1" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="AF1" s="33" t="s">
+        <v>305</v>
+      </c>
+      <c r="AG1" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="AH1" s="33" t="s">
+        <v>178</v>
+      </c>
+      <c r="AI1" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="AJ1" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="AK1" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL1" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="AM1" s="33" t="s">
+        <v>257</v>
+      </c>
+      <c r="AN1" s="25" t="s">
+        <v>262</v>
+      </c>
+      <c r="AO1" s="25" t="s">
+        <v>261</v>
+      </c>
+      <c r="AP1" s="25" t="s">
+        <v>260</v>
+      </c>
+      <c r="AQ1" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="AR1" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="AS1" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="AT1" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="AU1" s="33" t="s">
+        <v>183</v>
+      </c>
+      <c r="AV1" s="33" t="s">
+        <v>314</v>
+      </c>
+      <c r="AW1" s="33" t="s">
+        <v>313</v>
+      </c>
+      <c r="AX1" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="AY1" s="33" t="s">
+        <v>185</v>
+      </c>
+      <c r="AZ1" s="33" t="s">
+        <v>186</v>
+      </c>
+      <c r="BA1" s="33" t="s">
+        <v>187</v>
+      </c>
+      <c r="BB1" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="BC1" s="33" t="s">
+        <v>189</v>
+      </c>
+      <c r="BD1" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="BE1" s="33" t="s">
+        <v>191</v>
+      </c>
+      <c r="BF1" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="BG1" s="33" t="s">
+        <v>193</v>
+      </c>
+      <c r="BH1" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="BI1" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="BJ1" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="BK1" s="23" t="s">
+        <v>347</v>
+      </c>
+      <c r="BL1" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="BM1" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="BN1" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="BO1" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="BP1" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="BQ1" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="BR1" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="BS1" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="BT1" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="BU1" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="BV1" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="BW1" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="BX1" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="BY1" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="BZ1" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="CA1" s="23" t="s">
+        <v>211</v>
+      </c>
+      <c r="CB1" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="CC1" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="CD1" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="CE1" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="CF1" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="CG1" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="CH1" s="23" t="s">
+        <v>218</v>
+      </c>
+      <c r="CI1" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="CJ1" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="CK1" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="CL1" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="CM1" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="CN1" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="CO1" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="CP1" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="CQ1" s="23" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:95" x14ac:dyDescent="0.25">
+      <c r="A2" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>317</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>331</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>332</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>333</v>
+      </c>
+      <c r="G2" s="36" t="s">
+        <v>334</v>
+      </c>
+      <c r="H2" s="47" t="s">
+        <v>158</v>
+      </c>
+      <c r="I2" s="24" t="s">
+        <v>335</v>
+      </c>
+      <c r="J2" s="32" t="s">
+        <v>348</v>
+      </c>
+      <c r="K2" s="32" t="s">
+        <v>349</v>
+      </c>
+      <c r="L2" s="28" t="s">
+        <v>341</v>
+      </c>
+      <c r="M2" s="32" t="s">
+        <v>342</v>
+      </c>
+      <c r="N2" s="32" t="s">
+        <v>343</v>
+      </c>
+      <c r="O2" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="P2" s="28" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q2" s="28" t="s">
+        <v>324</v>
+      </c>
+      <c r="R2" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="S2" s="28" t="s">
+        <v>323</v>
+      </c>
+      <c r="T2" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="U2" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="V2" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="W2" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="X2" s="38" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y2" s="38" t="s">
+        <v>268</v>
+      </c>
+      <c r="Z2" s="38" t="s">
+        <v>269</v>
+      </c>
+      <c r="AA2" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB2" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC2" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="AD2" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="AE2" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="AF2" s="24" t="s">
+        <v>311</v>
+      </c>
+      <c r="AG2" s="32" t="s">
+        <v>346</v>
+      </c>
+      <c r="AH2" s="32" t="s">
+        <v>360</v>
+      </c>
+      <c r="AI2" s="24">
+        <v>2</v>
+      </c>
+      <c r="AJ2" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="AK2" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="AL2" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AM2" s="36" t="s">
+        <v>258</v>
+      </c>
+      <c r="AN2" s="24">
+        <v>3</v>
+      </c>
+      <c r="AO2" s="24">
+        <v>3</v>
+      </c>
+      <c r="AP2" s="24">
+        <v>3</v>
+      </c>
+      <c r="AQ2" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="AR2" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="AS2" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="AT2" s="24" t="s">
+        <v>231</v>
+      </c>
+      <c r="AU2" s="24" t="s">
+        <v>232</v>
+      </c>
+      <c r="AV2" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="AW2" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="AX2" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="AY2" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="AZ2" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="BA2" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="BB2" s="24">
+        <v>2</v>
+      </c>
+      <c r="BC2" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="BD2" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="BE2" s="37" t="s">
+        <v>235</v>
+      </c>
+      <c r="BF2" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="BG2" s="37" t="s">
+        <v>229</v>
+      </c>
+      <c r="BH2" s="37" t="s">
+        <v>236</v>
+      </c>
+      <c r="BI2" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="BJ2" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="BK2" s="49" t="s">
+        <v>348</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>238</v>
+      </c>
+      <c r="BM2" s="24" t="s">
+        <v>256</v>
+      </c>
+      <c r="BN2" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="BO2" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="BP2" s="41" t="s">
+        <v>241</v>
+      </c>
+      <c r="BQ2" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="BR2" s="41" t="s">
+        <v>242</v>
+      </c>
+      <c r="BS2" s="42" t="s">
+        <v>243</v>
+      </c>
+      <c r="BT2" s="42" t="s">
+        <v>244</v>
+      </c>
+      <c r="BU2" s="24">
+        <v>2</v>
+      </c>
+      <c r="BV2" s="24">
+        <v>1</v>
+      </c>
+      <c r="BW2" s="24">
+        <v>1</v>
+      </c>
+      <c r="BX2" s="24" t="s">
+        <v>245</v>
+      </c>
+      <c r="BY2" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="BZ2" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="CA2" s="26" t="s">
+        <v>246</v>
+      </c>
+      <c r="CB2" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="CC2" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="CD2" s="24">
+        <v>25</v>
+      </c>
+      <c r="CE2" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="CF2" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="CG2" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="CH2" s="26" t="s">
+        <v>250</v>
+      </c>
+      <c r="CI2" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="CJ2" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="CK2" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="CL2" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="CM2" s="43" t="s">
+        <v>253</v>
+      </c>
+      <c r="CN2" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="CO2" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="CP2" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="CQ2" s="39" t="s">
+        <v>335</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="35">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2" xr:uid="{7DADF365-01CD-4C10-ABAD-873CB2C619CF}">
+      <formula1>"LUXURY COLLECTION,COURTYARD BY MARRIOTT"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2" xr:uid="{0B4EC333-7FB0-4A07-A104-2BC512CF4EE7}">
+      <formula1>"//staging117/sbt,//preprod.quadlabs.net/sbt/#,test.quadlabs.net/sbt,tripsource.co.in/sbt/#,//test.quadlabs.net/SSO_Login"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2" xr:uid="{F2310514-6DF5-48A5-B81B-735B36E94D16}">
+      <formula1>"Air India,Vistara,SriLankan,Saudi Arabian,Emirates,Gulf Air,Etihad Airways,Singapore Airl,Qatar Airways,Indigo,Air Asia,Akasa Air,SpiceJet"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{C6BAD76A-3917-484E-928E-13F4A714E497}">
+      <formula1>"//staging117/backoffice/,//preprod.quadlabs.net/backoffice/,//test.quadlabs.net/backoffice/"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2" xr:uid="{9B4F11EE-01F7-407D-AB8D-0871454CDD55}">
+      <formula1>"at,QL"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{4FC18CE8-24F9-485D-A3A6-CC5F8594A47B}">
+      <formula1>"Saurav_at,tarun"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{A633F555-A6AF-4F3E-999C-F0D8BB3191F2}">
+      <formula1>"Laxmi@123,Password@123,Quad@720,Quad@721,Password@1234,Admin@123"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF2 AW2" xr:uid="{CC6E1546-EFC3-4989-A882-C6AF9F68C4CD}">
+      <formula1>"5 KM,10 KM,20 KM,30 KM,40 KM,50 KM"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM2" xr:uid="{68F3548F-5CC9-47EA-A3E2-61D847BEA52C}">
+      <formula1>"Applied,NotApplied"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CQ2" xr:uid="{89710FD2-DDF2-4BCC-B365-0C7B7C0DCA4D}">
+      <formula1>"Shubham Natkar,Laxmi Khanal,Sudesh Kumar,Shekhar Singh"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z2" xr:uid="{F71D6F54-FB38-4725-9EBE-4CF2D383DFF0}">
+      <formula1>"Old,New"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2" xr:uid="{8E21E9E5-942A-419D-BB44-491EF9D55C5D}">
+      <formula1>"Poonam_Corp,Amazon,Demo Corporate,Lux_Test_corp,Null"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y2" xr:uid="{9FA2DA59-6DAE-46AF-BEC6-0DE6F09D297A}">
+      <formula1>"On,Off"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2" xr:uid="{2DCE42F9-8FA3-415B-9BC4-D92C292C9A7E}">
+      <formula1>"Shubham1,Shubham,rsudesh15,Saurabh,Laxmi,sachinkumar,Piyush,Ankur"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2" xr:uid="{52444CAB-47D2-4E2C-88FF-CBC8E0035E9D}">
+      <formula1>"Administrator,Travel Arranger,Employee"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BU2:BW2" xr:uid="{40C88515-3558-440A-894F-B085E93CA0C0}">
+      <formula1>"0,1,2,3,4,5"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BX2" xr:uid="{7CACC57F-85BA-475C-B464-4A0D739F2446}">
+      <formula1>"Economy,Premium Economy,Business Class,First Class"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BJ2" xr:uid="{7F00C3A9-7054-48CB-9415-D75558C387D2}">
+      <formula1>"Hotel,Apartment"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BH2" xr:uid="{22E7D3BA-BC19-4BD2-A2F0-41A4E8B8D251}">
+      <formula1>"1 Star,2 Star,3 Star,4 Star,5 Star"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI2" xr:uid="{C743B37F-8D9F-460F-A95B-C4D15F90FB8B}">
+      <formula1>"1,2,3,4,5"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BM2" xr:uid="{8298AFF7-12EB-4EC7-843D-57AF497C7605}">
+      <formula1>"Hotel,Hotel+Flight,Hotel+Car,Hotel+Flight+Car,Hotel+Car+Flight"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CM2" xr:uid="{681655C7-2680-4E81-88BC-7B1A6884BC46}">
+      <formula1>"MasterCard,Visa"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CN2" xr:uid="{691485A4-56F5-4E89-915E-878C0472ADA7}">
+      <formula1>"5123456789012346,4111111111111111"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CK2" xr:uid="{36774B0E-B1B3-4101-A09C-72DCBA62A4BA}">
+      <formula1>"Quote,BookAndQuote,Fulfilment"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BY2 BI2 BF2:BG2 AS2 AX2 AQ2 AV2 CE2 BA2" xr:uid="{C1D18C36-407B-418D-8074-39DBE74055A5}">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB2 AR2" xr:uid="{09D8F903-4326-4F29-980F-A8852D9B6FE3}">
+      <formula1>"Individual,Dependent,Personal,Guest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2 C2" xr:uid="{4FAE67B7-FC80-403E-A06E-C0B71A22A67D}">
+      <formula1>"sbt,preprod117,Live"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BN2" xr:uid="{52A13DCC-9D4F-4F91-8D0E-3D346255CAFB}">
+      <formula1>"OneWay,RoundTrip,MultiCity"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CL2" xr:uid="{F03DB7A9-F1C7-4CF2-B850-50D74B120857}">
+      <formula1>"Credit Card,Bill To Company"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2" xr:uid="{7C8D0438-2D94-44F0-8750-6E299B2297A9}">
+      <formula1>"Domestic,International"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CH2" xr:uid="{B76F2910-F3EA-4F3E-AE90-37ADCE769FCA}">
+      <formula1>"SendForApproval,ProceedToCheckout"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2" xr:uid="{26B5F7EB-A061-4647-A78D-1493A6ECEA77}">
+      <formula1>"Saurabh,Prince Chaurasia,Gunjan Swain,Shubham,Laxmi Khanal,Sudesh Kumar,Piyush,Ankur"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2" xr:uid="{DE30A1E2-6D30-44AC-B747-805B8B961193}">
+      <formula1>"Laxmi@123,Admin@123,S21FUMK6JAPLBYO,Shubham@123,BAVYBXVY09FKGTY,Piyush@123,Ankur@123,DWUFR8WRAR6SL1M"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2" xr:uid="{E753A255-06FE-478A-A4B8-B9F1FBB1A084}">
+      <formula1>"Old Url,SSO Login"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2 AA2" xr:uid="{17E02A78-25FC-4716-A198-B0FB115155FF}">
+      <formula1>"shekhar.singh@quadlabs.com,sachin.kumar@quadlabs.com,Laxmi.khanal@quadlabs.com,ayushi.shivhare@quadlabs.com,Vikrant.prajapati@quadlabs.com"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="W2" r:id="rId1" display="Admin@123" xr:uid="{1380C751-8D95-4FC7-9E50-2F1EBF8C1E83}"/>
+    <hyperlink ref="F2" r:id="rId2" display="shubham.natkar@quadlabs.com" xr:uid="{A547C1E2-F688-4E99-BE9B-0DC0C25979AE}"/>
+    <hyperlink ref="G2" r:id="rId3" display="Password@123" xr:uid="{4DAE5536-55BF-4C10-BAF7-E9F97CC240DE}"/>
+    <hyperlink ref="R2" r:id="rId4" display="shekhar.singh@quadlabs.com" xr:uid="{CE6A3C68-085A-401F-AB1A-085A4A3E577B}"/>
+    <hyperlink ref="AA2" r:id="rId5" display="shekhar.singh@quadlabs.com" xr:uid="{A3AF1591-4DFF-4135-BFFE-DB71F694A3F6}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0213149D-792B-4B2B-A8E5-D4130C17BFBD}">
+  <dimension ref="A1:CQ5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="R23" sqref="R23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="65.28515625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="7" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="9" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="15" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="15" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="49" max="50" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="14" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="43.140625" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="42.140625" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="5.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:95" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>170</v>
+      </c>
+      <c r="C1" s="44" t="s">
+        <v>325</v>
+      </c>
+      <c r="D1" s="45" t="s">
+        <v>326</v>
+      </c>
+      <c r="E1" s="45" t="s">
+        <v>327</v>
+      </c>
+      <c r="F1" s="45" t="s">
+        <v>328</v>
+      </c>
+      <c r="G1" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="45" t="s">
+        <v>329</v>
+      </c>
+      <c r="I1" s="46" t="s">
+        <v>330</v>
+      </c>
+      <c r="J1" s="46" t="s">
+        <v>336</v>
+      </c>
+      <c r="K1" s="46" t="s">
+        <v>337</v>
+      </c>
+      <c r="L1" s="46" t="s">
+        <v>338</v>
+      </c>
+      <c r="M1" s="46" t="s">
+        <v>339</v>
+      </c>
+      <c r="N1" s="46" t="s">
+        <v>340</v>
+      </c>
+      <c r="O1" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q1" s="23" t="s">
+        <v>320</v>
+      </c>
+      <c r="R1" s="23" t="s">
+        <v>321</v>
+      </c>
+      <c r="S1" s="23" t="s">
+        <v>322</v>
+      </c>
+      <c r="T1" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="U1" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="V1" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="X1" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y1" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="Z1" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="AA1" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="AB1" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="AC1" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="AD1" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="AE1" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="AF1" s="33" t="s">
+        <v>305</v>
+      </c>
+      <c r="AG1" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="AH1" s="33" t="s">
+        <v>178</v>
+      </c>
+      <c r="AI1" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="AJ1" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="AK1" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL1" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="AM1" s="33" t="s">
+        <v>257</v>
+      </c>
+      <c r="AN1" s="25" t="s">
+        <v>262</v>
+      </c>
+      <c r="AO1" s="25" t="s">
+        <v>261</v>
+      </c>
+      <c r="AP1" s="25" t="s">
+        <v>260</v>
+      </c>
+      <c r="AQ1" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="AR1" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="AS1" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="AT1" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="AU1" s="33" t="s">
+        <v>183</v>
+      </c>
+      <c r="AV1" s="33" t="s">
+        <v>314</v>
+      </c>
+      <c r="AW1" s="33" t="s">
+        <v>313</v>
+      </c>
+      <c r="AX1" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="AY1" s="33" t="s">
+        <v>185</v>
+      </c>
+      <c r="AZ1" s="33" t="s">
+        <v>186</v>
+      </c>
+      <c r="BA1" s="33" t="s">
+        <v>187</v>
+      </c>
+      <c r="BB1" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="BC1" s="33" t="s">
+        <v>189</v>
+      </c>
+      <c r="BD1" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="BE1" s="33" t="s">
+        <v>191</v>
+      </c>
+      <c r="BF1" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="BG1" s="33" t="s">
+        <v>193</v>
+      </c>
+      <c r="BH1" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="BI1" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="BJ1" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="BK1" s="23" t="s">
+        <v>347</v>
+      </c>
+      <c r="BL1" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="BM1" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="BN1" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="BO1" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="BP1" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="BQ1" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="BR1" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="BS1" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="BT1" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="BU1" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="BV1" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="BW1" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="BX1" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="BY1" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="BZ1" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="CA1" s="23" t="s">
+        <v>211</v>
+      </c>
+      <c r="CB1" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="CC1" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="CD1" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="CE1" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="CF1" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="CG1" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="CH1" s="23" t="s">
+        <v>218</v>
+      </c>
+      <c r="CI1" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="CJ1" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="CK1" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="CL1" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="CM1" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="CN1" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="CO1" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="CP1" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="CQ1" s="23" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:95" x14ac:dyDescent="0.25">
+      <c r="A2" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>317</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>331</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>332</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>333</v>
+      </c>
+      <c r="G2" s="36" t="s">
+        <v>334</v>
+      </c>
+      <c r="H2" s="47" t="s">
+        <v>267</v>
+      </c>
+      <c r="I2" s="24" t="s">
+        <v>335</v>
+      </c>
+      <c r="J2" s="32" t="s">
+        <v>348</v>
+      </c>
+      <c r="K2" s="32" t="s">
+        <v>349</v>
+      </c>
+      <c r="L2" s="28" t="s">
+        <v>341</v>
+      </c>
+      <c r="M2" s="32" t="s">
+        <v>342</v>
+      </c>
+      <c r="N2" s="32" t="s">
+        <v>343</v>
+      </c>
+      <c r="O2" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="P2" s="28" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q2" s="28" t="s">
+        <v>359</v>
+      </c>
+      <c r="R2" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="S2" s="28" t="s">
+        <v>323</v>
+      </c>
+      <c r="T2" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="U2" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="V2" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="W2" s="30" t="s">
+        <v>266</v>
+      </c>
+      <c r="X2" s="38" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y2" s="38" t="s">
+        <v>268</v>
+      </c>
+      <c r="Z2" s="38" t="s">
+        <v>269</v>
+      </c>
+      <c r="AA2" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB2" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC2" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="AD2" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="AE2" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="AF2" s="24" t="s">
+        <v>311</v>
+      </c>
+      <c r="AG2" s="32" t="s">
+        <v>346</v>
+      </c>
+      <c r="AH2" s="32" t="s">
+        <v>365</v>
+      </c>
+      <c r="AI2" s="24">
+        <v>2</v>
+      </c>
+      <c r="AJ2" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="AK2" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="AL2" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AM2" s="36" t="s">
+        <v>258</v>
+      </c>
+      <c r="AN2" s="24">
+        <v>3</v>
+      </c>
+      <c r="AO2" s="24">
+        <v>3</v>
+      </c>
+      <c r="AP2" s="24">
+        <v>3</v>
+      </c>
+      <c r="AQ2" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="AR2" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="AS2" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="AT2" s="24" t="s">
+        <v>231</v>
+      </c>
+      <c r="AU2" s="24" t="s">
+        <v>232</v>
+      </c>
+      <c r="AV2" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="AW2" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="AX2" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="AY2" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="AZ2" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="BA2" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="BB2" s="24">
+        <v>2</v>
+      </c>
+      <c r="BC2" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="BD2" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="BE2" s="37" t="s">
+        <v>235</v>
+      </c>
+      <c r="BF2" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="BG2" s="37" t="s">
+        <v>229</v>
+      </c>
+      <c r="BH2" s="37" t="s">
+        <v>236</v>
+      </c>
+      <c r="BI2" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="BJ2" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="BK2" s="49" t="s">
+        <v>348</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>238</v>
+      </c>
+      <c r="BM2" s="24" t="s">
+        <v>256</v>
+      </c>
+      <c r="BN2" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="BO2" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="BP2" s="41" t="s">
+        <v>241</v>
+      </c>
+      <c r="BQ2" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="BR2" s="41" t="s">
+        <v>242</v>
+      </c>
+      <c r="BS2" s="42" t="s">
+        <v>243</v>
+      </c>
+      <c r="BT2" s="42" t="s">
+        <v>244</v>
+      </c>
+      <c r="BU2" s="24">
+        <v>2</v>
+      </c>
+      <c r="BV2" s="24">
+        <v>1</v>
+      </c>
+      <c r="BW2" s="24">
+        <v>1</v>
+      </c>
+      <c r="BX2" s="24" t="s">
+        <v>245</v>
+      </c>
+      <c r="BY2" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="BZ2" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="CA2" s="26" t="s">
+        <v>246</v>
+      </c>
+      <c r="CB2" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="CC2" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="CD2" s="24">
+        <v>25</v>
+      </c>
+      <c r="CE2" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="CF2" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="CG2" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="CH2" s="26" t="s">
+        <v>250</v>
+      </c>
+      <c r="CI2" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="CJ2" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="CK2" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="CL2" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="CM2" s="43" t="s">
+        <v>253</v>
+      </c>
+      <c r="CN2" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="CO2" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="CP2" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="CQ2" s="39" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="3" spans="1:95" x14ac:dyDescent="0.25">
+      <c r="A3" s="37" t="s">
+        <v>148</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>361</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>331</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>332</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>333</v>
+      </c>
+      <c r="G3" s="36" t="s">
+        <v>334</v>
+      </c>
+      <c r="H3" s="47" t="s">
+        <v>267</v>
+      </c>
+      <c r="I3" s="24" t="s">
+        <v>335</v>
+      </c>
+      <c r="J3" s="32" t="s">
+        <v>348</v>
+      </c>
+      <c r="K3" s="32" t="s">
+        <v>349</v>
+      </c>
+      <c r="L3" s="28" t="s">
+        <v>341</v>
+      </c>
+      <c r="M3" s="32" t="s">
+        <v>342</v>
+      </c>
+      <c r="N3" s="32" t="s">
+        <v>343</v>
+      </c>
+      <c r="O3" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="P3" s="28" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q3" s="28" t="s">
+        <v>359</v>
+      </c>
+      <c r="R3" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="S3" s="28" t="s">
+        <v>323</v>
+      </c>
+      <c r="T3" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="U3" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="V3" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="W3" s="30" t="s">
+        <v>266</v>
+      </c>
+      <c r="X3" s="38" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y3" s="38" t="s">
+        <v>268</v>
+      </c>
+      <c r="Z3" s="38" t="s">
+        <v>269</v>
+      </c>
+      <c r="AA3" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB3" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC3" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="AD3" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF3" s="24" t="s">
+        <v>311</v>
+      </c>
+      <c r="AG3" s="32" t="s">
+        <v>365</v>
+      </c>
+      <c r="AH3" s="32" t="s">
+        <v>360</v>
+      </c>
+      <c r="AI3" s="24">
+        <v>2</v>
+      </c>
+      <c r="AJ3" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="AK3" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="AL3" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AM3" s="36" t="s">
+        <v>258</v>
+      </c>
+      <c r="AN3" s="24">
+        <v>3</v>
+      </c>
+      <c r="AO3" s="24">
+        <v>3</v>
+      </c>
+      <c r="AP3" s="24">
+        <v>3</v>
+      </c>
+      <c r="AQ3" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="AR3" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="AS3" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="AT3" s="24" t="s">
+        <v>231</v>
+      </c>
+      <c r="AU3" s="24" t="s">
+        <v>232</v>
+      </c>
+      <c r="AV3" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="AW3" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="AX3" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="AY3" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="AZ3" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="BA3" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="BB3" s="24">
+        <v>2</v>
+      </c>
+      <c r="BC3" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="BD3" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="BE3" s="37" t="s">
+        <v>235</v>
+      </c>
+      <c r="BF3" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="BG3" s="37" t="s">
+        <v>229</v>
+      </c>
+      <c r="BH3" s="37" t="s">
+        <v>236</v>
+      </c>
+      <c r="BI3" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="BJ3" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="BK3" s="49" t="s">
+        <v>348</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>238</v>
+      </c>
+      <c r="BM3" s="24" t="s">
+        <v>256</v>
+      </c>
+      <c r="BN3" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="BO3" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="BP3" s="41" t="s">
+        <v>241</v>
+      </c>
+      <c r="BQ3" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="BR3" s="41" t="s">
+        <v>242</v>
+      </c>
+      <c r="BS3" s="42" t="s">
+        <v>243</v>
+      </c>
+      <c r="BT3" s="42" t="s">
+        <v>244</v>
+      </c>
+      <c r="BU3" s="24">
+        <v>2</v>
+      </c>
+      <c r="BV3" s="24">
+        <v>1</v>
+      </c>
+      <c r="BW3" s="24">
+        <v>1</v>
+      </c>
+      <c r="BX3" s="24" t="s">
+        <v>245</v>
+      </c>
+      <c r="BY3" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="BZ3" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="CA3" s="26" t="s">
+        <v>246</v>
+      </c>
+      <c r="CB3" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="CC3" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="CD3" s="24">
+        <v>25</v>
+      </c>
+      <c r="CE3" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="CF3" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="CG3" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="CH3" s="26" t="s">
+        <v>250</v>
+      </c>
+      <c r="CI3" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="CJ3" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="CK3" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="CL3" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="CM3" s="43" t="s">
+        <v>253</v>
+      </c>
+      <c r="CN3" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="CO3" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="CP3" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="CQ3" s="39" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="4" spans="1:95" x14ac:dyDescent="0.25">
+      <c r="A4" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>317</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>331</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>332</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>333</v>
+      </c>
+      <c r="G4" s="36" t="s">
+        <v>334</v>
+      </c>
+      <c r="H4" s="47" t="s">
+        <v>267</v>
+      </c>
+      <c r="I4" s="24" t="s">
+        <v>335</v>
+      </c>
+      <c r="J4" s="32" t="s">
+        <v>348</v>
+      </c>
+      <c r="K4" s="32" t="s">
+        <v>349</v>
+      </c>
+      <c r="L4" s="28" t="s">
+        <v>341</v>
+      </c>
+      <c r="M4" s="32" t="s">
+        <v>342</v>
+      </c>
+      <c r="N4" s="32" t="s">
+        <v>343</v>
+      </c>
+      <c r="O4" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="P4" s="28" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q4" s="28" t="s">
+        <v>359</v>
+      </c>
+      <c r="R4" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="S4" s="28" t="s">
+        <v>323</v>
+      </c>
+      <c r="T4" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="U4" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="V4" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="W4" s="30" t="s">
+        <v>266</v>
+      </c>
+      <c r="X4" s="38" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y4" s="38" t="s">
+        <v>268</v>
+      </c>
+      <c r="Z4" s="38" t="s">
+        <v>269</v>
+      </c>
+      <c r="AA4" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB4" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC4" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="AD4" s="24" t="s">
+        <v>362</v>
+      </c>
+      <c r="AE4" s="24" t="s">
+        <v>363</v>
+      </c>
+      <c r="AF4" s="24" t="s">
+        <v>311</v>
+      </c>
+      <c r="AG4" s="32" t="s">
+        <v>360</v>
+      </c>
+      <c r="AH4" s="32" t="s">
+        <v>367</v>
+      </c>
+      <c r="AI4" s="24">
+        <v>2</v>
+      </c>
+      <c r="AJ4" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="AK4" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="AL4" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AM4" s="36" t="s">
+        <v>258</v>
+      </c>
+      <c r="AN4" s="24">
+        <v>3</v>
+      </c>
+      <c r="AO4" s="24">
+        <v>3</v>
+      </c>
+      <c r="AP4" s="24">
+        <v>3</v>
+      </c>
+      <c r="AQ4" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="AR4" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="AS4" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="AT4" s="24" t="s">
+        <v>231</v>
+      </c>
+      <c r="AU4" s="24" t="s">
+        <v>232</v>
+      </c>
+      <c r="AV4" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="AW4" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="AX4" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="AY4" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="AZ4" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="BA4" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="BB4" s="24">
+        <v>2</v>
+      </c>
+      <c r="BC4" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="BD4" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="BE4" s="37" t="s">
+        <v>235</v>
+      </c>
+      <c r="BF4" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="BG4" s="37" t="s">
+        <v>229</v>
+      </c>
+      <c r="BH4" s="37" t="s">
+        <v>236</v>
+      </c>
+      <c r="BI4" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="BJ4" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="BK4" s="49" t="s">
+        <v>348</v>
+      </c>
+      <c r="BL4" t="s">
+        <v>238</v>
+      </c>
+      <c r="BM4" s="24" t="s">
+        <v>256</v>
+      </c>
+      <c r="BN4" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="BO4" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="BP4" s="41" t="s">
+        <v>241</v>
+      </c>
+      <c r="BQ4" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="BR4" s="41" t="s">
+        <v>242</v>
+      </c>
+      <c r="BS4" s="42" t="s">
+        <v>243</v>
+      </c>
+      <c r="BT4" s="42" t="s">
+        <v>244</v>
+      </c>
+      <c r="BU4" s="24">
+        <v>2</v>
+      </c>
+      <c r="BV4" s="24">
+        <v>1</v>
+      </c>
+      <c r="BW4" s="24">
+        <v>1</v>
+      </c>
+      <c r="BX4" s="24" t="s">
+        <v>245</v>
+      </c>
+      <c r="BY4" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="BZ4" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="CA4" s="26" t="s">
+        <v>246</v>
+      </c>
+      <c r="CB4" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="CC4" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="CD4" s="24">
+        <v>25</v>
+      </c>
+      <c r="CE4" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="CF4" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="CG4" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="CH4" s="26" t="s">
+        <v>250</v>
+      </c>
+      <c r="CI4" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="CJ4" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="CK4" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="CL4" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="CM4" s="43" t="s">
+        <v>253</v>
+      </c>
+      <c r="CN4" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="CO4" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="CP4" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="CQ4" s="39" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="5" spans="1:95" x14ac:dyDescent="0.25">
+      <c r="A5" s="37" t="s">
+        <v>279</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>361</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>331</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>332</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>333</v>
+      </c>
+      <c r="G5" s="36" t="s">
+        <v>334</v>
+      </c>
+      <c r="H5" s="47" t="s">
+        <v>267</v>
+      </c>
+      <c r="I5" s="24" t="s">
+        <v>335</v>
+      </c>
+      <c r="J5" s="32" t="s">
+        <v>348</v>
+      </c>
+      <c r="K5" s="32" t="s">
+        <v>349</v>
+      </c>
+      <c r="L5" s="28" t="s">
+        <v>341</v>
+      </c>
+      <c r="M5" s="32" t="s">
+        <v>342</v>
+      </c>
+      <c r="N5" s="32" t="s">
+        <v>343</v>
+      </c>
+      <c r="O5" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="P5" s="28" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q5" s="28" t="s">
+        <v>359</v>
+      </c>
+      <c r="R5" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="S5" s="28" t="s">
+        <v>323</v>
+      </c>
+      <c r="T5" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="U5" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="V5" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="W5" s="30" t="s">
+        <v>266</v>
+      </c>
+      <c r="X5" s="38" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y5" s="38" t="s">
+        <v>268</v>
+      </c>
+      <c r="Z5" s="38" t="s">
+        <v>269</v>
+      </c>
+      <c r="AA5" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB5" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC5" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="AD5" s="24" t="s">
+        <v>364</v>
+      </c>
+      <c r="AE5" s="24" t="s">
+        <v>352</v>
+      </c>
+      <c r="AF5" s="24" t="s">
+        <v>311</v>
+      </c>
+      <c r="AG5" s="32" t="s">
+        <v>366</v>
+      </c>
+      <c r="AH5" s="32" t="s">
+        <v>368</v>
+      </c>
+      <c r="AI5" s="24">
+        <v>2</v>
+      </c>
+      <c r="AJ5" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="AK5" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="AL5" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AM5" s="36" t="s">
+        <v>258</v>
+      </c>
+      <c r="AN5" s="24">
+        <v>3</v>
+      </c>
+      <c r="AO5" s="24">
+        <v>3</v>
+      </c>
+      <c r="AP5" s="24">
+        <v>3</v>
+      </c>
+      <c r="AQ5" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="AR5" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="AS5" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="AT5" s="24" t="s">
+        <v>231</v>
+      </c>
+      <c r="AU5" s="24" t="s">
+        <v>232</v>
+      </c>
+      <c r="AV5" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="AW5" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="AX5" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="AY5" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="AZ5" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="BA5" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="BB5" s="24">
+        <v>2</v>
+      </c>
+      <c r="BC5" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="BD5" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="BE5" s="37" t="s">
+        <v>235</v>
+      </c>
+      <c r="BF5" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="BG5" s="37" t="s">
+        <v>229</v>
+      </c>
+      <c r="BH5" s="37" t="s">
+        <v>236</v>
+      </c>
+      <c r="BI5" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="BJ5" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="BK5" s="49" t="s">
+        <v>348</v>
+      </c>
+      <c r="BL5" t="s">
+        <v>238</v>
+      </c>
+      <c r="BM5" s="24" t="s">
+        <v>256</v>
+      </c>
+      <c r="BN5" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="BO5" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="BP5" s="41" t="s">
+        <v>241</v>
+      </c>
+      <c r="BQ5" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="BR5" s="41" t="s">
+        <v>242</v>
+      </c>
+      <c r="BS5" s="42" t="s">
+        <v>243</v>
+      </c>
+      <c r="BT5" s="42" t="s">
+        <v>244</v>
+      </c>
+      <c r="BU5" s="24">
+        <v>2</v>
+      </c>
+      <c r="BV5" s="24">
+        <v>1</v>
+      </c>
+      <c r="BW5" s="24">
+        <v>1</v>
+      </c>
+      <c r="BX5" s="24" t="s">
+        <v>245</v>
+      </c>
+      <c r="BY5" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="BZ5" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="CA5" s="26" t="s">
+        <v>246</v>
+      </c>
+      <c r="CB5" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="CC5" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="CD5" s="24">
+        <v>25</v>
+      </c>
+      <c r="CE5" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="CF5" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="CG5" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="CH5" s="26" t="s">
+        <v>250</v>
+      </c>
+      <c r="CI5" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="CJ5" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="CK5" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="CL5" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="CM5" s="43" t="s">
+        <v>253</v>
+      </c>
+      <c r="CN5" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="CO5" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="CP5" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="CQ5" s="39" t="s">
+        <v>335</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <dataValidations count="35">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R5 AA2:AA5" xr:uid="{7114778B-8D97-4CF2-9F23-D4F00655B66A}">
+      <formula1>"shekhar.singh@quadlabs.com,sachin.kumar@quadlabs.com,Laxmi.khanal@quadlabs.com,ayushi.shivhare@quadlabs.com,Vikrant.prajapati@quadlabs.com"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q5" xr:uid="{A1DA13B9-39F8-41E2-BFDC-A56F659BCEA4}">
+      <formula1>"Old Url,SSO Login"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2:W5" xr:uid="{583C1598-57B7-41A4-B56D-AB8C54612758}">
+      <formula1>"Laxmi@123,Admin@123,S21FUMK6JAPLBYO,Shubham@123,BAVYBXVY09FKGTY,Piyush@123,Ankur@123,DWUFR8WRAR6SL1M"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2:T5" xr:uid="{8D3426FF-9F7A-46D1-B3FE-7B15DF398AC6}">
+      <formula1>"Saurabh,Prince Chaurasia,Gunjan Swain,Shubham,Laxmi Khanal,Sudesh Kumar,Piyush,Ankur"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CH2:CH5" xr:uid="{A688A683-8807-4229-A698-5B2B6265EDCF}">
+      <formula1>"SendForApproval,ProceedToCheckout"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2:AC5" xr:uid="{AFE922ED-3D44-4B37-8944-38E833470EBA}">
+      <formula1>"Domestic,International"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CL2:CL5" xr:uid="{EB179777-7A2F-440A-80AD-816A6FB54951}">
+      <formula1>"Credit Card,Bill To Company"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BN2:BN5" xr:uid="{BBF455DD-1623-4459-91AB-10841FE78C43}">
+      <formula1>"OneWay,RoundTrip,MultiCity"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O5 C2:C5" xr:uid="{CCC5D78C-9328-4883-A01D-C3C48CE6EE00}">
+      <formula1>"sbt,preprod117,Live"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB2:AB5 AR2:AR5" xr:uid="{9C75052D-23C8-47E2-B5D6-8C62200667EF}">
+      <formula1>"Individual,Dependent,Personal,Guest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BY2:BY5 BI2:BI5 BF2:BG5 AS2:AS5 AX2:AX5 AQ2:AQ5 AV2:AV5 CE2:CE5 BA2:BA5" xr:uid="{A974D21B-14FD-4383-89BC-D035617E034B}">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CK2:CK5" xr:uid="{DF171E48-B296-42E9-8C76-C478CA96113A}">
+      <formula1>"Quote,BookAndQuote,Fulfilment"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CN2:CN5" xr:uid="{468305B0-EC7F-441D-B61A-124650CDED2F}">
+      <formula1>"5123456789012346,4111111111111111"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CM2:CM5" xr:uid="{6422A580-2AAF-43E1-A8A3-5926DB56584D}">
+      <formula1>"MasterCard,Visa"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BM2:BM5" xr:uid="{402F6508-7028-45D1-8BA3-8BDC9E3F7D71}">
+      <formula1>"Hotel,Hotel+Flight,Hotel+Car,Hotel+Flight+Car,Hotel+Car+Flight"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI2:AI5" xr:uid="{9D306471-4246-4384-8052-956E25B9910C}">
+      <formula1>"1,2,3,4,5"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BH2:BH5" xr:uid="{12E5D7CE-48D8-460D-9630-8566D0C153A3}">
+      <formula1>"1 Star,2 Star,3 Star,4 Star,5 Star"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BJ2:BJ5" xr:uid="{A182058D-5F1D-4EAA-86E1-F51A16A173F6}">
+      <formula1>"Hotel,Apartment"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BX2:BX5" xr:uid="{886427F1-DC66-467B-BE88-62484FEF3042}">
+      <formula1>"Economy,Premium Economy,Business Class,First Class"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BU2:BW5" xr:uid="{E7006B4B-BDF4-4B67-869E-9DCE4F64F7B0}">
+      <formula1>"0,1,2,3,4,5"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:U5" xr:uid="{047D376B-B673-4442-BF51-1B7E5132E4A5}">
+      <formula1>"Administrator,Travel Arranger,Employee"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2:V5" xr:uid="{F4339688-CBDD-4A27-A223-7C3DFD3BDCED}">
+      <formula1>"Shubham1,Shubham,rsudesh15,Saurabh,Laxmi,sachinkumar,Piyush,Ankur"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y2:Y5" xr:uid="{DC7490D5-F6D3-4F1B-8576-F04E96012A1B}">
+      <formula1>"On,Off"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2:X5" xr:uid="{8A8B0358-FED9-490E-AF9C-42C9D4B275DD}">
+      <formula1>"Poonam_Corp,Amazon,Demo Corporate,Lux_Test_corp,Null"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z2:Z5" xr:uid="{4A3091D7-7A5A-4A7B-8BBD-2D5356733255}">
+      <formula1>"Old,New"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CQ2:CQ5" xr:uid="{342A7FF7-1795-451F-A8E9-38C140876DE8}">
+      <formula1>"Shubham Natkar,Laxmi Khanal,Sudesh Kumar,Shekhar Singh"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM2:AM5" xr:uid="{A9BEBBC4-6699-4C8C-A6E3-DC3224C1A190}">
+      <formula1>"Applied,NotApplied"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF2:AF5 AW2:AW5" xr:uid="{31F15F7B-01E9-4E69-BF82-00148B03A7B7}">
+      <formula1>"5 KM,10 KM,20 KM,30 KM,40 KM,50 KM"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G5" xr:uid="{43C8C947-2AD6-43F5-A0A8-B4093B6C10E2}">
+      <formula1>"Laxmi@123,Password@123,Quad@720,Quad@721,Password@1234,Admin@123"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F5" xr:uid="{30BD28B7-F552-460C-A3E7-16B81DEC1A92}">
+      <formula1>"Saurav_at,tarun"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E5" xr:uid="{D332F7AD-0936-41C3-AE75-97D2391E34D4}">
+      <formula1>"at,QL"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D5" xr:uid="{CA39A78D-F873-4C0C-A254-747B57F3C7EC}">
+      <formula1>"//staging117/backoffice/,//preprod.quadlabs.net/backoffice/,//test.quadlabs.net/backoffice/"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L5" xr:uid="{16D9E4C5-DF3E-47BA-ACD9-C86DE36FDF94}">
+      <formula1>"Air India,Vistara,SriLankan,Saudi Arabian,Emirates,Gulf Air,Etihad Airways,Singapore Airl,Qatar Airways,Indigo,Air Asia,Akasa Air,SpiceJet"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P5" xr:uid="{D0B6A6C4-7935-43FD-A044-AC254E518D46}">
+      <formula1>"//staging117/sbt,//preprod.quadlabs.net/sbt/#,test.quadlabs.net/sbt,tripsource.co.in/sbt/#,//test.quadlabs.net/SSO_Login"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J5" xr:uid="{09192170-88B7-451A-A0D5-FD804C1A0770}">
+      <formula1>"LUXURY COLLECTION,COURTYARD BY MARRIOTT"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="W2" r:id="rId1" display="Admin@123" xr:uid="{8E39D271-6A4C-476A-9811-EAB6B649B593}"/>
+    <hyperlink ref="F2" r:id="rId2" display="shubham.natkar@quadlabs.com" xr:uid="{31B9B08D-4364-4C52-88C6-2ECD248F07BC}"/>
+    <hyperlink ref="G2" r:id="rId3" display="Password@123" xr:uid="{5224655F-F48D-4CC6-A2A6-4A5409CF8889}"/>
+    <hyperlink ref="R2" r:id="rId4" display="shekhar.singh@quadlabs.com" xr:uid="{4EFB36F1-FF29-4053-865E-F75FAC0BD11B}"/>
+    <hyperlink ref="AA2" r:id="rId5" display="shekhar.singh@quadlabs.com" xr:uid="{72985DB2-7B1D-4C92-BCEF-BAA1033D636A}"/>
+    <hyperlink ref="W3" r:id="rId6" display="Admin@123" xr:uid="{D75FFC89-EFB6-45A4-9C53-7090C07988D2}"/>
+    <hyperlink ref="F3" r:id="rId7" display="shubham.natkar@quadlabs.com" xr:uid="{BD512CC6-283D-494F-A40B-A4C8D2F377FC}"/>
+    <hyperlink ref="G3" r:id="rId8" display="Password@123" xr:uid="{8A4B7439-8A15-42DC-8C35-7E774EE94553}"/>
+    <hyperlink ref="R3" r:id="rId9" display="shekhar.singh@quadlabs.com" xr:uid="{D67915AD-46EE-4939-80AB-068E3E39666F}"/>
+    <hyperlink ref="AA3" r:id="rId10" display="shekhar.singh@quadlabs.com" xr:uid="{B41BC271-9738-4E5C-9608-100E0E123800}"/>
+    <hyperlink ref="W4" r:id="rId11" display="Admin@123" xr:uid="{E5366FA1-E907-49F5-994F-1061E7CAF916}"/>
+    <hyperlink ref="F4" r:id="rId12" display="shubham.natkar@quadlabs.com" xr:uid="{5CBFBB3C-427A-48F8-8707-F1F9CFE82CFC}"/>
+    <hyperlink ref="G4" r:id="rId13" display="Password@123" xr:uid="{C8AAF5CF-EB8F-404F-A1F2-F1B352F71B45}"/>
+    <hyperlink ref="R4" r:id="rId14" display="shekhar.singh@quadlabs.com" xr:uid="{41BCDAC6-5574-4C26-A4E0-79AFB1BF3FF2}"/>
+    <hyperlink ref="AA4" r:id="rId15" display="shekhar.singh@quadlabs.com" xr:uid="{9A6F45F4-FAC2-42E8-A9E4-E1893253774A}"/>
+    <hyperlink ref="W5" r:id="rId16" display="Admin@123" xr:uid="{87F48F79-985A-4D89-98F6-8C8B2178374E}"/>
+    <hyperlink ref="F5" r:id="rId17" display="shubham.natkar@quadlabs.com" xr:uid="{9DA2A3AE-23E1-4A8B-85EF-64D2CE5B6E0D}"/>
+    <hyperlink ref="G5" r:id="rId18" display="Password@123" xr:uid="{B84BDFD0-E2ED-4455-8541-F04C78296BEA}"/>
+    <hyperlink ref="R5" r:id="rId19" display="shekhar.singh@quadlabs.com" xr:uid="{42E6E6A5-5710-4E8B-BB03-945FF2B248B5}"/>
+    <hyperlink ref="AA5" r:id="rId20" display="shekhar.singh@quadlabs.com" xr:uid="{4D750C6B-FEC7-4CD7-8103-7DFDD4C5BBDB}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D04B49D8-9A43-44BD-8F63-39EEB9BA1789}">
   <dimension ref="A1:CQ2"/>
   <sheetViews>
@@ -4423,7 +6903,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17C3C0B8-E706-4C31-B9AD-3EE948CD9917}">
   <dimension ref="A1:CA2"/>
   <sheetViews>
@@ -5086,7 +7566,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AE4"/>
   <sheetViews>
@@ -5544,7 +8024,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AE2"/>
   <sheetViews>
@@ -5810,7 +8290,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AE2"/>
   <sheetViews>
@@ -6076,7 +8556,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AH9"/>
   <sheetViews>
@@ -6581,763 +9061,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:AH4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="E1" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="25" t="s">
-        <v>134</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="T1" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH1" s="25" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
-        <v>147</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="C2" s="27" t="s">
-        <v>122</v>
-      </c>
-      <c r="D2" s="27" t="s">
-        <v>136</v>
-      </c>
-      <c r="E2" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="F2" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="G2" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="I2" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="J2" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="K2" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="N2" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="O2" s="24" t="s">
-        <v>146</v>
-      </c>
-      <c r="P2" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="S2" s="2">
-        <v>0</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="U2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="V2" s="2">
-        <v>3</v>
-      </c>
-      <c r="W2" s="2">
-        <v>3</v>
-      </c>
-      <c r="X2" s="2">
-        <v>3</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="Z2" s="2">
-        <v>345678</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC2" s="2">
-        <v>123</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AH2" s="24" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="C3" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="D3" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="E3" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="F3" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="G3" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="I3" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="J3" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="K3" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="N3" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="O3" s="24" t="s">
-        <v>146</v>
-      </c>
-      <c r="P3" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="S3" s="2">
-        <v>0</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="U3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="V3" s="2">
-        <v>3</v>
-      </c>
-      <c r="W3" s="2">
-        <v>3</v>
-      </c>
-      <c r="X3" s="2">
-        <v>3</v>
-      </c>
-      <c r="Y3" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="Z3" s="2">
-        <v>345678</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC3" s="2">
-        <v>123</v>
-      </c>
-      <c r="AD3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AH3" s="27" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
-        <v>149</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>141</v>
-      </c>
-      <c r="C4" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="D4" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="E4" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="F4" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="G4" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="I4" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="J4" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="K4" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="N4" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="O4" s="24" t="s">
-        <v>146</v>
-      </c>
-      <c r="P4" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="S4" s="2">
-        <v>0</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="U4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="V4" s="2">
-        <v>3</v>
-      </c>
-      <c r="W4" s="2">
-        <v>3</v>
-      </c>
-      <c r="X4" s="2">
-        <v>3</v>
-      </c>
-      <c r="Y4" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="Z4" s="2">
-        <v>345678</v>
-      </c>
-      <c r="AA4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC4" s="2">
-        <v>123</v>
-      </c>
-      <c r="AD4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AH4" s="27" t="s">
-        <v>141</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J4" xr:uid="{00000000-0002-0000-0600-000000000000}">
-      <formula1>"prince.chaurasia@quadlabs.com,Gunjan.swain@quadlabs.com,laxmi.khanal@quadlabs.com"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I4" xr:uid="{00000000-0002-0000-0600-000001000000}">
-      <formula1>"Password@12345,GXPC6NWQVFKVOZG,Laxmi@123"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H4" xr:uid="{00000000-0002-0000-0600-000002000000}">
-      <formula1>"Shubham1,Shubham,rsudesh15"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F4" xr:uid="{00000000-0002-0000-0600-000003000000}">
-      <formula1>"//staging117/sbt,//preprod.quadlabs.net/sbt/#"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D4" xr:uid="{00000000-0002-0000-0600-000004000000}">
-      <formula1>"Shubham Natkar,Laxmi Khanal,Sudesh Kumar"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B4" xr:uid="{00000000-0002-0000-0600-000005000000}">
-      <formula1>"Prince Chaurasia,Gunjan Swain,Shubham Natkar,Laxmi Khanal,Sudesh Kumar"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C4" xr:uid="{00000000-0002-0000-0600-000006000000}">
-      <formula1>"TravelArranger,Admin"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E4" xr:uid="{00000000-0002-0000-0600-000007000000}">
-      <formula1>"sbt,preprod117"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1" display="Password@12345" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
-    <hyperlink ref="J2" r:id="rId2" display="prince.chaurasia@quadlabs.com" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
-    <hyperlink ref="J3:J4" r:id="rId3" display="prince.chaurasia@quadlabs.com" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
-    <hyperlink ref="I3:I4" r:id="rId4" display="Password@12345" xr:uid="{00000000-0004-0000-0600-000003000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:AQ2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="15.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="S1" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:43" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="O2" s="3">
-        <v>2</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="R2" s="2">
-        <v>0</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="T2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="U2" s="2">
-        <v>1</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA2" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AC2" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="AE2" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AG2" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="AH2" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>74</v>
-      </c>
-      <c r="AJ2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AK2" s="2">
-        <v>345678</v>
-      </c>
-      <c r="AL2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AM2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AN2" s="2">
-        <v>123</v>
-      </c>
-      <c r="AO2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AP2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AQ2" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
-    <hyperlink ref="I2" r:id="rId2" xr:uid="{00000000-0004-0000-0700-000001000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AE4"/>
@@ -7802,6 +9525,763 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:AH4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T1" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH1" s="25" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="K2" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="N2" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="O2" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="P2" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="S2" s="2">
+        <v>0</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="V2" s="2">
+        <v>3</v>
+      </c>
+      <c r="W2" s="2">
+        <v>3</v>
+      </c>
+      <c r="X2" s="2">
+        <v>3</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>345678</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>123</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH2" s="24" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="J3" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="K3" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="N3" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="O3" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="P3" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="S3" s="2">
+        <v>0</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="V3" s="2">
+        <v>3</v>
+      </c>
+      <c r="W3" s="2">
+        <v>3</v>
+      </c>
+      <c r="X3" s="2">
+        <v>3</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>345678</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC3" s="2">
+        <v>123</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH3" s="27" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A4" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="J4" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="K4" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="N4" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="O4" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="P4" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="S4" s="2">
+        <v>0</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="V4" s="2">
+        <v>3</v>
+      </c>
+      <c r="W4" s="2">
+        <v>3</v>
+      </c>
+      <c r="X4" s="2">
+        <v>3</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>345678</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>123</v>
+      </c>
+      <c r="AD4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH4" s="27" t="s">
+        <v>141</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J4" xr:uid="{00000000-0002-0000-0600-000000000000}">
+      <formula1>"prince.chaurasia@quadlabs.com,Gunjan.swain@quadlabs.com,laxmi.khanal@quadlabs.com"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I4" xr:uid="{00000000-0002-0000-0600-000001000000}">
+      <formula1>"Password@12345,GXPC6NWQVFKVOZG,Laxmi@123"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H4" xr:uid="{00000000-0002-0000-0600-000002000000}">
+      <formula1>"Shubham1,Shubham,rsudesh15"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F4" xr:uid="{00000000-0002-0000-0600-000003000000}">
+      <formula1>"//staging117/sbt,//preprod.quadlabs.net/sbt/#"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D4" xr:uid="{00000000-0002-0000-0600-000004000000}">
+      <formula1>"Shubham Natkar,Laxmi Khanal,Sudesh Kumar"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B4" xr:uid="{00000000-0002-0000-0600-000005000000}">
+      <formula1>"Prince Chaurasia,Gunjan Swain,Shubham Natkar,Laxmi Khanal,Sudesh Kumar"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C4" xr:uid="{00000000-0002-0000-0600-000006000000}">
+      <formula1>"TravelArranger,Admin"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E4" xr:uid="{00000000-0002-0000-0600-000007000000}">
+      <formula1>"sbt,preprod117"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="I2" r:id="rId1" display="Password@12345" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+    <hyperlink ref="J2" r:id="rId2" display="prince.chaurasia@quadlabs.com" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
+    <hyperlink ref="J3:J4" r:id="rId3" display="prince.chaurasia@quadlabs.com" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
+    <hyperlink ref="I3:I4" r:id="rId4" display="Password@12345" xr:uid="{00000000-0004-0000-0600-000003000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:AQ2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="15.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S1" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:43" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="O2" s="3">
+        <v>2</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="R2" s="2">
+        <v>0</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="U2" s="2">
+        <v>1</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA2" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE2" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AG2" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH2" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK2" s="2">
+        <v>345678</v>
+      </c>
+      <c r="AL2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AM2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN2" s="2">
+        <v>123</v>
+      </c>
+      <c r="AO2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
+    <hyperlink ref="I2" r:id="rId2" xr:uid="{00000000-0004-0000-0700-000001000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:AU2"/>
   <sheetViews>
@@ -8115,7 +10595,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:AY2"/>
   <sheetViews>
@@ -8496,7 +10976,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:X2"/>
   <sheetViews>
@@ -8679,7 +11159,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:U2"/>
   <sheetViews>
@@ -8838,7 +11318,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:R2"/>
   <sheetViews>
@@ -12784,7 +15264,7 @@
   <dimension ref="A1:CA8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/excel/SBT_Hotel.xlsx
+++ b/data/excel/SBT_Hotel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ankur.Yadav\git\ProjectQuadlabs\data\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shubham.Natkar\git\ProjectQuadlabs\data\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CB5B499-AE1F-476E-93C7-8F2777EF8F49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4E115EC-4098-4AA5-ADD1-493CAD81F39F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Business" sheetId="13" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3779" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3693" uniqueCount="371">
   <si>
     <t>Fop</t>
   </si>
@@ -1157,6 +1157,12 @@
   </si>
   <si>
     <t>28-May-2024</t>
+  </si>
+  <si>
+    <t>17-Jul-2024</t>
+  </si>
+  <si>
+    <t>18-Jul-2024</t>
   </si>
 </sst>
 </file>
@@ -1965,8 +1971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2663B78-477A-4A80-9FFF-53D3FC78CF07}">
   <dimension ref="A1:CD2"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+    <sheetView tabSelected="1" topLeftCell="BO1" workbookViewId="0">
+      <selection activeCell="CB9" sqref="CB9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2313,19 +2319,19 @@
         <v>1</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>265</v>
+        <v>344</v>
       </c>
       <c r="E2" s="28" t="s">
-        <v>359</v>
+        <v>324</v>
       </c>
       <c r="F2" s="28" t="s">
-        <v>105</v>
+        <v>163</v>
       </c>
       <c r="G2" s="28" t="s">
         <v>323</v>
       </c>
       <c r="H2" s="28" t="s">
-        <v>129</v>
+        <v>292</v>
       </c>
       <c r="I2" s="31" t="s">
         <v>161</v>
@@ -2340,13 +2346,13 @@
         <v>158</v>
       </c>
       <c r="M2" s="38" t="s">
-        <v>268</v>
+        <v>159</v>
       </c>
       <c r="N2" s="38" t="s">
-        <v>269</v>
+        <v>160</v>
       </c>
       <c r="O2" s="30" t="s">
-        <v>105</v>
+        <v>163</v>
       </c>
       <c r="P2" s="24" t="s">
         <v>40</v>
@@ -2364,10 +2370,10 @@
         <v>311</v>
       </c>
       <c r="U2" s="32" t="s">
-        <v>353</v>
+        <v>369</v>
       </c>
       <c r="V2" s="32" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="W2" s="24">
         <v>2</v>
@@ -2654,10 +2660,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{974A3E0D-052E-4767-B170-38FEFE199448}">
-  <dimension ref="A1:CQ3"/>
+  <dimension ref="A1:CQ2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3331,403 +3337,113 @@
         <v>335</v>
       </c>
     </row>
-    <row r="3" spans="1:95" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
-        <v>148</v>
-      </c>
-      <c r="B3" s="37" t="s">
-        <v>354</v>
-      </c>
-      <c r="C3" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="D3" s="28" t="s">
-        <v>331</v>
-      </c>
-      <c r="E3" s="28" t="s">
-        <v>332</v>
-      </c>
-      <c r="F3" s="30" t="s">
-        <v>333</v>
-      </c>
-      <c r="G3" s="36" t="s">
-        <v>334</v>
-      </c>
-      <c r="H3" s="47" t="s">
-        <v>158</v>
-      </c>
-      <c r="I3" s="24" t="s">
-        <v>335</v>
-      </c>
-      <c r="J3" s="32" t="s">
-        <v>350</v>
-      </c>
-      <c r="K3" s="32" t="s">
-        <v>351</v>
-      </c>
-      <c r="L3" s="28" t="s">
-        <v>341</v>
-      </c>
-      <c r="M3" s="32" t="s">
-        <v>342</v>
-      </c>
-      <c r="N3" s="32" t="s">
-        <v>343</v>
-      </c>
-      <c r="O3" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="P3" s="28" t="s">
-        <v>344</v>
-      </c>
-      <c r="Q3" s="28" t="s">
-        <v>324</v>
-      </c>
-      <c r="R3" s="48" t="s">
-        <v>345</v>
-      </c>
-      <c r="S3" s="28" t="s">
-        <v>323</v>
-      </c>
-      <c r="T3" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="U3" s="31" t="s">
-        <v>161</v>
-      </c>
-      <c r="V3" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="W3" s="30" t="s">
-        <v>162</v>
-      </c>
-      <c r="X3" s="38" t="s">
-        <v>158</v>
-      </c>
-      <c r="Y3" s="38" t="s">
-        <v>159</v>
-      </c>
-      <c r="Z3" s="38" t="s">
-        <v>160</v>
-      </c>
-      <c r="AA3" s="30" t="s">
-        <v>345</v>
-      </c>
-      <c r="AB3" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC3" s="24" t="s">
-        <v>310</v>
-      </c>
-      <c r="AD3" s="24" t="s">
-        <v>355</v>
-      </c>
-      <c r="AE3" s="24" t="s">
-        <v>352</v>
-      </c>
-      <c r="AF3" s="24" t="s">
-        <v>311</v>
-      </c>
-      <c r="AG3" s="32" t="s">
-        <v>353</v>
-      </c>
-      <c r="AH3" s="32" t="s">
-        <v>346</v>
-      </c>
-      <c r="AI3" s="24">
-        <v>2</v>
-      </c>
-      <c r="AJ3" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="AK3" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="AL3" s="37" t="s">
-        <v>151</v>
-      </c>
-      <c r="AM3" s="36" t="s">
-        <v>258</v>
-      </c>
-      <c r="AN3" s="24">
-        <v>3</v>
-      </c>
-      <c r="AO3" s="24">
-        <v>3</v>
-      </c>
-      <c r="AP3" s="24">
-        <v>3</v>
-      </c>
-      <c r="AQ3" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="AR3" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="AS3" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="AT3" s="24" t="s">
-        <v>231</v>
-      </c>
-      <c r="AU3" s="24" t="s">
-        <v>232</v>
-      </c>
-      <c r="AV3" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="AW3" s="24" t="s">
-        <v>309</v>
-      </c>
-      <c r="AX3" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="AY3" s="26" t="s">
-        <v>233</v>
-      </c>
-      <c r="AZ3" s="26" t="s">
-        <v>234</v>
-      </c>
-      <c r="BA3" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="BB3" s="24">
-        <v>2</v>
-      </c>
-      <c r="BC3" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="BD3" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="BE3" s="37" t="s">
-        <v>235</v>
-      </c>
-      <c r="BF3" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="BG3" s="37" t="s">
-        <v>229</v>
-      </c>
-      <c r="BH3" s="37" t="s">
-        <v>236</v>
-      </c>
-      <c r="BI3" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="BJ3" s="24" t="s">
-        <v>237</v>
-      </c>
-      <c r="BK3" s="49" t="s">
-        <v>357</v>
-      </c>
-      <c r="BL3" t="s">
-        <v>238</v>
-      </c>
-      <c r="BM3" s="24" t="s">
-        <v>256</v>
-      </c>
-      <c r="BN3" s="24" t="s">
-        <v>239</v>
-      </c>
-      <c r="BO3" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="BP3" s="41" t="s">
-        <v>241</v>
-      </c>
-      <c r="BQ3" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="BR3" s="41" t="s">
-        <v>242</v>
-      </c>
-      <c r="BS3" s="42" t="s">
-        <v>243</v>
-      </c>
-      <c r="BT3" s="42" t="s">
-        <v>244</v>
-      </c>
-      <c r="BU3" s="24">
-        <v>2</v>
-      </c>
-      <c r="BV3" s="24">
-        <v>1</v>
-      </c>
-      <c r="BW3" s="24">
-        <v>1</v>
-      </c>
-      <c r="BX3" s="24" t="s">
-        <v>245</v>
-      </c>
-      <c r="BY3" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="BZ3" s="24" t="s">
-        <v>228</v>
-      </c>
-      <c r="CA3" s="26" t="s">
-        <v>246</v>
-      </c>
-      <c r="CB3" s="24" t="s">
-        <v>247</v>
-      </c>
-      <c r="CC3" s="24" t="s">
-        <v>248</v>
-      </c>
-      <c r="CD3" s="24">
-        <v>25</v>
-      </c>
-      <c r="CE3" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="CF3" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="CG3" s="24" t="s">
-        <v>249</v>
-      </c>
-      <c r="CH3" s="26" t="s">
-        <v>250</v>
-      </c>
-      <c r="CI3" s="24" t="s">
-        <v>251</v>
-      </c>
-      <c r="CJ3" s="24" t="s">
-        <v>251</v>
-      </c>
-      <c r="CK3" s="24" t="s">
-        <v>252</v>
-      </c>
-      <c r="CL3" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="CM3" s="43" t="s">
-        <v>253</v>
-      </c>
-      <c r="CN3" s="26" t="s">
-        <v>254</v>
-      </c>
-      <c r="CO3" s="43" t="s">
-        <v>136</v>
-      </c>
-      <c r="CP3" s="26" t="s">
-        <v>255</v>
-      </c>
-      <c r="CQ3" s="39" t="s">
-        <v>335</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
-  <dataValidations disablePrompts="1" count="36">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q3" xr:uid="{DC8363E9-D1E6-4FF2-A700-C71A870D1A47}">
+  <dataValidations disablePrompts="1" count="35">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2" xr:uid="{DC8363E9-D1E6-4FF2-A700-C71A870D1A47}">
       <formula1>"Old Url,SSO Login"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2:W3" xr:uid="{C2B2F3CD-DED9-4DA7-B7FD-862EEA75DB0E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2" xr:uid="{C2B2F3CD-DED9-4DA7-B7FD-862EEA75DB0E}">
       <formula1>"Laxmi@123,Admin@123,S21FUMK6JAPLBYO,Shubham@123,BAVYBXVY09FKGTY,Piyush@123,Ankur@123,DWUFR8WRAR6SL1M"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2:T3" xr:uid="{B21DE1FE-3A50-481C-8E57-C0C6F4CDFE87}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2" xr:uid="{B21DE1FE-3A50-481C-8E57-C0C6F4CDFE87}">
       <formula1>"Saurabh,Prince Chaurasia,Gunjan Swain,Shubham,Laxmi Khanal,Sudesh Kumar,Piyush,Ankur"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CH2:CH3" xr:uid="{5A54F5E1-82EF-4FB9-9322-D75BC092AC88}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CH2" xr:uid="{5A54F5E1-82EF-4FB9-9322-D75BC092AC88}">
       <formula1>"SendForApproval,ProceedToCheckout"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2:AC3" xr:uid="{26114D9A-97BC-43D9-BB28-E6CB2A9EB9D5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2" xr:uid="{26114D9A-97BC-43D9-BB28-E6CB2A9EB9D5}">
       <formula1>"Domestic,International"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CL2:CL3" xr:uid="{7836FDB9-0957-4C99-A46B-2FD87F3C4F09}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CL2" xr:uid="{7836FDB9-0957-4C99-A46B-2FD87F3C4F09}">
       <formula1>"Credit Card,Bill To Company"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BN2:BN3" xr:uid="{1C5CFFCE-BC9A-4943-AA34-87E5A5F864CD}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BN2" xr:uid="{1C5CFFCE-BC9A-4943-AA34-87E5A5F864CD}">
       <formula1>"OneWay,RoundTrip,MultiCity"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O3 C2:C3" xr:uid="{9560F6C6-54F9-4409-8C25-6B2D438E2584}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2 C2" xr:uid="{9560F6C6-54F9-4409-8C25-6B2D438E2584}">
       <formula1>"sbt,preprod117,Live"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB2:AB3 AR2:AR3" xr:uid="{D2248759-CAF9-4D34-ADD9-8E51E5D9D9A3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB2 AR2" xr:uid="{D2248759-CAF9-4D34-ADD9-8E51E5D9D9A3}">
       <formula1>"Individual,Dependent,Personal,Guest"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BY2:BY3 BI2:BI3 BF2:BG3 AS2:AS3 AX2:AX3 AQ2:AQ3 AV2:AV3 CE2:CE3 BA2:BA3" xr:uid="{3E768CE0-977D-4AF0-8A41-8976D9930215}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BY2 BI2 BF2:BG2 AS2 AX2 AQ2 AV2 CE2 BA2" xr:uid="{3E768CE0-977D-4AF0-8A41-8976D9930215}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CK2:CK3" xr:uid="{EBF50FB4-E2E8-4356-888F-9EF940F657AA}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CK2" xr:uid="{EBF50FB4-E2E8-4356-888F-9EF940F657AA}">
       <formula1>"Quote,BookAndQuote,Fulfilment"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CN2:CN3" xr:uid="{BAB340DD-BDEA-43F9-B19D-C47F4CC3D819}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CN2" xr:uid="{BAB340DD-BDEA-43F9-B19D-C47F4CC3D819}">
       <formula1>"5123456789012346,4111111111111111"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CM2:CM3" xr:uid="{6DA79A6E-E93A-4E4A-9E8A-911427B6B6A2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CM2" xr:uid="{6DA79A6E-E93A-4E4A-9E8A-911427B6B6A2}">
       <formula1>"MasterCard,Visa"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BM2:BM3" xr:uid="{62BFBB95-2D72-4AB8-B35E-EE9A6C7DD3D6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BM2" xr:uid="{62BFBB95-2D72-4AB8-B35E-EE9A6C7DD3D6}">
       <formula1>"Hotel,Hotel+Flight,Hotel+Car,Hotel+Flight+Car,Hotel+Car+Flight"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI2:AI3" xr:uid="{9F60D806-7DB5-4084-B5AC-17EAFA307077}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI2" xr:uid="{9F60D806-7DB5-4084-B5AC-17EAFA307077}">
       <formula1>"1,2,3,4,5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BH2:BH3" xr:uid="{59B36BDC-1E85-4B86-849B-1D798E26ED97}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BH2" xr:uid="{59B36BDC-1E85-4B86-849B-1D798E26ED97}">
       <formula1>"1 Star,2 Star,3 Star,4 Star,5 Star"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BJ2:BJ3" xr:uid="{F6321B5F-4FEC-4544-A83C-CFC740B79F32}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BJ2" xr:uid="{F6321B5F-4FEC-4544-A83C-CFC740B79F32}">
       <formula1>"Hotel,Apartment"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BX2:BX3" xr:uid="{7B07C4E9-0D31-4155-BA6B-2AF4F41EE276}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BX2" xr:uid="{7B07C4E9-0D31-4155-BA6B-2AF4F41EE276}">
       <formula1>"Economy,Premium Economy,Business Class,First Class"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BU2:BW3" xr:uid="{A0B27CCF-D3F2-4478-8BCA-D0457093C55C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BU2:BW2" xr:uid="{A0B27CCF-D3F2-4478-8BCA-D0457093C55C}">
       <formula1>"0,1,2,3,4,5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:U3" xr:uid="{215CCB68-08D7-46FD-B0B4-EB76F88C20D0}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2" xr:uid="{215CCB68-08D7-46FD-B0B4-EB76F88C20D0}">
       <formula1>"Administrator,Travel Arranger,Employee"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2:V3" xr:uid="{4E3806E4-A7CB-4C85-B4A3-9354E1A82B51}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2" xr:uid="{4E3806E4-A7CB-4C85-B4A3-9354E1A82B51}">
       <formula1>"Shubham1,Shubham,rsudesh15,Saurabh,Laxmi,sachinkumar,Piyush,Ankur"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y2:Y3" xr:uid="{D6801898-2DD9-415F-8396-BD0AA581AD5F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y2" xr:uid="{D6801898-2DD9-415F-8396-BD0AA581AD5F}">
       <formula1>"On,Off"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2:X3" xr:uid="{B106753F-7D3B-45CB-8D30-DA7928A6E2A6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2" xr:uid="{B106753F-7D3B-45CB-8D30-DA7928A6E2A6}">
       <formula1>"Poonam_Corp,Amazon,Demo Corporate,Lux_Test_corp,Null"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z2:Z3" xr:uid="{C822E8F5-9516-4E71-833B-48484111B53A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z2" xr:uid="{C822E8F5-9516-4E71-833B-48484111B53A}">
       <formula1>"Old,New"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2:AA3" xr:uid="{E01959EF-B499-49F6-95DA-741F65240CE4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2" xr:uid="{E01959EF-B499-49F6-95DA-741F65240CE4}">
       <formula1>"prince.chaurasia@quadlabs.com,Gunjan.swain@quadlabs.com,laxmi.khanal@quadlabs.com,shubham.natkar@quadlabs.com,piyush.chauhan@quadlabs.com,ankur.yadav@quadlabs.com,sachin.kumar@quadlabs.com,shekhar.singh@quadlabs.com"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CQ2:CQ3" xr:uid="{E55A4D65-B402-49FB-97E5-196020774B65}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CQ2" xr:uid="{E55A4D65-B402-49FB-97E5-196020774B65}">
       <formula1>"Shubham Natkar,Laxmi Khanal,Sudesh Kumar,Shekhar Singh"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM2:AM3" xr:uid="{E3E47F4D-DC9F-4ECA-ADE7-543DCBC50B6D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM2" xr:uid="{E3E47F4D-DC9F-4ECA-ADE7-543DCBC50B6D}">
       <formula1>"Applied,NotApplied"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF2:AF3 AW2:AW3" xr:uid="{A5D2FD67-10A5-4A43-9D0E-A8FE3D65097C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF2 AW2" xr:uid="{A5D2FD67-10A5-4A43-9D0E-A8FE3D65097C}">
       <formula1>"5 KM,10 KM,20 KM,30 KM,40 KM,50 KM"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G3" xr:uid="{413940EB-0E2D-4BBE-866E-96555E49899B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{413940EB-0E2D-4BBE-866E-96555E49899B}">
       <formula1>"Laxmi@123,Password@123,Quad@720,Quad@721,Password@1234,Admin@123"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F3" xr:uid="{152280E0-C1EB-4C33-BE51-BC9896174803}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{152280E0-C1EB-4C33-BE51-BC9896174803}">
       <formula1>"Saurav_at,tarun"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E3" xr:uid="{7F12DF53-F305-467D-B955-BD6B8F2E1783}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2" xr:uid="{7F12DF53-F305-467D-B955-BD6B8F2E1783}">
       <formula1>"at,QL"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D3" xr:uid="{7AFDE41B-BEDB-4741-B864-AAE65B4D79F1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{7AFDE41B-BEDB-4741-B864-AAE65B4D79F1}">
       <formula1>"//staging117/backoffice/,//preprod.quadlabs.net/backoffice/,//test.quadlabs.net/backoffice/"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L3" xr:uid="{491B4C84-C7A6-48F3-8E5F-10F7E19FB7DD}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2" xr:uid="{491B4C84-C7A6-48F3-8E5F-10F7E19FB7DD}">
       <formula1>"Air India,Vistara,SriLankan,Saudi Arabian,Emirates,Gulf Air,Etihad Airways,Singapore Airl,Qatar Airways,Indigo,Air Asia,Akasa Air,SpiceJet"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P3" xr:uid="{0A954645-C265-48AD-BA29-6EA0E840D1F5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2" xr:uid="{0A954645-C265-48AD-BA29-6EA0E840D1F5}">
       <formula1>"//staging117/sbt,//preprod.quadlabs.net/sbt/#,test.quadlabs.net/sbt,tripsource.co.in/sbt/#,//test.quadlabs.net/SSO_Login"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2" xr:uid="{542C2120-4205-407F-B4BD-077C1120E781}">
       <formula1>"LUXURY COLLECTION,COURTYARD BY MARRIOTT"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3" xr:uid="{DA8F00D4-EFF4-458C-93D5-467D9D98F9E0}">
-      <formula1>"LUXURY COLLECTION,COURTYARD BY MARRIOTT,RENAISSANCE HOTELS"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -3736,11 +3452,6 @@
     <hyperlink ref="F2" r:id="rId3" display="shubham.natkar@quadlabs.com" xr:uid="{D2B7B7B6-AD0A-4BA1-9F94-8F6270F55F2A}"/>
     <hyperlink ref="G2" r:id="rId4" display="Password@123" xr:uid="{026076CE-5ABB-418B-BD41-C79786D4DCF4}"/>
     <hyperlink ref="R2" r:id="rId5" xr:uid="{E50E8F0A-7B00-4295-A562-8C2CC0A6E08B}"/>
-    <hyperlink ref="W3" r:id="rId6" display="Admin@123" xr:uid="{D55F7C3D-14DD-42E3-9A4C-6FA2972662FD}"/>
-    <hyperlink ref="AA3" r:id="rId7" display="prince.chaurasia@quadlabs.com" xr:uid="{EBA9FB2A-34D2-4882-914F-9268D29F1080}"/>
-    <hyperlink ref="F3" r:id="rId8" display="shubham.natkar@quadlabs.com" xr:uid="{9EA8F508-BDAD-4250-A968-2960A3F0BFAD}"/>
-    <hyperlink ref="G3" r:id="rId9" display="Password@123" xr:uid="{2F978382-A137-41CE-A07F-B0FC7588E480}"/>
-    <hyperlink ref="R3" r:id="rId10" xr:uid="{022F1584-24DF-4FFA-9C74-1C5A1AA02DF5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3750,8 +3461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35E0DCA9-09F3-4C26-B3E5-E5C88853FAF5}">
   <dimension ref="A1:CQ2"/>
   <sheetViews>
-    <sheetView topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="X1" sqref="A1:XFD2"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4548,8 +4259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0213149D-792B-4B2B-A8E5-D4130C17BFBD}">
   <dimension ref="A1:CQ5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="R23" sqref="R23"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6202,7 +5913,7 @@
   <dimension ref="A1:CQ2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/excel/SBT_Hotel.xlsx
+++ b/data/excel/SBT_Hotel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shubham.Natkar\git\ProjectQuadlabs\data\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ankur.Yadav\git\ProjectQuadlabs\data\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4E115EC-4098-4AA5-ADD1-493CAD81F39F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6154D4CB-CA6C-494F-B798-9B2AC8E14085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="10" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Business" sheetId="13" r:id="rId1"/>
@@ -20,37 +20,49 @@
     <sheet name="Sheet7" sheetId="22" r:id="rId5"/>
     <sheet name="Sheet8" sheetId="23" r:id="rId6"/>
     <sheet name="Sheet9" sheetId="25" r:id="rId7"/>
-    <sheet name="Sheet10" sheetId="26" r:id="rId8"/>
-    <sheet name="Sheet11" sheetId="27" r:id="rId9"/>
-    <sheet name="Sheet13" sheetId="29" r:id="rId10"/>
+    <sheet name="NonBranding117" sheetId="26" r:id="rId8"/>
+    <sheet name="Live" sheetId="27" r:id="rId9"/>
+    <sheet name="staging118" sheetId="29" r:id="rId10"/>
     <sheet name="Sheet14" sheetId="30" r:id="rId11"/>
-    <sheet name="Sheet16" sheetId="32" r:id="rId12"/>
+    <sheet name="nonbranding" sheetId="32" r:id="rId12"/>
     <sheet name="Liveset" sheetId="33" r:id="rId13"/>
     <sheet name="Sheet15" sheetId="31" r:id="rId14"/>
-    <sheet name="Sheet12" sheetId="28" r:id="rId15"/>
-    <sheet name="Sheet3" sheetId="18" r:id="rId16"/>
-    <sheet name="Sheet2" sheetId="17" r:id="rId17"/>
-    <sheet name="Sheet4" sheetId="19" r:id="rId18"/>
-    <sheet name="Dependent" sheetId="5" r:id="rId19"/>
-    <sheet name="Sheet1" sheetId="16" r:id="rId20"/>
-    <sheet name="Personal" sheetId="6" r:id="rId21"/>
-    <sheet name="Guest" sheetId="11" r:id="rId22"/>
-    <sheet name="GuestSheet1" sheetId="15" r:id="rId23"/>
-    <sheet name="SearchWithHotelName" sheetId="2" r:id="rId24"/>
-    <sheet name="BookHotelWithPolicyType" sheetId="3" r:id="rId25"/>
-    <sheet name="AddToCart" sheetId="9" r:id="rId26"/>
+    <sheet name="LiveBranding" sheetId="28" r:id="rId15"/>
+    <sheet name="Live118hotel" sheetId="35" r:id="rId16"/>
+    <sheet name="Sheet3" sheetId="18" r:id="rId17"/>
+    <sheet name="Sheet2" sheetId="17" r:id="rId18"/>
+    <sheet name="Sheet4" sheetId="19" r:id="rId19"/>
+    <sheet name="Dependent" sheetId="5" r:id="rId20"/>
+    <sheet name="Sheet1" sheetId="16" r:id="rId21"/>
+    <sheet name="Personal" sheetId="6" r:id="rId22"/>
+    <sheet name="Guest" sheetId="11" r:id="rId23"/>
+    <sheet name="GuestSheet1" sheetId="15" r:id="rId24"/>
+    <sheet name="SearchWithHotelName" sheetId="2" r:id="rId25"/>
+    <sheet name="BookHotelWithPolicyType" sheetId="3" r:id="rId26"/>
+    <sheet name="AddToCart" sheetId="9" r:id="rId27"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3693" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3980" uniqueCount="381">
   <si>
     <t>Fop</t>
   </si>
@@ -1006,12 +1018,6 @@
     <t>Hotel domestic booking flow for Individual (Admin)</t>
   </si>
   <si>
-    <t>19-Dec-2023</t>
-  </si>
-  <si>
-    <t>21-Dec-2023</t>
-  </si>
-  <si>
     <t>LoginType</t>
   </si>
   <si>
@@ -1120,15 +1126,9 @@
     <t>lhr</t>
   </si>
   <si>
-    <t>25-May-2024</t>
-  </si>
-  <si>
     <t>St. Pancras Renaissance Hotel London</t>
   </si>
   <si>
-    <t>20-May-2024</t>
-  </si>
-  <si>
     <t>Old Url</t>
   </si>
   <si>
@@ -1159,10 +1159,52 @@
     <t>28-May-2024</t>
   </si>
   <si>
-    <t>17-Jul-2024</t>
-  </si>
-  <si>
-    <t>18-Jul-2024</t>
+    <t>sachinkumar</t>
+  </si>
+  <si>
+    <t>13-Mar-2025</t>
+  </si>
+  <si>
+    <t>12-Mar-2025</t>
+  </si>
+  <si>
+    <t>Sachin Kumar</t>
+  </si>
+  <si>
+    <t>Dxb</t>
+  </si>
+  <si>
+    <t>19-Mar-2025</t>
+  </si>
+  <si>
+    <t>4CJDOMEL9TNCR1R</t>
+  </si>
+  <si>
+    <t>14-Apr-2025</t>
+  </si>
+  <si>
+    <t>15-Apr-2025</t>
+  </si>
+  <si>
+    <t>16-Apr-2025</t>
+  </si>
+  <si>
+    <t>17-Apr-2025</t>
+  </si>
+  <si>
+    <t>ankur.yadav@quadlabs.com</t>
+  </si>
+  <si>
+    <t>18-Mar-2025</t>
+  </si>
+  <si>
+    <t>Del</t>
+  </si>
+  <si>
+    <t>25-Mar-2025</t>
+  </si>
+  <si>
+    <t>26-Mar-2025</t>
   </si>
 </sst>
 </file>
@@ -1773,8 +1815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="Z2" sqref="Z2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="X21" sqref="X21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1969,10 +2011,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2663B78-477A-4A80-9FFF-53D3FC78CF07}">
-  <dimension ref="A1:CD2"/>
+  <dimension ref="A1:CD3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BO1" workbookViewId="0">
-      <selection activeCell="CB9" sqref="CB9"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="H1" sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1980,7 +2022,7 @@
     <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="49.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.5703125" customWidth="1"/>
     <col min="6" max="6" width="27.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.5703125" customWidth="1"/>
@@ -2074,13 +2116,13 @@
         <v>37</v>
       </c>
       <c r="E1" s="23" t="s">
+        <v>318</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>319</v>
+      </c>
+      <c r="G1" s="23" t="s">
         <v>320</v>
-      </c>
-      <c r="F1" s="23" t="s">
-        <v>321</v>
-      </c>
-      <c r="G1" s="23" t="s">
-        <v>322</v>
       </c>
       <c r="H1" s="23" t="s">
         <v>171</v>
@@ -2319,28 +2361,28 @@
         <v>1</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>344</v>
+        <v>164</v>
       </c>
       <c r="E2" s="28" t="s">
-        <v>324</v>
+        <v>355</v>
       </c>
       <c r="F2" s="28" t="s">
         <v>163</v>
       </c>
       <c r="G2" s="28" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="H2" s="28" t="s">
-        <v>292</v>
+        <v>368</v>
       </c>
       <c r="I2" s="31" t="s">
         <v>161</v>
       </c>
       <c r="J2" s="28" t="s">
-        <v>14</v>
+        <v>365</v>
       </c>
       <c r="K2" s="30" t="s">
-        <v>266</v>
+        <v>332</v>
       </c>
       <c r="L2" s="38" t="s">
         <v>158</v>
@@ -2370,10 +2412,10 @@
         <v>311</v>
       </c>
       <c r="U2" s="32" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="V2" s="32" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="W2" s="24">
         <v>2</v>
@@ -2553,106 +2595,356 @@
         <v>255</v>
       </c>
       <c r="CD2" s="39" t="s">
-        <v>129</v>
+        <v>368</v>
+      </c>
+    </row>
+    <row r="3" spans="1:82" x14ac:dyDescent="0.25">
+      <c r="A3" s="37" t="s">
+        <v>148</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>352</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>355</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="G3" s="28" t="s">
+        <v>321</v>
+      </c>
+      <c r="H3" s="28" t="s">
+        <v>368</v>
+      </c>
+      <c r="I3" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="J3" s="28" t="s">
+        <v>365</v>
+      </c>
+      <c r="K3" s="30" t="s">
+        <v>332</v>
+      </c>
+      <c r="L3" s="38" t="s">
+        <v>158</v>
+      </c>
+      <c r="M3" s="38" t="s">
+        <v>159</v>
+      </c>
+      <c r="N3" s="38" t="s">
+        <v>160</v>
+      </c>
+      <c r="O3" s="30" t="s">
+        <v>163</v>
+      </c>
+      <c r="P3" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q3" s="24" t="s">
+        <v>310</v>
+      </c>
+      <c r="R3" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="S3" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="T3" s="24" t="s">
+        <v>311</v>
+      </c>
+      <c r="U3" s="32" t="s">
+        <v>366</v>
+      </c>
+      <c r="V3" s="32" t="s">
+        <v>370</v>
+      </c>
+      <c r="W3" s="24">
+        <v>2</v>
+      </c>
+      <c r="X3" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="Y3" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z3" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA3" s="36" t="s">
+        <v>258</v>
+      </c>
+      <c r="AB3" s="24">
+        <v>3</v>
+      </c>
+      <c r="AC3" s="24">
+        <v>3</v>
+      </c>
+      <c r="AD3" s="24">
+        <v>3</v>
+      </c>
+      <c r="AE3" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="AF3" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG3" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="AH3" s="24" t="s">
+        <v>231</v>
+      </c>
+      <c r="AI3" s="24" t="s">
+        <v>232</v>
+      </c>
+      <c r="AJ3" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="AK3" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="AL3" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="AM3" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="AN3" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="AO3" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="AP3" s="24">
+        <v>2</v>
+      </c>
+      <c r="AQ3" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="AR3" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="AS3" s="37" t="s">
+        <v>235</v>
+      </c>
+      <c r="AT3" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="AU3" s="37" t="s">
+        <v>229</v>
+      </c>
+      <c r="AV3" s="37" t="s">
+        <v>236</v>
+      </c>
+      <c r="AW3" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="AX3" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>238</v>
+      </c>
+      <c r="AZ3" s="24" t="s">
+        <v>256</v>
+      </c>
+      <c r="BA3" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="BB3" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="BC3" s="41" t="s">
+        <v>241</v>
+      </c>
+      <c r="BD3" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="BE3" s="41" t="s">
+        <v>242</v>
+      </c>
+      <c r="BF3" s="42" t="s">
+        <v>243</v>
+      </c>
+      <c r="BG3" s="42" t="s">
+        <v>244</v>
+      </c>
+      <c r="BH3" s="24">
+        <v>2</v>
+      </c>
+      <c r="BI3" s="24">
+        <v>1</v>
+      </c>
+      <c r="BJ3" s="24">
+        <v>1</v>
+      </c>
+      <c r="BK3" s="24" t="s">
+        <v>245</v>
+      </c>
+      <c r="BL3" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="BM3" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="BN3" s="26" t="s">
+        <v>246</v>
+      </c>
+      <c r="BO3" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="BP3" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="BQ3" s="24">
+        <v>25</v>
+      </c>
+      <c r="BR3" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="BS3" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="BT3" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="BU3" s="26" t="s">
+        <v>250</v>
+      </c>
+      <c r="BV3" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="BW3" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="BX3" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="BY3" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="BZ3" s="43" t="s">
+        <v>253</v>
+      </c>
+      <c r="CA3" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="CB3" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="CC3" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="CD3" s="39" t="s">
+        <v>368</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="30">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2 AK2" xr:uid="{1A3610A5-ECFA-492A-A489-37C96F899B80}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2:T3 AK2:AK3" xr:uid="{1A3610A5-ECFA-492A-A489-37C96F899B80}">
       <formula1>"5 KM,10 KM,20 KM,30 KM,40 KM,50 KM"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2" xr:uid="{9C19A42A-D89D-4DDE-A4C8-1F1B2743585E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2:AA3" xr:uid="{9C19A42A-D89D-4DDE-A4C8-1F1B2743585E}">
       <formula1>"Applied,NotApplied"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CD2" xr:uid="{A8B41F32-A2C0-478A-86BA-8E141CEEE5B5}">
-      <formula1>"Shubham Natkar,Laxmi Khanal,Sudesh Kumar"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2" xr:uid="{AAF114E8-A236-4AE5-806A-C78913C137C3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CD2:CD3" xr:uid="{A8B41F32-A2C0-478A-86BA-8E141CEEE5B5}">
+      <formula1>"Shubham Natkar,Laxmi Khanal,Sudesh Kumar,Sachin Kumar"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O3" xr:uid="{AAF114E8-A236-4AE5-806A-C78913C137C3}">
       <formula1>"prince.chaurasia@quadlabs.com,Gunjan.swain@quadlabs.com,laxmi.khanal@quadlabs.com,shubham.natkar@quadlabs.com,piyush.chauhan@quadlabs.com,ankur.yadav@quadlabs.com,sachin.kumar@quadlabs.com"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2" xr:uid="{7779DB6C-5818-4915-9A07-02B7C4F6B2AF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N3" xr:uid="{7779DB6C-5818-4915-9A07-02B7C4F6B2AF}">
       <formula1>"Old,New"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2" xr:uid="{37CB28C1-8D14-42C1-9757-952A8A4818B3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L3" xr:uid="{37CB28C1-8D14-42C1-9757-952A8A4818B3}">
       <formula1>"Poonam_Corp,Amazon,Demo Corporate,Lux_Test_corp,Null"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2" xr:uid="{80C00CFD-CD64-4121-A897-C010A502ED4A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M3" xr:uid="{80C00CFD-CD64-4121-A897-C010A502ED4A}">
       <formula1>"On,Off"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2" xr:uid="{091C247D-06C5-4FD7-8F70-2C1E838A460E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J3" xr:uid="{091C247D-06C5-4FD7-8F70-2C1E838A460E}">
       <formula1>"Shubham1,Shubham,rsudesh15,Saurabh,Laxmi,sachinkumar,Piyush,Ankur"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2" xr:uid="{8720B9F1-353B-4087-B0CF-D6DD3898ED4E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I3" xr:uid="{8720B9F1-353B-4087-B0CF-D6DD3898ED4E}">
       <formula1>"Administrator,Travel Arranger,Employee"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BH2:BJ2" xr:uid="{1FAAD004-7F32-49EA-B311-C8D1210FD73B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BH2:BJ3" xr:uid="{1FAAD004-7F32-49EA-B311-C8D1210FD73B}">
       <formula1>"0,1,2,3,4,5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BK2" xr:uid="{2F394A1B-1399-42F6-8A1F-A6107D2AD137}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BK2:BK3" xr:uid="{2F394A1B-1399-42F6-8A1F-A6107D2AD137}">
       <formula1>"Economy,Premium Economy,Business Class,First Class"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AX2" xr:uid="{54EF34A0-0AB1-491D-9588-1CE451363497}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AX2:AX3" xr:uid="{54EF34A0-0AB1-491D-9588-1CE451363497}">
       <formula1>"Hotel,Apartment"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AV2" xr:uid="{1C77E60E-3F8A-44D2-A112-FCE8C42518AD}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AV2:AV3" xr:uid="{1C77E60E-3F8A-44D2-A112-FCE8C42518AD}">
       <formula1>"1 Star,2 Star,3 Star,4 Star,5 Star"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2" xr:uid="{3A159A86-6693-4F7B-A136-06CFEA738A20}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2:W3" xr:uid="{3A159A86-6693-4F7B-A136-06CFEA738A20}">
       <formula1>"1,2,3,4,5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AZ2" xr:uid="{FEF861A3-51ED-43C0-B28A-BE3EB50513E4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AZ2:AZ3" xr:uid="{FEF861A3-51ED-43C0-B28A-BE3EB50513E4}">
       <formula1>"Hotel,Hotel+Flight,Hotel+Car,Hotel+Flight+Car,Hotel+Car+Flight"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BZ2" xr:uid="{2128310B-E046-4186-898C-B1B47CA85B1F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BZ2:BZ3" xr:uid="{2128310B-E046-4186-898C-B1B47CA85B1F}">
       <formula1>"MasterCard,Visa"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CA2" xr:uid="{524E775D-F779-431E-B57A-0D09D5C33E50}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CA2:CA3" xr:uid="{524E775D-F779-431E-B57A-0D09D5C33E50}">
       <formula1>"5123456789012346,4111111111111111"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BX2" xr:uid="{C3D9C8E7-F169-45B4-9589-7816A1C423AC}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BX2:BX3" xr:uid="{C3D9C8E7-F169-45B4-9589-7816A1C423AC}">
       <formula1>"Quote,BookAndQuote,Fulfilment"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BL2 AW2 AT2:AU2 AG2 AL2 AE2 AJ2 BR2 AO2" xr:uid="{626BF180-88BC-473D-86A0-BED78CBB0A22}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BL2:BL3 AW2:AW3 AT2:AU3 AG2:AG3 AL2:AL3 AE2:AE3 AJ2:AJ3 BR2:BR3 AO2:AO3" xr:uid="{626BF180-88BC-473D-86A0-BED78CBB0A22}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2 AF2" xr:uid="{B6A172F9-1570-47CE-8EBD-679A7B8A20BC}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P3 AF2:AF3" xr:uid="{B6A172F9-1570-47CE-8EBD-679A7B8A20BC}">
       <formula1>"Individual,Dependent,Personal,Guest"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2" xr:uid="{AF1F245C-F5C8-4D1D-B5C8-900E635A7B65}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C3" xr:uid="{AF1F245C-F5C8-4D1D-B5C8-900E635A7B65}">
       <formula1>"sbt,preprod117,Live"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BA2" xr:uid="{9AE0CBBB-F3CD-4653-BF77-58ED53B5C627}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BA2:BA3" xr:uid="{9AE0CBBB-F3CD-4653-BF77-58ED53B5C627}">
       <formula1>"OneWay,RoundTrip,MultiCity"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BY2" xr:uid="{5A701C4E-D11A-4206-843D-A5EE38C499FD}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BY2:BY3" xr:uid="{5A701C4E-D11A-4206-843D-A5EE38C499FD}">
       <formula1>"Credit Card,Bill To Company"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2" xr:uid="{4CE3F444-FD09-47FC-B12F-AFEB6FD7C7F6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q3" xr:uid="{4CE3F444-FD09-47FC-B12F-AFEB6FD7C7F6}">
       <formula1>"Domestic,International"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BU2" xr:uid="{49EE4478-AAE1-4831-B450-9BB5A6CF33F3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BU2:BU3" xr:uid="{49EE4478-AAE1-4831-B450-9BB5A6CF33F3}">
       <formula1>"SendForApproval,ProceedToCheckout"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{E7F00521-023F-4D90-9127-367B050517F5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D3" xr:uid="{E7F00521-023F-4D90-9127-367B050517F5}">
       <formula1>"//staging117/sbt,//preprod.quadlabs.net/sbt/#,test.quadlabs.net/sbt,tripsource.co.in/sbt/#,//test.quadlabs.net/SSO_Login"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2" xr:uid="{7AF69C06-712F-47A3-8CF4-3AA749857B70}">
-      <formula1>"Saurabh,Prince Chaurasia,Gunjan Swain,Shubham,Laxmi Khanal,Sudesh Kumar,Piyush,Ankur"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2" xr:uid="{4EA60C40-CBED-4436-81AD-7AEDED4DD7CE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H3" xr:uid="{7AF69C06-712F-47A3-8CF4-3AA749857B70}">
+      <formula1>"Saurabh,Prince Chaurasia,Gunjan Swain,Shubham,Laxmi Khanal,Sudesh Kumar,Piyush,Ankur,Sachin Kumar"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K3" xr:uid="{4EA60C40-CBED-4436-81AD-7AEDED4DD7CE}">
       <formula1>"Laxmi@123,Admin@123,S21FUMK6JAPLBYO,Shubham@123,BAVYBXVY09FKGTY,Piyush@123,Ankur@123,DWUFR8WRAR6SL1M"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2" xr:uid="{212CEDE3-32A2-490D-B074-8F6814274A7B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E3" xr:uid="{212CEDE3-32A2-490D-B074-8F6814274A7B}">
       <formula1>"Old Url,SSO Login"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{24EFDCBF-B153-41D7-BACD-CEB6FF3B832C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F3" xr:uid="{24EFDCBF-B153-41D7-BACD-CEB6FF3B832C}">
       <formula1>"sachin.kumar@quadlabs.com,laxmi.khanal@quadlabs.com"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1" display="Admin@123" xr:uid="{F8B10C09-66E6-42AC-8295-AEF5443AE37C}"/>
+    <hyperlink ref="K2" r:id="rId1" xr:uid="{F8B10C09-66E6-42AC-8295-AEF5443AE37C}"/>
     <hyperlink ref="O2" r:id="rId2" display="prince.chaurasia@quadlabs.com" xr:uid="{82DEF3E1-6F1D-457E-BE1F-5A6E173461AB}"/>
+    <hyperlink ref="K3" r:id="rId3" xr:uid="{DD92FBE6-B20D-48AB-A01E-89A76EDE6E5D}"/>
+    <hyperlink ref="O3" r:id="rId4" display="prince.chaurasia@quadlabs.com" xr:uid="{57066432-5FCA-4F7C-BA71-25FEC269E1D8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2660,10 +2952,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{974A3E0D-052E-4767-B170-38FEFE199448}">
-  <dimension ref="A1:CQ2"/>
+  <dimension ref="A1:CD3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2673,22 +2965,22 @@
     <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="28" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="65.28515625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="11.7109375" bestFit="1" customWidth="1"/>
@@ -2716,7 +3008,7 @@
     <col min="47" max="47" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="49" max="50" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="14" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="52" max="52" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="53" max="53" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="54" max="54" width="8.7109375" bestFit="1" customWidth="1"/>
@@ -2763,695 +3055,849 @@
     <col min="95" max="95" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:82" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="35" t="s">
         <v>120</v>
       </c>
       <c r="B1" s="35" t="s">
         <v>170</v>
       </c>
-      <c r="C1" s="44" t="s">
-        <v>325</v>
-      </c>
-      <c r="D1" s="45" t="s">
-        <v>326</v>
-      </c>
-      <c r="E1" s="45" t="s">
-        <v>327</v>
-      </c>
-      <c r="F1" s="45" t="s">
-        <v>328</v>
-      </c>
-      <c r="G1" s="45" t="s">
+      <c r="C1" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>318</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>319</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>320</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="I1" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="J1" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="45" t="s">
-        <v>329</v>
-      </c>
-      <c r="I1" s="46" t="s">
-        <v>330</v>
-      </c>
-      <c r="J1" s="46" t="s">
-        <v>336</v>
-      </c>
-      <c r="K1" s="46" t="s">
-        <v>337</v>
-      </c>
-      <c r="L1" s="46" t="s">
-        <v>338</v>
-      </c>
-      <c r="M1" s="46" t="s">
-        <v>339</v>
-      </c>
-      <c r="N1" s="46" t="s">
-        <v>340</v>
+      <c r="L1" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="M1" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="N1" s="29" t="s">
+        <v>157</v>
       </c>
       <c r="O1" s="23" t="s">
-        <v>15</v>
+        <v>172</v>
       </c>
       <c r="P1" s="23" t="s">
-        <v>37</v>
+        <v>173</v>
       </c>
       <c r="Q1" s="23" t="s">
-        <v>320</v>
-      </c>
-      <c r="R1" s="23" t="s">
-        <v>321</v>
-      </c>
-      <c r="S1" s="23" t="s">
-        <v>322</v>
-      </c>
-      <c r="T1" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="U1" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="V1" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="W1" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="X1" s="29" t="s">
-        <v>155</v>
-      </c>
-      <c r="Y1" s="29" t="s">
-        <v>156</v>
-      </c>
-      <c r="Z1" s="29" t="s">
-        <v>157</v>
-      </c>
-      <c r="AA1" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="AB1" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="AC1" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="AD1" s="33" t="s">
+      <c r="R1" s="33" t="s">
         <v>175</v>
       </c>
-      <c r="AE1" s="33" t="s">
+      <c r="S1" s="33" t="s">
         <v>176</v>
       </c>
-      <c r="AF1" s="33" t="s">
+      <c r="T1" s="33" t="s">
         <v>305</v>
       </c>
-      <c r="AG1" s="33" t="s">
+      <c r="U1" s="33" t="s">
         <v>177</v>
       </c>
+      <c r="V1" s="33" t="s">
+        <v>178</v>
+      </c>
+      <c r="W1" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="X1" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y1" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z1" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="AA1" s="33" t="s">
+        <v>257</v>
+      </c>
+      <c r="AB1" s="25" t="s">
+        <v>262</v>
+      </c>
+      <c r="AC1" s="25" t="s">
+        <v>261</v>
+      </c>
+      <c r="AD1" s="25" t="s">
+        <v>260</v>
+      </c>
+      <c r="AE1" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="AF1" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="AG1" s="23" t="s">
+        <v>181</v>
+      </c>
       <c r="AH1" s="33" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="AI1" s="33" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="AJ1" s="33" t="s">
-        <v>24</v>
+        <v>314</v>
       </c>
       <c r="AK1" s="33" t="s">
-        <v>25</v>
+        <v>313</v>
       </c>
       <c r="AL1" s="33" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="AM1" s="33" t="s">
-        <v>257</v>
-      </c>
-      <c r="AN1" s="25" t="s">
-        <v>262</v>
-      </c>
-      <c r="AO1" s="25" t="s">
-        <v>261</v>
-      </c>
-      <c r="AP1" s="25" t="s">
-        <v>260</v>
-      </c>
-      <c r="AQ1" s="23" t="s">
-        <v>179</v>
-      </c>
-      <c r="AR1" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="AS1" s="23" t="s">
-        <v>181</v>
-      </c>
-      <c r="AT1" s="33" t="s">
-        <v>182</v>
+        <v>185</v>
+      </c>
+      <c r="AN1" s="33" t="s">
+        <v>186</v>
+      </c>
+      <c r="AO1" s="33" t="s">
+        <v>187</v>
+      </c>
+      <c r="AP1" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="AQ1" s="33" t="s">
+        <v>189</v>
+      </c>
+      <c r="AR1" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="AS1" s="33" t="s">
+        <v>191</v>
+      </c>
+      <c r="AT1" s="23" t="s">
+        <v>192</v>
       </c>
       <c r="AU1" s="33" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="AV1" s="33" t="s">
-        <v>314</v>
-      </c>
-      <c r="AW1" s="33" t="s">
-        <v>313</v>
-      </c>
-      <c r="AX1" s="33" t="s">
-        <v>184</v>
-      </c>
-      <c r="AY1" s="33" t="s">
-        <v>185</v>
-      </c>
-      <c r="AZ1" s="33" t="s">
-        <v>186</v>
-      </c>
-      <c r="BA1" s="33" t="s">
-        <v>187</v>
-      </c>
-      <c r="BB1" s="33" t="s">
-        <v>188</v>
-      </c>
-      <c r="BC1" s="33" t="s">
-        <v>189</v>
-      </c>
-      <c r="BD1" s="33" t="s">
-        <v>190</v>
-      </c>
-      <c r="BE1" s="33" t="s">
-        <v>191</v>
+        <v>194</v>
+      </c>
+      <c r="AW1" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="AX1" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="AY1" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="AZ1" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="BA1" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="BB1" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="BC1" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="BD1" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="BE1" s="23" t="s">
+        <v>203</v>
       </c>
       <c r="BF1" s="23" t="s">
-        <v>192</v>
-      </c>
-      <c r="BG1" s="33" t="s">
-        <v>193</v>
-      </c>
-      <c r="BH1" s="33" t="s">
-        <v>194</v>
+        <v>204</v>
+      </c>
+      <c r="BG1" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="BH1" s="23" t="s">
+        <v>206</v>
       </c>
       <c r="BI1" s="23" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="BJ1" s="23" t="s">
-        <v>196</v>
+        <v>49</v>
       </c>
       <c r="BK1" s="23" t="s">
-        <v>347</v>
+        <v>208</v>
       </c>
       <c r="BL1" s="23" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="BM1" s="23" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="BN1" s="23" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="BO1" s="23" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="BP1" s="23" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="BQ1" s="23" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="BR1" s="23" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="BS1" s="23" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="BT1" s="23" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="BU1" s="23" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="BV1" s="23" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="BW1" s="23" t="s">
-        <v>49</v>
+        <v>220</v>
       </c>
       <c r="BX1" s="23" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="BY1" s="23" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="BZ1" s="23" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="CA1" s="23" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="CB1" s="23" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="CC1" s="23" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="CD1" s="23" t="s">
-        <v>214</v>
-      </c>
-      <c r="CE1" s="23" t="s">
-        <v>215</v>
-      </c>
-      <c r="CF1" s="23" t="s">
-        <v>216</v>
-      </c>
-      <c r="CG1" s="23" t="s">
-        <v>217</v>
-      </c>
-      <c r="CH1" s="23" t="s">
-        <v>218</v>
-      </c>
-      <c r="CI1" s="23" t="s">
-        <v>219</v>
-      </c>
-      <c r="CJ1" s="23" t="s">
-        <v>220</v>
-      </c>
-      <c r="CK1" s="23" t="s">
-        <v>221</v>
-      </c>
-      <c r="CL1" s="23" t="s">
-        <v>222</v>
-      </c>
-      <c r="CM1" s="23" t="s">
-        <v>223</v>
-      </c>
-      <c r="CN1" s="23" t="s">
-        <v>224</v>
-      </c>
-      <c r="CO1" s="23" t="s">
-        <v>225</v>
-      </c>
-      <c r="CP1" s="23" t="s">
-        <v>226</v>
-      </c>
-      <c r="CQ1" s="23" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="2" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
         <v>147</v>
       </c>
       <c r="B2" s="37" t="s">
         <v>317</v>
       </c>
-      <c r="C2" s="28" t="s">
-        <v>144</v>
+      <c r="C2" s="24" t="s">
+        <v>278</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>331</v>
+        <v>265</v>
       </c>
       <c r="E2" s="28" t="s">
+        <v>355</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>376</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>321</v>
+      </c>
+      <c r="H2" s="28" t="s">
+        <v>292</v>
+      </c>
+      <c r="I2" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="J2" s="28" t="s">
+        <v>292</v>
+      </c>
+      <c r="K2" s="30" t="s">
         <v>332</v>
       </c>
-      <c r="F2" s="30" t="s">
-        <v>333</v>
-      </c>
-      <c r="G2" s="36" t="s">
-        <v>334</v>
-      </c>
-      <c r="H2" s="47" t="s">
-        <v>158</v>
-      </c>
-      <c r="I2" s="24" t="s">
-        <v>335</v>
-      </c>
-      <c r="J2" s="32" t="s">
-        <v>348</v>
-      </c>
-      <c r="K2" s="32" t="s">
-        <v>349</v>
-      </c>
-      <c r="L2" s="28" t="s">
-        <v>341</v>
-      </c>
-      <c r="M2" s="32" t="s">
-        <v>342</v>
-      </c>
-      <c r="N2" s="32" t="s">
-        <v>343</v>
-      </c>
-      <c r="O2" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="P2" s="28" t="s">
-        <v>344</v>
-      </c>
-      <c r="Q2" s="28" t="s">
-        <v>324</v>
-      </c>
-      <c r="R2" s="48" t="s">
-        <v>345</v>
-      </c>
-      <c r="S2" s="28" t="s">
-        <v>323</v>
-      </c>
-      <c r="T2" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="U2" s="31" t="s">
+      <c r="L2" s="38" t="s">
+        <v>267</v>
+      </c>
+      <c r="M2" s="38" t="s">
+        <v>159</v>
+      </c>
+      <c r="N2" s="38" t="s">
+        <v>160</v>
+      </c>
+      <c r="O2" s="30" t="s">
+        <v>376</v>
+      </c>
+      <c r="P2" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q2" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="R2" s="24" t="s">
+        <v>378</v>
+      </c>
+      <c r="S2" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="T2" s="24" t="s">
+        <v>311</v>
+      </c>
+      <c r="U2" s="32" t="s">
+        <v>377</v>
+      </c>
+      <c r="V2" s="32" t="s">
+        <v>377</v>
+      </c>
+      <c r="W2" s="24">
+        <v>2</v>
+      </c>
+      <c r="X2" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="Y2" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z2" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA2" s="36" t="s">
+        <v>258</v>
+      </c>
+      <c r="AB2" s="24">
+        <v>3</v>
+      </c>
+      <c r="AC2" s="24">
+        <v>3</v>
+      </c>
+      <c r="AD2" s="24">
+        <v>3</v>
+      </c>
+      <c r="AE2" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="AF2" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG2" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="AH2" s="24" t="s">
+        <v>231</v>
+      </c>
+      <c r="AI2" s="24" t="s">
+        <v>232</v>
+      </c>
+      <c r="AJ2" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="AK2" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="AL2" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="AM2" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="AN2" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="AO2" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="AP2" s="24">
+        <v>2</v>
+      </c>
+      <c r="AQ2" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="AR2" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="AS2" s="37" t="s">
+        <v>235</v>
+      </c>
+      <c r="AT2" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="AU2" s="37" t="s">
+        <v>229</v>
+      </c>
+      <c r="AV2" s="37" t="s">
+        <v>236</v>
+      </c>
+      <c r="AW2" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="AX2" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>238</v>
+      </c>
+      <c r="AZ2" s="24" t="s">
+        <v>256</v>
+      </c>
+      <c r="BA2" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="BB2" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="BC2" s="41" t="s">
+        <v>241</v>
+      </c>
+      <c r="BD2" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="BE2" s="41" t="s">
+        <v>242</v>
+      </c>
+      <c r="BF2" s="42" t="s">
+        <v>243</v>
+      </c>
+      <c r="BG2" s="42" t="s">
+        <v>244</v>
+      </c>
+      <c r="BH2" s="24">
+        <v>2</v>
+      </c>
+      <c r="BI2" s="24">
+        <v>1</v>
+      </c>
+      <c r="BJ2" s="24">
+        <v>1</v>
+      </c>
+      <c r="BK2" s="24" t="s">
+        <v>245</v>
+      </c>
+      <c r="BL2" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="BM2" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="BN2" s="26" t="s">
+        <v>246</v>
+      </c>
+      <c r="BO2" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="BP2" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="BQ2" s="24">
+        <v>25</v>
+      </c>
+      <c r="BR2" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="BS2" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="BT2" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="BU2" s="26" t="s">
+        <v>250</v>
+      </c>
+      <c r="BV2" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="BW2" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="BX2" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="BY2" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="BZ2" s="43" t="s">
+        <v>253</v>
+      </c>
+      <c r="CA2" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="CB2" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="CC2" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="CD2" s="39" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:82" x14ac:dyDescent="0.25">
+      <c r="A3" s="37" t="s">
+        <v>148</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>352</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>278</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>265</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>355</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>376</v>
+      </c>
+      <c r="G3" s="28" t="s">
+        <v>321</v>
+      </c>
+      <c r="H3" s="28" t="s">
+        <v>292</v>
+      </c>
+      <c r="I3" s="31" t="s">
         <v>161</v>
       </c>
-      <c r="V2" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="W2" s="30" t="s">
-        <v>162</v>
-      </c>
-      <c r="X2" s="38" t="s">
-        <v>158</v>
-      </c>
-      <c r="Y2" s="38" t="s">
+      <c r="J3" s="28" t="s">
+        <v>292</v>
+      </c>
+      <c r="K3" s="30" t="s">
+        <v>332</v>
+      </c>
+      <c r="L3" s="38" t="s">
+        <v>267</v>
+      </c>
+      <c r="M3" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="Z2" s="38" t="s">
+      <c r="N3" s="38" t="s">
         <v>160</v>
       </c>
-      <c r="AA2" s="30" t="s">
-        <v>345</v>
-      </c>
-      <c r="AB2" s="24" t="s">
+      <c r="O3" s="30" t="s">
+        <v>376</v>
+      </c>
+      <c r="P3" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="AC2" s="24" t="s">
-        <v>227</v>
-      </c>
-      <c r="AD2" s="24" t="s">
-        <v>153</v>
-      </c>
-      <c r="AE2" s="24" t="s">
-        <v>165</v>
-      </c>
-      <c r="AF2" s="24" t="s">
+      <c r="Q3" s="24" t="s">
+        <v>310</v>
+      </c>
+      <c r="R3" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="S3" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="T3" s="24" t="s">
         <v>311</v>
       </c>
-      <c r="AG2" s="32" t="s">
-        <v>358</v>
-      </c>
-      <c r="AH2" s="32" t="s">
-        <v>356</v>
-      </c>
-      <c r="AI2" s="24">
+      <c r="U3" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="V3" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="W3" s="24">
         <v>2</v>
       </c>
-      <c r="AJ2" s="24" t="s">
+      <c r="X3" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="AK2" s="37" t="s">
+      <c r="Y3" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="AL2" s="37" t="s">
+      <c r="Z3" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="AM2" s="36" t="s">
+      <c r="AA3" s="36" t="s">
         <v>258</v>
       </c>
-      <c r="AN2" s="24">
+      <c r="AB3" s="24">
         <v>3</v>
       </c>
-      <c r="AO2" s="24">
+      <c r="AC3" s="24">
         <v>3</v>
       </c>
-      <c r="AP2" s="24">
+      <c r="AD3" s="24">
         <v>3</v>
       </c>
-      <c r="AQ2" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="AR2" s="24" t="s">
+      <c r="AE3" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="AF3" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="AS2" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="AT2" s="24" t="s">
+      <c r="AG3" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="AH3" s="24" t="s">
         <v>231</v>
       </c>
-      <c r="AU2" s="24" t="s">
+      <c r="AI3" s="24" t="s">
         <v>232</v>
       </c>
-      <c r="AV2" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="AW2" s="24" t="s">
+      <c r="AJ3" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="AK3" s="24" t="s">
         <v>309</v>
       </c>
-      <c r="AX2" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="AY2" s="26" t="s">
+      <c r="AL3" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="AM3" s="26" t="s">
         <v>233</v>
       </c>
-      <c r="AZ2" s="26" t="s">
+      <c r="AN3" s="26" t="s">
         <v>234</v>
       </c>
-      <c r="BA2" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="BB2" s="24">
+      <c r="AO3" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="AP3" s="24">
         <v>2</v>
       </c>
-      <c r="BC2" s="24" t="s">
+      <c r="AQ3" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="BD2" s="37" t="s">
+      <c r="AR3" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="BE2" s="37" t="s">
+      <c r="AS3" s="37" t="s">
         <v>235</v>
       </c>
-      <c r="BF2" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="BG2" s="37" t="s">
-        <v>229</v>
-      </c>
-      <c r="BH2" s="37" t="s">
+      <c r="AT3" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="AU3" s="37" t="s">
+        <v>229</v>
+      </c>
+      <c r="AV3" s="37" t="s">
         <v>236</v>
       </c>
-      <c r="BI2" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="BJ2" s="24" t="s">
+      <c r="AW3" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="AX3" s="24" t="s">
         <v>237</v>
       </c>
-      <c r="BK2" s="49" t="s">
-        <v>348</v>
-      </c>
-      <c r="BL2" t="s">
+      <c r="AY3" t="s">
         <v>238</v>
       </c>
-      <c r="BM2" s="24" t="s">
+      <c r="AZ3" s="24" t="s">
         <v>256</v>
       </c>
-      <c r="BN2" s="24" t="s">
+      <c r="BA3" s="24" t="s">
         <v>239</v>
       </c>
-      <c r="BO2" s="2" t="s">
+      <c r="BB3" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="BP2" s="41" t="s">
+      <c r="BC3" s="41" t="s">
         <v>241</v>
       </c>
-      <c r="BQ2" s="2" t="s">
+      <c r="BD3" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="BR2" s="41" t="s">
+      <c r="BE3" s="41" t="s">
         <v>242</v>
       </c>
-      <c r="BS2" s="42" t="s">
+      <c r="BF3" s="42" t="s">
         <v>243</v>
       </c>
-      <c r="BT2" s="42" t="s">
+      <c r="BG3" s="42" t="s">
         <v>244</v>
       </c>
-      <c r="BU2" s="24">
+      <c r="BH3" s="24">
         <v>2</v>
       </c>
-      <c r="BV2" s="24">
+      <c r="BI3" s="24">
         <v>1</v>
       </c>
-      <c r="BW2" s="24">
+      <c r="BJ3" s="24">
         <v>1</v>
       </c>
-      <c r="BX2" s="24" t="s">
+      <c r="BK3" s="24" t="s">
         <v>245</v>
       </c>
-      <c r="BY2" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="BZ2" s="24" t="s">
+      <c r="BL3" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="BM3" s="24" t="s">
         <v>228</v>
       </c>
-      <c r="CA2" s="26" t="s">
+      <c r="BN3" s="26" t="s">
         <v>246</v>
       </c>
-      <c r="CB2" s="24" t="s">
+      <c r="BO3" s="24" t="s">
         <v>247</v>
       </c>
-      <c r="CC2" s="24" t="s">
+      <c r="BP3" s="24" t="s">
         <v>248</v>
       </c>
-      <c r="CD2" s="24">
+      <c r="BQ3" s="24">
         <v>25</v>
       </c>
-      <c r="CE2" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="CF2" s="24" t="s">
+      <c r="BR3" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="BS3" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="CG2" s="24" t="s">
+      <c r="BT3" s="24" t="s">
         <v>249</v>
       </c>
-      <c r="CH2" s="26" t="s">
+      <c r="BU3" s="26" t="s">
         <v>250</v>
       </c>
-      <c r="CI2" s="24" t="s">
+      <c r="BV3" s="24" t="s">
         <v>251</v>
       </c>
-      <c r="CJ2" s="24" t="s">
+      <c r="BW3" s="24" t="s">
         <v>251</v>
       </c>
-      <c r="CK2" s="24" t="s">
+      <c r="BX3" s="24" t="s">
         <v>252</v>
       </c>
-      <c r="CL2" s="24" t="s">
+      <c r="BY3" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="CM2" s="43" t="s">
+      <c r="BZ3" s="43" t="s">
         <v>253</v>
       </c>
-      <c r="CN2" s="26" t="s">
+      <c r="CA3" s="26" t="s">
         <v>254</v>
       </c>
-      <c r="CO2" s="43" t="s">
+      <c r="CB3" s="43" t="s">
         <v>136</v>
       </c>
-      <c r="CP2" s="26" t="s">
+      <c r="CC3" s="26" t="s">
         <v>255</v>
       </c>
-      <c r="CQ2" s="39" t="s">
-        <v>335</v>
+      <c r="CD3" s="39" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
-  <dataValidations disablePrompts="1" count="35">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2" xr:uid="{DC8363E9-D1E6-4FF2-A700-C71A870D1A47}">
+  <dataValidations count="30">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E3" xr:uid="{F6597042-A93D-45E6-94EF-04EF5ECEB762}">
       <formula1>"Old Url,SSO Login"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2" xr:uid="{C2B2F3CD-DED9-4DA7-B7FD-862EEA75DB0E}">
-      <formula1>"Laxmi@123,Admin@123,S21FUMK6JAPLBYO,Shubham@123,BAVYBXVY09FKGTY,Piyush@123,Ankur@123,DWUFR8WRAR6SL1M"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2" xr:uid="{B21DE1FE-3A50-481C-8E57-C0C6F4CDFE87}">
-      <formula1>"Saurabh,Prince Chaurasia,Gunjan Swain,Shubham,Laxmi Khanal,Sudesh Kumar,Piyush,Ankur"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CH2" xr:uid="{5A54F5E1-82EF-4FB9-9322-D75BC092AC88}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BU2:BU3" xr:uid="{5F1981A5-8748-43DB-85DE-84746DA9D104}">
       <formula1>"SendForApproval,ProceedToCheckout"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2" xr:uid="{26114D9A-97BC-43D9-BB28-E6CB2A9EB9D5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q3" xr:uid="{C55EB2E5-0EC8-4311-8E47-B5CB2114A170}">
       <formula1>"Domestic,International"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CL2" xr:uid="{7836FDB9-0957-4C99-A46B-2FD87F3C4F09}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BY2:BY3" xr:uid="{3B2750B8-A68E-42CD-8FB6-5B9A89E99304}">
       <formula1>"Credit Card,Bill To Company"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BN2" xr:uid="{1C5CFFCE-BC9A-4943-AA34-87E5A5F864CD}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BA2:BA3" xr:uid="{F8A144E0-8425-4740-B49D-453260B94981}">
       <formula1>"OneWay,RoundTrip,MultiCity"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2 C2" xr:uid="{9560F6C6-54F9-4409-8C25-6B2D438E2584}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C3" xr:uid="{EA2D4556-308C-4EDE-9593-2F59BDF6D05F}">
       <formula1>"sbt,preprod117,Live"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB2 AR2" xr:uid="{D2248759-CAF9-4D34-ADD9-8E51E5D9D9A3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P3 AF2:AF3" xr:uid="{FCF54FAC-1B88-4941-AD7E-9F2B20C24576}">
       <formula1>"Individual,Dependent,Personal,Guest"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BY2 BI2 BF2:BG2 AS2 AX2 AQ2 AV2 CE2 BA2" xr:uid="{3E768CE0-977D-4AF0-8A41-8976D9930215}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BL2:BL3 AW2:AW3 AT2:AU3 AG2:AG3 AL2:AL3 AE2:AE3 AJ2:AJ3 BR2:BR3 AO2:AO3" xr:uid="{55072A1E-8676-4D24-AEDB-F10BA8042BC6}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CK2" xr:uid="{EBF50FB4-E2E8-4356-888F-9EF940F657AA}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BX2:BX3" xr:uid="{08B84BB7-1E6D-4082-9DE5-E409A4AC5797}">
       <formula1>"Quote,BookAndQuote,Fulfilment"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CN2" xr:uid="{BAB340DD-BDEA-43F9-B19D-C47F4CC3D819}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CA2:CA3" xr:uid="{78B88172-6969-49B3-97F2-20440E60B557}">
       <formula1>"5123456789012346,4111111111111111"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CM2" xr:uid="{6DA79A6E-E93A-4E4A-9E8A-911427B6B6A2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BZ2:BZ3" xr:uid="{A377EAD8-46C7-4522-90A9-1182AB0C1201}">
       <formula1>"MasterCard,Visa"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BM2" xr:uid="{62BFBB95-2D72-4AB8-B35E-EE9A6C7DD3D6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AZ2:AZ3" xr:uid="{FA19BE69-4301-46F5-B2D4-69397BE81BE6}">
       <formula1>"Hotel,Hotel+Flight,Hotel+Car,Hotel+Flight+Car,Hotel+Car+Flight"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI2" xr:uid="{9F60D806-7DB5-4084-B5AC-17EAFA307077}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2:W3" xr:uid="{A1915C60-5709-40DB-B6FA-2F9BD17F6B54}">
       <formula1>"1,2,3,4,5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BH2" xr:uid="{59B36BDC-1E85-4B86-849B-1D798E26ED97}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AV2:AV3" xr:uid="{CF2438C5-CE55-427D-A4B9-6FC2DFD33477}">
       <formula1>"1 Star,2 Star,3 Star,4 Star,5 Star"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BJ2" xr:uid="{F6321B5F-4FEC-4544-A83C-CFC740B79F32}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AX2:AX3" xr:uid="{E1B13FF3-3A46-424F-89E0-39AFC6E3AB2A}">
       <formula1>"Hotel,Apartment"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BX2" xr:uid="{7B07C4E9-0D31-4155-BA6B-2AF4F41EE276}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BK2:BK3" xr:uid="{EF29FE7D-2408-454E-A465-8AF4EF980EAD}">
       <formula1>"Economy,Premium Economy,Business Class,First Class"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BU2:BW2" xr:uid="{A0B27CCF-D3F2-4478-8BCA-D0457093C55C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BH2:BJ3" xr:uid="{6E088E43-8AEA-4694-9E1D-4879994BDF1C}">
       <formula1>"0,1,2,3,4,5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2" xr:uid="{215CCB68-08D7-46FD-B0B4-EB76F88C20D0}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I3" xr:uid="{34F7205E-19B5-4280-9601-661F70E52D84}">
       <formula1>"Administrator,Travel Arranger,Employee"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2" xr:uid="{4E3806E4-A7CB-4C85-B4A3-9354E1A82B51}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J3" xr:uid="{C8AC6A44-96F9-4A39-AEC3-9DE6F7E16E74}">
       <formula1>"Shubham1,Shubham,rsudesh15,Saurabh,Laxmi,sachinkumar,Piyush,Ankur"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y2" xr:uid="{D6801898-2DD9-415F-8396-BD0AA581AD5F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M3" xr:uid="{2560EA66-BADF-4BFC-83A1-0F441331BEED}">
       <formula1>"On,Off"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2" xr:uid="{B106753F-7D3B-45CB-8D30-DA7928A6E2A6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L3" xr:uid="{FFB869E4-18BE-4692-9989-02A0925E1643}">
       <formula1>"Poonam_Corp,Amazon,Demo Corporate,Lux_Test_corp,Null"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z2" xr:uid="{C822E8F5-9516-4E71-833B-48484111B53A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N3" xr:uid="{C53B8E14-85F6-46D8-AE1C-2456768F22BA}">
       <formula1>"Old,New"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2" xr:uid="{E01959EF-B499-49F6-95DA-741F65240CE4}">
-      <formula1>"prince.chaurasia@quadlabs.com,Gunjan.swain@quadlabs.com,laxmi.khanal@quadlabs.com,shubham.natkar@quadlabs.com,piyush.chauhan@quadlabs.com,ankur.yadav@quadlabs.com,sachin.kumar@quadlabs.com,shekhar.singh@quadlabs.com"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CQ2" xr:uid="{E55A4D65-B402-49FB-97E5-196020774B65}">
-      <formula1>"Shubham Natkar,Laxmi Khanal,Sudesh Kumar,Shekhar Singh"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM2" xr:uid="{E3E47F4D-DC9F-4ECA-ADE7-543DCBC50B6D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2:AA3" xr:uid="{0138A6F4-DB8D-420D-A2C9-19EA7209E9D2}">
       <formula1>"Applied,NotApplied"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF2 AW2" xr:uid="{A5D2FD67-10A5-4A43-9D0E-A8FE3D65097C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2:T3 AK2:AK3" xr:uid="{E65B4C79-8F38-4A07-B9B7-816E36B27C37}">
       <formula1>"5 KM,10 KM,20 KM,30 KM,40 KM,50 KM"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{413940EB-0E2D-4BBE-866E-96555E49899B}">
-      <formula1>"Laxmi@123,Password@123,Quad@720,Quad@721,Password@1234,Admin@123"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{152280E0-C1EB-4C33-BE51-BC9896174803}">
-      <formula1>"Saurav_at,tarun"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2" xr:uid="{7F12DF53-F305-467D-B955-BD6B8F2E1783}">
-      <formula1>"at,QL"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{7AFDE41B-BEDB-4741-B864-AAE65B4D79F1}">
-      <formula1>"//staging117/backoffice/,//preprod.quadlabs.net/backoffice/,//test.quadlabs.net/backoffice/"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2" xr:uid="{491B4C84-C7A6-48F3-8E5F-10F7E19FB7DD}">
-      <formula1>"Air India,Vistara,SriLankan,Saudi Arabian,Emirates,Gulf Air,Etihad Airways,Singapore Airl,Qatar Airways,Indigo,Air Asia,Akasa Air,SpiceJet"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2" xr:uid="{0A954645-C265-48AD-BA29-6EA0E840D1F5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D3" xr:uid="{16A9A6AD-0386-4D07-B2B7-12B5F6FAEC7A}">
       <formula1>"//staging117/sbt,//preprod.quadlabs.net/sbt/#,test.quadlabs.net/sbt,tripsource.co.in/sbt/#,//test.quadlabs.net/SSO_Login"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2" xr:uid="{542C2120-4205-407F-B4BD-077C1120E781}">
-      <formula1>"LUXURY COLLECTION,COURTYARD BY MARRIOTT"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K3" xr:uid="{CD0896D8-2653-4DD6-BFD2-9AD661B61A8D}">
+      <formula1>"Laxmi@123,Admin@123,S21FUMK6JAPLBYO,Shubham@123,BAVYBXVY09FKGTY,Piyush@123,Ankur@123,DWUFR8WRAR6SL1M,4CJDOMEL9TNCR1R"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CD2:CD3" xr:uid="{F854F034-2667-40F7-91EC-0DC58CF8BD6C}">
+      <formula1>"Shubham Natkar,Laxmi Khanal,Sudesh Kumar,Sachin Kumar"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H3" xr:uid="{D3BDD8E1-4701-45F6-85C3-9EB2CF73B4FE}">
+      <formula1>"Saurabh,Prince Chaurasia,Gunjan Swain,Shubham,Laxmi Khanal,Sudesh Kumar,Piyush,Ankur,Sachin Kumar"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F3" xr:uid="{A8171AE8-2363-484C-87A1-005F70E102FD}">
+      <formula1>"sachin.kumar@quadlabs.com,laxmi.khanal@quadlabs.com,ankur.yadav@quadlabs.com"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O3" xr:uid="{CA0FD3DC-B69D-42EF-B9F7-F405CC433DEC}">
+      <formula1>"prince.chaurasia@quadlabs.com,Gunjan.swain@quadlabs.com,laxmi.khanal@quadlabs.com,shubham.natkar@quadlabs.com,piyush.chauhan@quadlabs.com,ankur.yadav@quadlabs.com,sachin.kumar@quadlabs.com"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="W2" r:id="rId1" display="Admin@123" xr:uid="{DE9A8115-44D2-427D-BA79-ADD97A08E0B5}"/>
-    <hyperlink ref="AA2" r:id="rId2" display="prince.chaurasia@quadlabs.com" xr:uid="{27DC00AB-64BF-43E3-8AA8-A03A751C7BBB}"/>
-    <hyperlink ref="F2" r:id="rId3" display="shubham.natkar@quadlabs.com" xr:uid="{D2B7B7B6-AD0A-4BA1-9F94-8F6270F55F2A}"/>
-    <hyperlink ref="G2" r:id="rId4" display="Password@123" xr:uid="{026076CE-5ABB-418B-BD41-C79786D4DCF4}"/>
-    <hyperlink ref="R2" r:id="rId5" xr:uid="{E50E8F0A-7B00-4295-A562-8C2CC0A6E08B}"/>
+    <hyperlink ref="K2" r:id="rId1" xr:uid="{FC442E55-6C92-46B1-B763-29477B5D8614}"/>
+    <hyperlink ref="O2" r:id="rId2" display="prince.chaurasia@quadlabs.com" xr:uid="{0C888F0D-7813-4DE6-9C20-CF4FF2CD934A}"/>
+    <hyperlink ref="K3" r:id="rId3" xr:uid="{705E176B-C35C-4BE9-934F-C651A1D21ED1}"/>
+    <hyperlink ref="O3" r:id="rId4" display="prince.chaurasia@quadlabs.com" xr:uid="{6B6FDAB6-83E9-4F1D-BF2D-671CE996E1AF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3461,8 +3907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35E0DCA9-09F3-4C26-B3E5-E5C88853FAF5}">
   <dimension ref="A1:CQ2"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3570,40 +4016,40 @@
         <v>170</v>
       </c>
       <c r="C1" s="44" t="s">
+        <v>323</v>
+      </c>
+      <c r="D1" s="45" t="s">
+        <v>324</v>
+      </c>
+      <c r="E1" s="45" t="s">
         <v>325</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="F1" s="45" t="s">
         <v>326</v>
-      </c>
-      <c r="E1" s="45" t="s">
-        <v>327</v>
-      </c>
-      <c r="F1" s="45" t="s">
-        <v>328</v>
       </c>
       <c r="G1" s="45" t="s">
         <v>18</v>
       </c>
       <c r="H1" s="45" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="I1" s="46" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="J1" s="46" t="s">
+        <v>334</v>
+      </c>
+      <c r="K1" s="46" t="s">
+        <v>335</v>
+      </c>
+      <c r="L1" s="46" t="s">
         <v>336</v>
       </c>
-      <c r="K1" s="46" t="s">
+      <c r="M1" s="46" t="s">
         <v>337</v>
       </c>
-      <c r="L1" s="46" t="s">
+      <c r="N1" s="46" t="s">
         <v>338</v>
-      </c>
-      <c r="M1" s="46" t="s">
-        <v>339</v>
-      </c>
-      <c r="N1" s="46" t="s">
-        <v>340</v>
       </c>
       <c r="O1" s="23" t="s">
         <v>15</v>
@@ -3612,13 +4058,13 @@
         <v>37</v>
       </c>
       <c r="Q1" s="23" t="s">
+        <v>318</v>
+      </c>
+      <c r="R1" s="23" t="s">
+        <v>319</v>
+      </c>
+      <c r="S1" s="23" t="s">
         <v>320</v>
-      </c>
-      <c r="R1" s="23" t="s">
-        <v>321</v>
-      </c>
-      <c r="S1" s="23" t="s">
-        <v>322</v>
       </c>
       <c r="T1" s="23" t="s">
         <v>171</v>
@@ -3750,7 +4196,7 @@
         <v>196</v>
       </c>
       <c r="BK1" s="23" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="BL1" s="23" t="s">
         <v>197</v>
@@ -3860,52 +4306,52 @@
         <v>144</v>
       </c>
       <c r="D2" s="28" t="s">
+        <v>329</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>330</v>
+      </c>
+      <c r="F2" s="30" t="s">
         <v>331</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="G2" s="36" t="s">
         <v>332</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>333</v>
-      </c>
-      <c r="G2" s="36" t="s">
-        <v>334</v>
       </c>
       <c r="H2" s="47" t="s">
         <v>158</v>
       </c>
       <c r="I2" s="24" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="J2" s="32" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="K2" s="32" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="L2" s="28" t="s">
+        <v>339</v>
+      </c>
+      <c r="M2" s="32" t="s">
+        <v>340</v>
+      </c>
+      <c r="N2" s="32" t="s">
         <v>341</v>
-      </c>
-      <c r="M2" s="32" t="s">
-        <v>342</v>
-      </c>
-      <c r="N2" s="32" t="s">
-        <v>343</v>
       </c>
       <c r="O2" s="24" t="s">
         <v>144</v>
       </c>
       <c r="P2" s="28" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="Q2" s="28" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="R2" s="48" t="s">
         <v>47</v>
       </c>
       <c r="S2" s="28" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="T2" s="28" t="s">
         <v>137</v>
@@ -3947,10 +4393,10 @@
         <v>311</v>
       </c>
       <c r="AG2" s="32" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="AH2" s="32" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="AI2" s="24">
         <v>2</v>
@@ -4037,7 +4483,7 @@
         <v>237</v>
       </c>
       <c r="BK2" s="49" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="BL2" t="s">
         <v>238</v>
@@ -4133,7 +4579,7 @@
         <v>255</v>
       </c>
       <c r="CQ2" s="39" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -4260,7 +4706,7 @@
   <dimension ref="A1:CQ5"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4346,40 +4792,40 @@
         <v>170</v>
       </c>
       <c r="C1" s="44" t="s">
+        <v>323</v>
+      </c>
+      <c r="D1" s="45" t="s">
+        <v>324</v>
+      </c>
+      <c r="E1" s="45" t="s">
         <v>325</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="F1" s="45" t="s">
         <v>326</v>
-      </c>
-      <c r="E1" s="45" t="s">
-        <v>327</v>
-      </c>
-      <c r="F1" s="45" t="s">
-        <v>328</v>
       </c>
       <c r="G1" s="45" t="s">
         <v>18</v>
       </c>
       <c r="H1" s="45" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="I1" s="46" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="J1" s="46" t="s">
+        <v>334</v>
+      </c>
+      <c r="K1" s="46" t="s">
+        <v>335</v>
+      </c>
+      <c r="L1" s="46" t="s">
         <v>336</v>
       </c>
-      <c r="K1" s="46" t="s">
+      <c r="M1" s="46" t="s">
         <v>337</v>
       </c>
-      <c r="L1" s="46" t="s">
+      <c r="N1" s="46" t="s">
         <v>338</v>
-      </c>
-      <c r="M1" s="46" t="s">
-        <v>339</v>
-      </c>
-      <c r="N1" s="46" t="s">
-        <v>340</v>
       </c>
       <c r="O1" s="23" t="s">
         <v>15</v>
@@ -4388,13 +4834,13 @@
         <v>37</v>
       </c>
       <c r="Q1" s="23" t="s">
+        <v>318</v>
+      </c>
+      <c r="R1" s="23" t="s">
+        <v>319</v>
+      </c>
+      <c r="S1" s="23" t="s">
         <v>320</v>
-      </c>
-      <c r="R1" s="23" t="s">
-        <v>321</v>
-      </c>
-      <c r="S1" s="23" t="s">
-        <v>322</v>
       </c>
       <c r="T1" s="23" t="s">
         <v>171</v>
@@ -4526,7 +4972,7 @@
         <v>196</v>
       </c>
       <c r="BK1" s="23" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="BL1" s="23" t="s">
         <v>197</v>
@@ -4636,37 +5082,37 @@
         <v>144</v>
       </c>
       <c r="D2" s="28" t="s">
+        <v>329</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>330</v>
+      </c>
+      <c r="F2" s="30" t="s">
         <v>331</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="G2" s="36" t="s">
         <v>332</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>333</v>
-      </c>
-      <c r="G2" s="36" t="s">
-        <v>334</v>
       </c>
       <c r="H2" s="47" t="s">
         <v>267</v>
       </c>
       <c r="I2" s="24" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="J2" s="32" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="K2" s="32" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="L2" s="28" t="s">
+        <v>339</v>
+      </c>
+      <c r="M2" s="32" t="s">
+        <v>340</v>
+      </c>
+      <c r="N2" s="32" t="s">
         <v>341</v>
-      </c>
-      <c r="M2" s="32" t="s">
-        <v>342</v>
-      </c>
-      <c r="N2" s="32" t="s">
-        <v>343</v>
       </c>
       <c r="O2" s="24" t="s">
         <v>144</v>
@@ -4675,13 +5121,13 @@
         <v>265</v>
       </c>
       <c r="Q2" s="28" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="R2" s="48" t="s">
         <v>47</v>
       </c>
       <c r="S2" s="28" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="T2" s="28" t="s">
         <v>129</v>
@@ -4723,10 +5169,10 @@
         <v>311</v>
       </c>
       <c r="AG2" s="32" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="AH2" s="32" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="AI2" s="24">
         <v>2</v>
@@ -4813,7 +5259,7 @@
         <v>237</v>
       </c>
       <c r="BK2" s="49" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="BL2" t="s">
         <v>238</v>
@@ -4909,7 +5355,7 @@
         <v>255</v>
       </c>
       <c r="CQ2" s="39" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="3" spans="1:95" x14ac:dyDescent="0.25">
@@ -4917,43 +5363,43 @@
         <v>148</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C3" s="28" t="s">
         <v>144</v>
       </c>
       <c r="D3" s="28" t="s">
+        <v>329</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>330</v>
+      </c>
+      <c r="F3" s="30" t="s">
         <v>331</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="G3" s="36" t="s">
         <v>332</v>
-      </c>
-      <c r="F3" s="30" t="s">
-        <v>333</v>
-      </c>
-      <c r="G3" s="36" t="s">
-        <v>334</v>
       </c>
       <c r="H3" s="47" t="s">
         <v>267</v>
       </c>
       <c r="I3" s="24" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="J3" s="32" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="K3" s="32" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="L3" s="28" t="s">
+        <v>339</v>
+      </c>
+      <c r="M3" s="32" t="s">
+        <v>340</v>
+      </c>
+      <c r="N3" s="32" t="s">
         <v>341</v>
-      </c>
-      <c r="M3" s="32" t="s">
-        <v>342</v>
-      </c>
-      <c r="N3" s="32" t="s">
-        <v>343</v>
       </c>
       <c r="O3" s="24" t="s">
         <v>144</v>
@@ -4962,13 +5408,13 @@
         <v>265</v>
       </c>
       <c r="Q3" s="28" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="R3" s="48" t="s">
         <v>47</v>
       </c>
       <c r="S3" s="28" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="T3" s="28" t="s">
         <v>129</v>
@@ -5010,10 +5456,10 @@
         <v>311</v>
       </c>
       <c r="AG3" s="32" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="AH3" s="32" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="AI3" s="24">
         <v>2</v>
@@ -5100,7 +5546,7 @@
         <v>237</v>
       </c>
       <c r="BK3" s="49" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="BL3" t="s">
         <v>238</v>
@@ -5196,7 +5642,7 @@
         <v>255</v>
       </c>
       <c r="CQ3" s="39" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="4" spans="1:95" x14ac:dyDescent="0.25">
@@ -5210,37 +5656,37 @@
         <v>144</v>
       </c>
       <c r="D4" s="28" t="s">
+        <v>329</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>330</v>
+      </c>
+      <c r="F4" s="30" t="s">
         <v>331</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="G4" s="36" t="s">
         <v>332</v>
-      </c>
-      <c r="F4" s="30" t="s">
-        <v>333</v>
-      </c>
-      <c r="G4" s="36" t="s">
-        <v>334</v>
       </c>
       <c r="H4" s="47" t="s">
         <v>267</v>
       </c>
       <c r="I4" s="24" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="J4" s="32" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="K4" s="32" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="L4" s="28" t="s">
+        <v>339</v>
+      </c>
+      <c r="M4" s="32" t="s">
+        <v>340</v>
+      </c>
+      <c r="N4" s="32" t="s">
         <v>341</v>
-      </c>
-      <c r="M4" s="32" t="s">
-        <v>342</v>
-      </c>
-      <c r="N4" s="32" t="s">
-        <v>343</v>
       </c>
       <c r="O4" s="24" t="s">
         <v>144</v>
@@ -5249,13 +5695,13 @@
         <v>265</v>
       </c>
       <c r="Q4" s="28" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="R4" s="48" t="s">
         <v>47</v>
       </c>
       <c r="S4" s="28" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="T4" s="28" t="s">
         <v>129</v>
@@ -5288,19 +5734,19 @@
         <v>227</v>
       </c>
       <c r="AD4" s="24" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="AE4" s="24" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="AF4" s="24" t="s">
         <v>311</v>
       </c>
       <c r="AG4" s="32" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="AH4" s="32" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="AI4" s="24">
         <v>2</v>
@@ -5387,7 +5833,7 @@
         <v>237</v>
       </c>
       <c r="BK4" s="49" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="BL4" t="s">
         <v>238</v>
@@ -5483,7 +5929,7 @@
         <v>255</v>
       </c>
       <c r="CQ4" s="39" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="5" spans="1:95" x14ac:dyDescent="0.25">
@@ -5491,43 +5937,43 @@
         <v>279</v>
       </c>
       <c r="B5" s="37" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C5" s="28" t="s">
         <v>144</v>
       </c>
       <c r="D5" s="28" t="s">
+        <v>329</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>330</v>
+      </c>
+      <c r="F5" s="30" t="s">
         <v>331</v>
       </c>
-      <c r="E5" s="28" t="s">
+      <c r="G5" s="36" t="s">
         <v>332</v>
-      </c>
-      <c r="F5" s="30" t="s">
-        <v>333</v>
-      </c>
-      <c r="G5" s="36" t="s">
-        <v>334</v>
       </c>
       <c r="H5" s="47" t="s">
         <v>267</v>
       </c>
       <c r="I5" s="24" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="J5" s="32" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="K5" s="32" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="L5" s="28" t="s">
+        <v>339</v>
+      </c>
+      <c r="M5" s="32" t="s">
+        <v>340</v>
+      </c>
+      <c r="N5" s="32" t="s">
         <v>341</v>
-      </c>
-      <c r="M5" s="32" t="s">
-        <v>342</v>
-      </c>
-      <c r="N5" s="32" t="s">
-        <v>343</v>
       </c>
       <c r="O5" s="24" t="s">
         <v>144</v>
@@ -5536,13 +5982,13 @@
         <v>265</v>
       </c>
       <c r="Q5" s="28" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="R5" s="48" t="s">
         <v>47</v>
       </c>
       <c r="S5" s="28" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="T5" s="28" t="s">
         <v>129</v>
@@ -5575,19 +6021,19 @@
         <v>227</v>
       </c>
       <c r="AD5" s="24" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="AE5" s="24" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="AF5" s="24" t="s">
         <v>311</v>
       </c>
       <c r="AG5" s="32" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="AH5" s="32" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="AI5" s="24">
         <v>2</v>
@@ -5674,7 +6120,7 @@
         <v>237</v>
       </c>
       <c r="BK5" s="49" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="BL5" t="s">
         <v>238</v>
@@ -5770,7 +6216,7 @@
         <v>255</v>
       </c>
       <c r="CQ5" s="39" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -5913,7 +6359,7 @@
   <dimension ref="A1:CQ2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R16" sqref="R16"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5929,40 +6375,40 @@
         <v>170</v>
       </c>
       <c r="C1" s="44" t="s">
+        <v>323</v>
+      </c>
+      <c r="D1" s="45" t="s">
+        <v>324</v>
+      </c>
+      <c r="E1" s="45" t="s">
         <v>325</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="F1" s="45" t="s">
         <v>326</v>
-      </c>
-      <c r="E1" s="45" t="s">
-        <v>327</v>
-      </c>
-      <c r="F1" s="45" t="s">
-        <v>328</v>
       </c>
       <c r="G1" s="45" t="s">
         <v>18</v>
       </c>
       <c r="H1" s="45" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="I1" s="46" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="J1" s="46" t="s">
+        <v>334</v>
+      </c>
+      <c r="K1" s="46" t="s">
+        <v>335</v>
+      </c>
+      <c r="L1" s="46" t="s">
         <v>336</v>
       </c>
-      <c r="K1" s="46" t="s">
+      <c r="M1" s="46" t="s">
         <v>337</v>
       </c>
-      <c r="L1" s="46" t="s">
+      <c r="N1" s="46" t="s">
         <v>338</v>
-      </c>
-      <c r="M1" s="46" t="s">
-        <v>339</v>
-      </c>
-      <c r="N1" s="46" t="s">
-        <v>340</v>
       </c>
       <c r="O1" s="23" t="s">
         <v>15</v>
@@ -5971,13 +6417,13 @@
         <v>37</v>
       </c>
       <c r="Q1" s="23" t="s">
+        <v>318</v>
+      </c>
+      <c r="R1" s="23" t="s">
+        <v>319</v>
+      </c>
+      <c r="S1" s="23" t="s">
         <v>320</v>
-      </c>
-      <c r="R1" s="23" t="s">
-        <v>321</v>
-      </c>
-      <c r="S1" s="23" t="s">
-        <v>322</v>
       </c>
       <c r="T1" s="23" t="s">
         <v>171</v>
@@ -6109,7 +6555,7 @@
         <v>196</v>
       </c>
       <c r="BK1" s="23" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="BL1" s="23" t="s">
         <v>197</v>
@@ -6213,58 +6659,58 @@
         <v>148</v>
       </c>
       <c r="B2" s="37" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C2" s="28" t="s">
         <v>144</v>
       </c>
       <c r="D2" s="28" t="s">
+        <v>329</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>330</v>
+      </c>
+      <c r="F2" s="30" t="s">
         <v>331</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="G2" s="36" t="s">
         <v>332</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>333</v>
-      </c>
-      <c r="G2" s="36" t="s">
-        <v>334</v>
       </c>
       <c r="H2" s="47" t="s">
         <v>158</v>
       </c>
       <c r="I2" s="24" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="J2" s="32" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="K2" s="32" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="L2" s="28" t="s">
+        <v>339</v>
+      </c>
+      <c r="M2" s="32" t="s">
+        <v>340</v>
+      </c>
+      <c r="N2" s="32" t="s">
         <v>341</v>
-      </c>
-      <c r="M2" s="32" t="s">
-        <v>342</v>
-      </c>
-      <c r="N2" s="32" t="s">
-        <v>343</v>
       </c>
       <c r="O2" s="24" t="s">
         <v>144</v>
       </c>
       <c r="P2" s="28" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="Q2" s="28" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="R2" s="48" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="S2" s="28" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="T2" s="28" t="s">
         <v>137</v>
@@ -6288,7 +6734,7 @@
         <v>160</v>
       </c>
       <c r="AA2" s="30" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="AB2" s="24" t="s">
         <v>40</v>
@@ -6297,19 +6743,19 @@
         <v>310</v>
       </c>
       <c r="AD2" s="24" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="AE2" s="24" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="AF2" s="24" t="s">
         <v>311</v>
       </c>
       <c r="AG2" s="32" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="AH2" s="32" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="AI2" s="24">
         <v>2</v>
@@ -6396,7 +6842,7 @@
         <v>237</v>
       </c>
       <c r="BK2" s="49" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="BL2" t="s">
         <v>238</v>
@@ -6492,7 +6938,7 @@
         <v>255</v>
       </c>
       <c r="CQ2" s="39" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -6619,7 +7065,7 @@
   <dimension ref="A1:CA2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6704,7 +7150,7 @@
     <col min="79" max="79" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:79" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="35" t="s">
         <v>120</v>
       </c>
@@ -6957,7 +7403,7 @@
         <v>265</v>
       </c>
       <c r="E2" s="28" t="s">
-        <v>137</v>
+        <v>292</v>
       </c>
       <c r="F2" s="31" t="s">
         <v>161</v>
@@ -6966,7 +7412,7 @@
         <v>292</v>
       </c>
       <c r="H2" s="30" t="s">
-        <v>293</v>
+        <v>332</v>
       </c>
       <c r="I2" s="38" t="s">
         <v>267</v>
@@ -6978,7 +7424,7 @@
         <v>160</v>
       </c>
       <c r="L2" s="30" t="s">
-        <v>304</v>
+        <v>376</v>
       </c>
       <c r="M2" s="24" t="s">
         <v>40</v>
@@ -6995,11 +7441,11 @@
       <c r="Q2" s="24" t="s">
         <v>311</v>
       </c>
-      <c r="R2" s="40" t="s">
-        <v>318</v>
-      </c>
-      <c r="S2" s="40" t="s">
-        <v>319</v>
+      <c r="R2" s="32" t="s">
+        <v>366</v>
+      </c>
+      <c r="S2" s="32" t="s">
+        <v>366</v>
       </c>
       <c r="T2" s="24">
         <v>2</v>
@@ -7026,7 +7472,7 @@
         <v>3</v>
       </c>
       <c r="AB2" s="24" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AC2" s="24" t="s">
         <v>40</v>
@@ -7041,7 +7487,7 @@
         <v>232</v>
       </c>
       <c r="AG2" s="24" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AH2" s="24" t="s">
         <v>311</v>
@@ -7270,7 +7716,7 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" display="Admin@123" xr:uid="{50145BBF-D5A8-4DFF-84D7-E30901C29BEB}"/>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{50145BBF-D5A8-4DFF-84D7-E30901C29BEB}"/>
     <hyperlink ref="L2" r:id="rId2" display="prince.chaurasia@quadlabs.com" xr:uid="{E3AA940F-A1FA-4142-9064-B41683420EBD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7278,6 +7724,622 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6166EDE4-3EEE-4F40-924E-D615D1A8AC95}">
+  <dimension ref="A1:CD2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:82" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>170</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>318</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>319</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>320</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="I1" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="J1" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="M1" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="N1" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="O1" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="P1" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q1" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="R1" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="S1" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="T1" s="33" t="s">
+        <v>305</v>
+      </c>
+      <c r="U1" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="V1" s="33" t="s">
+        <v>178</v>
+      </c>
+      <c r="W1" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="X1" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y1" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z1" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="AA1" s="33" t="s">
+        <v>257</v>
+      </c>
+      <c r="AB1" s="25" t="s">
+        <v>262</v>
+      </c>
+      <c r="AC1" s="25" t="s">
+        <v>261</v>
+      </c>
+      <c r="AD1" s="25" t="s">
+        <v>260</v>
+      </c>
+      <c r="AE1" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="AF1" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="AG1" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="AH1" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="AI1" s="33" t="s">
+        <v>183</v>
+      </c>
+      <c r="AJ1" s="33" t="s">
+        <v>314</v>
+      </c>
+      <c r="AK1" s="33" t="s">
+        <v>313</v>
+      </c>
+      <c r="AL1" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="AM1" s="33" t="s">
+        <v>185</v>
+      </c>
+      <c r="AN1" s="33" t="s">
+        <v>186</v>
+      </c>
+      <c r="AO1" s="33" t="s">
+        <v>187</v>
+      </c>
+      <c r="AP1" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="AQ1" s="33" t="s">
+        <v>189</v>
+      </c>
+      <c r="AR1" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="AS1" s="33" t="s">
+        <v>191</v>
+      </c>
+      <c r="AT1" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="AU1" s="33" t="s">
+        <v>193</v>
+      </c>
+      <c r="AV1" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="AW1" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="AX1" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="AY1" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="AZ1" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="BA1" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="BB1" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="BC1" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="BD1" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="BE1" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="BF1" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="BG1" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="BH1" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="BI1" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="BJ1" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="BK1" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="BL1" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="BM1" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="BN1" s="23" t="s">
+        <v>211</v>
+      </c>
+      <c r="BO1" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="BP1" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="BQ1" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="BR1" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="BS1" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="BT1" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="BU1" s="23" t="s">
+        <v>218</v>
+      </c>
+      <c r="BV1" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="BW1" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="BX1" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="BY1" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="BZ1" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="CA1" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="CB1" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="CC1" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="CD1" s="23" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:82" x14ac:dyDescent="0.25">
+      <c r="A2" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>317</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>355</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>321</v>
+      </c>
+      <c r="H2" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="I2" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="J2" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="30" t="s">
+        <v>371</v>
+      </c>
+      <c r="L2" s="38" t="s">
+        <v>267</v>
+      </c>
+      <c r="M2" s="38" t="s">
+        <v>268</v>
+      </c>
+      <c r="N2" s="38" t="s">
+        <v>269</v>
+      </c>
+      <c r="O2" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="P2" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q2" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="R2" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="S2" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="T2" s="24" t="s">
+        <v>311</v>
+      </c>
+      <c r="U2" s="32" t="s">
+        <v>372</v>
+      </c>
+      <c r="V2" s="32" t="s">
+        <v>373</v>
+      </c>
+      <c r="W2" s="24">
+        <v>2</v>
+      </c>
+      <c r="X2" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="Y2" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z2" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA2" s="36" t="s">
+        <v>258</v>
+      </c>
+      <c r="AB2" s="24">
+        <v>3</v>
+      </c>
+      <c r="AC2" s="24">
+        <v>3</v>
+      </c>
+      <c r="AD2" s="24">
+        <v>3</v>
+      </c>
+      <c r="AE2" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="AF2" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG2" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="AH2" s="24" t="s">
+        <v>231</v>
+      </c>
+      <c r="AI2" s="24" t="s">
+        <v>232</v>
+      </c>
+      <c r="AJ2" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="AK2" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="AL2" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="AM2" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="AN2" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="AO2" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="AP2" s="24">
+        <v>2</v>
+      </c>
+      <c r="AQ2" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="AR2" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="AS2" s="37" t="s">
+        <v>235</v>
+      </c>
+      <c r="AT2" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="AU2" s="37" t="s">
+        <v>229</v>
+      </c>
+      <c r="AV2" s="37" t="s">
+        <v>236</v>
+      </c>
+      <c r="AW2" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="AX2" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>238</v>
+      </c>
+      <c r="AZ2" s="24" t="s">
+        <v>256</v>
+      </c>
+      <c r="BA2" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="BB2" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="BC2" s="41" t="s">
+        <v>241</v>
+      </c>
+      <c r="BD2" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="BE2" s="41" t="s">
+        <v>242</v>
+      </c>
+      <c r="BF2" s="42" t="s">
+        <v>243</v>
+      </c>
+      <c r="BG2" s="42" t="s">
+        <v>244</v>
+      </c>
+      <c r="BH2" s="24">
+        <v>2</v>
+      </c>
+      <c r="BI2" s="24">
+        <v>1</v>
+      </c>
+      <c r="BJ2" s="24">
+        <v>1</v>
+      </c>
+      <c r="BK2" s="24" t="s">
+        <v>245</v>
+      </c>
+      <c r="BL2" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="BM2" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="BN2" s="26" t="s">
+        <v>246</v>
+      </c>
+      <c r="BO2" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="BP2" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="BQ2" s="24">
+        <v>25</v>
+      </c>
+      <c r="BR2" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="BS2" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="BT2" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="BU2" s="26" t="s">
+        <v>250</v>
+      </c>
+      <c r="BV2" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="BW2" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="BX2" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="BY2" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="BZ2" s="43" t="s">
+        <v>253</v>
+      </c>
+      <c r="CA2" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="CB2" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="CC2" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="CD2" s="39" t="s">
+        <v>129</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="30">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BU2" xr:uid="{69B7B717-C4E9-434F-8DB2-1505D2459385}">
+      <formula1>"SendForApproval,ProceedToCheckout"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2" xr:uid="{4D8EC75D-1327-44D9-BC52-F45F116F604E}">
+      <formula1>"Domestic,International"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BY2" xr:uid="{F155ADB5-D54C-4DB0-A685-F1C61FBC15C7}">
+      <formula1>"Credit Card,Bill To Company"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BA2" xr:uid="{5AA5938E-2D4B-4397-AB77-03A3421EC00C}">
+      <formula1>"OneWay,RoundTrip,MultiCity"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2" xr:uid="{511A39FA-3132-40B8-8C45-C675CAFCA6D5}">
+      <formula1>"sbt,preprod117,Live"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2 AF2" xr:uid="{438928FB-E3F1-4E8B-A862-2B913F8CDBD6}">
+      <formula1>"Individual,Dependent,Personal,Guest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BL2 AW2 AT2:AU2 AG2 AL2 AE2 AJ2 BR2 AO2" xr:uid="{8D0A0989-41B0-4A01-9BF1-7DDA0369C129}">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BX2" xr:uid="{BCB11BAF-FEEB-4ADC-97CB-92BE348568D5}">
+      <formula1>"Quote,BookAndQuote,Fulfilment"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CA2" xr:uid="{276CC1DD-862E-443E-A432-7ADE6C571C47}">
+      <formula1>"5123456789012346,4111111111111111"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BZ2" xr:uid="{5CB8D748-BA73-4E7C-B656-708244726814}">
+      <formula1>"MasterCard,Visa"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AZ2" xr:uid="{BE0AB4D0-4241-4D89-80AF-1C6D11C1E0DF}">
+      <formula1>"Hotel,Hotel+Flight,Hotel+Car,Hotel+Flight+Car,Hotel+Car+Flight"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2" xr:uid="{D2289244-F637-4E39-907E-CE9E513FDCDC}">
+      <formula1>"1,2,3,4,5"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AV2" xr:uid="{351209B1-834A-47B1-A55B-9E90F961C238}">
+      <formula1>"1 Star,2 Star,3 Star,4 Star,5 Star"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AX2" xr:uid="{6A21796D-00B6-4F5C-BD89-BA12A93ED8A1}">
+      <formula1>"Hotel,Apartment"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BK2" xr:uid="{11AA927C-FBA4-41E0-80B6-02B3F3642DF1}">
+      <formula1>"Economy,Premium Economy,Business Class,First Class"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BH2:BJ2" xr:uid="{E99179DC-007B-4BB3-9CCC-A87CEC3BAA61}">
+      <formula1>"0,1,2,3,4,5"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2" xr:uid="{41FCE0E5-2C2D-44C2-A428-BCAB1BDCE6FE}">
+      <formula1>"Administrator,Travel Arranger,Employee"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2" xr:uid="{DD85EB23-458E-4E97-AAEC-4FCC3E41A6D7}">
+      <formula1>"Shubham1,Shubham,rsudesh15,Saurabh,Laxmi,sachinkumar,Piyush,Ankur"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2" xr:uid="{03398632-F45D-4253-A2E7-A3AC03D6C874}">
+      <formula1>"On,Off"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2" xr:uid="{EF83970D-2A81-402E-96D0-FFD5C8A5375F}">
+      <formula1>"Poonam_Corp,Amazon,Demo Corporate,Lux_Test_corp,Null"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2" xr:uid="{747188B6-6049-4F31-9FB3-2C1DF1318558}">
+      <formula1>"Old,New"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2" xr:uid="{C2660FB3-2EBA-4DF9-B448-515F4429EAE7}">
+      <formula1>"prince.chaurasia@quadlabs.com,Gunjan.swain@quadlabs.com,laxmi.khanal@quadlabs.com,shubham.natkar@quadlabs.com,piyush.chauhan@quadlabs.com,ankur.yadav@quadlabs.com,sachin.kumar@quadlabs.com"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2" xr:uid="{670B3B4E-1217-4F83-926C-95AED3861003}">
+      <formula1>"Applied,NotApplied"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2 AK2" xr:uid="{0B58C164-C8DA-4E6D-A98F-C486DA6EFF7A}">
+      <formula1>"5 KM,10 KM,20 KM,30 KM,40 KM,50 KM"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{439532A8-77E8-483A-BD82-AA5CB5A6F565}">
+      <formula1>"sachin.kumar@quadlabs.com,laxmi.khanal@quadlabs.com"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2" xr:uid="{60842835-DC23-4CBB-A036-58B5FE3B5179}">
+      <formula1>"Saurabh,Prince Chaurasia,Gunjan Swain,Shubham,Laxmi Khanal,Sudesh Kumar,Piyush,Ankur,Sachin Kumar"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CD2" xr:uid="{360BC170-8535-4C3A-BD74-DB2ADDA5498D}">
+      <formula1>"Shubham Natkar,Laxmi Khanal,Sudesh Kumar,Sachin Kumar"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2" xr:uid="{20479B8E-6C59-4467-8BCD-23C9AEEC4524}">
+      <formula1>"Laxmi@123,Admin@123,S21FUMK6JAPLBYO,Shubham@123,BAVYBXVY09FKGTY,Piyush@123,Ankur@123,DWUFR8WRAR6SL1M,4CJDOMEL9TNCR1R"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{AFC84DA9-BB0D-4E15-9A63-2A5B290B523C}">
+      <formula1>"//staging117/sbt,//preprod.quadlabs.net/sbt/#,test.quadlabs.net/sbt,tripsource.co.in/sbt/#,//test.quadlabs.net/SSO_Login"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2" xr:uid="{6FF3D743-2350-4CED-A007-E9082FF05C89}">
+      <formula1>"Old Url,SSO Login"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="K2" r:id="rId1" display="Admin@123" xr:uid="{028CFCBF-4507-4613-8EAB-E645296E99ED}"/>
+    <hyperlink ref="O2" r:id="rId2" display="prince.chaurasia@quadlabs.com" xr:uid="{35F9A90E-1527-4878-AB2C-00ED4D837A26}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AE4"/>
   <sheetViews>
@@ -7735,12 +8797,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AE2"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8001,12 +9063,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AE2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8267,7 +9329,470 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AE4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="39" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="15.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="K1" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="L1" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="R1" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="S1" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="T1" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="U1" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="V1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="W1" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="X1" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y1" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z1" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA1" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB1" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC1" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD1" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE1" s="25" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="K2" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="L2" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="N2" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="O2" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="P2" s="24">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="24">
+        <v>0</v>
+      </c>
+      <c r="R2" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="S2" s="24">
+        <v>3</v>
+      </c>
+      <c r="T2" s="24">
+        <v>3</v>
+      </c>
+      <c r="U2" s="24">
+        <v>3</v>
+      </c>
+      <c r="V2" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="W2" s="24">
+        <v>345678</v>
+      </c>
+      <c r="X2" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y2" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z2" s="24">
+        <v>123</v>
+      </c>
+      <c r="AA2" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB2" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC2" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD2" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE2" s="24" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="J3" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="K3" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="N3" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="O3" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="P3" s="24">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="24">
+        <v>0</v>
+      </c>
+      <c r="R3" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="S3" s="24">
+        <v>3</v>
+      </c>
+      <c r="T3" s="24">
+        <v>3</v>
+      </c>
+      <c r="U3" s="24">
+        <v>3</v>
+      </c>
+      <c r="V3" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="W3" s="24">
+        <v>345678</v>
+      </c>
+      <c r="X3" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y3" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z3" s="24">
+        <v>123</v>
+      </c>
+      <c r="AA3" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB3" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC3" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD3" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE3" s="27" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A4" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="J4" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="L4" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="M4" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="N4" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="O4" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="P4" s="24">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="24">
+        <v>0</v>
+      </c>
+      <c r="R4" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="S4" s="24">
+        <v>3</v>
+      </c>
+      <c r="T4" s="24">
+        <v>3</v>
+      </c>
+      <c r="U4" s="24">
+        <v>3</v>
+      </c>
+      <c r="V4" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="W4" s="24">
+        <v>345678</v>
+      </c>
+      <c r="X4" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y4" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z4" s="24">
+        <v>123</v>
+      </c>
+      <c r="AA4" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB4" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC4" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD4" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE4" s="27" t="s">
+        <v>141</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <dataValidations count="9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
+      <formula1>"TravelArranger,Admin"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+      <formula1>"sbt,preprod117"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B4" xr:uid="{00000000-0002-0000-0100-000002000000}">
+      <formula1>"Prince Chaurasia,Gunjan Swain,Shubham Natkar,Laxmi Khanal,Sudesh Kumar"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D4" xr:uid="{00000000-0002-0000-0100-000003000000}">
+      <formula1>"Shubham Natkar,Laxmi Khanal,Sudesh Kumar"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F4" xr:uid="{00000000-0002-0000-0100-000004000000}">
+      <formula1>"//staging117/sbt,//preprod.quadlabs.net/sbt/#"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H4" xr:uid="{00000000-0002-0000-0100-000005000000}">
+      <formula1>"Shubham1,Shubham,rsudesh15"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I4" xr:uid="{00000000-0002-0000-0100-000006000000}">
+      <formula1>"Password@12345,GXPC6NWQVFKVOZG,Laxmi@123"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J4" xr:uid="{00000000-0002-0000-0100-000007000000}">
+      <formula1>"prince.chaurasia@quadlabs.com,Gunjan.swain@quadlabs.com,laxmi.khanal@quadlabs.com"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K4" xr:uid="{1E643F81-0644-442F-A0F2-9FFB187BCCDA}">
+      <formula1>"Individual,Guest,Personal,Dependent"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="I2" r:id="rId1" display="Password@12345" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="J2" r:id="rId2" display="prince.chaurasia@quadlabs.com" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="J3:J4" r:id="rId3" display="prince.chaurasia@quadlabs.com" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="I3:I4" r:id="rId4" display="Password@12345" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AH9"/>
   <sheetViews>
@@ -8772,470 +10297,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AE4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="39" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="15.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="E1" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="25" t="s">
-        <v>134</v>
-      </c>
-      <c r="K1" s="25" t="s">
-        <v>154</v>
-      </c>
-      <c r="L1" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="M1" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="N1" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="O1" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="P1" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q1" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="R1" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="S1" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="T1" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="U1" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="V1" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="W1" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="X1" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="Y1" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z1" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA1" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB1" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC1" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="AD1" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE1" s="25" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
-        <v>147</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="C2" s="27" t="s">
-        <v>122</v>
-      </c>
-      <c r="D2" s="27" t="s">
-        <v>136</v>
-      </c>
-      <c r="E2" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="F2" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="G2" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="I2" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="J2" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="K2" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="L2" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="M2" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="N2" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="O2" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="P2" s="24">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="24">
-        <v>0</v>
-      </c>
-      <c r="R2" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="S2" s="24">
-        <v>3</v>
-      </c>
-      <c r="T2" s="24">
-        <v>3</v>
-      </c>
-      <c r="U2" s="24">
-        <v>3</v>
-      </c>
-      <c r="V2" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="W2" s="24">
-        <v>345678</v>
-      </c>
-      <c r="X2" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y2" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z2" s="24">
-        <v>123</v>
-      </c>
-      <c r="AA2" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB2" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC2" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD2" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="AE2" s="24" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="C3" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="D3" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="E3" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="F3" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="G3" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="I3" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="J3" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="K3" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="L3" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="N3" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="O3" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="P3" s="24">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="24">
-        <v>0</v>
-      </c>
-      <c r="R3" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="S3" s="24">
-        <v>3</v>
-      </c>
-      <c r="T3" s="24">
-        <v>3</v>
-      </c>
-      <c r="U3" s="24">
-        <v>3</v>
-      </c>
-      <c r="V3" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="W3" s="24">
-        <v>345678</v>
-      </c>
-      <c r="X3" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y3" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z3" s="24">
-        <v>123</v>
-      </c>
-      <c r="AA3" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB3" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC3" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD3" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="AE3" s="27" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
-        <v>149</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>141</v>
-      </c>
-      <c r="C4" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="D4" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="E4" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="F4" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="G4" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="I4" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="J4" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="L4" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="M4" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="N4" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="O4" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="P4" s="24">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="24">
-        <v>0</v>
-      </c>
-      <c r="R4" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="S4" s="24">
-        <v>3</v>
-      </c>
-      <c r="T4" s="24">
-        <v>3</v>
-      </c>
-      <c r="U4" s="24">
-        <v>3</v>
-      </c>
-      <c r="V4" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="W4" s="24">
-        <v>345678</v>
-      </c>
-      <c r="X4" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y4" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z4" s="24">
-        <v>123</v>
-      </c>
-      <c r="AA4" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB4" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC4" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD4" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="AE4" s="27" t="s">
-        <v>141</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <dataValidations count="9">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
-      <formula1>"TravelArranger,Admin"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E4" xr:uid="{00000000-0002-0000-0100-000001000000}">
-      <formula1>"sbt,preprod117"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B4" xr:uid="{00000000-0002-0000-0100-000002000000}">
-      <formula1>"Prince Chaurasia,Gunjan Swain,Shubham Natkar,Laxmi Khanal,Sudesh Kumar"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D4" xr:uid="{00000000-0002-0000-0100-000003000000}">
-      <formula1>"Shubham Natkar,Laxmi Khanal,Sudesh Kumar"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F4" xr:uid="{00000000-0002-0000-0100-000004000000}">
-      <formula1>"//staging117/sbt,//preprod.quadlabs.net/sbt/#"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H4" xr:uid="{00000000-0002-0000-0100-000005000000}">
-      <formula1>"Shubham1,Shubham,rsudesh15"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I4" xr:uid="{00000000-0002-0000-0100-000006000000}">
-      <formula1>"Password@12345,GXPC6NWQVFKVOZG,Laxmi@123"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J4" xr:uid="{00000000-0002-0000-0100-000007000000}">
-      <formula1>"prince.chaurasia@quadlabs.com,Gunjan.swain@quadlabs.com,laxmi.khanal@quadlabs.com"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K4" xr:uid="{1E643F81-0644-442F-A0F2-9FFB187BCCDA}">
-      <formula1>"Individual,Guest,Personal,Dependent"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1" display="Password@12345" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="J2" r:id="rId2" display="prince.chaurasia@quadlabs.com" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="J3:J4" r:id="rId3" display="prince.chaurasia@quadlabs.com" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="I3:I4" r:id="rId4" display="Password@12345" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AH4"/>
   <sheetViews>
@@ -9698,7 +10760,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AQ2"/>
   <sheetViews>
@@ -9992,7 +11054,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:AU2"/>
   <sheetViews>
@@ -10306,7 +11368,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:AY2"/>
   <sheetViews>
@@ -10687,7 +11749,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:X2"/>
   <sheetViews>
@@ -10870,7 +11932,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:U2"/>
   <sheetViews>
@@ -11029,12 +12091,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11650,8 +12712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF0773EE-C6E1-494B-999C-B96FD68C8B34}">
   <dimension ref="A1:AH2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O28" sqref="O28"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="AD2" sqref="AD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12589,8 +13651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A7FA0F5-131F-4140-9CB5-6B76C9955B4F}">
   <dimension ref="A1:BX3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD3"/>
+    <sheetView topLeftCell="AY1" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13462,8 +14524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F8DC99A-4434-45B4-82AA-591E99CD7953}">
   <dimension ref="A1:BX3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView topLeftCell="AI1" workbookViewId="0">
+      <selection activeCell="AR11" sqref="AR11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14332,36 +15394,36 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{016D4C23-ADC0-4D50-8E50-D0B3633ACB93}">
-  <dimension ref="A1:BX2"/>
+  <dimension ref="A1:CD2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="30.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="27.42578125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="65.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="65.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="9.7109375" bestFit="1" customWidth="1"/>
@@ -14416,9 +15478,10 @@
     <col min="74" max="74" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="75" max="75" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="76" max="76" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:82" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="35" t="s">
         <v>120</v>
       </c>
@@ -14432,539 +15495,584 @@
         <v>37</v>
       </c>
       <c r="E1" s="23" t="s">
+        <v>318</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>319</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>320</v>
+      </c>
+      <c r="H1" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="I1" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="J1" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="K1" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="L1" s="29" t="s">
         <v>155</v>
       </c>
-      <c r="J1" s="29" t="s">
+      <c r="M1" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="K1" s="29" t="s">
+      <c r="N1" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="O1" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="M1" s="23" t="s">
+      <c r="P1" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="N1" s="23" t="s">
+      <c r="Q1" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="O1" s="33" t="s">
+      <c r="R1" s="33" t="s">
         <v>175</v>
       </c>
-      <c r="P1" s="33" t="s">
+      <c r="S1" s="33" t="s">
         <v>176</v>
       </c>
-      <c r="Q1" s="33" t="s">
+      <c r="T1" s="33" t="s">
+        <v>305</v>
+      </c>
+      <c r="U1" s="33" t="s">
         <v>177</v>
       </c>
-      <c r="R1" s="33" t="s">
+      <c r="V1" s="33" t="s">
         <v>178</v>
       </c>
-      <c r="S1" s="33" t="s">
+      <c r="W1" s="33" t="s">
         <v>168</v>
       </c>
-      <c r="T1" s="33" t="s">
+      <c r="X1" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="U1" s="33" t="s">
+      <c r="Y1" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="V1" s="33" t="s">
+      <c r="Z1" s="33" t="s">
         <v>169</v>
       </c>
-      <c r="W1" s="33" t="s">
+      <c r="AA1" s="33" t="s">
         <v>257</v>
       </c>
-      <c r="X1" s="25" t="s">
+      <c r="AB1" s="25" t="s">
         <v>262</v>
       </c>
-      <c r="Y1" s="25" t="s">
+      <c r="AC1" s="25" t="s">
         <v>261</v>
       </c>
-      <c r="Z1" s="25" t="s">
+      <c r="AD1" s="25" t="s">
         <v>260</v>
       </c>
-      <c r="AA1" s="23" t="s">
+      <c r="AE1" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="AB1" s="23" t="s">
+      <c r="AF1" s="23" t="s">
         <v>180</v>
       </c>
-      <c r="AC1" s="23" t="s">
+      <c r="AG1" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="AD1" s="33" t="s">
+      <c r="AH1" s="33" t="s">
         <v>182</v>
       </c>
-      <c r="AE1" s="33" t="s">
+      <c r="AI1" s="33" t="s">
         <v>183</v>
       </c>
-      <c r="AF1" s="33" t="s">
+      <c r="AJ1" s="33" t="s">
+        <v>314</v>
+      </c>
+      <c r="AK1" s="33" t="s">
+        <v>313</v>
+      </c>
+      <c r="AL1" s="33" t="s">
         <v>184</v>
       </c>
-      <c r="AG1" s="33" t="s">
+      <c r="AM1" s="33" t="s">
         <v>185</v>
       </c>
-      <c r="AH1" s="33" t="s">
+      <c r="AN1" s="33" t="s">
         <v>186</v>
       </c>
-      <c r="AI1" s="33" t="s">
+      <c r="AO1" s="33" t="s">
         <v>187</v>
       </c>
-      <c r="AJ1" s="33" t="s">
+      <c r="AP1" s="33" t="s">
         <v>188</v>
       </c>
-      <c r="AK1" s="33" t="s">
+      <c r="AQ1" s="33" t="s">
         <v>189</v>
       </c>
-      <c r="AL1" s="33" t="s">
+      <c r="AR1" s="33" t="s">
         <v>190</v>
       </c>
-      <c r="AM1" s="33" t="s">
+      <c r="AS1" s="33" t="s">
         <v>191</v>
       </c>
-      <c r="AN1" s="23" t="s">
+      <c r="AT1" s="23" t="s">
         <v>192</v>
       </c>
-      <c r="AO1" s="33" t="s">
+      <c r="AU1" s="33" t="s">
         <v>193</v>
       </c>
-      <c r="AP1" s="33" t="s">
+      <c r="AV1" s="33" t="s">
         <v>194</v>
       </c>
-      <c r="AQ1" s="23" t="s">
+      <c r="AW1" s="23" t="s">
         <v>195</v>
       </c>
-      <c r="AR1" s="23" t="s">
+      <c r="AX1" s="23" t="s">
         <v>196</v>
       </c>
-      <c r="AS1" s="23" t="s">
+      <c r="AY1" s="23" t="s">
         <v>197</v>
       </c>
-      <c r="AT1" s="23" t="s">
+      <c r="AZ1" s="23" t="s">
         <v>198</v>
       </c>
-      <c r="AU1" s="23" t="s">
+      <c r="BA1" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="AV1" s="23" t="s">
+      <c r="BB1" s="23" t="s">
         <v>200</v>
       </c>
-      <c r="AW1" s="23" t="s">
+      <c r="BC1" s="23" t="s">
         <v>201</v>
       </c>
-      <c r="AX1" s="23" t="s">
+      <c r="BD1" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="AY1" s="23" t="s">
+      <c r="BE1" s="23" t="s">
         <v>203</v>
       </c>
-      <c r="AZ1" s="23" t="s">
+      <c r="BF1" s="23" t="s">
         <v>204</v>
       </c>
-      <c r="BA1" s="23" t="s">
+      <c r="BG1" s="23" t="s">
         <v>205</v>
       </c>
-      <c r="BB1" s="23" t="s">
+      <c r="BH1" s="23" t="s">
         <v>206</v>
       </c>
-      <c r="BC1" s="23" t="s">
+      <c r="BI1" s="23" t="s">
         <v>207</v>
       </c>
-      <c r="BD1" s="23" t="s">
+      <c r="BJ1" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="BE1" s="23" t="s">
+      <c r="BK1" s="23" t="s">
         <v>208</v>
       </c>
-      <c r="BF1" s="23" t="s">
+      <c r="BL1" s="23" t="s">
         <v>209</v>
       </c>
-      <c r="BG1" s="23" t="s">
+      <c r="BM1" s="23" t="s">
         <v>210</v>
       </c>
-      <c r="BH1" s="23" t="s">
+      <c r="BN1" s="23" t="s">
         <v>211</v>
       </c>
-      <c r="BI1" s="23" t="s">
+      <c r="BO1" s="23" t="s">
         <v>212</v>
       </c>
-      <c r="BJ1" s="23" t="s">
+      <c r="BP1" s="23" t="s">
         <v>213</v>
       </c>
-      <c r="BK1" s="23" t="s">
+      <c r="BQ1" s="23" t="s">
         <v>214</v>
       </c>
-      <c r="BL1" s="23" t="s">
+      <c r="BR1" s="23" t="s">
         <v>215</v>
       </c>
-      <c r="BM1" s="23" t="s">
+      <c r="BS1" s="23" t="s">
         <v>216</v>
       </c>
-      <c r="BN1" s="23" t="s">
+      <c r="BT1" s="23" t="s">
         <v>217</v>
       </c>
-      <c r="BO1" s="23" t="s">
+      <c r="BU1" s="23" t="s">
         <v>218</v>
       </c>
-      <c r="BP1" s="23" t="s">
+      <c r="BV1" s="23" t="s">
         <v>219</v>
       </c>
-      <c r="BQ1" s="23" t="s">
+      <c r="BW1" s="23" t="s">
         <v>220</v>
       </c>
-      <c r="BR1" s="23" t="s">
+      <c r="BX1" s="23" t="s">
         <v>221</v>
       </c>
-      <c r="BS1" s="23" t="s">
+      <c r="BY1" s="23" t="s">
         <v>222</v>
       </c>
-      <c r="BT1" s="23" t="s">
+      <c r="BZ1" s="23" t="s">
         <v>223</v>
       </c>
-      <c r="BU1" s="23" t="s">
+      <c r="CA1" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="BV1" s="23" t="s">
+      <c r="CB1" s="23" t="s">
         <v>225</v>
       </c>
-      <c r="BW1" s="23" t="s">
+      <c r="CC1" s="23" t="s">
         <v>226</v>
       </c>
-      <c r="BX1" s="23" t="s">
+      <c r="CD1" s="23" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="2" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
         <v>147</v>
       </c>
       <c r="B2" s="37" t="s">
-        <v>271</v>
+        <v>317</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>278</v>
+        <v>1</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>265</v>
+        <v>164</v>
       </c>
       <c r="E2" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="F2" s="31" t="s">
+        <v>355</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>321</v>
+      </c>
+      <c r="H2" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="I2" s="31" t="s">
         <v>161</v>
       </c>
-      <c r="G2" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="H2" s="30" t="s">
-        <v>277</v>
-      </c>
-      <c r="I2" s="38" t="s">
+      <c r="J2" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="30" t="s">
+        <v>371</v>
+      </c>
+      <c r="L2" s="38" t="s">
         <v>267</v>
       </c>
-      <c r="J2" s="38" t="s">
-        <v>159</v>
-      </c>
-      <c r="K2" s="38" t="s">
-        <v>160</v>
-      </c>
-      <c r="L2" s="38" t="s">
-        <v>130</v>
-      </c>
-      <c r="M2" s="24" t="s">
+      <c r="M2" s="38" t="s">
+        <v>268</v>
+      </c>
+      <c r="N2" s="38" t="s">
+        <v>269</v>
+      </c>
+      <c r="O2" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="P2" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="24" t="s">
+      <c r="Q2" s="24" t="s">
         <v>227</v>
       </c>
-      <c r="O2" s="24" t="s">
+      <c r="R2" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="P2" s="24" t="s">
+      <c r="S2" s="24" t="s">
         <v>165</v>
       </c>
-      <c r="Q2" s="40" t="s">
-        <v>273</v>
-      </c>
-      <c r="R2" s="40" t="s">
-        <v>274</v>
-      </c>
-      <c r="S2" s="24">
+      <c r="T2" s="24" t="s">
+        <v>311</v>
+      </c>
+      <c r="U2" s="32" t="s">
+        <v>374</v>
+      </c>
+      <c r="V2" s="32" t="s">
+        <v>375</v>
+      </c>
+      <c r="W2" s="24">
         <v>2</v>
       </c>
-      <c r="T2" s="24" t="s">
+      <c r="X2" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="U2" s="37" t="s">
+      <c r="Y2" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="V2" s="37" t="s">
+      <c r="Z2" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="W2" s="36" t="s">
-        <v>270</v>
-      </c>
-      <c r="X2" s="24">
+      <c r="AA2" s="36" t="s">
+        <v>258</v>
+      </c>
+      <c r="AB2" s="24">
         <v>3</v>
       </c>
-      <c r="Y2" s="24">
+      <c r="AC2" s="24">
         <v>3</v>
       </c>
-      <c r="Z2" s="24">
+      <c r="AD2" s="24">
         <v>3</v>
       </c>
-      <c r="AA2" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="AB2" s="24" t="s">
+      <c r="AE2" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="AF2" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="AC2" s="24" t="s">
-        <v>230</v>
-      </c>
-      <c r="AD2" s="24" t="s">
+      <c r="AG2" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="AH2" s="24" t="s">
         <v>231</v>
       </c>
-      <c r="AE2" s="24" t="s">
+      <c r="AI2" s="24" t="s">
         <v>232</v>
       </c>
-      <c r="AF2" s="24" t="s">
-        <v>230</v>
-      </c>
-      <c r="AG2" s="26" t="s">
+      <c r="AJ2" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="AK2" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="AL2" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="AM2" s="26" t="s">
         <v>233</v>
       </c>
-      <c r="AH2" s="26" t="s">
+      <c r="AN2" s="26" t="s">
         <v>234</v>
       </c>
-      <c r="AI2" s="24" t="s">
-        <v>230</v>
-      </c>
-      <c r="AJ2" s="24">
+      <c r="AO2" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="AP2" s="24">
         <v>2</v>
       </c>
-      <c r="AK2" s="24" t="s">
+      <c r="AQ2" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="AL2" s="37" t="s">
+      <c r="AR2" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="AM2" s="37" t="s">
+      <c r="AS2" s="37" t="s">
         <v>235</v>
       </c>
-      <c r="AN2" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="AO2" s="37" t="s">
-        <v>229</v>
-      </c>
-      <c r="AP2" s="37" t="s">
+      <c r="AT2" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="AU2" s="37" t="s">
+        <v>229</v>
+      </c>
+      <c r="AV2" s="37" t="s">
         <v>236</v>
       </c>
-      <c r="AQ2" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="AR2" s="24" t="s">
+      <c r="AW2" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="AX2" s="24" t="s">
         <v>237</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="AY2" t="s">
         <v>238</v>
       </c>
-      <c r="AT2" s="24" t="s">
+      <c r="AZ2" s="24" t="s">
         <v>256</v>
       </c>
-      <c r="AU2" s="24" t="s">
+      <c r="BA2" s="24" t="s">
         <v>239</v>
       </c>
-      <c r="AV2" s="2" t="s">
+      <c r="BB2" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="AW2" s="41" t="s">
+      <c r="BC2" s="41" t="s">
         <v>241</v>
       </c>
-      <c r="AX2" s="2" t="s">
+      <c r="BD2" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="AY2" s="41" t="s">
+      <c r="BE2" s="41" t="s">
         <v>242</v>
       </c>
-      <c r="AZ2" s="42" t="s">
+      <c r="BF2" s="42" t="s">
         <v>243</v>
       </c>
-      <c r="BA2" s="42" t="s">
+      <c r="BG2" s="42" t="s">
         <v>244</v>
       </c>
-      <c r="BB2" s="24">
+      <c r="BH2" s="24">
         <v>2</v>
       </c>
-      <c r="BC2" s="24">
+      <c r="BI2" s="24">
         <v>1</v>
       </c>
-      <c r="BD2" s="24">
+      <c r="BJ2" s="24">
         <v>1</v>
       </c>
-      <c r="BE2" s="24" t="s">
+      <c r="BK2" s="24" t="s">
         <v>245</v>
       </c>
-      <c r="BF2" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="BG2" s="24" t="s">
+      <c r="BL2" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="BM2" s="24" t="s">
         <v>228</v>
       </c>
-      <c r="BH2" s="26" t="s">
+      <c r="BN2" s="26" t="s">
         <v>246</v>
       </c>
-      <c r="BI2" s="24" t="s">
+      <c r="BO2" s="24" t="s">
         <v>247</v>
       </c>
-      <c r="BJ2" s="24" t="s">
+      <c r="BP2" s="24" t="s">
         <v>248</v>
       </c>
-      <c r="BK2" s="24">
+      <c r="BQ2" s="24">
         <v>25</v>
       </c>
-      <c r="BL2" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="BM2" s="24" t="s">
+      <c r="BR2" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="BS2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="BN2" s="24" t="s">
+      <c r="BT2" s="24" t="s">
         <v>249</v>
       </c>
-      <c r="BO2" s="26" t="s">
+      <c r="BU2" s="26" t="s">
         <v>250</v>
       </c>
-      <c r="BP2" s="24" t="s">
+      <c r="BV2" s="24" t="s">
         <v>251</v>
       </c>
-      <c r="BQ2" s="24" t="s">
+      <c r="BW2" s="24" t="s">
         <v>251</v>
       </c>
-      <c r="BR2" s="24" t="s">
+      <c r="BX2" s="24" t="s">
         <v>252</v>
       </c>
-      <c r="BS2" s="24" t="s">
+      <c r="BY2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="BT2" s="43" t="s">
+      <c r="BZ2" s="43" t="s">
         <v>253</v>
       </c>
-      <c r="BU2" s="26" t="s">
+      <c r="CA2" s="26" t="s">
         <v>254</v>
       </c>
-      <c r="BV2" s="43" t="s">
+      <c r="CB2" s="43" t="s">
         <v>136</v>
       </c>
-      <c r="BW2" s="26" t="s">
+      <c r="CC2" s="26" t="s">
         <v>255</v>
       </c>
-      <c r="BX2" s="39" t="s">
+      <c r="CD2" s="39" t="s">
         <v>129</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="27">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2" xr:uid="{AAE41356-9570-4F28-8C3B-6893DF84D06C}">
-      <formula1>"Laxmi@123,Admin@123,S21FUMK6JAPLBYO,Shubham@123,BAVYBXVY09FKGTY,Piyush@123,Ankur@123,DWUFR8WRAR6SL1M,6Q1JQNKY"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2" xr:uid="{ACED624A-4DAE-473A-97D7-F0E936250139}">
+  <dataValidations count="30">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2" xr:uid="{6BA18DD9-F2C8-400B-B8A7-1E98BB2C1342}">
       <formula1>"Applied,NotApplied"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BX2" xr:uid="{3315F233-FDEE-4C07-A80A-EA55A7902672}">
-      <formula1>"Shubham Natkar,Laxmi Khanal,Sudesh Kumar"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2" xr:uid="{01EB1C99-7C15-4127-A6E1-E4E9D323F97F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2" xr:uid="{1DFCE894-B68C-4270-A2AA-6D935AD87BC6}">
       <formula1>"prince.chaurasia@quadlabs.com,Gunjan.swain@quadlabs.com,laxmi.khanal@quadlabs.com,shubham.natkar@quadlabs.com,piyush.chauhan@quadlabs.com,ankur.yadav@quadlabs.com,sachin.kumar@quadlabs.com"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2" xr:uid="{A2F85A9E-84C7-4CE0-94FD-6FECB198BD80}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2" xr:uid="{CE40F9CB-3DF4-45FE-8093-EC62387A898F}">
       <formula1>"Old,New"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2" xr:uid="{24A117C4-6B7D-4A31-A2CA-A7822D691E97}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2" xr:uid="{3CF6B377-87F6-49C8-97F7-02D1FC42878D}">
       <formula1>"Poonam_Corp,Amazon,Demo Corporate,Lux_Test_corp,Null"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2" xr:uid="{B68FABA1-B97A-454E-B1DC-BCA71147B5F1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2" xr:uid="{43E48DDD-8738-4E34-92E7-DD85880778DE}">
       <formula1>"On,Off"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{E444A42A-9D5A-49F2-8E6F-9992CDA989C0}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2" xr:uid="{BA152BD7-9F5E-414F-9357-E25C56BC1967}">
       <formula1>"Shubham1,Shubham,rsudesh15,Saurabh,Laxmi,sachinkumar,Piyush,Ankur"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{411EA077-7A9B-4133-AF63-939FBA0F325A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2" xr:uid="{8B756D32-3BC3-4EF2-9709-22F28D0110DF}">
       <formula1>"Administrator,Travel Arranger,Employee"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BB2:BD2" xr:uid="{5337A673-4F0D-4D8F-B02C-E006E5E9EF50}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BH2:BJ2" xr:uid="{62597357-461E-4D99-A67B-5F091B09FDEE}">
       <formula1>"0,1,2,3,4,5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BE2" xr:uid="{3C2B1793-2E7E-4DDD-8B27-052E4941B845}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BK2" xr:uid="{4EC735AF-C70C-470A-891E-4265A0B486C2}">
       <formula1>"Economy,Premium Economy,Business Class,First Class"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR2" xr:uid="{5D256438-F98C-4B09-AD10-D86476BE051C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AX2" xr:uid="{49D536ED-E9ED-4277-B9FA-D135BCC35851}">
       <formula1>"Hotel,Apartment"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP2" xr:uid="{B2DC25CC-BA43-413D-AC5E-2915C0BCFDEA}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AV2" xr:uid="{F41F5834-3BA0-4443-AEAA-88F5A7F6B956}">
       <formula1>"1 Star,2 Star,3 Star,4 Star,5 Star"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2" xr:uid="{D2508ED6-174A-4F5C-924B-817E43AF2153}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2" xr:uid="{C6BD8B76-F8DC-401E-8B83-FDFCC4620AF2}">
       <formula1>"1,2,3,4,5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AT2" xr:uid="{FF625C44-F28D-4F1F-98EC-67E5223638BA}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AZ2" xr:uid="{EA37C779-1A7C-4344-BA0F-9FB00B46F266}">
       <formula1>"Hotel,Hotel+Flight,Hotel+Car,Hotel+Flight+Car,Hotel+Car+Flight"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BT2" xr:uid="{D860F1A6-7D7D-4DCC-8C18-83C56BEEBB53}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BZ2" xr:uid="{7D128608-1697-41BB-BE4C-C384700CE020}">
       <formula1>"MasterCard,Visa"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BU2" xr:uid="{F32696D4-09BF-4A7E-A2EB-B8E2B1B614B0}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CA2" xr:uid="{EE9B810C-AD05-47FD-9754-EC6B30B696E2}">
       <formula1>"5123456789012346,4111111111111111"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BR2" xr:uid="{3A3701C4-A6EE-44A8-9A53-730ACE3090D9}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BX2" xr:uid="{44189B1A-330B-4DA1-916B-64921C9B2103}">
       <formula1>"Quote,BookAndQuote,Fulfilment"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BF2 AQ2 AN2:AO2 AF2 AI2 AC2 AA2 BL2" xr:uid="{A04A5976-74EF-46E0-871B-37A627D8AE53}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BL2 AW2 AT2:AU2 AG2 AL2 AE2 AJ2 BR2 AO2" xr:uid="{2BD866A9-1971-4211-BA07-43EDE6595257}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2 AB2" xr:uid="{DFB86F20-EA32-4B84-B052-055A74EC2F1A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2 AF2" xr:uid="{9E048F44-A455-48A6-AC72-F66AB461AED3}">
       <formula1>"Individual,Dependent,Personal,Guest"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2" xr:uid="{9906B599-D9C3-4566-884F-7880C6830496}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2" xr:uid="{215180AD-CA20-409D-B282-623ED19550D1}">
       <formula1>"sbt,preprod117,Live"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AU2" xr:uid="{27C14FD9-9A8C-4CAE-B4B3-C6BCA64F69DC}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BA2" xr:uid="{AEF3F0B9-1FA1-4371-9CDB-A3C28390918C}">
       <formula1>"OneWay,RoundTrip,MultiCity"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BS2" xr:uid="{09C9F7D8-A1A9-4BB7-B968-D4F29F4AAF8B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BY2" xr:uid="{3FA0E447-332A-484D-B62D-4347913A887F}">
       <formula1>"Credit Card,Bill To Company"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2" xr:uid="{6A61D978-00A0-40BD-8BAF-9725FC7B8EF2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2" xr:uid="{0ECF38CA-0F29-4D6E-B88C-CB818C7AB02E}">
       <formula1>"Domestic,International"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BO2" xr:uid="{0A0974CE-19DC-43EC-A408-25A397510F05}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BU2" xr:uid="{CC58330E-E1EE-407B-8F3A-5ED90855C1B4}">
       <formula1>"SendForApproval,ProceedToCheckout"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{27A1F9C1-F80C-4AE0-81ED-E1E5275C9D52}">
-      <formula1>"//staging117/sbt,//preprod.quadlabs.net/sbt/#,test.quadlabs.net/sbt,tripsource.co.in/sbt/#"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2" xr:uid="{34262E53-EEDD-4D14-9A5B-23339067A91A}">
-      <formula1>"Saurabh,Prince Chaurasia,Gunjan Swain,Shubham,Laxmi Khanal,Sudesh Kumar,Piyush,Ankur"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{83BA4138-38E1-4590-A880-8B4E021B943D}">
+      <formula1>"sachin.kumar@quadlabs.com,laxmi.khanal@quadlabs.com"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2" xr:uid="{72A6527B-3AB3-42A6-B8B5-32DBA6B8600F}">
+      <formula1>"Old Url,SSO Login"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2" xr:uid="{25D20D8A-26B4-4BE8-A821-8BA4577D7420}">
+      <formula1>"Saurabh,Prince Chaurasia,Gunjan Swain,Shubham,Laxmi Khanal,Sudesh Kumar,Piyush,Ankur,Sachin Kumar"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{1334CCFF-45DD-4E70-B0B3-DD13C07AF3ED}">
+      <formula1>"//staging117/sbt,//preprod.quadlabs.net/sbt/#,test.quadlabs.net/sbt,tripsource.co.in/sbt/#,//test.quadlabs.net/SSO_Login"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CD2" xr:uid="{A1EE7F15-C376-421C-B65C-2168194E2E22}">
+      <formula1>"Shubham Natkar,Laxmi Khanal,Sudesh Kumar,Sachin Kumar"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2 AK2" xr:uid="{2B88B07A-44FF-4784-85E3-4B7B0BABCA7B}">
+      <formula1>"5 KM,10 KM,20 KM,30 KM,40 KM,50 KM"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2" xr:uid="{D0E3AB13-2FDA-4B40-BA72-12591D196C5D}">
+      <formula1>"Laxmi@123,Admin@123,S21FUMK6JAPLBYO,Shubham@123,BAVYBXVY09FKGTY,Piyush@123,Ankur@123,DWUFR8WRAR6SL1M,4CJDOMEL9TNCR1R"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="L2" r:id="rId1" display="prince.chaurasia@quadlabs.com" xr:uid="{90244B0E-4759-4BD6-9085-7E16570F0931}"/>
-    <hyperlink ref="H2" r:id="rId2" display="Admin@123" xr:uid="{066CC64B-BB5D-4FEF-8B7A-D7AF7BD7A73B}"/>
+    <hyperlink ref="K2" r:id="rId1" display="Admin@123" xr:uid="{86DEBAD9-D732-4E40-BB50-C57C4F14E523}"/>
+    <hyperlink ref="O2" r:id="rId2" display="prince.chaurasia@quadlabs.com" xr:uid="{BB790A34-7200-4D17-8A4C-16B1AECA5AD4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14975,7 +16083,7 @@
   <dimension ref="A1:CA8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
